--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9292083-EF5C-41E3-9B22-EE39CDA36B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8687D1-2CC0-4EC3-86EB-AD004331F366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="12120" yWindow="975" windowWidth="23625" windowHeight="20445" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,22 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200001, 200001, 200001, 200001, 200002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200003, 200003, 200003, 200003, 200004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200005, 200005, 200005, 200005, 200006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200007, 200007, 200007, 200007, 200008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배치 위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,10 +532,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200001, 200001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100003</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200001,200001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200006,200006]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -687,13 +684,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,6 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,7 +1459,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1725,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1892,7 +1903,7 @@
         <v>일반 몬스터</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I6" s="11">
         <v>100002</v>
@@ -1923,7 +1934,7 @@
         <v>일반 몬스터</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I7" s="11">
         <v>100003</v>
@@ -1954,10 +1965,72 @@
         <v>엘리트 몬스터</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I8" s="11">
         <v>100004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9">
+        <v>100005</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D9,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F9,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>엘리트 몬스터</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9">
+        <v>100006</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D10,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F10,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>엘리트 몬스터</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100006</v>
       </c>
     </row>
   </sheetData>
@@ -1970,13 +2043,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D8</xm:sqref>
+          <xm:sqref>D5:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F36EA95-ADED-4012-A928-643065C4651C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$J$3:$J$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F8</xm:sqref>
+          <xm:sqref>F5:F10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1986,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2019,10 +2092,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -2057,10 +2130,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -2095,10 +2168,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>34</v>
@@ -2130,7 +2203,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -2140,7 +2213,7 @@
         <v>전열 배치</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -2167,7 +2240,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -2177,7 +2250,7 @@
         <v>전열 배치</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2204,17 +2277,17 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C7,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
+        <v>중열 배치</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -2241,7 +2314,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -2251,7 +2324,7 @@
         <v>중열 배치</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2272,13 +2345,87 @@
         <v>42</v>
       </c>
       <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C9,'!참조_ENUM'!$F$3:$F$6,0))</f>
+        <v>후열 배치</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>150</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4">
+        <v>100006</v>
+      </c>
+      <c r="B10" s="12">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C10,'!참조_ENUM'!$F$3:$F$6,0))</f>
+        <v>후열 배치</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>150</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52901A89-A589-434E-BF7C-844F47FE4470}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8687D1-2CC0-4EC3-86EB-AD004331F366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53BAFD5-E912-4CCE-80A0-D92F6C2C103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="975" windowWidth="23625" windowHeight="20445" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,14 @@
   </si>
   <si>
     <t>[200006,200006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -684,24 +692,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,9 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,70 +2053,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2130,19 +2128,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -2154,51 +2152,57 @@
         <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2206,36 +2210,39 @@
         <v>15</v>
       </c>
       <c r="C5" s="4">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C5,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E5" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D5,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>150</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>10</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2243,36 +2250,39 @@
         <v>20</v>
       </c>
       <c r="C6" s="4">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C6,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D6,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>150</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>10</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2280,36 +2290,39 @@
         <v>30</v>
       </c>
       <c r="C7" s="4">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C7,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E7" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D7,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>150</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>10</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>10</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2317,108 +2330,117 @@
         <v>40</v>
       </c>
       <c r="C8" s="4">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C8,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E8" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D8,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>150</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>10</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="4">
         <v>45</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="4">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C9,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D9,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>150</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>10</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>10</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="4">
         <v>45</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="4">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C10,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="E10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D10,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>150</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>10</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>10</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2430,7 +2452,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53BAFD5-E912-4CCE-80A0-D92F6C2C103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7ABCA0-FE3F-4BFA-BAF4-A9BDAEF7AC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1170" yWindow="1455" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,14 +333,6 @@
   </si>
   <si>
     <t>전투 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1732,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1751,33 +1743,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
@@ -1800,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -1814,7 +1806,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -1823,22 +1815,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1846,10 +1838,10 @@
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
@@ -1866,7 +1858,7 @@
         <v>일반 몬스터</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I5" s="11">
         <v>100001</v>
@@ -1877,10 +1869,10 @@
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="11">
         <v>3</v>
@@ -1897,7 +1889,7 @@
         <v>일반 몬스터</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6" s="11">
         <v>100002</v>
@@ -1908,10 +1900,10 @@
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="11">
         <v>3</v>
@@ -1928,7 +1920,7 @@
         <v>일반 몬스터</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="11">
         <v>100003</v>
@@ -1939,10 +1931,10 @@
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="11">
         <v>3</v>
@@ -1959,7 +1951,7 @@
         <v>엘리트 몬스터</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="11">
         <v>100004</v>
@@ -1970,10 +1962,10 @@
         <v>100005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="11">
         <v>3</v>
@@ -1990,7 +1982,7 @@
         <v>엘리트 몬스터</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" s="11">
         <v>100005</v>
@@ -2001,10 +1993,10 @@
         <v>100006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="11">
         <v>3</v>
@@ -2021,7 +2013,7 @@
         <v>엘리트 몬스터</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I10" s="11">
         <v>100006</v>
@@ -2053,74 +2045,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2128,19 +2117,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -2152,57 +2141,51 @@
         <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2210,39 +2193,36 @@
         <v>15</v>
       </c>
       <c r="C5" s="4">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D5,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="D5" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C5,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>79</v>
+      <c r="E5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H5" s="4">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
         <v>10</v>
       </c>
-      <c r="J5" s="4">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4">
-        <v>10</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2250,39 +2230,36 @@
         <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D6,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="D6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C6,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>77</v>
+      <c r="E6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H6" s="4">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
         <v>10</v>
       </c>
-      <c r="J6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4">
-        <v>10</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2290,39 +2267,36 @@
         <v>30</v>
       </c>
       <c r="C7" s="4">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D7,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="D7" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C7,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>77</v>
+      <c r="E7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H7" s="4">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>10</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="K7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2330,39 +2304,36 @@
         <v>40</v>
       </c>
       <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C8,'!참조_ENUM'!$F$3:$F$6,0))</f>
+        <v>중열 배치</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>150</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D8,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>중열 배치</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>150</v>
-      </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2370,39 +2341,36 @@
         <v>45</v>
       </c>
       <c r="C9" s="4">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D9,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="D9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C9,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>77</v>
+      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H9" s="4">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
         <v>10</v>
       </c>
-      <c r="J9" s="4">
-        <v>5</v>
-      </c>
-      <c r="K9" s="4">
-        <v>10</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="K9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2410,37 +2378,34 @@
         <v>45</v>
       </c>
       <c r="C10" s="4">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(D10,'!참조_ENUM'!$F$3:$F$6,0))</f>
+      <c r="D10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C10,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>80</v>
+      <c r="E10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H10" s="4">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
         <v>10</v>
       </c>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>10</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2452,7 +2417,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D5</xm:sqref>
+          <xm:sqref>C5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7ABCA0-FE3F-4BFA-BAF4-A9BDAEF7AC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8826306F-C6DC-4BC4-B989-1F8169FDE6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1455" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,30 @@
   </si>
   <si>
     <t>approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evasion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,17 +1037,65 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
@@ -1722,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1739,14 +1811,15 @@
     <col min="7" max="7" width="25.125" customWidth="1"/>
     <col min="8" max="8" width="59.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1774,8 +1847,11 @@
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1803,8 +1879,11 @@
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
@@ -1832,8 +1911,11 @@
       <c r="I4" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="9">
         <v>100001</v>
       </c>
@@ -1863,8 +1945,9 @@
       <c r="I5" s="11">
         <v>100001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="9">
         <v>100002</v>
       </c>
@@ -1894,8 +1977,9 @@
       <c r="I6" s="11">
         <v>100002</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="9">
         <v>100003</v>
       </c>
@@ -1925,8 +2009,9 @@
       <c r="I7" s="11">
         <v>100003</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="9">
         <v>100004</v>
       </c>
@@ -1956,8 +2041,9 @@
       <c r="I8" s="11">
         <v>100004</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="9">
         <v>100005</v>
       </c>
@@ -1987,8 +2073,9 @@
       <c r="I9" s="11">
         <v>100005</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="9">
         <v>100006</v>
       </c>
@@ -2018,6 +2105,7 @@
       <c r="I10" s="11">
         <v>100006</v>
       </c>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2045,11 +2133,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2059,19 +2145,20 @@
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.875" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2091,25 +2178,31 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -2141,13 +2234,19 @@
         <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -2167,25 +2266,31 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2206,23 +2311,31 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
         <v>150</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>10</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2243,23 +2356,31 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
         <v>150</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
         <v>10</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2280,23 +2401,31 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
         <v>150</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>10</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
         <v>10</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2317,23 +2446,31 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
         <v>150</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>10</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2354,23 +2491,31 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
         <v>150</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>10</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
         <v>10</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2391,21 +2536,29 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
         <v>150</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>10</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
         <v>10</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8826306F-C6DC-4BC4-B989-1F8169FDE6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE0ACB7-C8BE-4878-8B12-8D173C7E3E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격하자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,22 +524,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200001, 200001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200001,200001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200006,200006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접근 사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,7 +556,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hit</t>
+    <t>[200003, 200004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200001, 200002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200005, 200006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200007, 200008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200009, 200010]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200011, 200012]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +652,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,6 +680,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +768,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1797,7 +1818,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1809,43 +1830,43 @@
     <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
@@ -1868,16 +1889,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
@@ -1885,7 +1906,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -1894,25 +1915,25 @@
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1920,30 +1941,30 @@
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D5,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="G5" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F5,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>일반 몬스터</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="11">
         <v>100001</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -1952,30 +1973,30 @@
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D6,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="G6" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F6,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>일반 몬스터</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="11">
         <v>100002</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -1984,30 +2005,30 @@
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D7,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F7,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>일반 몬스터</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="11">
         <v>100003</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -2016,30 +2037,30 @@
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D8" s="11">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D8,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F8" s="11">
         <v>3</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F8,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>엘리트 몬스터</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" s="11">
         <v>100004</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -2048,30 +2069,30 @@
         <v>100005</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D9,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F9,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>엘리트 몬스터</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H9" s="11">
         <v>100005</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -2080,30 +2101,30 @@
         <v>100006</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D10,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F10" s="11">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F10,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>엘리트 몬스터</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="11">
         <v>100006</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -2135,7 +2156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2148,14 +2171,15 @@
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.875" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
     <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2163,13 +2187,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -2178,7 +2202,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
@@ -2190,10 +2214,10 @@
         <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>29</v>
@@ -2210,10 +2234,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -2248,16 +2272,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -2266,7 +2290,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>34</v>
@@ -2278,10 +2302,10 @@
         <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>37</v>
@@ -2300,12 +2324,12 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C5,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -2332,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2345,12 +2369,12 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C6,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>전열 배치</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2377,7 +2401,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2390,12 +2414,12 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C7,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -2422,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2435,12 +2459,12 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C8,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>중열 배치</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2467,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2480,12 +2504,12 @@
       <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C9,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -2512,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2525,12 +2549,12 @@
       <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C10,'!참조_ENUM'!$F$3:$F$6,0))</f>
         <v>후열 배치</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -2557,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE0ACB7-C8BE-4878-8B12-8D173C7E3E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E6AC7B-85C9-4A8D-B8D5-4CF222A1621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -2157,7 +2157,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E6AC7B-85C9-4A8D-B8D5-4CF222A1621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13BD9BC-6854-4334-A539-999E272207C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +584,84 @@
   </si>
   <si>
     <t>icon_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIBE_TYPE</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>HUMAN</t>
+  </si>
+  <si>
+    <t>인간종족</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>엘프족</t>
+  </si>
+  <si>
+    <t>WEREBEAST</t>
+  </si>
+  <si>
+    <t>수인족</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>안드로이드</t>
+  </si>
+  <si>
+    <t>DEVIL</t>
+  </si>
+  <si>
+    <t>악마</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>천사</t>
+  </si>
+  <si>
+    <t>POSITION_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
+    <t>전열 배치</t>
+  </si>
+  <si>
+    <t>MIDDLE</t>
+  </si>
+  <si>
+    <t>중열 배치</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>후열 배치</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,178 +875,12 @@
     <sheetNames>
       <sheetName val="@tribe"/>
       <sheetName val="@position"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>HUMAN</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>인간종족</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>ELF</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>엘프족</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>WEREBEAST</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>수인족</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>ANDROID</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>안드로이드</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>DEVIL</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>악마</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>ANGEL</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>천사</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>FRONT</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>전열 배치</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>MIDDLE</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>중열 배치</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>BACK</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>후열 배치</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="@tribe"/>
-      <sheetName val="@position"/>
+      <sheetName val="@role"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@character_sort"/>
+      <sheetName val="@stage_common"/>
+      <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
       <sheetName val="@team_type"/>
@@ -981,6 +892,8 @@
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
+      <sheetName val="@skill_type"/>
+      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -988,7 +901,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
+            <v>ROLE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -1015,109 +928,139 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>NPC</v>
+            <v>TANKER</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>우호 NPC</v>
+            <v>탱커</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>NORMAL</v>
+            <v>DEARLER</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>일반 몬스터</v>
+            <v>딜러</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>ELITE</v>
+            <v>SUPPORTER</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>엘리트 몬스터</v>
+            <v>서포터</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>BOSS</v>
+            <v>HEALER</v>
           </cell>
           <cell r="B8">
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>보스 몬스터</v>
+            <v>힐러</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>NPC</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>우호 NPC</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>NORMAL</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>일반 몬스터</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>ELITE</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>엘리트 몬스터</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>BOSS</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>보스 몬스터</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1535,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5FBD5-DEC5-4BB7-BF75-CE8046386F75}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1547,264 +1490,300 @@
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="str">
-        <f>'[1]@tribe'!$A$1</f>
-        <v>TRIBE_TYPE</v>
-      </c>
-      <c r="E1" t="str">
-        <f>'[1]@position'!$A$1</f>
-        <v>POSITION_TYPE</v>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
       </c>
       <c r="I1" t="str">
-        <f>'[2]@npc'!$A$1</f>
+        <f>'[1]@npc'!$A$1</f>
         <v>NPC_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="5" t="str">
-        <f>'[1]@tribe'!$A3</f>
+      <c r="M1" t="str">
+        <f>'[1]@role'!$A$1</f>
+        <v>ROLE_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>'[1]@npc'!$A3</f>
         <v>type</v>
       </c>
-      <c r="B2" s="5" t="str">
-        <f>'[1]@tribe'!$B3</f>
+      <c r="J2" s="5" t="str">
+        <f>'[1]@npc'!$B3</f>
         <v>value</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <f>'[1]@tribe'!$C3</f>
+      <c r="K2" s="1" t="str">
+        <f>'[1]@npc'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="E2" s="5" t="str">
-        <f>'[1]@position'!$A3</f>
+      <c r="M2" s="5" t="str">
+        <f>'[1]@role'!$A3</f>
         <v>type</v>
       </c>
-      <c r="F2" s="5" t="str">
-        <f>'[1]@position'!$B3</f>
+      <c r="N2" s="5" t="str">
+        <f>'[1]@role'!$B3</f>
         <v>value</v>
       </c>
-      <c r="G2" s="5" t="str">
-        <f>'[1]@position'!$C3</f>
+      <c r="O2" s="1" t="str">
+        <f>'[1]@role'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="I2" s="5" t="str">
-        <f>'[2]@npc'!$A3</f>
-        <v>type</v>
-      </c>
-      <c r="J2" s="5" t="str">
-        <f>'[2]@npc'!$B3</f>
-        <v>value</v>
-      </c>
-      <c r="K2" s="5" t="str">
-        <f>'[2]@npc'!$C3</f>
-        <v>comment</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="str">
-        <f>'[1]@tribe'!$A4</f>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>'[1]@npc'!$A4</f>
         <v>NONE</v>
       </c>
-      <c r="B3" s="4">
-        <f>'[1]@tribe'!$B4</f>
+      <c r="J3" s="4">
+        <f>'[1]@npc'!$B4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="4">
-        <f>'[1]@tribe'!$C4</f>
+      <c r="K3" s="4" t="str">
+        <f>'[1]@npc'!$C4</f>
+        <v>NONE</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f>'[1]@role'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'[1]@role'!$B4</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f>'[1]@position'!$A4</f>
+      <c r="O3" s="4" t="str">
+        <f>'[1]@role'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="F3" s="4">
-        <f>'[1]@position'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f>'[1]@position'!$C4</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f>'[2]@npc'!$A4</f>
-        <v>NONE</v>
-      </c>
-      <c r="J3" s="4">
-        <f>'[2]@npc'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f>'[2]@npc'!$C4</f>
-        <v>NONE</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4" t="str">
-        <f>'[1]@tribe'!$A5</f>
-        <v>HUMAN</v>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B4" s="4">
-        <f>'[1]@tribe'!$B5</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f>'[1]@tribe'!$C5</f>
-        <v>인간종족</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f>'[1]@position'!$A5</f>
-        <v>FRONT</v>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="F4" s="4">
-        <f>'[1]@position'!$B5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="str">
-        <f>'[1]@position'!$C5</f>
-        <v>전열 배치</v>
+      <c r="G4" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>'[2]@npc'!$A5</f>
+        <f>'[1]@npc'!$A5</f>
         <v>NPC</v>
       </c>
       <c r="J4" s="4">
-        <f>'[2]@npc'!$B5</f>
+        <f>'[1]@npc'!$B5</f>
         <v>1</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f>'[2]@npc'!$C5</f>
+        <f>'[1]@npc'!$C5</f>
         <v>우호 NPC</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="str">
-        <f>'[1]@tribe'!$A6</f>
-        <v>ELF</v>
+      <c r="M4" s="4" t="str">
+        <f>'[1]@role'!$A5</f>
+        <v>TANKER</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'[1]@role'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f>'[1]@role'!$C5</f>
+        <v>탱커</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B5" s="4">
-        <f>'[1]@tribe'!$B6</f>
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f>'[1]@tribe'!$C6</f>
-        <v>엘프족</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f>'[1]@position'!$A6</f>
-        <v>MIDDLE</v>
+      <c r="C5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F5" s="4">
-        <f>'[1]@position'!$B6</f>
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="str">
-        <f>'[1]@position'!$C6</f>
-        <v>중열 배치</v>
+      <c r="G5" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>'[2]@npc'!$A6</f>
+        <f>'[1]@npc'!$A6</f>
         <v>NORMAL</v>
       </c>
       <c r="J5" s="4">
-        <f>'[2]@npc'!$B6</f>
+        <f>'[1]@npc'!$B6</f>
         <v>2</v>
       </c>
       <c r="K5" s="4" t="str">
-        <f>'[2]@npc'!$C6</f>
+        <f>'[1]@npc'!$C6</f>
         <v>일반 몬스터</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4" t="str">
-        <f>'[1]@tribe'!$A7</f>
-        <v>WEREBEAST</v>
+      <c r="M5" s="4" t="str">
+        <f>'[1]@role'!$A6</f>
+        <v>DEARLER</v>
+      </c>
+      <c r="N5" s="4">
+        <f>'[1]@role'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f>'[1]@role'!$C6</f>
+        <v>딜러</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B6" s="4">
-        <f>'[1]@tribe'!$B7</f>
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="str">
-        <f>'[1]@tribe'!$C7</f>
-        <v>수인족</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f>'[1]@position'!$A7</f>
-        <v>BACK</v>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="4">
-        <f>'[1]@position'!$B7</f>
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="str">
-        <f>'[1]@position'!$C7</f>
-        <v>후열 배치</v>
+      <c r="G6" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>'[2]@npc'!$A7</f>
+        <f>'[1]@npc'!$A7</f>
         <v>ELITE</v>
       </c>
       <c r="J6" s="4">
-        <f>'[2]@npc'!$B7</f>
+        <f>'[1]@npc'!$B7</f>
         <v>3</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f>'[2]@npc'!$C7</f>
+        <f>'[1]@npc'!$C7</f>
         <v>엘리트 몬스터</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4" t="str">
-        <f>'[1]@tribe'!$A8</f>
-        <v>ANDROID</v>
+      <c r="M6" s="4" t="str">
+        <f>'[1]@role'!$A7</f>
+        <v>SUPPORTER</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'[1]@role'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f>'[1]@role'!$C7</f>
+        <v>서포터</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B7" s="4">
-        <f>'[1]@tribe'!$B8</f>
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <f>'[1]@tribe'!$C8</f>
-        <v>안드로이드</v>
+      <c r="C7" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>'[2]@npc'!$A8</f>
+        <f>'[1]@npc'!$A8</f>
         <v>BOSS</v>
       </c>
       <c r="J7" s="4">
-        <f>'[2]@npc'!$B8</f>
+        <f>'[1]@npc'!$B8</f>
         <v>4</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f>'[2]@npc'!$C8</f>
+        <f>'[1]@npc'!$C8</f>
         <v>보스 몬스터</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4" t="str">
-        <f>'[1]@tribe'!$A9</f>
-        <v>DEVIL</v>
+      <c r="M7" s="4" t="str">
+        <f>'[1]@role'!$A8</f>
+        <v>HEALER</v>
+      </c>
+      <c r="N7" s="4">
+        <f>'[1]@role'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>'[1]@role'!$C8</f>
+        <v>힐러</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B8" s="4">
-        <f>'[1]@tribe'!$B9</f>
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="str">
-        <f>'[1]@tribe'!$C9</f>
-        <v>악마</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4" t="str">
-        <f>'[1]@tribe'!$A10</f>
-        <v>ANGEL</v>
+      <c r="C8" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B9" s="4">
-        <f>'[1]@tribe'!$B10</f>
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="str">
-        <f>'[1]@tribe'!$C10</f>
-        <v>천사</v>
+      <c r="C9" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2156,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13BD9BC-6854-4334-A539-999E272207C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310818B8-75CA-4B19-8EAD-3F8FB35F8C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId3"/>
     <sheet name="npc_data" sheetId="7" r:id="rId4"/>
     <sheet name="npc_battle_data" sheetId="8" r:id="rId5"/>
+    <sheet name="npc_stat_data" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -587,81 +588,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRIBE_TYPE</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>HUMAN</t>
-  </si>
-  <si>
-    <t>인간종족</t>
-  </si>
-  <si>
-    <t>ELF</t>
-  </si>
-  <si>
-    <t>엘프족</t>
-  </si>
-  <si>
-    <t>WEREBEAST</t>
-  </si>
-  <si>
-    <t>수인족</t>
-  </si>
-  <si>
-    <t>ANDROID</t>
-  </si>
-  <si>
-    <t>안드로이드</t>
-  </si>
-  <si>
-    <t>DEVIL</t>
-  </si>
-  <si>
-    <t>악마</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>천사</t>
-  </si>
-  <si>
-    <t>POSITION_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>FRONT</t>
-  </si>
-  <si>
-    <t>전열 배치</t>
-  </si>
-  <si>
-    <t>MIDDLE</t>
-  </si>
-  <si>
-    <t>중열 배치</t>
-  </si>
-  <si>
-    <t>BACK</t>
-  </si>
-  <si>
-    <t>후열 배치</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
+    <t>스텟 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC Type(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#npc_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족 타입(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tribe_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ROLE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤 타입(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#role_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defend_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evation_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_Level_Stat_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_level_stat_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,8 +915,163 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>HUMAN</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>인간종족</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>ELF</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>엘프족</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>WEREBEAST</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>수인족</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>ANDROID</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>안드로이드</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>DEVIL</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>악마</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>ANGEL</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>천사</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>FRONT</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>전열 배치</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>MIDDLE</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>중열 배치</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>BACK</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>후열 배치</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -1480,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5FBD5-DEC5-4BB7-BF75-CE8046386F75}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1489,16 +1663,19 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>104</v>
+      <c r="A1" t="str">
+        <f>'[1]@tribe'!$A$1</f>
+        <v>TRIBE_TYPE</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'[1]@position'!$A$1</f>
+        <v>POSITION_TYPE</v>
       </c>
       <c r="I1" t="str">
         <f>'[1]@npc'!$A$1</f>
@@ -1510,23 +1687,29 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>114</v>
+      <c r="A2" s="5" t="str">
+        <f>'[1]@tribe'!$A$3</f>
+        <v>type</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f>'[1]@tribe'!$B$3</f>
+        <v>value</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>'[1]@tribe'!$C$3</f>
+        <v>comment</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f>'[1]@position'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>'[1]@position'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>'[1]@position'!$C3</f>
+        <v>comment</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>'[1]@npc'!$A3</f>
@@ -1554,23 +1737,29 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
-        <v>91</v>
+      <c r="A3" s="4" t="str">
+        <f>'[1]@tribe'!$A4</f>
+        <v>NONE</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>91</v>
+        <f>'[1]@tribe'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>'[1]@tribe'!$C4</f>
+        <v>NONE</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>'[1]@position'!$A4</f>
+        <v>NONE</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>105</v>
+        <f>'[1]@position'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>'[1]@position'!$C4</f>
+        <v>NONE</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>'[1]@npc'!$A4</f>
@@ -1598,23 +1787,29 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4" t="s">
-        <v>92</v>
+      <c r="A4" s="4" t="str">
+        <f>'[1]@tribe'!$A5</f>
+        <v>HUMAN</v>
       </c>
       <c r="B4" s="4">
+        <f>'[1]@tribe'!$B5</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>106</v>
+      <c r="C4" s="4" t="str">
+        <f>'[1]@tribe'!$C5</f>
+        <v>인간종족</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>'[1]@position'!$A5</f>
+        <v>FRONT</v>
       </c>
       <c r="F4" s="4">
+        <f>'[1]@position'!$B5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>107</v>
+      <c r="G4" s="4" t="str">
+        <f>'[1]@position'!$C5</f>
+        <v>전열 배치</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@npc'!$A5</f>
@@ -1642,23 +1837,29 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
-        <v>94</v>
+      <c r="A5" s="4" t="str">
+        <f>'[1]@tribe'!$A6</f>
+        <v>ELF</v>
       </c>
       <c r="B5" s="4">
+        <f>'[1]@tribe'!$B6</f>
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>108</v>
+      <c r="C5" s="4" t="str">
+        <f>'[1]@tribe'!$C6</f>
+        <v>엘프족</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>'[1]@position'!$A6</f>
+        <v>MIDDLE</v>
       </c>
       <c r="F5" s="4">
+        <f>'[1]@position'!$B6</f>
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>109</v>
+      <c r="G5" s="4" t="str">
+        <f>'[1]@position'!$C6</f>
+        <v>중열 배치</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@npc'!$A6</f>
@@ -1686,23 +1887,29 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="4" t="s">
-        <v>96</v>
+      <c r="A6" s="4" t="str">
+        <f>'[1]@tribe'!$A7</f>
+        <v>WEREBEAST</v>
       </c>
       <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>110</v>
+        <f>'[1]@tribe'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>'[1]@tribe'!$C7</f>
+        <v>수인족</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>'[1]@position'!$A7</f>
+        <v>BACK</v>
       </c>
       <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>111</v>
+        <f>'[1]@position'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>'[1]@position'!$C7</f>
+        <v>후열 배치</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@npc'!$A7</f>
@@ -1730,14 +1937,17 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="4" t="s">
-        <v>98</v>
+      <c r="A7" s="4" t="str">
+        <f>'[1]@tribe'!$A8</f>
+        <v>ANDROID</v>
       </c>
       <c r="B7" s="4">
+        <f>'[1]@tribe'!$B8</f>
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>99</v>
+      <c r="C7" s="4" t="str">
+        <f>'[1]@tribe'!$C8</f>
+        <v>안드로이드</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>'[1]@npc'!$A8</f>
@@ -1765,25 +1975,31 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="4" t="s">
-        <v>100</v>
+      <c r="A8" s="4" t="str">
+        <f>'[1]@tribe'!$A9</f>
+        <v>DEVIL</v>
       </c>
       <c r="B8" s="4">
+        <f>'[1]@tribe'!$B9</f>
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>101</v>
+      <c r="C8" s="4" t="str">
+        <f>'[1]@tribe'!$C9</f>
+        <v>악마</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="4" t="s">
-        <v>102</v>
+      <c r="A9" s="4" t="str">
+        <f>'[1]@tribe'!$A10</f>
+        <v>ANGEL</v>
       </c>
       <c r="B9" s="4">
+        <f>'[1]@tribe'!$B10</f>
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>103</v>
+      <c r="C9" s="4" t="str">
+        <f>'[1]@tribe'!$C10</f>
+        <v>천사</v>
       </c>
     </row>
   </sheetData>
@@ -1796,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2136,7 +2352,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2579,4 +2795,668 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4">
+        <v>2030101</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B5,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>일반 몬스터</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D5,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F5,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>탱커</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4">
+        <v>3030101</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B6,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>엘리트 몬스터</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D6,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F6,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>탱커</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4">
+        <v>4030101</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B7,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>보스 몬스터</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D7,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F7,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>탱커</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
+        <v>2030201</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B8,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>일반 몬스터</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D8,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F8,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>딜러</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4">
+        <v>3030201</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B9,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>엘리트 몬스터</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D9,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F9,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>딜러</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4">
+        <v>4030201</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B10,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>보스 몬스터</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D10,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F10,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>딜러</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4">
+        <v>2030301</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B11,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>일반 몬스터</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D11,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F11,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>서포터</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4">
+        <v>3030301</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B12,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>엘리트 몬스터</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D12,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F12,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>서포터</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4">
+        <v>4030301</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B13,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>보스 몬스터</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D13,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F13,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>서포터</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4">
+        <v>2030401</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B14,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>일반 몬스터</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D14,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F14,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>힐러</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4">
+        <v>3030401</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B15,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>엘리트 몬스터</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D15,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F15,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>힐러</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4">
+        <v>4030401</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B16,'!참조_ENUM'!$J$3:$J$7,0))</f>
+        <v>보스 몬스터</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D16,'!참조_ENUM'!$B$3:$B$9,0))</f>
+        <v>수인족</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F16,'!참조_ENUM'!$N$3:$N$7,0))</f>
+        <v>힐러</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC2A0ADF-83F8-40E7-BC33-C1870C9241DF}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$J$3:$J$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63322C71-DF42-4600-AB07-09DA811DFE4D}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$B$3:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECD144A5-3F4E-4A52-959A-DA93B77C6007}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$N$3:$N$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5:F16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310818B8-75CA-4B19-8EAD-3F8FB35F8C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39650959-B304-4735-810B-52F0E3FAAF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -893,6 +893,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="@tribe"/>
+      <sheetName val="@stage"/>
       <sheetName val="@position"/>
       <sheetName val="@role"/>
       <sheetName val="@npc"/>
@@ -1010,7 +1011,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
             <v>POSITION_TYPE</v>
@@ -1069,86 +1071,13 @@
           </cell>
           <cell r="C7" t="str">
             <v>후열 배치</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>TANKER</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>탱커</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>DEARLER</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>딜러</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>SUPPORTER</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>서포터</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>HEALER</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>힐러</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
+            <v>ROLE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -1175,6 +1104,79 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>TANKER</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>탱커</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DEARLER</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>딜러</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>SUPPORTER</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>서포터</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>HEALER</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>힐러</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
             <v>NPC</v>
           </cell>
           <cell r="B5">
@@ -1218,7 +1220,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1235,6 +1236,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2012,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2801,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2946,21 +2948,21 @@
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B5,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>일반 몬스터</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D5,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="G5" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F5,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>탱커</v>
       </c>
@@ -2987,21 +2989,21 @@
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B6,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>엘리트 몬스터</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D6,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="G6" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F6,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>탱커</v>
       </c>
@@ -3028,21 +3030,21 @@
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B7,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>보스 몬스터</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D7,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F7,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>탱커</v>
       </c>
@@ -3069,21 +3071,21 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B8,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>일반 몬스터</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D8,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F8,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>딜러</v>
       </c>
@@ -3110,21 +3112,21 @@
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="str">
+      <c r="C9" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B9,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>엘리트 몬스터</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D9,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F9,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>딜러</v>
       </c>
@@ -3151,21 +3153,21 @@
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="C10" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B10,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>보스 몬스터</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D10,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F10,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>딜러</v>
       </c>
@@ -3192,21 +3194,21 @@
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="str">
+      <c r="C11" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B11,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>일반 몬스터</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D11,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G11" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F11,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>서포터</v>
       </c>
@@ -3233,21 +3235,21 @@
       <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="str">
+      <c r="C12" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B12,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>엘리트 몬스터</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D12,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="G12" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F12,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>서포터</v>
       </c>
@@ -3274,21 +3276,21 @@
       <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="str">
+      <c r="C13" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B13,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>보스 몬스터</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D13,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="G13" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F13,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>서포터</v>
       </c>
@@ -3315,21 +3317,21 @@
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="str">
+      <c r="C14" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B14,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>일반 몬스터</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D14,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="G14" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F14,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>힐러</v>
       </c>
@@ -3356,21 +3358,21 @@
       <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="str">
+      <c r="C15" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B15,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>엘리트 몬스터</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D15,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="G15" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F15,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>힐러</v>
       </c>
@@ -3397,21 +3399,21 @@
       <c r="B16" s="4">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="str">
+      <c r="C16" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B16,'!참조_ENUM'!$J$3:$J$7,0))</f>
         <v>보스 몬스터</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D16,'!참조_ENUM'!$B$3:$B$9,0))</f>
         <v>수인족</v>
       </c>
       <c r="F16" s="4">
         <v>4</v>
       </c>
-      <c r="G16" s="4" t="str">
+      <c r="G16" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F16,'!참조_ENUM'!$N$3:$N$7,0))</f>
         <v>힐러</v>
       </c>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39650959-B304-4735-810B-52F0E3FAAF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F6856-B7C8-4E96-BF13-BF85A2357A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39060" yWindow="2835" windowWidth="35370" windowHeight="15435" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,6 +682,25 @@
   <si>
     <t>npc_level_stat_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100005</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100006</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1255,13 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2014,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2029,7 +2054,7 @@
     <col min="7" max="7" width="25.125" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2163,7 +2188,9 @@
       <c r="I5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9">
@@ -2195,7 +2222,9 @@
       <c r="I6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="9">
@@ -2227,7 +2256,9 @@
       <c r="I7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="9">
@@ -2259,7 +2290,9 @@
       <c r="I8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="9">
@@ -2291,7 +2324,9 @@
       <c r="I9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="9">
@@ -2323,7 +2358,9 @@
       <c r="I10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2803,7 +2840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F6856-B7C8-4E96-BF13-BF85A2357A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9CA83-EE18-4DBC-91D9-5B0FD334B2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="2835" windowWidth="35370" windowHeight="15435" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38640" yWindow="195" windowWidth="36240" windowHeight="17430" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,18 +451,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>두더쥐</t>
-  </si>
-  <si>
-    <t>장갑 낀 두더쥐</t>
-  </si>
-  <si>
     <t>스테이지 1-1의 근접 몬스터 2</t>
   </si>
   <si>
-    <t>돌맹이 쥔 두더쥐</t>
-  </si>
-  <si>
     <t>스테이지 1-1의 원거리 몬스터 1</t>
   </si>
   <si>
@@ -556,22 +547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200003, 200004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200001, 200002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200005, 200006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200007, 200008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[200009, 200010]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,6 +676,79 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100006</t>
+  </si>
+  <si>
+    <t>3 수인족</t>
+  </si>
+  <si>
+    <t>2 일반 몬스터</t>
+  </si>
+  <si>
+    <t>3 엘리트 몬스터</t>
+  </si>
+  <si>
+    <t>1 전열 배치</t>
+  </si>
+  <si>
+    <t>2 중열 배치</t>
+  </si>
+  <si>
+    <t>3 후열 배치</t>
+  </si>
+  <si>
+    <t>4 보스 몬스터</t>
+  </si>
+  <si>
+    <t>3 수인족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 탱커</t>
+  </si>
+  <si>
+    <t>2 딜러</t>
+  </si>
+  <si>
+    <t>3 서포터</t>
+  </si>
+  <si>
+    <t>4 힐러</t>
+  </si>
+  <si>
+    <t>1 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 투척</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200001, 200001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200002, 200002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200003, 200003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200004, 200004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -805,7 +853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -841,13 +889,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +994,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,7 +1110,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>인간종족</v>
+            <v>1 인간종족</v>
           </cell>
         </row>
         <row r="6">
@@ -982,7 +1121,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>엘프족</v>
+            <v>2 엘프족</v>
           </cell>
         </row>
         <row r="7">
@@ -993,7 +1132,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>수인족</v>
+            <v>3 수인족</v>
           </cell>
         </row>
         <row r="8">
@@ -1004,7 +1143,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>안드로이드</v>
+            <v>4 안드로이드</v>
           </cell>
         </row>
         <row r="9">
@@ -1015,7 +1154,7 @@
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>악마</v>
+            <v>5 악마</v>
           </cell>
         </row>
         <row r="10">
@@ -1026,7 +1165,7 @@
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>천사</v>
+            <v>6 천사</v>
           </cell>
         </row>
       </sheetData>
@@ -1067,7 +1206,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>전열 배치</v>
+            <v>1 전열 배치</v>
           </cell>
         </row>
         <row r="6">
@@ -1078,7 +1217,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>중열 배치</v>
+            <v>2 중열 배치</v>
           </cell>
         </row>
         <row r="7">
@@ -1089,7 +1228,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>후열 배치</v>
+            <v>3 후열 배치</v>
           </cell>
         </row>
       </sheetData>
@@ -1129,7 +1268,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>탱커</v>
+            <v>1 탱커</v>
           </cell>
         </row>
         <row r="6">
@@ -1140,7 +1279,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>딜러</v>
+            <v>2 딜러</v>
           </cell>
         </row>
         <row r="7">
@@ -1151,7 +1290,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>서포터</v>
+            <v>3 서포터</v>
           </cell>
         </row>
         <row r="8">
@@ -1162,7 +1301,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>힐러</v>
+            <v>4 힐러</v>
           </cell>
         </row>
       </sheetData>
@@ -1202,7 +1341,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>우호 NPC</v>
+            <v>1 우호 NPC</v>
           </cell>
         </row>
         <row r="6">
@@ -1213,7 +1352,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>일반 몬스터</v>
+            <v>2 일반 몬스터</v>
           </cell>
         </row>
         <row r="7">
@@ -1224,7 +1363,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>엘리트 몬스터</v>
+            <v>3 엘리트 몬스터</v>
           </cell>
         </row>
         <row r="8">
@@ -1235,33 +1374,81 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>보스 몬스터</v>
+            <v>4 보스 몬스터</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1682,7 +1869,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1691,6 +1878,7 @@
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1824,7 +2012,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>'[1]@tribe'!$C5</f>
-        <v>인간종족</v>
+        <v>1 인간종족</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@position'!$A5</f>
@@ -1836,7 +2024,7 @@
       </c>
       <c r="G4" s="4" t="str">
         <f>'[1]@position'!$C5</f>
-        <v>전열 배치</v>
+        <v>1 전열 배치</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@npc'!$A5</f>
@@ -1848,7 +2036,7 @@
       </c>
       <c r="K4" s="4" t="str">
         <f>'[1]@npc'!$C5</f>
-        <v>우호 NPC</v>
+        <v>1 우호 NPC</v>
       </c>
       <c r="M4" s="4" t="str">
         <f>'[1]@role'!$A5</f>
@@ -1860,7 +2048,7 @@
       </c>
       <c r="O4" s="4" t="str">
         <f>'[1]@role'!$C5</f>
-        <v>탱커</v>
+        <v>1 탱커</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1874,7 +2062,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'[1]@tribe'!$C6</f>
-        <v>엘프족</v>
+        <v>2 엘프족</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@position'!$A6</f>
@@ -1886,7 +2074,7 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@position'!$C6</f>
-        <v>중열 배치</v>
+        <v>2 중열 배치</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@npc'!$A6</f>
@@ -1898,7 +2086,7 @@
       </c>
       <c r="K5" s="4" t="str">
         <f>'[1]@npc'!$C6</f>
-        <v>일반 몬스터</v>
+        <v>2 일반 몬스터</v>
       </c>
       <c r="M5" s="4" t="str">
         <f>'[1]@role'!$A6</f>
@@ -1910,7 +2098,7 @@
       </c>
       <c r="O5" s="4" t="str">
         <f>'[1]@role'!$C6</f>
-        <v>딜러</v>
+        <v>2 딜러</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1924,7 +2112,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>'[1]@tribe'!$C7</f>
-        <v>수인족</v>
+        <v>3 수인족</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@position'!$A7</f>
@@ -1936,7 +2124,7 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@position'!$C7</f>
-        <v>후열 배치</v>
+        <v>3 후열 배치</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@npc'!$A7</f>
@@ -1948,7 +2136,7 @@
       </c>
       <c r="K6" s="4" t="str">
         <f>'[1]@npc'!$C7</f>
-        <v>엘리트 몬스터</v>
+        <v>3 엘리트 몬스터</v>
       </c>
       <c r="M6" s="4" t="str">
         <f>'[1]@role'!$A7</f>
@@ -1960,7 +2148,7 @@
       </c>
       <c r="O6" s="4" t="str">
         <f>'[1]@role'!$C7</f>
-        <v>서포터</v>
+        <v>3 서포터</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1974,7 +2162,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>'[1]@tribe'!$C8</f>
-        <v>안드로이드</v>
+        <v>4 안드로이드</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>'[1]@npc'!$A8</f>
@@ -1986,7 +2174,7 @@
       </c>
       <c r="K7" s="4" t="str">
         <f>'[1]@npc'!$C8</f>
-        <v>보스 몬스터</v>
+        <v>4 보스 몬스터</v>
       </c>
       <c r="M7" s="4" t="str">
         <f>'[1]@role'!$A8</f>
@@ -1998,7 +2186,7 @@
       </c>
       <c r="O7" s="4" t="str">
         <f>'[1]@role'!$C8</f>
-        <v>힐러</v>
+        <v>4 힐러</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2012,7 +2200,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@tribe'!$C9</f>
-        <v>악마</v>
+        <v>5 악마</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2026,7 +2214,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@tribe'!$C10</f>
-        <v>천사</v>
+        <v>6 천사</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2228,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2059,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2088,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
@@ -2149,13 +2337,13 @@
         <v>52</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2163,33 +2351,33 @@
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D5,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E5,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F5" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="G5" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F5,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>일반 몬스터</v>
+      <c r="G5" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="H5" s="11">
         <v>100001</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2197,33 +2385,33 @@
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="11">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D6,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E6,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F6" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="G6" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F6,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>일반 몬스터</v>
+      <c r="G6" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="H6" s="11">
         <v>100002</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2231,33 +2419,33 @@
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="11">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D7,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E7,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F7" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="G7" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F7,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>일반 몬스터</v>
+      <c r="G7" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="H7" s="11">
         <v>100003</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2265,33 +2453,33 @@
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="11">
-        <v>3</v>
-      </c>
-      <c r="E8" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D8,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E8,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F8" s="11">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F8,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>엘리트 몬스터</v>
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G8,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="H8" s="11">
         <v>100004</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2299,33 +2487,33 @@
         <v>100005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="11">
-        <v>3</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D9,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E9,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F9" s="11">
-        <v>3</v>
-      </c>
-      <c r="G9" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F9,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>엘리트 몬스터</v>
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G9,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="H9" s="11">
         <v>100005</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2333,33 +2521,33 @@
         <v>100006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="11">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D10,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E10,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F10" s="11">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(F10,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>엘리트 몬스터</v>
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G10,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="H10" s="11">
         <v>100006</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2368,17 +2556,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5261872A-5EE3-469C-959D-CB8F1BFBEE07}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49387F52-C160-4743-81D7-5388C9A06CD4}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$9</xm:f>
+            <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
+          <xm:sqref>E5:E10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F36EA95-ADED-4012-A928-643065C4651C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FE7930-B052-4871-A2B4-FA0C048FF3E1}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$J$3:$J$7</xm:f>
+            <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F10</xm:sqref>
+          <xm:sqref>G5:G10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2391,14 +2579,14 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
@@ -2413,7 +2601,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2421,13 +2609,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -2436,7 +2624,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
@@ -2448,10 +2636,10 @@
         <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>29</v>
@@ -2468,10 +2656,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -2506,16 +2694,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -2524,7 +2712,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>34</v>
@@ -2536,10 +2724,10 @@
         <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>37</v>
@@ -2556,14 +2744,14 @@
         <v>15</v>
       </c>
       <c r="C5" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D5,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C5,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
+      <c r="D5" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -2601,14 +2789,14 @@
         <v>20</v>
       </c>
       <c r="C6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D6,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C6,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>전열 배치</v>
+      <c r="D6" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2646,14 +2834,14 @@
         <v>30</v>
       </c>
       <c r="C7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D7,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C7,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>중열 배치</v>
+      <c r="D7" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -2691,14 +2879,14 @@
         <v>40</v>
       </c>
       <c r="C8" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D8,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
-      <c r="D8" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C8,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>중열 배치</v>
+      <c r="D8" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2736,14 +2924,14 @@
         <v>45</v>
       </c>
       <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C9,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>후열 배치</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D9,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -2781,14 +2969,14 @@
         <v>45</v>
       </c>
       <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$6,MATCH(C10,'!참조_ENUM'!$F$3:$F$6,0))</f>
-        <v>후열 배치</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D10,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -2824,11 +3012,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52901A89-A589-434E-BF7C-844F47FE4470}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5B9A8A1-E869-4971-9597-13278BE6EE2D}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$F$3:$F$6</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5:D10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2841,7 +3029,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2861,45 +3049,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2919,7 +3107,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -2942,40 +3130,40 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2983,25 +3171,25 @@
         <v>2030101</v>
       </c>
       <c r="B5" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B5,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>일반 몬스터</v>
+      <c r="C5" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D5,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E5,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F5" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F5,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>탱커</v>
+      <c r="G5" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="H5" s="4">
         <v>1.5</v>
@@ -3021,37 +3209,37 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4">
-        <v>3030101</v>
+        <v>2030201</v>
       </c>
       <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B6,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>엘리트 몬스터</v>
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C6,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D6,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E6,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F6,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>탱커</v>
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G6,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="4">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -3062,163 +3250,163 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4">
-        <v>4030101</v>
+        <v>2030301</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B7,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>보스 몬스터</v>
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C7,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D7,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E7,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F7" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G7,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F7,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>탱커</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2.5</v>
-      </c>
       <c r="I7" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
-        <v>2030201</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A8" s="17">
+        <v>2030401</v>
+      </c>
+      <c r="B8" s="17">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B8,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>일반 몬스터</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D8,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="C8" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="17">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E8,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="17">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G8,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="17">
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F8,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>딜러</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="I8" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="17">
         <v>0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4">
-        <v>3030201</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B9,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>엘리트 몬스터</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D9,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
-      </c>
-      <c r="F9" s="4">
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A9" s="16">
+        <v>3030101</v>
+      </c>
+      <c r="B9" s="16">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C9,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="16">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E9,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="16">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G9,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="16">
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F9,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>딜러</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="I9" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4">
-        <v>4030201</v>
+        <v>3030201</v>
       </c>
       <c r="B10" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C10,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E10,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G10,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B10,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>보스 몬스터</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D10,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F10,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>딜러</v>
-      </c>
-      <c r="H10" s="4">
-        <v>5</v>
-      </c>
       <c r="I10" s="4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J10" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K10" s="4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -3226,37 +3414,37 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4">
-        <v>2030301</v>
+        <v>3030301</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B11,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>일반 몬스터</v>
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C11,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D11,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E11,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F11,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>서포터</v>
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G11,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="H11" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I11" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -3265,124 +3453,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4">
-        <v>3030301</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B12,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>엘리트 몬스터</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D12,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3</v>
-      </c>
-      <c r="G12" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F12,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>서포터</v>
-      </c>
-      <c r="H12" s="4">
+    <row r="12" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A12" s="13">
+        <v>3030401</v>
+      </c>
+      <c r="B12" s="13">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C12,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="13">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E12,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="13">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G12,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="13">
+        <v>3</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A13" s="20">
+        <v>4030101</v>
+      </c>
+      <c r="B13" s="20">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C13,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="20">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E13,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="20">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G13,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2</v>
+      </c>
+      <c r="J13" s="20">
         <v>1.5</v>
       </c>
-      <c r="I12" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4">
-        <v>4030301</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B13,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>보스 몬스터</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D13,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F13,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>서포터</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="K13" s="20">
         <v>0.01</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4">
-        <v>2030401</v>
+        <v>4030201</v>
       </c>
       <c r="B14" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C14,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E14,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="C14" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B14,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>일반 몬스터</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D14,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F14,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>힐러</v>
+      <c r="G14" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="H14" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J14" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -3390,40 +3578,40 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4">
-        <v>3030401</v>
+        <v>4030301</v>
       </c>
       <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B15,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>엘리트 몬스터</v>
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C15,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="D15" s="4">
-        <v>3</v>
-      </c>
-      <c r="E15" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D15,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E15,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F15" s="4">
-        <v>4</v>
-      </c>
-      <c r="G15" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F15,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>힐러</v>
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G15,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="H15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="4">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="J15" s="4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -3434,25 +3622,25 @@
         <v>4030401</v>
       </c>
       <c r="B16" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C16,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
-      <c r="C16" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$K$3:$K$7,MATCH(B16,'!참조_ENUM'!$J$3:$J$7,0))</f>
-        <v>보스 몬스터</v>
+      <c r="C16" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$9,MATCH(D16,'!참조_ENUM'!$B$3:$B$9,0))</f>
-        <v>수인족</v>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E16,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="F16" s="4">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
-      <c r="G16" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$O$3:$O$7,MATCH(F16,'!참조_ENUM'!$N$3:$N$7,0))</f>
-        <v>힐러</v>
+      <c r="G16" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="H16" s="4">
         <v>4</v>
@@ -3475,24 +3663,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC2A0ADF-83F8-40E7-BC33-C1870C9241DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{354F4842-3D6C-44A2-BF1B-7D5ACD0F716D}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$J$3:$J$7</xm:f>
+            <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B16</xm:sqref>
+          <xm:sqref>C14 C15 C5:C13 C16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63322C71-DF42-4600-AB07-09DA811DFE4D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB663335-8E96-4460-BF1C-CE30CF19C0E9}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$9</xm:f>
+            <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECD144A5-3F4E-4A52-959A-DA93B77C6007}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$N$3:$N$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>F5:F16</xm:sqref>
+          <xm:sqref>E14 E15 E5:E13 E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9CA83-EE18-4DBC-91D9-5B0FD334B2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1684753C-F04B-460A-A775-F6E44E558D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="195" windowWidth="36240" windowHeight="17430" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40740" yWindow="7200" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1057,7 +1057,6 @@
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
       <sheetName val="@character_sort"/>
-      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -1072,6 +1071,14 @@
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1378,77 +1385,30 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2227,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2578,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2741,7 +2701,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D5,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2786,7 +2746,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D6,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2831,7 +2791,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D7,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2876,7 +2836,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D8,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2921,7 +2881,7 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D9,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2966,7 +2926,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D10,'!참조_ENUM'!$G$3:$G$6,0))</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1684753C-F04B-460A-A775-F6E44E558D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A55A86-7012-44DB-B498-73F3C5F31515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="7200" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="42015" yWindow="3900" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1385,19 +1385,73 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -2539,7 +2593,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2735,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>39</v>
@@ -2780,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>39</v>
@@ -2825,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>39</v>
@@ -2870,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>39</v>
@@ -2915,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>39</v>
@@ -2960,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>39</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A55A86-7012-44DB-B498-73F3C5F31515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69390718-B43B-4F75-B37D-8B8800187E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42015" yWindow="3900" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1454,8 +1454,20 @@
       </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -2593,7 +2605,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2755,7 +2767,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D5,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2800,7 +2812,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="C6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D6,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2834,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>39</v>
@@ -2845,7 +2857,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D7,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2879,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>39</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69390718-B43B-4F75-B37D-8B8800187E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD2248-F8AA-47FA-B962-2959D67668F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,9 +688,6 @@
   </si>
   <si>
     <t>1 전열 배치</t>
-  </si>
-  <si>
-    <t>2 중열 배치</t>
   </si>
   <si>
     <t>3 후열 배치</t>
@@ -2253,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2377,7 +2374,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>46</v>
@@ -2411,7 +2408,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>53</v>
@@ -2445,7 +2442,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>54</v>
@@ -2479,7 +2476,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>56</v>
@@ -2604,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2777,7 +2774,7 @@
         <v>116</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -2822,7 +2819,7 @@
         <v>116</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2861,13 +2858,13 @@
       </c>
       <c r="C7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D7,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -2902,17 +2899,17 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D8,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2936,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="4">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>39</v>
@@ -2954,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>79</v>
@@ -2999,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>80</v>
@@ -3215,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="4">
         <v>1.5</v>
@@ -3256,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>
@@ -3297,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -3338,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="17">
         <v>2</v>
@@ -3379,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="16">
         <v>2</v>
@@ -3420,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="4">
         <v>4</v>
@@ -3461,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="4">
         <v>1.5</v>
@@ -3502,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="13">
         <v>3</v>
@@ -3529,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="20">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E13,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3543,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H13" s="20">
         <v>2.5</v>
@@ -3570,7 +3567,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E14,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3584,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
@@ -3611,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E15,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3625,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
@@ -3652,21 +3649,21 @@
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="4">
         <v>4</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD2248-F8AA-47FA-B962-2959D67668F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CBBC6F-B201-4593-A18C-111CE04F745E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
-      <sheetName val="@stage_common"/>
+      <sheetName val="@sd_body_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1382,96 +1382,30 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2250,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2601,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2764,7 +2698,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D5,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2809,7 +2743,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D6,'!참조_ENUM'!$G$3:$G$6,0))</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CBBC6F-B201-4593-A18C-111CE04F745E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547ED57B-E3CE-4A6D-B2C4-F9B82EB12FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -1076,6 +1076,8 @@
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
       <sheetName val="@sd_body_type"/>
+      <sheetName val="@effect_count_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1382,19 +1384,73 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -1406,6 +1462,14 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2536,7 +2600,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2732,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>39</v>
@@ -2777,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="4">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>39</v>
@@ -2822,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="4">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>39</v>
@@ -2867,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="4">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>39</v>
@@ -2912,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>39</v>
@@ -2957,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="4">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>39</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547ED57B-E3CE-4A6D-B2C4-F9B82EB12FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CCACDC-4231-4BC4-B9E8-21804E8C7ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="136">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,6 +745,18 @@
   </si>
   <si>
     <t>[200004, 200004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_skill_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,9 +1087,8 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
-      <sheetName val="@sd_body_type"/>
+      <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1384,73 +1395,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -1462,14 +1419,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2597,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2611,21 +2561,22 @@
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2645,31 +2596,34 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2689,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -2710,10 +2664,13 @@
         <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -2733,31 +2690,34 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2778,31 +2738,34 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>150</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>10</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>5</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
       </c>
       <c r="L5" s="4">
         <v>1</v>
       </c>
       <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
         <v>4</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2823,31 +2786,34 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>150</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>10</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
       </c>
       <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
         <v>4.2</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2868,31 +2834,34 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>150</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1</v>
       </c>
       <c r="L7" s="4">
         <v>1</v>
       </c>
       <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
         <v>4.3</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2913,31 +2882,34 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>150</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
       </c>
       <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2958,31 +2930,34 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>150</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>10</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
         <v>4.5</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -3003,27 +2978,30 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>150</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>10</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1</v>
       </c>
       <c r="L10" s="4">
         <v>1</v>
       </c>
       <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CCACDC-4231-4BC4-B9E8-21804E8C7ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E88F64F-7CB7-4CBD-B0B0-E7E51C0FD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39195" yWindow="1515" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,14 +544,6 @@
   </si>
   <si>
     <t>evasion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200009, 200010]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200011, 200012]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1395,21 +1387,75 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -1419,7 +1465,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2314,7 +2366,7 @@
         <v>59</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2322,7 +2374,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>46</v>
@@ -2332,14 +2384,14 @@
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H5" s="11">
         <v>100001</v>
@@ -2348,7 +2400,7 @@
         <v>62</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2356,7 +2408,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>53</v>
@@ -2366,14 +2418,14 @@
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H6" s="11">
         <v>100002</v>
@@ -2382,7 +2434,7 @@
         <v>69</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2390,7 +2442,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>54</v>
@@ -2400,14 +2452,14 @@
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H7" s="11">
         <v>100003</v>
@@ -2416,7 +2468,7 @@
         <v>71</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2424,7 +2476,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>56</v>
@@ -2434,14 +2486,14 @@
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="11">
         <v>100004</v>
@@ -2450,7 +2502,7 @@
         <v>70</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2468,14 +2520,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H9" s="11">
         <v>100005</v>
@@ -2484,7 +2536,7 @@
         <v>70</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2502,14 +2554,14 @@
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H10" s="11">
         <v>100006</v>
@@ -2518,7 +2570,7 @@
         <v>70</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2602,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2596,7 +2648,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>74</v>
@@ -2643,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
@@ -2690,7 +2742,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>75</v>
@@ -2708,7 +2760,7 @@
         <v>78</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>37</v>
@@ -2729,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -2777,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2825,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -2873,10 +2925,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2921,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -2969,10 +3021,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -3048,45 +3100,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3106,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -3129,40 +3181,40 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3174,21 +3226,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H5" s="4">
         <v>1.5</v>
@@ -3215,21 +3267,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>
@@ -3256,21 +3308,21 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -3297,21 +3349,21 @@
         <v>2</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="17">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" s="17">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="17">
         <v>2</v>
@@ -3338,21 +3390,21 @@
         <v>3</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="16">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F9" s="16">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G9,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H9" s="16">
         <v>2</v>
@@ -3379,21 +3431,21 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G10,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="4">
         <v>4</v>
@@ -3420,21 +3472,21 @@
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F11" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H11" s="4">
         <v>1.5</v>
@@ -3461,21 +3513,21 @@
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12" s="13">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" s="13">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G12,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H12" s="13">
         <v>3</v>
@@ -3502,21 +3554,21 @@
         <v>4</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F13" s="20">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G13,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H13" s="20">
         <v>2.5</v>
@@ -3543,21 +3595,21 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F14" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
@@ -3584,21 +3636,21 @@
         <v>4</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E15,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
@@ -3625,21 +3677,21 @@
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F16" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H16" s="4">
         <v>4</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E88F64F-7CB7-4CBD-B0B0-E7E51C0FD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A05316-6F14-4A62-A8D8-D91013DD90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39195" yWindow="1515" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,14 +524,6 @@
   </si>
   <si>
     <t>approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1073,6 +1065,7 @@
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
       <sheetName val="@piece_type"/>
       <sheetName val="@eqipment_type"/>
@@ -1081,6 +1074,9 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1387,91 +1383,71 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
+            <v>ITEM_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14">
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
+            <v>LIMIT_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
+      <sheetData sheetId="27">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="29">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
+            <v>REWARD_TYPE</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2366,7 +2342,7 @@
         <v>59</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2374,7 +2350,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>46</v>
@@ -2384,14 +2360,14 @@
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H5" s="11">
         <v>100001</v>
@@ -2400,7 +2376,7 @@
         <v>62</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2408,7 +2384,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>53</v>
@@ -2418,14 +2394,14 @@
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H6" s="11">
         <v>100002</v>
@@ -2434,7 +2410,7 @@
         <v>69</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2442,7 +2418,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>54</v>
@@ -2452,14 +2428,14 @@
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H7" s="11">
         <v>100003</v>
@@ -2468,7 +2444,7 @@
         <v>71</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2476,7 +2452,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>56</v>
@@ -2486,14 +2462,14 @@
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H8" s="11">
         <v>100004</v>
@@ -2502,7 +2478,7 @@
         <v>70</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2520,14 +2496,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H9" s="11">
         <v>100005</v>
@@ -2536,7 +2512,7 @@
         <v>70</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2554,14 +2530,14 @@
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H10" s="11">
         <v>100006</v>
@@ -2570,7 +2546,7 @@
         <v>70</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2614,21 +2590,20 @@
     <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.875" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2648,34 +2623,31 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2695,10 +2667,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -2716,13 +2688,10 @@
         <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -2742,34 +2711,31 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2781,10 +2747,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -2793,31 +2759,28 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
+        <v>150</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4">
         <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>150</v>
-      </c>
-      <c r="J5" s="4">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5</v>
       </c>
       <c r="L5" s="4">
         <v>1</v>
       </c>
       <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
         <v>4</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2829,10 +2792,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2841,31 +2804,28 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
+        <v>150</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
         <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>150</v>
-      </c>
-      <c r="J6" s="4">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
       </c>
       <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
         <v>4.2</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2877,10 +2837,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -2889,31 +2849,28 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
+        <v>150</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4">
         <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>150</v>
-      </c>
-      <c r="J7" s="4">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4">
-        <v>5</v>
       </c>
       <c r="L7" s="4">
         <v>1</v>
       </c>
       <c r="M7" s="4">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4">
         <v>4.3</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2925,10 +2882,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2937,31 +2894,28 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
+        <v>150</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
         <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>150</v>
-      </c>
-      <c r="J8" s="4">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4">
-        <v>5</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
       </c>
       <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2973,10 +2927,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -2985,31 +2939,28 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
+        <v>150</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
         <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>150</v>
-      </c>
-      <c r="J9" s="4">
-        <v>10</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4">
         <v>4.5</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -3021,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -3033,27 +2984,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
+        <v>150</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
         <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>150</v>
-      </c>
-      <c r="J10" s="4">
-        <v>10</v>
-      </c>
-      <c r="K10" s="4">
-        <v>5</v>
       </c>
       <c r="L10" s="4">
         <v>1</v>
       </c>
       <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3080,7 +3028,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3100,45 +3048,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3158,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -3181,40 +3129,40 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3226,21 +3174,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H5" s="4">
         <v>1.5</v>
@@ -3267,21 +3215,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>
@@ -3308,21 +3256,21 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -3349,21 +3297,21 @@
         <v>2</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="17">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="17">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="17">
         <v>2</v>
@@ -3390,21 +3338,21 @@
         <v>3</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="16">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="16">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G9,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H9" s="16">
         <v>2</v>
@@ -3431,21 +3379,21 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G10,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="4">
         <v>4</v>
@@ -3472,21 +3420,21 @@
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H11" s="4">
         <v>1.5</v>
@@ -3513,21 +3461,21 @@
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="13">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="13">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G12,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" s="13">
         <v>3</v>
@@ -3554,21 +3502,21 @@
         <v>4</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" s="20">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G13,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H13" s="20">
         <v>2.5</v>
@@ -3595,21 +3543,21 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F14" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
@@ -3636,21 +3584,21 @@
         <v>4</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E15,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
@@ -3677,21 +3625,21 @@
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F16" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H16" s="4">
         <v>4</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A05316-6F14-4A62-A8D8-D91013DD90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5412FED4-E6F9-49E4-9C51-3D5C5CAA8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -1398,52 +1398,16 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
-      <sheetData sheetId="27">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="28">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32" refreshError="1"/>
@@ -2578,7 +2542,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A5" sqref="A5:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2830,7 +2794,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D7,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2875,7 +2839,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="C8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D8,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2920,7 +2884,7 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="C9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D9,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -2965,7 +2929,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="C10" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D10,'!참조_ENUM'!$G$3:$G$6,0))</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5412FED4-E6F9-49E4-9C51-3D5C5CAA8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2097B9-5A39-44D6-A8E2-463E7AA38B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="2550" yWindow="645" windowWidth="27975" windowHeight="19770" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,6 +741,10 @@
   </si>
   <si>
     <t>special_skill_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2191,7 +2195,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2247,7 +2251,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2541,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2613,7 +2617,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2991,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3055,7 +3059,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
@@ -3631,13 +3635,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C14 C15 C5:C13 C16</xm:sqref>
+          <xm:sqref>C5:C16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB663335-8E96-4460-BF1C-CE30CF19C0E9}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E14 E15 E5:E13 E16</xm:sqref>
+          <xm:sqref>E5:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2097B9-5A39-44D6-A8E2-463E7AA38B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B5AF26-1143-40F3-A1C3-6664FE36C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="645" windowWidth="27975" windowHeight="19770" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -43,8 +43,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C35AC73B-45BC-4F67-BABC-CF97191C3CC5}</author>
+  </authors>
+  <commentList>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{C35AC73B-45BC-4F67-BABC-CF97191C3CC5}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    상태이상 저항 값</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="155">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,14 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 이동 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,14 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>move_speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,9 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 1-1의 근접 몬스터 1</t>
-  </si>
-  <si>
     <t>npc 타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,18 +450,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 1-1의 근접 몬스터 2</t>
-  </si>
-  <si>
-    <t>스테이지 1-1의 원거리 몬스터 1</t>
-  </si>
-  <si>
     <t>철갑 낀 아르마딜로</t>
   </si>
   <si>
-    <t>스테이지 1-1의 원거리 몬스터 2</t>
-  </si>
-  <si>
     <t>npc_battle_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,6 +735,126 @@
   </si>
   <si>
     <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법_방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 시 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_defend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_defend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_cri_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cri_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_cri_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cri_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1의 근접 물리 몬스터 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1의 원거리 마법 몬스터 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1의 근접 물리 몬스터 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1의 근접 물리 몬스터 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1의 원거리 마법 몬스터 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1의 원거리 마법 몬스터 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1177,6 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
-      <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
@@ -1079,6 +1188,7 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
     </sheetNames>
@@ -1413,12 +1523,18 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32" refreshError="1"/>
       <sheetData sheetId="33" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="예림 김" id="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" userId="e5ea80ba949d36f3" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1716,6 +1832,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="U2" dT="2024-02-02T05:50:03.72" personId="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" id="{C35AC73B-45BC-4F67-BABC-CF97191C3CC5}">
+    <text>상태이상 저항 값</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA676B-ADC0-4DC0-BBCE-DB25FD7926D5}">
   <dimension ref="A1:B23"/>
@@ -2195,7 +2319,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2214,44 +2338,44 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2266,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -2283,7 +2407,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2292,25 +2416,25 @@
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2318,33 +2442,33 @@
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="D5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H5" s="11">
         <v>100001</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2352,33 +2476,33 @@
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="D6" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F6" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H6" s="11">
         <v>100002</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2386,33 +2510,33 @@
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="D7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H7" s="11">
         <v>100003</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2420,33 +2544,33 @@
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="D8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H8" s="11">
         <v>100004</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2454,33 +2578,33 @@
         <v>100005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="D9" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H9" s="11">
         <v>100005</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2488,33 +2612,33 @@
         <v>100006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D10" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H10" s="11">
         <v>100006</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2542,47 +2666,52 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -2591,42 +2720,72 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -2635,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -2656,54 +2815,114 @@
         <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="S4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2715,10 +2934,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -2727,28 +2946,58 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I5" s="4">
+        <v>28</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
         <v>10</v>
       </c>
-      <c r="J5" s="4">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="N5" s="4">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
         <v>1</v>
       </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
         <v>4</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="X5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2760,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2772,28 +3021,58 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
         <v>10</v>
       </c>
-      <c r="J6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="N6" s="4">
+        <v>10</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
         <v>4.2</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="X6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2805,10 +3084,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -2817,28 +3096,58 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>150</v>
+        <v>355</v>
       </c>
       <c r="I7" s="4">
+        <v>38</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
         <v>10</v>
       </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
         <v>1</v>
       </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
         <v>4.3</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="X7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2850,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2862,28 +3171,58 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="I8" s="4">
+        <v>28</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4">
         <v>10</v>
       </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="N8" s="4">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="X8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2895,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -2907,28 +3246,58 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4">
         <v>10</v>
       </c>
-      <c r="J9" s="4">
-        <v>5</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="N9" s="4">
+        <v>10</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
         <v>1</v>
       </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
         <v>4.5</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="X9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2940,10 +3309,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -2952,30 +3321,61 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>26</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
         <v>10</v>
       </c>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="N10" s="4">
+        <v>10</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
         <v>1</v>
       </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>39</v>
+      <c r="X10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2995,7 +3395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3016,53 +3416,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -3074,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -3097,40 +3497,40 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3142,21 +3542,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F5" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H5" s="4">
         <v>1.5</v>
@@ -3183,21 +3583,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>
@@ -3224,21 +3624,21 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -3265,21 +3665,21 @@
         <v>2</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D8" s="17">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F8" s="17">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H8" s="17">
         <v>2</v>
@@ -3306,21 +3706,21 @@
         <v>3</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D9" s="16">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F9" s="16">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G9,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H9" s="16">
         <v>2</v>
@@ -3347,21 +3747,21 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F10" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G10,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H10" s="4">
         <v>4</v>
@@ -3388,21 +3788,21 @@
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F11" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H11" s="4">
         <v>1.5</v>
@@ -3429,21 +3829,21 @@
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D12" s="13">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F12" s="13">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G12,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H12" s="13">
         <v>3</v>
@@ -3470,21 +3870,21 @@
         <v>4</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F13" s="20">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G13,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H13" s="20">
         <v>2.5</v>
@@ -3511,21 +3911,21 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
@@ -3552,21 +3952,21 @@
         <v>4</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D15" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E15,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F15" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
@@ -3593,21 +3993,21 @@
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F16" s="4">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H16" s="4">
         <v>4</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B5AF26-1143-40F3-A1C3-6664FE36C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E5FCCA-6A05-4459-8FD1-1F1DDA881B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -61,8 +61,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AD811564-F417-4522-B568-F47D944650B7}</author>
+  </authors>
+  <commentList>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{AD811564-F417-4522-B568-F47D944650B7}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    상태이상 저항 값</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="158">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,10 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>move_speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,42 +555,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC Type(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#npc_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종족 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종족 타입(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#tribe_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롤 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ENUM:ROLE_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>롤 타입(기획)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -585,14 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,26 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack_inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defend_inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evation_inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuracy_inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Npc_Level_Stat_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,13 +621,6 @@
     <t>3 후열 배치</t>
   </si>
   <si>
-    <t>4 보스 몬스터</t>
-  </si>
-  <si>
-    <t>3 수인족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 탱커</t>
   </si>
   <si>
@@ -786,42 +733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_defend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_defend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_cri_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cri_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_cri_power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cri_power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_recovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>heal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,6 +766,111 @@
   </si>
   <si>
     <t>resist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기획자 확인용)</t>
+  </si>
+  <si>
+    <t>#desc</t>
+  </si>
+  <si>
+    <t>공격 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요력</t>
+  </si>
+  <si>
+    <t>#monster_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resist </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 물리 캐릭터</t>
+  </si>
+  <si>
+    <t>근접 물리 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 마법 캐릭터</t>
+  </si>
+  <si>
+    <t>원거리 마법 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>physics_attack</t>
+  </si>
+  <si>
+    <t>magic_attack</t>
+  </si>
+  <si>
+    <t>physics_defend</t>
+  </si>
+  <si>
+    <t>magic_defend</t>
+  </si>
+  <si>
+    <t>physics_critical_chance</t>
+  </si>
+  <si>
+    <t>magic_critical_chance</t>
+  </si>
+  <si>
+    <t>physics_critical_power_add</t>
+  </si>
+  <si>
+    <t>magic_critical_power_add</t>
+  </si>
+  <si>
+    <t>attack_life_recovery</t>
+  </si>
+  <si>
+    <t>evation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,9 +1204,7 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
-      <sheetName val="@item_type"/>
-      <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
+      <sheetName val="@attribute_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1523,9 +1537,79 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="31">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ELECTRICITY</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>전기</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VEGETARIUM</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>베리타리움</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VITALITY</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>요력</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>MAGIC</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>마력</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1538,9 +1622,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1578,7 +1662,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1684,7 +1768,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1826,7 +1910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1835,6 +1919,14 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="U2" dT="2024-02-02T05:50:03.72" personId="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" id="{C35AC73B-45BC-4F67-BABC-CF97191C3CC5}">
+    <text>상태이상 저항 값</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="R2" dT="2024-02-02T05:50:03.72" personId="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" id="{AD811564-F417-4522-B568-F47D944650B7}">
     <text>상태이상 저항 값</text>
   </threadedComment>
 </ThreadedComments>
@@ -1957,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5FBD5-DEC5-4BB7-BF75-CE8046386F75}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1972,9 +2064,10 @@
     <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -1991,8 +2084,12 @@
         <f>'[1]@role'!$A$1</f>
         <v>ROLE_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="Q1" t="str">
+        <f>'[1]@attribute_type'!$A$1</f>
+        <v>ATTRIBUTE_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="5" t="str">
         <f>'[1]@tribe'!$A$3</f>
         <v>type</v>
@@ -2041,8 +2138,20 @@
         <f>'[1]@role'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2" s="5" t="str">
+        <f>'[1]@attribute_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="R2" s="5" t="str">
+        <f>'[1]@attribute_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <f>'[1]@attribute_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -2091,8 +2200,20 @@
         <f>'[1]@role'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Q3" s="4" t="str">
+        <f>'[1]@attribute_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'[1]@attribute_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f>'[1]@attribute_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -2141,8 +2262,20 @@
         <f>'[1]@role'!$C5</f>
         <v>1 탱커</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4" s="4" t="str">
+        <f>'[1]@attribute_type'!$A5</f>
+        <v>ELECTRICITY</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'[1]@attribute_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f>'[1]@attribute_type'!$C5</f>
+        <v>전기</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -2191,8 +2324,20 @@
         <f>'[1]@role'!$C6</f>
         <v>2 딜러</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5" s="4" t="str">
+        <f>'[1]@attribute_type'!$A6</f>
+        <v>VEGETARIUM</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'[1]@attribute_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f>'[1]@attribute_type'!$C6</f>
+        <v>베리타리움</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -2241,8 +2386,20 @@
         <f>'[1]@role'!$C7</f>
         <v>3 서포터</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6" s="4" t="str">
+        <f>'[1]@attribute_type'!$A7</f>
+        <v>VITALITY</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'[1]@attribute_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f>'[1]@attribute_type'!$C7</f>
+        <v>요력</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -2279,8 +2436,20 @@
         <f>'[1]@role'!$C8</f>
         <v>4 힐러</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7" s="4" t="str">
+        <f>'[1]@attribute_type'!$A8</f>
+        <v>MAGIC</v>
+      </c>
+      <c r="R7" s="4">
+        <f>'[1]@attribute_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>'[1]@attribute_type'!$C8</f>
+        <v>마력</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -2294,7 +2463,7 @@
         <v>5 악마</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -2316,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2327,55 +2496,63 @@
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="10" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2390,24 +2567,30 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2416,229 +2599,277 @@
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>129</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="9">
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H5" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I5,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="11">
         <v>100001</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="9">
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D6" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F6" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H6" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I6,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="11">
         <v>100002</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="9">
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H7" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I7,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="11">
         <v>100003</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="9">
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H8" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I8,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="11">
         <v>100004</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9">
         <v>100005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D9" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H9" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I9,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="11">
         <v>100005</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="9">
         <v>100006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D10" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H10" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I10,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="11">
         <v>100006</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>100</v>
+      <c r="K10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2646,7 +2877,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49387F52-C160-4743-81D7-5388C9A06CD4}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
@@ -2659,6 +2890,12 @@
           </x14:formula1>
           <xm:sqref>G5:G10</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23DAC238-361B-4BCB-8634-45869F457A64}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5:I10</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2669,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2697,7 +2934,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -2705,13 +2942,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -2720,52 +2957,52 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>27</v>
@@ -2776,16 +3013,16 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -2794,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -2850,16 +3087,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -2868,58 +3105,58 @@
         <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -2934,10 +3171,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -2994,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -3009,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -3069,7 +3306,7 @@
         <v>4.2</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -3084,10 +3321,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -3144,7 +3381,7 @@
         <v>4.3</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -3159,10 +3396,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -3219,7 +3456,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -3234,10 +3471,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -3294,7 +3531,7 @@
         <v>4.5</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -3309,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -3369,7 +3606,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3392,92 +3629,117 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="19" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="9.75" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -3494,78 +3756,130 @@
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>154</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="4">
         <v>2030101</v>
       </c>
-      <c r="B5" s="4">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C5,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E5,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>101</v>
+      <c r="B5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="12">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.5</v>
       </c>
       <c r="F5" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G5,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.5</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -3573,40 +3887,65 @@
       <c r="L5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4">
         <v>2030201</v>
       </c>
-      <c r="B6" s="4">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C6,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="B6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="12">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E6,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="D6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G6,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>109</v>
+      <c r="G6" s="4">
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="4">
         <v>0.5</v>
       </c>
       <c r="J6" s="4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -3614,40 +3953,65 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="4">
         <v>2030301</v>
       </c>
-      <c r="B7" s="4">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C7,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E7,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="B7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="12">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>101</v>
+      <c r="D7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
       </c>
       <c r="F7" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G7,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="4">
         <v>0.5</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -3655,40 +4019,65 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1">
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" thickBot="1">
       <c r="A8" s="17">
         <v>2030401</v>
       </c>
-      <c r="B8" s="17">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C8,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="B8" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="19">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="17">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E8,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="17">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G8,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>111</v>
+      <c r="G8" s="17">
+        <v>0</v>
       </c>
       <c r="H8" s="17">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="I8" s="17">
         <v>0.6</v>
       </c>
       <c r="J8" s="17">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K8" s="17">
         <v>0</v>
@@ -3696,40 +4085,65 @@
       <c r="L8" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="15" customFormat="1" ht="17.25" thickTop="1">
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="15" customFormat="1" ht="17.25" thickTop="1">
       <c r="A9" s="16">
         <v>3030101</v>
       </c>
-      <c r="B9" s="16">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C9,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="16">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E9,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>101</v>
+      <c r="B9" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="18">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.8</v>
       </c>
       <c r="F9" s="16">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G9,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>108</v>
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
       </c>
       <c r="H9" s="16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I9" s="16">
         <v>1.5</v>
       </c>
       <c r="J9" s="16">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K9" s="16">
         <v>0</v>
@@ -3737,40 +4151,65 @@
       <c r="L9" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="4">
         <v>3030201</v>
       </c>
-      <c r="B10" s="4">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C10,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E10,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>101</v>
+      <c r="B10" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="12">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.5</v>
       </c>
       <c r="F10" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G10,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>109</v>
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="I10" s="4">
         <v>0.6</v>
       </c>
       <c r="J10" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -3778,40 +4217,65 @@
       <c r="L10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4">
         <v>3030301</v>
       </c>
-      <c r="B11" s="4">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C11,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="B11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="12">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E11,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>101</v>
+      <c r="D11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.2</v>
       </c>
       <c r="F11" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G11,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>110</v>
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="I11" s="4">
         <v>0.6</v>
       </c>
       <c r="J11" s="4">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -3819,40 +4283,65 @@
       <c r="L11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17.25" thickBot="1">
       <c r="A12" s="13">
         <v>3030401</v>
       </c>
-      <c r="B12" s="13">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C12,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="B12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="14">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="13">
         <v>3</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="13">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E12,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="13">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G12,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>111</v>
+      <c r="G12" s="13">
+        <v>0</v>
       </c>
       <c r="H12" s="13">
-        <v>3</v>
+        <v>0.85</v>
       </c>
       <c r="I12" s="13">
         <v>0.85</v>
       </c>
       <c r="J12" s="13">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
@@ -3860,191 +4349,302 @@
       <c r="L12" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="17.25" thickTop="1">
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="22" customFormat="1" ht="17.25" thickTop="1">
       <c r="A13" s="20">
         <v>4030101</v>
       </c>
-      <c r="B13" s="20">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C13,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>4</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="20">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E13,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>101</v>
+      <c r="B13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="21">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1.5</v>
       </c>
       <c r="F13" s="20">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G13,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>108</v>
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
       </c>
       <c r="H13" s="20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I13" s="20">
         <v>2</v>
       </c>
       <c r="J13" s="20">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0</v>
+      </c>
+      <c r="N13" s="20">
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
         <v>0.01</v>
       </c>
-      <c r="L13" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="P13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="4">
         <v>4030201</v>
       </c>
-      <c r="B14" s="4">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C14,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>4</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E14,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>101</v>
+      <c r="B14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="12">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
       </c>
       <c r="F14" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G14,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>109</v>
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="I14" s="4">
         <v>0.7</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
         <v>0.02</v>
       </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="4">
         <v>4030301</v>
       </c>
-      <c r="B15" s="4">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C15,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>4</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E15,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="B15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="12">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>101</v>
+      <c r="D15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.5</v>
       </c>
       <c r="F15" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G15,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>110</v>
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="I15" s="4">
         <v>0.7</v>
       </c>
       <c r="J15" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <v>0.01</v>
       </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17.25" thickBot="1">
       <c r="A16" s="4">
         <v>4030401</v>
       </c>
-      <c r="B16" s="4">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(C16,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="B16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="12">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E16,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>107</v>
+      <c r="D16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.9</v>
       </c>
       <c r="F16" s="4">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(G16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>111</v>
+      <c r="G16" s="4">
+        <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I16" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="J16" s="4">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
         <v>0.01</v>
       </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{354F4842-3D6C-44A2-BF1B-7D5ACD0F716D}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5:C16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB663335-8E96-4460-BF1C-CE30CF19C0E9}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:E16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E5FCCA-6A05-4459-8FD1-1F1DDA881B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8252B72-4BF1-458D-9639-727317D53F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1511,21 +1511,75 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -1535,7 +1589,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31">
         <row r="1">
@@ -2906,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:Q4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3261,10 +3321,10 @@
         <v>316</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J6" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <v>3</v>
@@ -3486,10 +3546,10 @@
         <v>316</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J9" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4">
         <v>3</v>
@@ -3561,10 +3621,10 @@
         <v>228</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J10" s="4">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <v>3</v>
@@ -3632,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3644,7 +3704,10 @@
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="19" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="8.875" customWidth="1"/>
     <col min="20" max="20" width="9.75" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
   </cols>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8252B72-4BF1-458D-9639-727317D53F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA621E1-6540-4348-9B10-6DE62FFE3CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="159">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -872,6 +872,9 @@
   <si>
     <t>evation</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 중열 배치</t>
   </si>
 </sst>
 </file>
@@ -1511,75 +1514,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -1589,13 +1538,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31">
         <row r="1">
@@ -1682,9 +1625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1722,7 +1665,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1828,7 +1771,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1970,7 +1913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2548,7 +2491,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2966,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3299,14 +3242,14 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D6,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>100</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA621E1-6540-4348-9B10-6DE62FFE3CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0574C0-4A5E-41B9-97AF-7D6E7E10044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1605" yWindow="990" windowWidth="33900" windowHeight="19740" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>tc={C35AC73B-45BC-4F67-BABC-CF97191C3CC5}</author>
   </authors>
   <commentList>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{C35AC73B-45BC-4F67-BABC-CF97191C3CC5}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{C35AC73B-45BC-4F67-BABC-CF97191C3CC5}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="162">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,6 +875,18 @@
   </si>
   <si>
     <t>2 중열 배치</t>
+  </si>
+  <si>
+    <t>1-5피통 큰 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4원거리 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1208,6 +1220,9 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1529,7 +1544,13 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1613,6 +1634,9 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1921,7 +1945,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="U2" dT="2024-02-02T05:50:03.72" personId="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" id="{C35AC73B-45BC-4F67-BABC-CF97191C3CC5}">
+  <threadedComment ref="V2" dT="2024-02-02T05:50:03.72" personId="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" id="{C35AC73B-45BC-4F67-BABC-CF97191C3CC5}">
     <text>상태이상 저항 값</text>
   </threadedComment>
 </ThreadedComments>
@@ -2488,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2875,6 +2899,170 @@
         <v>84</v>
       </c>
     </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9">
+        <v>100007</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E11,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G11,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I11,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="11">
+        <v>100007</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9">
+        <v>100008</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E12,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G12,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I12,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="11">
+        <v>100008</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9">
+        <v>100101</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E13,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G13,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I13,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="11">
+        <v>100101</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9">
+        <v>100201</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E14,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G14,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I14,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="11">
+        <v>100201</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2885,19 +3073,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E10</xm:sqref>
+          <xm:sqref>E5:E14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FE7930-B052-4871-A2B4-FA0C048FF3E1}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G10</xm:sqref>
+          <xm:sqref>G5:G14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23DAC238-361B-4BCB-8634-45869F457A64}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I10</xm:sqref>
+          <xm:sqref>I5:I14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2907,137 +3095,141 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -3085,129 +3277,136 @@
         <v>9</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="4" t="str">
+        <f>VLOOKUP(A5,npc_data!A:B,2,0)</f>
+        <v>탱커</v>
+      </c>
+      <c r="C5" s="4">
         <v>3.5</v>
       </c>
-      <c r="C5" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D5,'!참조_ENUM'!$G$3:$G$6,0))</f>
+      <c r="D5" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E5,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>154</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>28</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
       <c r="K5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4">
         <v>2</v>
-      </c>
-      <c r="M5" s="4">
-        <v>10</v>
       </c>
       <c r="N5" s="4">
         <v>10</v>
       </c>
       <c r="O5" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4">
         <v>0</v>
@@ -3216,11 +3415,11 @@
         <v>0</v>
       </c>
       <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
         <v>1</v>
       </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
       <c r="T5" s="4">
         <v>0</v>
       </c>
@@ -3231,58 +3430,62 @@
         <v>0</v>
       </c>
       <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
         <v>4</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="str">
+        <f>VLOOKUP(A6,npc_data!A:B,2,0)</f>
+        <v>근접 딜러</v>
+      </c>
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D6,'!참조_ENUM'!$G$3:$G$6,0))</f>
+      <c r="D6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E6,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>316</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>18</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
       <c r="K6" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
         <v>2</v>
-      </c>
-      <c r="M6" s="4">
-        <v>10</v>
       </c>
       <c r="N6" s="4">
         <v>10</v>
       </c>
       <c r="O6" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
@@ -3291,11 +3494,11 @@
         <v>0</v>
       </c>
       <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
       <c r="T6" s="4">
         <v>0</v>
       </c>
@@ -3306,58 +3509,62 @@
         <v>0</v>
       </c>
       <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
         <v>4.2</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(A7,npc_data!A:B,2,0)</f>
+        <v>원거리 발사</v>
+      </c>
+      <c r="C7" s="4">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D7,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E7,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>355</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>38</v>
       </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
       <c r="K7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
         <v>2</v>
-      </c>
-      <c r="M7" s="4">
-        <v>10</v>
       </c>
       <c r="N7" s="4">
         <v>10</v>
       </c>
       <c r="O7" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
@@ -3366,11 +3573,11 @@
         <v>0</v>
       </c>
       <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
         <v>1</v>
       </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
       <c r="T7" s="4">
         <v>0</v>
       </c>
@@ -3381,58 +3588,62 @@
         <v>0</v>
       </c>
       <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
         <v>4.3</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="4" t="str">
+        <f>VLOOKUP(A8,npc_data!A:B,2,0)</f>
+        <v>원거리 투척</v>
+      </c>
+      <c r="C8" s="4">
         <v>9.5</v>
       </c>
-      <c r="C8" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D8,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E8,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>301</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>28</v>
       </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
       <c r="K8" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4">
         <v>2</v>
-      </c>
-      <c r="M8" s="4">
-        <v>10</v>
       </c>
       <c r="N8" s="4">
         <v>10</v>
       </c>
       <c r="O8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -3441,11 +3652,11 @@
         <v>0</v>
       </c>
       <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
@@ -3456,58 +3667,62 @@
         <v>0</v>
       </c>
       <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="4" t="str">
+        <f>VLOOKUP(A9,npc_data!A:B,2,0)</f>
+        <v>철갑 낀 아르마딜로</v>
+      </c>
+      <c r="C9" s="4">
         <v>9.5</v>
       </c>
-      <c r="C9" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D9,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E9,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>316</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>18</v>
       </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
       <c r="K9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4">
         <v>2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>10</v>
       </c>
       <c r="N9" s="4">
         <v>10</v>
       </c>
       <c r="O9" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
@@ -3516,11 +3731,11 @@
         <v>0</v>
       </c>
       <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
         <v>1</v>
       </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
       <c r="T9" s="4">
         <v>0</v>
       </c>
@@ -3531,58 +3746,62 @@
         <v>0</v>
       </c>
       <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
         <v>4.5</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="4" t="str">
+        <f>VLOOKUP(A10,npc_data!A:B,2,0)</f>
+        <v>철갑 낀 아르마딜로</v>
+      </c>
+      <c r="C10" s="4">
         <v>9.5</v>
       </c>
-      <c r="C10" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(D10,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E10,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>228</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>26</v>
       </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
       <c r="K10" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4">
         <v>2</v>
-      </c>
-      <c r="M10" s="4">
-        <v>10</v>
       </c>
       <c r="N10" s="4">
         <v>10</v>
       </c>
       <c r="O10" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10" s="4">
         <v>0</v>
@@ -3591,11 +3810,11 @@
         <v>0</v>
       </c>
       <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
       <c r="T10" s="4">
         <v>0</v>
       </c>
@@ -3606,9 +3825,328 @@
         <v>0</v>
       </c>
       <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(A11,npc_data!A:B,2,0)</f>
+        <v>1-5피통 큰 몬스터</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D11" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E11,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="4">
+        <v>28</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="4">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="4">
+        <v>100008</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>VLOOKUP(A12,npc_data!A:B,2,0)</f>
+        <v>1-4원거리 발사</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E12,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>355</v>
+      </c>
+      <c r="J12" s="4">
+        <v>100</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4">
+        <v>10</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="4">
+        <v>100101</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>VLOOKUP(A13,npc_data!A:B,2,0)</f>
+        <v>1-2탱커</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E13,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>154</v>
+      </c>
+      <c r="J13" s="4">
+        <v>28</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>10</v>
+      </c>
+      <c r="O13" s="4">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="4">
+        <v>100201</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>VLOOKUP(A14,npc_data!A:B,2,0)</f>
+        <v>1-2탱커</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E14,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>154</v>
+      </c>
+      <c r="J14" s="4">
+        <v>28</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>10</v>
+      </c>
+      <c r="O14" s="4">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3623,7 +4161,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
+          <xm:sqref>E5:E14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0574C0-4A5E-41B9-97AF-7D6E7E10044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73CD6B3-E56E-4121-8179-FA872B98B43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="990" windowWidth="33900" windowHeight="19740" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38700" yWindow="315" windowWidth="18855" windowHeight="19800" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1529,21 +1529,75 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
@@ -1559,7 +1613,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31">
         <row r="1">
@@ -1649,9 +1709,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1689,7 +1749,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1795,7 +1855,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1937,7 +1997,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2514,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3097,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3369,7 +3429,7 @@
         <v>탱커</v>
       </c>
       <c r="C5" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E5,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -3448,7 +3508,7 @@
         <v>근접 딜러</v>
       </c>
       <c r="C6" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E6,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -3843,7 +3903,7 @@
         <v>1-5피통 큰 몬스터</v>
       </c>
       <c r="C11" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E11,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -3862,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="J11" s="4">
         <v>28</v>
@@ -3944,7 +4004,7 @@
         <v>355</v>
       </c>
       <c r="J12" s="4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73CD6B3-E56E-4121-8179-FA872B98B43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DCF11F-DE9F-4AF2-98ED-3BAEAAD942EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38700" yWindow="315" windowWidth="18855" windowHeight="19800" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1800" yWindow="1035" windowWidth="35385" windowHeight="19800" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,10 +47,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C35AC73B-45BC-4F67-BABC-CF97191C3CC5}</author>
+    <author>tc={A80C448A-B16C-47E8-9B63-91568F5ADA04}</author>
   </authors>
   <commentList>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{C35AC73B-45BC-4F67-BABC-CF97191C3CC5}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{A80C448A-B16C-47E8-9B63-91568F5ADA04}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,9 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>철갑 낀 아르마딜로</t>
-  </si>
-  <si>
     <t>npc_battle_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,22 +635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 딜러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 투척</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[200001, 200001]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,10 +655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>special_skill_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,30 +719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>존 1의 근접 물리 몬스터 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>존 1의 원거리 마법 몬스터 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>존 1의 근접 물리 몬스터 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>존 1의 근접 물리 몬스터 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>존 1의 원거리 마법 몬스터 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>존 1의 원거리 마법 몬스터 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,22 +824,135 @@
     <t>attack_life_recovery</t>
   </si>
   <si>
-    <t>evation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2 중열 배치</t>
   </si>
   <si>
-    <t>1-5피통 큰 몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4원거리 발사</t>
+    <t>마력 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1 마력 탱커 (물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력</t>
+  </si>
+  <si>
+    <t>마력 근접 딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1 딜러 (물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력 원거리 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1 원딜러 (물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 2 탱커 (물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+  </si>
+  <si>
+    <t>전기 근접 딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 2 딜러 (물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 원거리 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 2 원딜러 (물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리타리움 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리타리움</t>
+  </si>
+  <si>
+    <t>베리타리움 근접 딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리타리움 원거리 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요력 서포터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 존에 출현  (물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1 마력 탱커 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1 딜러 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 1 원딜러 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 2 탱커 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 2 딜러 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 2 원딜러 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 3 탱커 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 3 딜러 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 3 원딜러 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 존에 출현 (마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5 마력 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5 출현하는 피통 큰 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1529,82 +1596,22 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1613,13 +1620,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31">
         <row r="1">
@@ -1697,6 +1698,443 @@
       <sheetData sheetId="32" refreshError="1"/>
       <sheetData sheetId="33" refreshError="1"/>
       <sheetData sheetId="34" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="!Usable"/>
+      <sheetName val="!Desc"/>
+      <sheetName val="!참조_ENUM"/>
+      <sheetName val="npc_data"/>
+      <sheetName val="npc_battle_data"/>
+      <sheetName val="npc_stat_data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="R3">
+            <v>0</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>1 인간종족</v>
+          </cell>
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>1 전열 배치</v>
+          </cell>
+          <cell r="J4">
+            <v>1</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>1 우호 NPC</v>
+          </cell>
+          <cell r="R4">
+            <v>1</v>
+          </cell>
+          <cell r="S4" t="str">
+            <v>전기</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>2</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>2 엘프족</v>
+          </cell>
+          <cell r="F5">
+            <v>2</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>2 중열 배치</v>
+          </cell>
+          <cell r="J5">
+            <v>2</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>2 일반 몬스터</v>
+          </cell>
+          <cell r="R5">
+            <v>2</v>
+          </cell>
+          <cell r="S5" t="str">
+            <v>베리타리움</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>3</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>3 수인족</v>
+          </cell>
+          <cell r="F6">
+            <v>3</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>3 후열 배치</v>
+          </cell>
+          <cell r="J6">
+            <v>3</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>3 엘리트 몬스터</v>
+          </cell>
+          <cell r="R6">
+            <v>3</v>
+          </cell>
+          <cell r="S6" t="str">
+            <v>요력</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>4</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>4 안드로이드</v>
+          </cell>
+          <cell r="J7">
+            <v>4</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>4 보스 몬스터</v>
+          </cell>
+          <cell r="R7">
+            <v>4</v>
+          </cell>
+          <cell r="S7" t="str">
+            <v>마력</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>5</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>5 악마</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>6</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>6 천사</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Npc_Data</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>npc id</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>이름</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>설명(기획)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>key_1:int</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>npc_data_id</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>name_kr</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>#desc</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>100001</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>마력 탱커</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>존 1 마력 탱커 (물리)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>100002</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>마력 근접 딜러</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>존 1 딜러 (물리)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>100003</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>마력 원거리 발사</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>존 1 원딜러 (물리)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>100004</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>전기 탱커</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>존 2 탱커 (물리)</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>100005</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>전기 근접 딜러</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>존 2 딜러 (물리)</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>100006</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>전기 원거리 발사</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>존 2 원딜러 (물리)</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>100007</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>베리타리움 탱커</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>존 2 탱커 (물리)</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>100008</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>베리타리움 근접 딜러</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>존 2 딜러 (물리)</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>100009</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>베리타리움 원거리 발사</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>존 2 원딜러 (물리)</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>100010</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>요력 서포터</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>모든 존에 출현  (물리)</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>100101</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>마력 탱커</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>존 1 마력 탱커 (마법)</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>100102</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>마력 근접 딜러</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>존 1 딜러 (마법)</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>100103</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>마력 원거리 발사</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>존 1 원딜러 (마법)</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>100104</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>전기 탱커</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>존 2 탱커 (마법)</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>100105</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>전기 근접 딜러</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>존 2 딜러 (마법)</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>100106</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>전기 원거리 발사</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>존 2 원딜러 (마법)</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>100107</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>베리타리움 탱커</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>존 3 탱커 (마법)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>100108</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>베리타리움 근접 딜러</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>존 3 딜러 (마법)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>100109</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>베리타리움 원거리 발사</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>존 3 원딜러 (마법)</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>100110</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>요력 서포터</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>모든 존에 출현 (마법)</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>200001</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>1-5 마력 탱커</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>1-5 출현하는 피통 큰 탱커</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2005,7 +2443,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V2" dT="2024-02-02T05:50:03.72" personId="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" id="{C35AC73B-45BC-4F67-BABC-CF97191C3CC5}">
+  <threadedComment ref="W2" dT="2024-02-02T05:50:03.72" personId="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" id="{A80C448A-B16C-47E8-9B63-91568F5ADA04}">
     <text>상태이상 저항 값</text>
   </threadedComment>
 </ThreadedComments>
@@ -2572,16 +3010,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="4" width="6.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
@@ -2596,7 +3034,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2622,16 +3060,16 @@
         <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>29</v>
@@ -2639,7 +3077,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2660,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>0</v>
@@ -2698,19 +3136,19 @@
         <v>46</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2718,40 +3156,40 @@
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D5" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E5,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E5,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G5,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G5,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="H5" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I5,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I5,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J5" s="11">
         <v>100001</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2759,40 +3197,40 @@
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D6" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E6,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E6,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G6,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G6,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="H6" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I6,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I6,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J6" s="11">
         <v>100002</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2800,40 +3238,40 @@
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D7" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E7,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E7,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G7,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G7,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="H7" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I7,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I7,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J7" s="11">
         <v>100003</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2841,40 +3279,40 @@
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="D8" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E8,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E8,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G8,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G8,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="H8" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I8,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I8,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="J8" s="11">
         <v>100004</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2882,40 +3320,40 @@
         <v>100005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D9" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E9,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E9,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G9,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G9,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I9,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I9,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="J9" s="11">
         <v>100005</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2923,40 +3361,40 @@
         <v>100006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D10" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E10,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E10,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G10,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G10,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I10,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I10,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="J10" s="11">
         <v>100006</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2964,40 +3402,40 @@
         <v>100007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="D11" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E11,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E11,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G11,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G11,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H11" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I11,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I11,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="J11" s="11">
         <v>100007</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3005,168 +3443,595 @@
         <v>100008</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E12,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G12,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I12,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E12,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G12,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I12,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="J12" s="11">
         <v>100008</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9">
-        <v>100101</v>
+        <v>100009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="D13" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E13,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E13,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G13,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G13,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H13" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I13,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I13,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
-      </c>
       <c r="I13" s="12" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="J13" s="11">
-        <v>100101</v>
+        <v>100009</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9">
-        <v>100201</v>
+        <v>100010</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E14,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G14,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I14,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="11">
+        <v>100010</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9">
+        <v>100101</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E15,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G15,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I15,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="9">
+        <v>100101</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9">
+        <v>100102</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E16,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G16,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I16,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" s="9">
+        <v>100102</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9">
+        <v>100103</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E17,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G17,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I17,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="9">
+        <v>100103</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9">
+        <v>100104</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E18,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G18,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I18,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="9">
+        <v>100104</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9">
+        <v>100105</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E19,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G19,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I19,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="9">
+        <v>100105</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9">
+        <v>100106</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E20,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G20,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I20,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="9">
+        <v>100106</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9">
+        <v>100107</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(E14,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="C21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E21,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G21,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(G14,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H21" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I21,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(I14,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="11">
-        <v>100201</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>79</v>
+      <c r="I21" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="9">
+        <v>100107</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9">
+        <v>100108</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E22,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G22,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I22,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="9">
+        <v>100108</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9">
+        <v>100109</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E23,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G23,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I23,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="9">
+        <v>100109</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9">
+        <v>100110</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E24,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G24,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I24,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="9">
+        <v>100110</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11">
+        <v>200001</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E25,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G25,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I25,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="11">
+        <v>200001</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49387F52-C160-4743-81D7-5388C9A06CD4}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:E14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FE7930-B052-4871-A2B4-FA0C048FF3E1}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>G5:G14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23DAC238-361B-4BCB-8634-45869F457A64}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>I5:I14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
@@ -3184,115 +4049,118 @@
     <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>9</v>
@@ -3340,136 +4208,143 @@
         <v>9</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="V4" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>VLOOKUP(A5,npc_data!A:B,2,0)</f>
-        <v>탱커</v>
-      </c>
-      <c r="C5" s="4">
+        <f>VLOOKUP(A5,[2]npc_data!A:B,2,0)</f>
+        <v>마력 탱커</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>VLOOKUP(B5,[2]npc_data!B:C,2,0)</f>
+        <v>존 1 마력 탱커 (물리)</v>
+      </c>
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E5,'!참조_ENUM'!$G$3:$G$6,0))</f>
+      <c r="E5" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F5,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
+      <c r="F5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>154</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>28</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
       <c r="L5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4">
         <v>2</v>
-      </c>
-      <c r="N5" s="4">
-        <v>10</v>
       </c>
       <c r="O5" s="4">
         <v>10</v>
       </c>
       <c r="P5" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
@@ -3478,11 +4353,11 @@
         <v>0</v>
       </c>
       <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
         <v>1</v>
       </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
       <c r="U5" s="4">
         <v>0</v>
       </c>
@@ -3493,62 +4368,66 @@
         <v>0</v>
       </c>
       <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
         <v>4</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>VLOOKUP(A6,npc_data!A:B,2,0)</f>
-        <v>근접 딜러</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4.5</v>
+        <f>VLOOKUP(A6,[2]npc_data!A:B,2,0)</f>
+        <v>마력 근접 딜러</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>VLOOKUP(B6,[2]npc_data!B:C,2,0)</f>
+        <v>존 1 딜러 (물리)</v>
       </c>
       <c r="D6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E6,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F6,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
+      <c r="F6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>316</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>18</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
       <c r="L6" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
         <v>2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10</v>
       </c>
       <c r="O6" s="4">
         <v>10</v>
       </c>
       <c r="P6" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
@@ -3557,11 +4436,11 @@
         <v>0</v>
       </c>
       <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
       <c r="U6" s="4">
         <v>0</v>
       </c>
@@ -3572,62 +4451,66 @@
         <v>0</v>
       </c>
       <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
         <v>4.2</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>VLOOKUP(A7,npc_data!A:B,2,0)</f>
-        <v>원거리 발사</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9</v>
+        <f>VLOOKUP(A7,[2]npc_data!A:B,2,0)</f>
+        <v>마력 원거리 발사</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>VLOOKUP(B7,[2]npc_data!B:C,2,0)</f>
+        <v>존 1 원딜러 (물리)</v>
       </c>
       <c r="D7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E7,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F7,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>355</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>38</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
       <c r="L7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4">
         <v>2</v>
-      </c>
-      <c r="N7" s="4">
-        <v>10</v>
       </c>
       <c r="O7" s="4">
         <v>10</v>
       </c>
       <c r="P7" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -3636,11 +4519,11 @@
         <v>0</v>
       </c>
       <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
         <v>1</v>
       </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
       <c r="U7" s="4">
         <v>0</v>
       </c>
@@ -3651,62 +4534,66 @@
         <v>0</v>
       </c>
       <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
         <v>4.3</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>VLOOKUP(A8,npc_data!A:B,2,0)</f>
-        <v>원거리 투척</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9.5</v>
+        <f>VLOOKUP(A8,[2]npc_data!A:B,2,0)</f>
+        <v>전기 탱커</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>VLOOKUP(B8,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 탱커 (물리)</v>
       </c>
       <c r="D8" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E8,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F8,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
+        <v>154</v>
+      </c>
+      <c r="K8" s="4">
         <v>28</v>
       </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
       <c r="L8" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4">
         <v>2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>10</v>
       </c>
       <c r="O8" s="4">
         <v>10</v>
       </c>
       <c r="P8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -3715,11 +4602,11 @@
         <v>0</v>
       </c>
       <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
       <c r="U8" s="4">
         <v>0</v>
       </c>
@@ -3730,62 +4617,66 @@
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Y8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>VLOOKUP(A9,npc_data!A:B,2,0)</f>
-        <v>철갑 낀 아르마딜로</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.5</v>
+        <f>VLOOKUP(A9,[2]npc_data!A:B,2,0)</f>
+        <v>전기 근접 딜러</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>VLOOKUP(B9,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 딜러 (물리)</v>
       </c>
       <c r="D9" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E9,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F9,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>316</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>18</v>
       </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
       <c r="L9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
         <v>2</v>
-      </c>
-      <c r="N9" s="4">
-        <v>10</v>
       </c>
       <c r="O9" s="4">
         <v>10</v>
       </c>
       <c r="P9" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="4">
         <v>0</v>
@@ -3794,11 +4685,11 @@
         <v>0</v>
       </c>
       <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
         <v>1</v>
       </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
       <c r="U9" s="4">
         <v>0</v>
       </c>
@@ -3809,62 +4700,66 @@
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="Y9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>VLOOKUP(A10,npc_data!A:B,2,0)</f>
-        <v>철갑 낀 아르마딜로</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9.5</v>
+        <f>VLOOKUP(A10,[2]npc_data!A:B,2,0)</f>
+        <v>전기 원거리 발사</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>VLOOKUP(B10,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 원딜러 (물리)</v>
       </c>
       <c r="D10" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E10,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F10,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>26</v>
+        <v>355</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L10" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
         <v>2</v>
-      </c>
-      <c r="N10" s="4">
-        <v>10</v>
       </c>
       <c r="O10" s="4">
         <v>10</v>
       </c>
       <c r="P10" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
@@ -3873,11 +4768,11 @@
         <v>0</v>
       </c>
       <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
         <v>1</v>
       </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
       <c r="U10" s="4">
         <v>0</v>
       </c>
@@ -3888,62 +4783,66 @@
         <v>0</v>
       </c>
       <c r="X10" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Y10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>VLOOKUP(A11,npc_data!A:B,2,0)</f>
-        <v>1-5피통 큰 몬스터</v>
-      </c>
-      <c r="C11" s="4">
+        <f>VLOOKUP(A11,[2]npc_data!A:B,2,0)</f>
+        <v>베리타리움 탱커</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>VLOOKUP(B11,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 탱커 (물리)</v>
+      </c>
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E11,'!참조_ENUM'!$G$3:$G$6,0))</f>
+      <c r="E11" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F11,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
+      <c r="F11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
+        <v>154</v>
+      </c>
+      <c r="K11" s="4">
         <v>28</v>
       </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
       <c r="L11" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
         <v>2</v>
-      </c>
-      <c r="N11" s="4">
-        <v>10</v>
       </c>
       <c r="O11" s="4">
         <v>10</v>
       </c>
       <c r="P11" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -3952,11 +4851,11 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
         <v>1</v>
       </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
       <c r="U11" s="4">
         <v>0</v>
       </c>
@@ -3967,62 +4866,66 @@
         <v>0</v>
       </c>
       <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
         <v>4</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>VLOOKUP(A12,npc_data!A:B,2,0)</f>
-        <v>1-4원거리 발사</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8</v>
+        <f>VLOOKUP(A12,[2]npc_data!A:B,2,0)</f>
+        <v>베리타리움 근접 딜러</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>VLOOKUP(B12,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 딜러 (물리)</v>
       </c>
       <c r="D12" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E12,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F12,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>1000</v>
+        <v>316</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L12" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
+        <v>3</v>
+      </c>
+      <c r="N12" s="4">
         <v>2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>10</v>
       </c>
       <c r="O12" s="4">
         <v>10</v>
       </c>
       <c r="P12" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="4">
         <v>0</v>
@@ -4031,11 +4934,11 @@
         <v>0</v>
       </c>
       <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
         <v>1</v>
       </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
       <c r="U12" s="4">
         <v>0</v>
       </c>
@@ -4046,62 +4949,66 @@
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="Y12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="Z12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="4">
-        <v>100101</v>
+        <v>100009</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>VLOOKUP(A13,npc_data!A:B,2,0)</f>
-        <v>1-2탱커</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
+        <f>VLOOKUP(A13,[2]npc_data!A:B,2,0)</f>
+        <v>베리타리움 원거리 발사</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>VLOOKUP(B13,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 원딜러 (물리)</v>
       </c>
       <c r="D13" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E13,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F13,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
+      <c r="G13" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L13" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="4">
         <v>2</v>
-      </c>
-      <c r="N13" s="4">
-        <v>10</v>
       </c>
       <c r="O13" s="4">
         <v>10</v>
       </c>
       <c r="P13" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="4">
         <v>0</v>
@@ -4110,11 +5017,11 @@
         <v>0</v>
       </c>
       <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
         <v>1</v>
       </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
       <c r="U13" s="4">
         <v>0</v>
       </c>
@@ -4125,62 +5032,66 @@
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14" s="4">
-        <v>100201</v>
+        <v>100010</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>VLOOKUP(A14,npc_data!A:B,2,0)</f>
-        <v>1-2탱커</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8</v>
+        <f>VLOOKUP(A14,[2]npc_data!A:B,2,0)</f>
+        <v>요력 서포터</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>VLOOKUP(B14,[2]npc_data!B:C,2,0)</f>
+        <v>모든 존에 출현  (물리)</v>
       </c>
       <c r="D14" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E14,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F14,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
+      <c r="F14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L14" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
+        <v>3</v>
+      </c>
+      <c r="N14" s="4">
         <v>2</v>
-      </c>
-      <c r="N14" s="4">
-        <v>10</v>
       </c>
       <c r="O14" s="4">
         <v>10</v>
       </c>
       <c r="P14" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -4189,11 +5100,11 @@
         <v>0</v>
       </c>
       <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
         <v>1</v>
       </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
       <c r="U14" s="4">
         <v>0</v>
       </c>
@@ -4204,9 +5115,925 @@
         <v>0</v>
       </c>
       <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4">
+        <v>100101</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>VLOOKUP(A15,[2]npc_data!A:B,2,0)</f>
+        <v>마력 탱커</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>VLOOKUP(B15,[2]npc_data!B:C,2,0)</f>
+        <v>존 1 마력 탱커 (물리)</v>
+      </c>
+      <c r="D15" s="4">
         <v>4</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="E15" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F15,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>154</v>
+      </c>
+      <c r="K15" s="4">
+        <v>28</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>10</v>
+      </c>
+      <c r="P15" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="4">
+        <v>100102</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>VLOOKUP(A16,[2]npc_data!A:B,2,0)</f>
+        <v>마력 근접 딜러</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>VLOOKUP(B16,[2]npc_data!B:C,2,0)</f>
+        <v>존 1 딜러 (물리)</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F16,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>316</v>
+      </c>
+      <c r="K16" s="4">
+        <v>18</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>3</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>10</v>
+      </c>
+      <c r="P16" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="4">
+        <v>100103</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>VLOOKUP(A17,[2]npc_data!A:B,2,0)</f>
+        <v>마력 원거리 발사</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>VLOOKUP(B17,[2]npc_data!B:C,2,0)</f>
+        <v>존 1 원딜러 (물리)</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F17,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>355</v>
+      </c>
+      <c r="K17" s="4">
+        <v>38</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>10</v>
+      </c>
+      <c r="P17" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="4">
+        <v>100104</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>VLOOKUP(A18,[2]npc_data!A:B,2,0)</f>
+        <v>전기 탱커</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>VLOOKUP(B18,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 탱커 (물리)</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F18,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>154</v>
+      </c>
+      <c r="K18" s="4">
+        <v>28</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>10</v>
+      </c>
+      <c r="P18" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="4">
+        <v>100105</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>VLOOKUP(A19,[2]npc_data!A:B,2,0)</f>
+        <v>전기 근접 딜러</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>VLOOKUP(B19,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 딜러 (물리)</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F19,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>316</v>
+      </c>
+      <c r="K19" s="4">
+        <v>18</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>10</v>
+      </c>
+      <c r="P19" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="4">
+        <v>100106</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>VLOOKUP(A20,[2]npc_data!A:B,2,0)</f>
+        <v>전기 원거리 발사</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>VLOOKUP(B20,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 원딜러 (물리)</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F20,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>355</v>
+      </c>
+      <c r="K20" s="4">
+        <v>38</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4">
+        <v>10</v>
+      </c>
+      <c r="P20" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="4">
+        <v>100107</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>VLOOKUP(A21,[2]npc_data!A:B,2,0)</f>
+        <v>베리타리움 탱커</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>VLOOKUP(B21,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 탱커 (물리)</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F21,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>154</v>
+      </c>
+      <c r="K21" s="4">
+        <v>28</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>10</v>
+      </c>
+      <c r="P21" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="4">
+        <v>100108</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>VLOOKUP(A22,[2]npc_data!A:B,2,0)</f>
+        <v>베리타리움 근접 딜러</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>VLOOKUP(B22,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 딜러 (물리)</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F22,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>316</v>
+      </c>
+      <c r="K22" s="4">
+        <v>18</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>3</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4">
+        <v>10</v>
+      </c>
+      <c r="P22" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="4">
+        <v>100109</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>VLOOKUP(A23,[2]npc_data!A:B,2,0)</f>
+        <v>베리타리움 원거리 발사</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>VLOOKUP(B23,[2]npc_data!B:C,2,0)</f>
+        <v>존 2 원딜러 (물리)</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F23,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>355</v>
+      </c>
+      <c r="K23" s="4">
+        <v>38</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4">
+        <v>10</v>
+      </c>
+      <c r="P23" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="4">
+        <v>100110</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>VLOOKUP(A24,[2]npc_data!A:B,2,0)</f>
+        <v>요력 서포터</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>VLOOKUP(B24,[2]npc_data!B:C,2,0)</f>
+        <v>모든 존에 출현  (물리)</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F24,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>355</v>
+      </c>
+      <c r="K24" s="4">
+        <v>38</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>3</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="4">
+        <v>200001</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>VLOOKUP(A25,[2]npc_data!A:B,2,0)</f>
+        <v>1-5 마력 탱커</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>VLOOKUP(B25,[2]npc_data!B:C,2,0)</f>
+        <v>1-5 출현하는 피통 큰 탱커</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F25,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K25" s="4">
+        <v>28</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4">
+        <v>10</v>
+      </c>
+      <c r="P25" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4214,18 +6041,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5B9A8A1-E869-4971-9597-13278BE6EE2D}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$G$3:$G$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:E14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4234,7 +6049,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4255,69 +6070,69 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>27</v>
@@ -4325,13 +6140,13 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -4390,64 +6205,64 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>32</v>
@@ -4458,14 +6273,14 @@
         <v>2030101</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4">
         <v>0.5</v>
@@ -4524,14 +6339,14 @@
         <v>2030201</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="4">
         <v>0.3</v>
@@ -4590,14 +6405,14 @@
         <v>2030301</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -4656,14 +6471,14 @@
         <v>2030401</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C8" s="19">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="17">
         <v>0.8</v>
@@ -4722,14 +6537,14 @@
         <v>3030101</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C9" s="18">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="16">
         <v>0.8</v>
@@ -4788,14 +6603,14 @@
         <v>3030201</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="4">
         <v>0.5</v>
@@ -4854,14 +6669,14 @@
         <v>3030301</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="4">
         <v>1.2</v>
@@ -4920,14 +6735,14 @@
         <v>3030401</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C12" s="14">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="13">
         <v>1.3</v>
@@ -4986,14 +6801,14 @@
         <v>4030101</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C13" s="21">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="20">
         <v>1.5</v>
@@ -5052,14 +6867,14 @@
         <v>4030201</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -5118,14 +6933,14 @@
         <v>4030301</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="4">
         <v>1.5</v>
@@ -5184,14 +6999,14 @@
         <v>4030401</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="4">
         <v>1.9</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DCF11F-DE9F-4AF2-98ED-3BAEAAD942EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3638CA3-856D-4DC9-BB11-9D4DBC9662F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1035" windowWidth="35385" windowHeight="19800" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39165" yWindow="1350" windowWidth="38115" windowHeight="18660" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="181">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -953,6 +953,14 @@
   </si>
   <si>
     <t>#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3010,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3032,12 +3040,12 @@
     <col min="12" max="12" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -3074,8 +3082,11 @@
       <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
@@ -3112,8 +3123,11 @@
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -3150,8 +3164,11 @@
       <c r="L4" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="9">
         <v>100001</v>
       </c>
@@ -3191,8 +3208,11 @@
       <c r="L5" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="9">
         <v>100002</v>
       </c>
@@ -3232,8 +3252,11 @@
       <c r="L6" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="9">
         <v>100003</v>
       </c>
@@ -3273,8 +3296,11 @@
       <c r="L7" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="9">
         <v>100004</v>
       </c>
@@ -3314,8 +3340,11 @@
       <c r="L8" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="9">
         <v>100005</v>
       </c>
@@ -3355,8 +3384,11 @@
       <c r="L9" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="9">
         <v>100006</v>
       </c>
@@ -3396,8 +3428,11 @@
       <c r="L10" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="9">
         <v>100007</v>
       </c>
@@ -3437,8 +3472,11 @@
       <c r="L11" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="9">
         <v>100008</v>
       </c>
@@ -3478,8 +3516,11 @@
       <c r="L12" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="9">
         <v>100009</v>
       </c>
@@ -3519,8 +3560,11 @@
       <c r="L13" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="9">
         <v>100010</v>
       </c>
@@ -3560,8 +3604,11 @@
       <c r="L14" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="9">
         <v>100101</v>
       </c>
@@ -3601,8 +3648,11 @@
       <c r="L15" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="9">
         <v>100102</v>
       </c>
@@ -3642,8 +3692,11 @@
       <c r="L16" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="9">
         <v>100103</v>
       </c>
@@ -3683,8 +3736,11 @@
       <c r="L17" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="9">
         <v>100104</v>
       </c>
@@ -3724,8 +3780,11 @@
       <c r="L18" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="9">
         <v>100105</v>
       </c>
@@ -3765,8 +3824,11 @@
       <c r="L19" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="9">
         <v>100106</v>
       </c>
@@ -3806,8 +3868,11 @@
       <c r="L20" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="9">
         <v>100107</v>
       </c>
@@ -3847,8 +3912,11 @@
       <c r="L21" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="9">
         <v>100108</v>
       </c>
@@ -3888,8 +3956,11 @@
       <c r="L22" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="9">
         <v>100109</v>
       </c>
@@ -3929,8 +4000,11 @@
       <c r="L23" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="9">
         <v>100110</v>
       </c>
@@ -3970,8 +4044,11 @@
       <c r="L24" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="11">
         <v>200001</v>
       </c>
@@ -4010,6 +4087,9 @@
       </c>
       <c r="L25" s="4" t="s">
         <v>78</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -4022,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4047,6 +4127,7 @@
     <col min="21" max="23" width="7.75" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3638CA3-856D-4DC9-BB11-9D4DBC9662F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F8F24B-9384-423F-AB91-3271BC66834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39165" yWindow="1350" windowWidth="38115" windowHeight="18660" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38790" yWindow="2715" windowWidth="37950" windowHeight="18660" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="185">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,9 +610,6 @@
     <t>2 일반 몬스터</t>
   </si>
   <si>
-    <t>3 엘리트 몬스터</t>
-  </si>
-  <si>
     <t>1 전열 배치</t>
   </si>
   <si>
@@ -961,6 +958,24 @@
   </si>
   <si>
     <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리자베스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전의 첫 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 악마</t>
+  </si>
+  <si>
+    <t>4 보스 몬스터</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_900001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,6 +1254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1279,6 +1297,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -1604,23 +1623,83 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1629,8 +1708,15 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
             <v>ATTRIBUTE_TYPE</v>
@@ -1682,7 +1768,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>VITALITY</v>
+            <v>CHARM</v>
           </cell>
           <cell r="B7">
             <v>3</v>
@@ -1693,7 +1779,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>MAGIC</v>
+            <v>MANA</v>
           </cell>
           <cell r="B8">
             <v>4</v>
@@ -1703,9 +1789,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="32" refreshError="1"/>
       <sheetData sheetId="33" refreshError="1"/>
       <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1726,9 +1812,9 @@
       <sheetName val="npc_stat_data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
         <row r="3">
           <cell r="B3">
             <v>0</v>
@@ -1870,7 +1956,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Npc_Data</v>
@@ -2141,8 +2227,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2584,9 +2670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5FBD5-DEC5-4BB7-BF75-CE8046386F75}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2921,7 +3005,7 @@
       </c>
       <c r="Q6" s="4" t="str">
         <f>'[1]@attribute_type'!$A7</f>
-        <v>VITALITY</v>
+        <v>CHARM</v>
       </c>
       <c r="R6" s="4">
         <f>'[1]@attribute_type'!$B7</f>
@@ -2971,7 +3055,7 @@
       </c>
       <c r="Q7" s="4" t="str">
         <f>'[1]@attribute_type'!$A8</f>
-        <v>MAGIC</v>
+        <v>MANA</v>
       </c>
       <c r="R7" s="4">
         <f>'[1]@attribute_type'!$B8</f>
@@ -3018,10 +3102,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3068,10 +3152,10 @@
         <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -3083,12 +3167,12 @@
         <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -3109,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>56</v>
@@ -3150,10 +3234,10 @@
         <v>46</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>47</v>
@@ -3165,7 +3249,7 @@
         <v>68</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3173,10 +3257,10 @@
         <v>100001</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="D5" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E5,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3197,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="11">
         <v>100001</v>
@@ -3217,10 +3301,10 @@
         <v>100002</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="D6" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E6,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3241,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="11">
         <v>100002</v>
@@ -3261,10 +3345,10 @@
         <v>100003</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="D7" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E7,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3285,7 +3369,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="11">
         <v>100003</v>
@@ -3305,10 +3389,10 @@
         <v>100004</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="D8" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E8,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3329,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="11">
         <v>100004</v>
@@ -3349,10 +3433,10 @@
         <v>100005</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="D9" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E9,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3363,17 +3447,17 @@
       </c>
       <c r="F9" s="11">
         <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G9,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="11">
         <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I9,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J9" s="11">
         <v>100005</v>
@@ -3393,10 +3477,10 @@
         <v>100006</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="D10" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E10,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3407,17 +3491,17 @@
       </c>
       <c r="F10" s="11">
         <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G10,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" s="11">
         <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I10,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J10" s="11">
         <v>100006</v>
@@ -3437,10 +3521,10 @@
         <v>100007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E11,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3461,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J11" s="11">
         <v>100007</v>
@@ -3481,10 +3565,10 @@
         <v>100008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E12,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3505,7 +3589,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12" s="11">
         <v>100008</v>
@@ -3525,10 +3609,10 @@
         <v>100009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E13,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3549,7 +3633,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J13" s="11">
         <v>100009</v>
@@ -3569,10 +3653,10 @@
         <v>100010</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="D14" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E14,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3593,7 +3677,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="11">
         <v>100010</v>
@@ -3613,10 +3697,10 @@
         <v>100101</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E15,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3637,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J15" s="9">
         <v>100101</v>
@@ -3657,10 +3741,10 @@
         <v>100102</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E16,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3681,7 +3765,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J16" s="9">
         <v>100102</v>
@@ -3701,10 +3785,10 @@
         <v>100103</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E17,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3725,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="9">
         <v>100103</v>
@@ -3745,10 +3829,10 @@
         <v>100104</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E18,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3769,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="9">
         <v>100104</v>
@@ -3789,10 +3873,10 @@
         <v>100105</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E19,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3803,17 +3887,17 @@
       </c>
       <c r="F19" s="11">
         <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G19,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" s="11">
         <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I19,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J19" s="9">
         <v>100105</v>
@@ -3833,10 +3917,10 @@
         <v>100106</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E20,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3847,17 +3931,17 @@
       </c>
       <c r="F20" s="11">
         <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G20,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="11">
         <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I20,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J20" s="9">
         <v>100106</v>
@@ -3877,10 +3961,10 @@
         <v>100107</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E21,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3901,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J21" s="9">
         <v>100107</v>
@@ -3921,10 +4005,10 @@
         <v>100108</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E22,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3945,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J22" s="9">
         <v>100108</v>
@@ -3965,10 +4049,10 @@
         <v>100109</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D23" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E23,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3989,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J23" s="9">
         <v>100109</v>
@@ -4009,10 +4093,10 @@
         <v>100110</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E24,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4033,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J24" s="9">
         <v>100110</v>
@@ -4053,10 +4137,10 @@
         <v>200001</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="D25" s="11">
         <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E25,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4077,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J25" s="11">
         <v>200001</v>
@@ -4090,20 +4174,82 @@
       </c>
       <c r="M25" s="4">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="23">
+        <v>900001</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$B$3:$B$9,MATCH(E26,'[2]!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$J$3:$J$7,MATCH(G26,'[2]!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="11">
+        <f>INDEX('[2]!참조_ENUM'!$R$3:$R$7,MATCH(I26,'[2]!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99DD0F2D-2FEA-496F-830F-A9CBA5EB98F6}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63AAD212-0C9E-449A-8257-F9D25B17C515}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G5:G26</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4161,37 +4307,37 @@
         <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>64</v>
@@ -4200,13 +4346,13 @@
         <v>65</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>27</v>
@@ -4217,7 +4363,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>
@@ -4303,7 +4449,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>63</v>
@@ -4321,37 +4467,37 @@
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>66</v>
@@ -4360,13 +4506,13 @@
         <v>67</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>32</v>
@@ -4395,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -4478,10 +4624,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -4561,10 +4707,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -4644,10 +4790,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -4727,10 +4873,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -4810,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -4893,10 +5039,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -4976,10 +5122,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -5059,10 +5205,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -5142,10 +5288,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -5225,10 +5371,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -5308,10 +5454,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -5391,10 +5537,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -5474,10 +5620,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -5557,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -5640,10 +5786,10 @@
         <v>3</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -5723,10 +5869,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -5806,10 +5952,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -5889,10 +6035,10 @@
         <v>3</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -5972,10 +6118,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -6055,10 +6201,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -6115,6 +6261,89 @@
         <v>4</v>
       </c>
       <c r="Z25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="4">
+        <v>900001</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>VLOOKUP(A26,npc_data!A:B,2,0)</f>
+        <v>엘리자베스</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>VLOOKUP(B26,npc_data!B:C,2,0)</f>
+        <v>보스전의 첫 보스</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4">
+        <f>INDEX('[2]!참조_ENUM'!$F$3:$F$6,MATCH(F26,'[2]!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="4">
+        <v>30</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4">
+        <v>10</v>
+      </c>
+      <c r="P26" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Z26" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6159,7 +6388,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -6171,31 +6400,31 @@
         <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>74</v>
@@ -6204,16 +6433,16 @@
         <v>75</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>27</v>
@@ -6221,7 +6450,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -6289,7 +6518,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>72</v>
@@ -6298,34 +6527,34 @@
         <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>66</v>
@@ -6334,16 +6563,16 @@
         <v>67</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>32</v>
@@ -6354,14 +6583,14 @@
         <v>2030101</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4">
         <v>0.5</v>
@@ -6420,14 +6649,14 @@
         <v>2030201</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4">
         <v>0.3</v>
@@ -6486,14 +6715,14 @@
         <v>2030301</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -6552,14 +6781,14 @@
         <v>2030401</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="19">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="17">
         <v>0.8</v>
@@ -6618,14 +6847,14 @@
         <v>3030101</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="18">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="16">
         <v>0.8</v>
@@ -6684,14 +6913,14 @@
         <v>3030201</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="4">
         <v>0.5</v>
@@ -6750,14 +6979,14 @@
         <v>3030301</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="4">
         <v>1.2</v>
@@ -6816,14 +7045,14 @@
         <v>3030401</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="14">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="13">
         <v>1.3</v>
@@ -6882,14 +7111,14 @@
         <v>4030101</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="21">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="20">
         <v>1.5</v>
@@ -6948,14 +7177,14 @@
         <v>4030201</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -7014,14 +7243,14 @@
         <v>4030301</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="4">
         <v>1.5</v>
@@ -7080,14 +7309,14 @@
         <v>4030401</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4">
         <v>1.9</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03700F38-D5E1-4239-BE3D-91413B195C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B1943-576E-4188-BE83-FD3BCEDC245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38775" yWindow="630" windowWidth="36525" windowHeight="19320" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="41400" yWindow="2130" windowWidth="34695" windowHeight="18915" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1831,7 +1831,13 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -6388,7 +6394,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6625,10 +6631,10 @@
         <v>69.75</v>
       </c>
       <c r="F5" s="4">
-        <v>5.0625</v>
+        <v>2.53125</v>
       </c>
       <c r="G5" s="4">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="H5" s="4">
         <v>0.30000000000000004</v>
@@ -6691,10 +6697,10 @@
         <v>67.5</v>
       </c>
       <c r="F6" s="4">
-        <v>5.625</v>
+        <v>2.8125</v>
       </c>
       <c r="G6" s="4">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="H6" s="4">
         <v>0.22499999999999998</v>
@@ -6757,10 +6763,10 @@
         <v>64.6875</v>
       </c>
       <c r="F7" s="4">
-        <v>6.9750000000000005</v>
+        <v>3.4875000000000003</v>
       </c>
       <c r="G7" s="4">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="H7" s="4">
         <v>7.5000000000000011E-2</v>
@@ -6823,10 +6829,10 @@
         <v>64.6875</v>
       </c>
       <c r="F8" s="13">
-        <v>6.9750000000000005</v>
+        <v>3.4875000000000003</v>
       </c>
       <c r="G8" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="H8" s="13">
         <v>7.5000000000000011E-2</v>
@@ -6889,10 +6895,10 @@
         <v>61.875</v>
       </c>
       <c r="F9" s="13">
-        <v>6.9750000000000005</v>
+        <v>3.4875000000000003</v>
       </c>
       <c r="G9" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="H9" s="13">
         <v>7.5000000000000011E-2</v>
@@ -6955,10 +6961,10 @@
         <v>64.6875</v>
       </c>
       <c r="F10" s="13">
-        <v>6.75</v>
+        <v>3.375</v>
       </c>
       <c r="G10" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="H10" s="13">
         <v>7.5000000000000011E-2</v>
@@ -7021,10 +7027,10 @@
         <v>61.875</v>
       </c>
       <c r="F11" s="13">
-        <v>6.75</v>
+        <v>3.375</v>
       </c>
       <c r="G11" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="H11" s="13">
         <v>7.5000000000000011E-2</v>
@@ -7087,10 +7093,10 @@
         <v>64.6875</v>
       </c>
       <c r="F12" s="13">
-        <v>6.9750000000000005</v>
+        <v>3.4875000000000003</v>
       </c>
       <c r="G12" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="H12" s="13">
         <v>7.5000000000000011E-2</v>
@@ -7153,10 +7159,10 @@
         <v>61.875</v>
       </c>
       <c r="F13" s="13">
-        <v>6.5249999999999995</v>
+        <v>3.2624999999999997</v>
       </c>
       <c r="G13" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="H13" s="13">
         <v>0.11249999999999999</v>
@@ -7681,10 +7687,10 @@
         <v>69.75</v>
       </c>
       <c r="F21" s="4">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="G21" s="4">
-        <v>5.0625</v>
+        <v>2.53125</v>
       </c>
       <c r="H21" s="4">
         <v>0.30000000000000004</v>
@@ -7747,10 +7753,10 @@
         <v>67.5</v>
       </c>
       <c r="F22" s="4">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="G22" s="4">
-        <v>5.625</v>
+        <v>2.8125</v>
       </c>
       <c r="H22" s="4">
         <v>0.22499999999999998</v>
@@ -7813,10 +7819,10 @@
         <v>64.6875</v>
       </c>
       <c r="F23" s="4">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="G23" s="4">
-        <v>6.9750000000000005</v>
+        <v>3.4875000000000003</v>
       </c>
       <c r="H23" s="4">
         <v>7.5000000000000011E-2</v>
@@ -7879,10 +7885,10 @@
         <v>64.6875</v>
       </c>
       <c r="F24" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="G24" s="13">
-        <v>6.9750000000000005</v>
+        <v>3.4875000000000003</v>
       </c>
       <c r="H24" s="13">
         <v>7.5000000000000011E-2</v>
@@ -7945,10 +7951,10 @@
         <v>64.6875</v>
       </c>
       <c r="F25" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="G25" s="13">
-        <v>6.9750000000000005</v>
+        <v>3.4875000000000003</v>
       </c>
       <c r="H25" s="13">
         <v>7.5000000000000011E-2</v>
@@ -8011,10 +8017,10 @@
         <v>64.6875</v>
       </c>
       <c r="F26" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="G26" s="13">
-        <v>6.75</v>
+        <v>3.375</v>
       </c>
       <c r="H26" s="13">
         <v>7.5000000000000011E-2</v>
@@ -8077,10 +8083,10 @@
         <v>61.875</v>
       </c>
       <c r="F27" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="G27" s="13">
-        <v>6.75</v>
+        <v>3.375</v>
       </c>
       <c r="H27" s="13">
         <v>7.5000000000000011E-2</v>
@@ -8143,10 +8149,10 @@
         <v>64.6875</v>
       </c>
       <c r="F28" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="G28" s="13">
-        <v>6.9750000000000005</v>
+        <v>3.4875000000000003</v>
       </c>
       <c r="H28" s="13">
         <v>7.5000000000000011E-2</v>
@@ -8209,10 +8215,10 @@
         <v>61.875</v>
       </c>
       <c r="F29" s="13">
-        <v>1.125</v>
+        <v>0.5625</v>
       </c>
       <c r="G29" s="13">
-        <v>6.5249999999999995</v>
+        <v>3.2624999999999997</v>
       </c>
       <c r="H29" s="13">
         <v>0.11249999999999999</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B1943-576E-4188-BE83-FD3BCEDC245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69996288-C099-4FC6-BE6C-7B8DE1A69E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="2130" windowWidth="34695" windowHeight="18915" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40290" yWindow="1545" windowWidth="34695" windowHeight="18915" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1831,21 +1831,51 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22">
         <row r="1">
           <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
+            <v>ITEM_TYPE_V2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="23">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GOODS_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="26">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DROP_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
@@ -4105,10 +4135,10 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5190,12 +5220,12 @@
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>I9*2</f>
-        <v>750</v>
+        <f>I9*3</f>
+        <v>1125</v>
       </c>
       <c r="J15" s="19">
-        <f t="shared" ref="J15:U15" si="0">J9*2</f>
-        <v>38</v>
+        <f t="shared" ref="J15:U15" si="0">J9*3</f>
+        <v>57</v>
       </c>
       <c r="K15" s="19">
         <f t="shared" si="0"/>
@@ -5203,11 +5233,11 @@
       </c>
       <c r="L15" s="19">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" s="19">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N15" s="19">
         <f t="shared" si="0"/>
@@ -5282,12 +5312,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>I5*2</f>
-        <v>1002</v>
+        <f>I5*3</f>
+        <v>1503</v>
       </c>
       <c r="J16" s="19">
-        <f t="shared" ref="J16:U16" si="1">J5*2</f>
-        <v>20</v>
+        <f t="shared" ref="J16:U16" si="1">J5*3</f>
+        <v>30</v>
       </c>
       <c r="K16" s="19">
         <f t="shared" si="1"/>
@@ -5295,11 +5325,11 @@
       </c>
       <c r="L16" s="19">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M16" s="19">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N16" s="19">
         <f t="shared" si="1"/>
@@ -5323,11 +5353,11 @@
       </c>
       <c r="S16" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T16" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U16" s="19">
         <f t="shared" si="1"/>
@@ -5374,12 +5404,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>I7*2</f>
-        <v>880</v>
+        <f>I7*3</f>
+        <v>1320</v>
       </c>
       <c r="J17" s="19">
-        <f t="shared" ref="J17:U17" si="2">J7*2</f>
-        <v>20</v>
+        <f t="shared" ref="J17:U17" si="2">J7*3</f>
+        <v>30</v>
       </c>
       <c r="K17" s="19">
         <f t="shared" si="2"/>
@@ -5387,11 +5417,11 @@
       </c>
       <c r="L17" s="19">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M17" s="19">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N17" s="19">
         <f t="shared" si="2"/>
@@ -5415,7 +5445,7 @@
       </c>
       <c r="S17" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T17" s="19">
         <f t="shared" si="2"/>
@@ -5779,12 +5809,12 @@
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f t="shared" ref="I22:U22" si="3">I18*2</f>
-        <v>940</v>
+        <f>I18*3</f>
+        <v>1410</v>
       </c>
       <c r="J22" s="19">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" ref="J22:U22" si="3">J18*3</f>
+        <v>30</v>
       </c>
       <c r="K22" s="19">
         <f t="shared" si="3"/>
@@ -5792,11 +5822,11 @@
       </c>
       <c r="L22" s="19">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M22" s="19">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N22" s="19">
         <f t="shared" si="3"/>
@@ -5820,7 +5850,7 @@
       </c>
       <c r="S22" s="19">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T22" s="19">
         <f t="shared" si="3"/>
@@ -5870,12 +5900,12 @@
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f t="shared" ref="I23:U23" si="4">I20*2</f>
-        <v>740</v>
+        <f>I20*3</f>
+        <v>1110</v>
       </c>
       <c r="J23" s="19">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <f t="shared" ref="J23:U23" si="4">J20*3</f>
+        <v>57</v>
       </c>
       <c r="K23" s="19">
         <f t="shared" si="4"/>
@@ -5883,11 +5913,11 @@
       </c>
       <c r="L23" s="19">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M23" s="19">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N23" s="19">
         <f t="shared" si="4"/>
@@ -5962,12 +5992,12 @@
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" ref="I24:U24" si="5">I13*2</f>
-        <v>730</v>
+        <f>I13*3</f>
+        <v>1095</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" ref="J24:U24" si="5">J13*3</f>
+        <v>57</v>
       </c>
       <c r="K24" s="19">
         <f t="shared" si="5"/>
@@ -5975,11 +6005,11 @@
       </c>
       <c r="L24" s="19">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" s="19">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" s="19">
         <f t="shared" si="5"/>
@@ -6054,12 +6084,12 @@
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" ref="I25:U25" si="6">I19*2</f>
-        <v>770</v>
+        <f>I19*3</f>
+        <v>1155</v>
       </c>
       <c r="J25" s="19">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" ref="J25:U25" si="6">J19*3</f>
+        <v>60</v>
       </c>
       <c r="K25" s="19">
         <f t="shared" si="6"/>
@@ -6067,11 +6097,11 @@
       </c>
       <c r="L25" s="19">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25" s="19">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N25" s="19">
         <f t="shared" si="6"/>
@@ -6146,12 +6176,12 @@
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f t="shared" ref="I26:U26" si="7">I15*2</f>
-        <v>1500</v>
+        <f>I15*3</f>
+        <v>3375</v>
       </c>
       <c r="J26" s="19">
-        <f t="shared" si="7"/>
-        <v>76</v>
+        <f t="shared" ref="J26:U26" si="7">J15*3</f>
+        <v>171</v>
       </c>
       <c r="K26" s="19">
         <f t="shared" si="7"/>
@@ -6159,11 +6189,11 @@
       </c>
       <c r="L26" s="19">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M26" s="19">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N26" s="19">
         <f t="shared" si="7"/>
@@ -6239,11 +6269,11 @@
       </c>
       <c r="I27" s="4">
         <f>I23*5</f>
-        <v>3700</v>
+        <v>5550</v>
       </c>
       <c r="J27" s="4">
         <f>J23*2</f>
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" ref="K27:U27" si="8">K23*2</f>
@@ -6251,11 +6281,11 @@
       </c>
       <c r="L27" s="4">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M27" s="4">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N27" s="4">
         <f t="shared" si="8"/>
@@ -6331,7 +6361,7 @@
       </c>
       <c r="I28" s="4">
         <f>I15*5</f>
-        <v>3750</v>
+        <v>5625</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -6394,7 +6424,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6628,31 +6658,31 @@
         <v>89</v>
       </c>
       <c r="E5" s="4">
-        <v>69.75</v>
+        <v>100</v>
       </c>
       <c r="F5" s="4">
-        <v>2.53125</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="4">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0.30000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="I5" s="4">
-        <v>0.1875</v>
+        <v>0.18</v>
       </c>
       <c r="J5" s="4">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="K5" s="4">
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>0.60000000000000009</v>
+        <v>0.01</v>
       </c>
       <c r="M5" s="4">
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
@@ -6688,37 +6718,38 @@
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4">
-        <v>67.5</v>
+        <f>E5*0.9</f>
+        <v>90</v>
       </c>
       <c r="F6" s="4">
-        <v>2.8125</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>0.22499999999999998</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I6" s="4">
         <v>0.15000000000000002</v>
       </c>
       <c r="J6" s="4">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="K6" s="4">
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>0.60000000000000009</v>
+        <v>0.01</v>
       </c>
       <c r="M6" s="4">
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
@@ -6754,37 +6785,38 @@
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="4">
-        <v>64.6875</v>
+        <f>E5*0.4</f>
+        <v>40</v>
       </c>
       <c r="F7" s="4">
-        <v>3.4875000000000003</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>7.5000000000000011E-2</v>
+        <v>0.03</v>
       </c>
       <c r="I7" s="4">
-        <v>3.7500000000000006E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J7" s="4">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="K7" s="4">
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="M7" s="4">
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
@@ -6826,31 +6858,32 @@
         <v>87</v>
       </c>
       <c r="E8" s="13">
-        <v>64.6875</v>
+        <f>E7*0.9</f>
+        <v>36</v>
       </c>
       <c r="F8" s="13">
-        <v>3.4875000000000003</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="H8" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I8" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K8" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M8" s="13">
-        <v>7.5000000000000011E-2</v>
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
       </c>
       <c r="N8" s="13">
         <v>0</v>
@@ -6892,31 +6925,32 @@
         <v>87</v>
       </c>
       <c r="E9" s="13">
-        <v>61.875</v>
+        <f>E5*0.3</f>
+        <v>30</v>
       </c>
       <c r="F9" s="13">
-        <v>3.4875000000000003</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="H9" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I9" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K9" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M9" s="13">
-        <v>7.5000000000000011E-2</v>
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
       </c>
       <c r="N9" s="13">
         <v>0</v>
@@ -6958,31 +6992,32 @@
         <v>87</v>
       </c>
       <c r="E10" s="13">
-        <v>64.6875</v>
+        <f>E7</f>
+        <v>40</v>
       </c>
       <c r="F10" s="13">
-        <v>3.375</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="H10" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I10" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M10" s="13">
-        <v>7.5000000000000011E-2</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
       </c>
       <c r="N10" s="13">
         <v>0</v>
@@ -7024,31 +7059,32 @@
         <v>87</v>
       </c>
       <c r="E11" s="13">
-        <v>61.875</v>
+        <f>E9</f>
+        <v>30</v>
       </c>
       <c r="F11" s="13">
-        <v>3.375</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="H11" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I11" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="K11" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M11" s="13">
-        <v>7.5000000000000011E-2</v>
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
       </c>
       <c r="N11" s="13">
         <v>0</v>
@@ -7090,31 +7126,32 @@
         <v>88</v>
       </c>
       <c r="E12" s="13">
-        <v>64.6875</v>
+        <f>E7*0.9</f>
+        <v>36</v>
       </c>
       <c r="F12" s="13">
-        <v>3.4875000000000003</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="H12" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I12" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K12" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M12" s="13">
-        <v>7.5000000000000011E-2</v>
+        <v>3.5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
       </c>
       <c r="N12" s="13">
         <v>0</v>
@@ -7156,31 +7193,32 @@
         <v>88</v>
       </c>
       <c r="E13" s="13">
-        <v>61.875</v>
+        <f>E9*0.9</f>
+        <v>27</v>
       </c>
       <c r="F13" s="13">
-        <v>3.2624999999999997</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K13" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M13" s="13">
-        <v>7.5000000000000011E-2</v>
+        <v>4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
       </c>
       <c r="N13" s="13">
         <v>0</v>
@@ -7222,31 +7260,32 @@
         <v>218</v>
       </c>
       <c r="E14" s="13">
-        <v>56.25</v>
+        <f>E9*1.1</f>
+        <v>33</v>
       </c>
       <c r="F14" s="13">
-        <v>5.625</v>
+        <v>3</v>
       </c>
       <c r="G14" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="H14" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="I14" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="J14" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L14" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0.75</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
       </c>
       <c r="N14" s="13">
         <v>0</v>
@@ -7258,7 +7297,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q14" s="13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="R14" s="13">
         <v>0</v>
@@ -7288,42 +7327,55 @@
         <v>89</v>
       </c>
       <c r="E15" s="4">
-        <v>83.699999999999989</v>
+        <f>E5*5</f>
+        <v>500</v>
       </c>
       <c r="F15" s="4">
-        <v>6.0750000000000011</v>
+        <f t="shared" ref="F15:G15" si="0">F5*5</f>
+        <v>12.5</v>
       </c>
       <c r="G15" s="4">
-        <v>1.3499999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>0.36</v>
+        <f>H5*5</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="I15" s="4">
-        <v>0.22499999999999998</v>
+        <f t="shared" ref="I15:Q15" si="1">I5*5</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="J15" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
       <c r="K15" s="4">
-        <v>0.09</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>0.72</v>
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
       <c r="M15" s="4">
-        <v>0.09</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="P15" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Q15" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="13">
@@ -7354,42 +7406,55 @@
         <v>87</v>
       </c>
       <c r="E16" s="4">
-        <v>77.625</v>
+        <f>E7*5</f>
+        <v>200</v>
       </c>
       <c r="F16" s="4">
-        <v>8.370000000000001</v>
+        <f t="shared" ref="F16:G16" si="2">F7*5</f>
+        <v>20</v>
       </c>
       <c r="G16" s="4">
-        <v>1.3499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>0.09</v>
+        <f>H7*5</f>
+        <v>0.15</v>
       </c>
       <c r="I16" s="4">
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" ref="I16:Q16" si="3">I7*5</f>
+        <v>0.15</v>
       </c>
       <c r="J16" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="3"/>
+        <v>0.05</v>
       </c>
       <c r="K16" s="4">
-        <v>0.09</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="3"/>
+        <v>0.05</v>
       </c>
       <c r="M16" s="4">
-        <v>0.09</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P16" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Q16" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R16" s="13">
@@ -7420,42 +7485,55 @@
         <v>88</v>
       </c>
       <c r="E17" s="4">
-        <v>77.625</v>
+        <f>E13*5</f>
+        <v>135</v>
       </c>
       <c r="F17" s="4">
-        <v>8.370000000000001</v>
+        <f t="shared" ref="F17:G17" si="4">F13*5</f>
+        <v>20</v>
       </c>
       <c r="G17" s="4">
-        <v>1.3499999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>0.09</v>
+        <f>H13*5</f>
+        <v>0.15</v>
       </c>
       <c r="I17" s="4">
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" ref="I17:Q17" si="5">I13*5</f>
+        <v>0.15</v>
       </c>
       <c r="J17" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="5"/>
+        <v>0.05</v>
       </c>
       <c r="K17" s="4">
-        <v>0.09</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="5"/>
+        <v>0.05</v>
       </c>
       <c r="M17" s="4">
-        <v>0.09</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="N17" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="P17" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Q17" s="13">
+        <f t="shared" si="5"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R17" s="13">
@@ -7486,42 +7564,55 @@
         <v>89</v>
       </c>
       <c r="E18" s="4">
-        <v>100.44</v>
+        <f>E15*5</f>
+        <v>2500</v>
       </c>
       <c r="F18" s="4">
-        <v>7.2900000000000009</v>
+        <f t="shared" ref="F18:G18" si="6">F15*5</f>
+        <v>62.5</v>
       </c>
       <c r="G18" s="4">
-        <v>1.62</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>0.43199999999999994</v>
+        <f>H15*5</f>
+        <v>4.5</v>
       </c>
       <c r="I18" s="4">
-        <v>0.27</v>
+        <f t="shared" ref="I18:Q18" si="7">I15*5</f>
+        <v>4.5</v>
       </c>
       <c r="J18" s="4">
-        <v>1.08</v>
+        <f t="shared" si="7"/>
+        <v>0.25</v>
       </c>
       <c r="K18" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>0.86399999999999988</v>
+        <f t="shared" si="7"/>
+        <v>0.25</v>
       </c>
       <c r="M18" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="N18" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.1875</v>
       </c>
       <c r="P18" s="4">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="Q18" s="13">
+        <f t="shared" si="7"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R18" s="13">
@@ -7552,42 +7643,55 @@
         <v>87</v>
       </c>
       <c r="E19" s="4">
-        <v>93.149999999999991</v>
+        <f t="shared" ref="E19:G20" si="8">E16*5</f>
+        <v>1000</v>
       </c>
       <c r="F19" s="4">
-        <v>10.044</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="G19" s="4">
-        <v>1.62</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" ref="H19:Q19" si="9">H16*5</f>
+        <v>0.75</v>
       </c>
       <c r="I19" s="4">
-        <v>5.3999999999999992E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.75</v>
       </c>
       <c r="J19" s="4">
-        <v>1.08</v>
+        <f t="shared" si="9"/>
+        <v>0.25</v>
       </c>
       <c r="K19" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>1.08</v>
+        <f t="shared" si="9"/>
+        <v>0.25</v>
       </c>
       <c r="M19" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N19" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.1875</v>
       </c>
       <c r="P19" s="4">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="Q19" s="13">
+        <f t="shared" si="9"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R19" s="13">
@@ -7618,42 +7722,55 @@
         <v>88</v>
       </c>
       <c r="E20" s="4">
-        <v>93.149999999999991</v>
+        <f t="shared" si="8"/>
+        <v>675</v>
       </c>
       <c r="F20" s="4">
-        <v>10.044</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="G20" s="4">
-        <v>1.62</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" ref="H20:Q20" si="10">H17*5</f>
+        <v>0.75</v>
       </c>
       <c r="I20" s="4">
-        <v>5.3999999999999992E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.75</v>
       </c>
       <c r="J20" s="4">
-        <v>1.08</v>
+        <f t="shared" si="10"/>
+        <v>0.25</v>
       </c>
       <c r="K20" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>1.08</v>
+        <f t="shared" si="10"/>
+        <v>0.25</v>
       </c>
       <c r="M20" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="N20" s="4">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.1875</v>
       </c>
       <c r="P20" s="4">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="Q20" s="13">
+        <f t="shared" si="10"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R20" s="13">
@@ -7684,42 +7801,55 @@
         <v>89</v>
       </c>
       <c r="E21" s="4">
-        <v>69.75</v>
+        <f>E5</f>
+        <v>100</v>
       </c>
       <c r="F21" s="4">
-        <v>0.5625</v>
+        <f>G5</f>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>2.53125</v>
+        <f>F5</f>
+        <v>2.5</v>
       </c>
       <c r="H21" s="4">
-        <v>0.30000000000000004</v>
+        <f>H5</f>
+        <v>0.18</v>
       </c>
       <c r="I21" s="4">
-        <v>0.1875</v>
+        <f t="shared" ref="I21:Q21" si="11">I5</f>
+        <v>0.18</v>
       </c>
       <c r="J21" s="4">
-        <v>0.75</v>
+        <f>K5</f>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>7.5000000000000011E-2</v>
+        <f>J5</f>
+        <v>0.01</v>
       </c>
       <c r="L21" s="4">
-        <v>0.60000000000000009</v>
+        <f>M5</f>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>7.5000000000000011E-2</v>
+        <f>L5</f>
+        <v>0.01</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P21" s="13">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="11"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="11"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q21" s="4">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R21" s="4">
@@ -7744,48 +7874,61 @@
       </c>
       <c r="C22" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D22,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4">
-        <v>67.5</v>
+        <f t="shared" ref="E22:G36" si="12">E6</f>
+        <v>90</v>
       </c>
       <c r="F22" s="4">
-        <v>0.5625</v>
+        <f t="shared" ref="F22:F36" si="13">G6</f>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>2.8125</v>
+        <f t="shared" ref="G22:G36" si="14">F6</f>
+        <v>3</v>
       </c>
       <c r="H22" s="4">
-        <v>0.22499999999999998</v>
+        <f t="shared" ref="H22:Q22" si="15">H6</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I22" s="4">
+        <f t="shared" ref="I22:Q22" si="16">I6</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="J22" s="4">
-        <v>0.75</v>
+        <f t="shared" ref="J22:L36" si="17">K6</f>
+        <v>0</v>
       </c>
       <c r="K22" s="4">
-        <v>7.5000000000000011E-2</v>
+        <f t="shared" ref="K22:M36" si="18">J6</f>
+        <v>0.01</v>
       </c>
       <c r="L22" s="4">
-        <v>0.60000000000000009</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="M22" s="4">
-        <v>7.5000000000000011E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.01</v>
       </c>
       <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P22" s="13">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="16"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="16"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q22" s="4">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R22" s="4">
@@ -7810,48 +7953,61 @@
       </c>
       <c r="C23" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D23,'!참조_ENUM'!$O$3:$O$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="4">
-        <v>64.6875</v>
+        <f t="shared" si="12"/>
+        <v>40</v>
       </c>
       <c r="F23" s="4">
-        <v>0.5625</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>3.4875000000000003</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="H23" s="4">
-        <v>7.5000000000000011E-2</v>
+        <f t="shared" ref="H23:Q23" si="19">H7</f>
+        <v>0.03</v>
       </c>
       <c r="I23" s="4">
-        <v>3.7500000000000006E-2</v>
+        <f t="shared" ref="I23:Q23" si="20">I7</f>
+        <v>0.03</v>
       </c>
       <c r="J23" s="4">
-        <v>0.75</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>7.5000000000000011E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.01</v>
       </c>
       <c r="L23" s="4">
-        <v>0.75</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="M23" s="4">
-        <v>7.5000000000000011E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.01</v>
       </c>
       <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P23" s="13">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="20"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="20"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q23" s="4">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R23" s="4">
@@ -7881,43 +8037,56 @@
       <c r="D24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="13">
-        <v>64.6875</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="G24" s="13">
-        <v>3.4875000000000003</v>
-      </c>
-      <c r="H24" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I24" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J24" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K24" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L24" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M24" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="N24" s="13">
-        <v>0</v>
-      </c>
-      <c r="O24" s="13">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="P24" s="13">
-        <v>1.0800000000000001E-2</v>
+      <c r="E24" s="4">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" ref="H24:Q24" si="21">H8</f>
+        <v>0.03</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" ref="I24:Q24" si="22">I8</f>
+        <v>0.03</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="22"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="22"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q24" s="4">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R24" s="4">
@@ -7947,43 +8116,56 @@
       <c r="D25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="13">
-        <v>64.6875</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="G25" s="13">
-        <v>3.4875000000000003</v>
-      </c>
-      <c r="H25" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I25" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K25" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M25" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="N25" s="13">
-        <v>0</v>
-      </c>
-      <c r="O25" s="13">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="P25" s="13">
-        <v>1.0800000000000001E-2</v>
+      <c r="E25" s="4">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" ref="H25:Q25" si="23">H9</f>
+        <v>0.03</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" ref="I25:Q25" si="24">I9</f>
+        <v>0.03</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="24"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="24"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q25" s="4">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R25" s="4">
@@ -8013,43 +8195,56 @@
       <c r="D26" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="13">
-        <v>64.6875</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="G26" s="13">
-        <v>3.375</v>
-      </c>
-      <c r="H26" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I26" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K26" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L26" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M26" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="N26" s="13">
-        <v>0</v>
-      </c>
-      <c r="O26" s="13">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="P26" s="13">
-        <v>1.0800000000000001E-2</v>
+      <c r="E26" s="4">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" ref="H26:Q26" si="25">H10</f>
+        <v>0.03</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" ref="I26:Q26" si="26">I10</f>
+        <v>0.03</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="26"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="26"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q26" s="4">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R26" s="4">
@@ -8079,43 +8274,56 @@
       <c r="D27" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="13">
-        <v>61.875</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="G27" s="13">
-        <v>3.375</v>
-      </c>
-      <c r="H27" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I27" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="K27" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M27" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="N27" s="13">
-        <v>0</v>
-      </c>
-      <c r="O27" s="13">
-        <v>1.2959999999999998E-2</v>
-      </c>
-      <c r="P27" s="13">
-        <v>1.2959999999999998E-2</v>
+      <c r="E27" s="4">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="14"/>
+        <v>3.5</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" ref="H27:Q27" si="27">H11</f>
+        <v>0.03</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" ref="I27:Q27" si="28">I11</f>
+        <v>0.03</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="28"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="28"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q27" s="4">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R27" s="4">
@@ -8145,43 +8353,56 @@
       <c r="D28" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="13">
-        <v>64.6875</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="G28" s="13">
-        <v>3.4875000000000003</v>
-      </c>
-      <c r="H28" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="I28" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J28" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K28" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L28" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M28" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="N28" s="13">
-        <v>0</v>
-      </c>
-      <c r="O28" s="13">
+      <c r="E28" s="4">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="14"/>
+        <v>3.5</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" ref="H28:Q28" si="29">H12</f>
+        <v>0.03</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" ref="I28:Q28" si="30">I12</f>
+        <v>0.03</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="30"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="4">
+        <f t="shared" si="30"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="4">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R28" s="4">
@@ -8211,43 +8432,56 @@
       <c r="D29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="13">
-        <v>61.875</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="G29" s="13">
-        <v>3.2624999999999997</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K29" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="L29" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M29" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="N29" s="13">
-        <v>0</v>
-      </c>
-      <c r="O29" s="13">
+      <c r="E29" s="4">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" ref="H29:Q29" si="31">H13</f>
+        <v>0.03</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" ref="I29:Q29" si="32">I13</f>
+        <v>0.03</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="32"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="4">
+        <f t="shared" si="32"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="4">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R29" s="4">
@@ -8277,44 +8511,57 @@
       <c r="D30" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E30" s="13">
-        <v>56.25</v>
-      </c>
-      <c r="F30" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="G30" s="13">
-        <v>5.625</v>
-      </c>
-      <c r="H30" s="13">
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="I30" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="J30" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="K30" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L30" s="13">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="M30" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-      <c r="O30" s="13">
+      <c r="E30" s="4">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f>F14*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" ref="H30:Q30" si="33">H14</f>
+        <v>0.03</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" ref="I30:Q30" si="34">I14</f>
+        <v>0.03</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="34"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="4">
+        <f t="shared" si="34"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q30" s="13">
-        <v>1.5</v>
+      <c r="Q30" s="4">
+        <f>Q14</f>
+        <v>3</v>
       </c>
       <c r="R30" s="4">
         <v>0</v>
@@ -8344,42 +8591,55 @@
         <v>89</v>
       </c>
       <c r="E31" s="4">
-        <v>83.699999999999989</v>
+        <f t="shared" si="12"/>
+        <v>500</v>
       </c>
       <c r="F31" s="4">
-        <v>1.3499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
-        <v>6.0750000000000011</v>
+        <f t="shared" si="14"/>
+        <v>12.5</v>
       </c>
       <c r="H31" s="4">
-        <v>0.36</v>
+        <f t="shared" ref="H31:Q31" si="35">H15</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="I31" s="4">
-        <v>0.22499999999999998</v>
+        <f t="shared" ref="I31:Q31" si="36">I15</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="J31" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K31" s="4">
-        <v>0.09</v>
+        <f t="shared" si="18"/>
+        <v>0.05</v>
       </c>
       <c r="L31" s="4">
-        <v>0.72</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="M31" s="4">
-        <v>0.09</v>
+        <f t="shared" si="18"/>
+        <v>0.05</v>
       </c>
       <c r="N31" s="4">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O31" s="4">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="36"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="P31" s="4">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="36"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q31" s="4">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R31" s="4">
@@ -8410,42 +8670,55 @@
         <v>87</v>
       </c>
       <c r="E32" s="4">
-        <v>77.625</v>
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="F32" s="4">
-        <v>1.3499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
-        <v>8.370000000000001</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="H32" s="4">
-        <v>0.09</v>
+        <f t="shared" ref="H32:Q32" si="37">H16</f>
+        <v>0.15</v>
       </c>
       <c r="I32" s="4">
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" ref="I32:Q32" si="38">I16</f>
+        <v>0.15</v>
       </c>
       <c r="J32" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K32" s="4">
-        <v>0.09</v>
+        <f t="shared" si="18"/>
+        <v>0.05</v>
       </c>
       <c r="L32" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="M32" s="4">
-        <v>0.09</v>
+        <f t="shared" si="18"/>
+        <v>0.05</v>
       </c>
       <c r="N32" s="4">
-        <v>0</v>
-      </c>
-      <c r="O32" s="13">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="P32" s="13">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="38"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="38"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q32" s="4">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R32" s="4">
@@ -8476,42 +8749,55 @@
         <v>88</v>
       </c>
       <c r="E33" s="4">
-        <v>77.625</v>
+        <f t="shared" si="12"/>
+        <v>135</v>
       </c>
       <c r="F33" s="4">
-        <v>1.3499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>8.370000000000001</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="H33" s="4">
-        <v>0.09</v>
+        <f t="shared" ref="H33:Q33" si="39">H17</f>
+        <v>0.15</v>
       </c>
       <c r="I33" s="4">
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" ref="I33:Q33" si="40">I17</f>
+        <v>0.15</v>
       </c>
       <c r="J33" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K33" s="4">
-        <v>0.09</v>
+        <f t="shared" si="18"/>
+        <v>0.05</v>
       </c>
       <c r="L33" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="M33" s="4">
-        <v>0.09</v>
+        <f t="shared" si="18"/>
+        <v>0.05</v>
       </c>
       <c r="N33" s="4">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="40"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="P33" s="4">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="40"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q33" s="4">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R33" s="4">
@@ -8542,42 +8828,55 @@
         <v>89</v>
       </c>
       <c r="E34" s="4">
-        <v>100.44</v>
+        <f t="shared" si="12"/>
+        <v>2500</v>
       </c>
       <c r="F34" s="4">
-        <v>1.62</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>7.2900000000000009</v>
+        <f t="shared" si="14"/>
+        <v>62.5</v>
       </c>
       <c r="H34" s="4">
-        <v>0.43199999999999994</v>
+        <f t="shared" ref="H34:Q34" si="41">H18</f>
+        <v>4.5</v>
       </c>
       <c r="I34" s="4">
-        <v>0.27</v>
+        <f t="shared" ref="I34:Q34" si="42">I18</f>
+        <v>4.5</v>
       </c>
       <c r="J34" s="4">
-        <v>1.08</v>
+        <f>K18</f>
+        <v>0</v>
       </c>
       <c r="K34" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.25</v>
       </c>
       <c r="L34" s="4">
-        <v>0.86399999999999988</v>
+        <f>M18</f>
+        <v>0</v>
       </c>
       <c r="M34" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.25</v>
       </c>
       <c r="N34" s="4">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O34" s="4">
-        <v>1.2959999999999998E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.1875</v>
       </c>
       <c r="P34" s="4">
-        <v>1.2959999999999998E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.1875</v>
       </c>
       <c r="Q34" s="4">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R34" s="4">
@@ -8608,42 +8907,55 @@
         <v>87</v>
       </c>
       <c r="E35" s="4">
-        <v>93.149999999999991</v>
+        <f t="shared" si="12"/>
+        <v>1000</v>
       </c>
       <c r="F35" s="4">
-        <v>1.62</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>10.044</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="H35" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" ref="H35:Q35" si="43">H19</f>
+        <v>0.75</v>
       </c>
       <c r="I35" s="4">
-        <v>5.3999999999999992E-2</v>
+        <f t="shared" ref="I35:Q35" si="44">I19</f>
+        <v>0.75</v>
       </c>
       <c r="J35" s="4">
-        <v>1.08</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K35" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.25</v>
       </c>
       <c r="L35" s="4">
-        <v>1.08</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="M35" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.25</v>
       </c>
       <c r="N35" s="4">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O35" s="4">
-        <v>1.2959999999999998E-2</v>
+        <f t="shared" si="44"/>
+        <v>0.1875</v>
       </c>
       <c r="P35" s="4">
-        <v>1.2959999999999998E-2</v>
+        <f t="shared" si="44"/>
+        <v>0.1875</v>
       </c>
       <c r="Q35" s="4">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R35" s="4">
@@ -8674,42 +8986,55 @@
         <v>88</v>
       </c>
       <c r="E36" s="4">
-        <v>93.149999999999991</v>
+        <f t="shared" si="12"/>
+        <v>675</v>
       </c>
       <c r="F36" s="4">
-        <v>1.62</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G36" s="4">
-        <v>10.044</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="H36" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" ref="H36:Q36" si="45">H20</f>
+        <v>0.75</v>
       </c>
       <c r="I36" s="4">
-        <v>5.3999999999999992E-2</v>
+        <f t="shared" ref="I36:Q36" si="46">I20</f>
+        <v>0.75</v>
       </c>
       <c r="J36" s="4">
-        <v>1.08</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K36" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.25</v>
       </c>
       <c r="L36" s="4">
-        <v>1.08</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="M36" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.25</v>
       </c>
       <c r="N36" s="4">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O36" s="4">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.1875</v>
       </c>
       <c r="P36" s="4">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.1875</v>
       </c>
       <c r="Q36" s="4">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="R36" s="4">
@@ -8740,43 +9065,56 @@
         <v>218</v>
       </c>
       <c r="E37" s="4">
-        <v>67.5</v>
+        <f>E30*5</f>
+        <v>165</v>
       </c>
       <c r="F37" s="4">
-        <v>2.6999999999999997</v>
+        <f t="shared" ref="F37:G37" si="47">F30*5</f>
+        <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>6.75</v>
+        <f t="shared" si="47"/>
+        <v>22.5</v>
       </c>
       <c r="H37" s="4">
-        <v>4.4999999999999998E-2</v>
+        <f>H30*5</f>
+        <v>0.15</v>
       </c>
       <c r="I37" s="4">
-        <v>0.09</v>
+        <f t="shared" ref="I37:Q37" si="48">I30*5</f>
+        <v>0.15</v>
       </c>
       <c r="J37" s="4">
-        <v>0.09</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="K37" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="48"/>
+        <v>0.05</v>
       </c>
       <c r="L37" s="4">
-        <v>0.09</v>
+        <f t="shared" ref="L37:M37" si="49">L30*5</f>
+        <v>0</v>
       </c>
       <c r="M37" s="4">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="49"/>
+        <v>0.05</v>
       </c>
       <c r="N37" s="4">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O37" s="4">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="48"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="P37" s="4">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="48"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q37" s="4">
-        <v>1.7999999999999998</v>
+        <f t="shared" si="48"/>
+        <v>15</v>
       </c>
       <c r="R37" s="4">
         <v>0</v>
@@ -8806,43 +9144,56 @@
         <v>218</v>
       </c>
       <c r="E38" s="4">
-        <v>81</v>
+        <f>E37*5</f>
+        <v>825</v>
       </c>
       <c r="F38" s="4">
-        <v>3.24</v>
+        <f t="shared" ref="F38:G38" si="50">F37*5</f>
+        <v>0</v>
       </c>
       <c r="G38" s="4">
-        <v>8.1</v>
+        <f t="shared" si="50"/>
+        <v>112.5</v>
       </c>
       <c r="H38" s="4">
-        <v>5.3999999999999992E-2</v>
+        <f>H37*5</f>
+        <v>0.75</v>
       </c>
       <c r="I38" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" ref="I38:Q38" si="51">I37*5</f>
+        <v>0.75</v>
       </c>
       <c r="J38" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="K38" s="4">
-        <v>1.08</v>
+        <f t="shared" si="51"/>
+        <v>0.25</v>
       </c>
       <c r="L38" s="4">
-        <v>0.10799999999999998</v>
+        <f t="shared" ref="L38" si="52">L37*5</f>
+        <v>0</v>
       </c>
       <c r="M38" s="4">
-        <v>1.08</v>
+        <f t="shared" ref="M38" si="53">M37*5</f>
+        <v>0.25</v>
       </c>
       <c r="N38" s="4">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="51"/>
+        <v>0.1875</v>
       </c>
       <c r="P38" s="4">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="51"/>
+        <v>0.1875</v>
       </c>
       <c r="Q38" s="4">
-        <v>2.16</v>
+        <f t="shared" si="51"/>
+        <v>75</v>
       </c>
       <c r="R38" s="4">
         <v>0</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69996288-C099-4FC6-BE6C-7B8DE1A69E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6AF62B-947D-4C29-A70E-305125AC5B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40290" yWindow="1545" windowWidth="34695" windowHeight="18915" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="41910" yWindow="765" windowWidth="34695" windowHeight="18915" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1832,50 +1832,14 @@
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
-      <sheetData sheetId="22">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE_V2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="26">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DROP_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
@@ -6424,7 +6388,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6658,10 +6622,10 @@
         <v>89</v>
       </c>
       <c r="E5" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F5" s="4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -6725,10 +6689,11 @@
       </c>
       <c r="E6" s="4">
         <f>E5*0.9</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F6" s="4">
-        <v>3</v>
+        <f>F$5+(E$5-E6)*0.01</f>
+        <v>1.7</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -6792,10 +6757,11 @@
       </c>
       <c r="E7" s="4">
         <f>E5*0.4</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <f>F$5+(E$5-E7)*0.01</f>
+        <v>2.7</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -6859,10 +6825,11 @@
       </c>
       <c r="E8" s="13">
         <f>E7*0.9</f>
-        <v>36</v>
-      </c>
-      <c r="F8" s="13">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F$5+(E$5-E8)*0.007</f>
+        <v>2.3959999999999999</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -6926,10 +6893,11 @@
       </c>
       <c r="E9" s="13">
         <f>E5*0.3</f>
-        <v>30</v>
-      </c>
-      <c r="F9" s="13">
-        <v>4.5</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" ref="F9:F10" si="0">F$5+(E$5-E9)*0.007</f>
+        <v>2.48</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -6993,10 +6961,11 @@
       </c>
       <c r="E10" s="13">
         <f>E7</f>
-        <v>40</v>
-      </c>
-      <c r="F10" s="13">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="F10" s="4">
+        <f>F$5+(E$5-E10)*0.008</f>
+        <v>2.46</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -7060,10 +7029,11 @@
       </c>
       <c r="E11" s="13">
         <f>E9</f>
-        <v>30</v>
-      </c>
-      <c r="F11" s="13">
-        <v>3.5</v>
+        <v>60</v>
+      </c>
+      <c r="F11" s="4">
+        <f>F$5+(E$5-E11)*0.008</f>
+        <v>2.62</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -7127,10 +7097,11 @@
       </c>
       <c r="E12" s="13">
         <f>E7*0.9</f>
-        <v>36</v>
-      </c>
-      <c r="F12" s="13">
-        <v>3.5</v>
+        <v>72</v>
+      </c>
+      <c r="F12" s="4">
+        <f>F$5+(E$5-E12)*0.006</f>
+        <v>2.2679999999999998</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -7194,10 +7165,11 @@
       </c>
       <c r="E13" s="13">
         <f>E9*0.9</f>
-        <v>27</v>
-      </c>
-      <c r="F13" s="13">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="F13" s="4">
+        <f>F$5+(E$5-E13)*0.006</f>
+        <v>2.3759999999999999</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -7261,10 +7233,11 @@
       </c>
       <c r="E14" s="13">
         <f>E9*1.1</f>
-        <v>33</v>
-      </c>
-      <c r="F14" s="13">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F$5+(E$5-E14)*0.005</f>
+        <v>2.17</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -7328,14 +7301,14 @@
       </c>
       <c r="E15" s="4">
         <f>E5*5</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ref="F15:G15" si="0">F5*5</f>
-        <v>12.5</v>
+        <f t="shared" ref="F15:G15" si="1">F5*5</f>
+        <v>7.5</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -7343,39 +7316,39 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" ref="I15:Q15" si="1">I5*5</f>
+        <f t="shared" ref="I15:Q15" si="2">I5*5</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="13">
@@ -7407,14 +7380,14 @@
       </c>
       <c r="E16" s="4">
         <f>E7*5</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" ref="F16:G16" si="2">F7*5</f>
-        <v>20</v>
+        <f t="shared" ref="F16:G16" si="3">F7*5</f>
+        <v>13.5</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16" s="4">
@@ -7422,39 +7395,39 @@
         <v>0.15</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" ref="I16:Q16" si="3">I7*5</f>
+        <f t="shared" ref="I16:Q16" si="4">I7*5</f>
         <v>0.15</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R16" s="13">
@@ -7486,14 +7459,14 @@
       </c>
       <c r="E17" s="4">
         <f>E13*5</f>
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" ref="F17:G17" si="4">F13*5</f>
-        <v>20</v>
+        <f t="shared" ref="F17:G17" si="5">F13*5</f>
+        <v>11.879999999999999</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H17" s="4">
@@ -7501,39 +7474,39 @@
         <v>0.15</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" ref="I17:Q17" si="5">I13*5</f>
+        <f t="shared" ref="I17:Q17" si="6">I13*5</f>
         <v>0.15</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R17" s="13">
@@ -7565,14 +7538,14 @@
       </c>
       <c r="E18" s="4">
         <f>E15*5</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" ref="F18:G18" si="6">F15*5</f>
-        <v>62.5</v>
+        <f t="shared" ref="F18:G18" si="7">F15*5</f>
+        <v>37.5</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H18" s="4">
@@ -7580,39 +7553,39 @@
         <v>4.5</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" ref="I18:Q18" si="7">I15*5</f>
+        <f t="shared" ref="I18:Q18" si="8">I15*5</f>
         <v>4.5</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1875</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1875</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R18" s="13">
@@ -7643,55 +7616,55 @@
         <v>87</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" ref="E19:G20" si="8">E16*5</f>
-        <v>1000</v>
+        <f t="shared" ref="E19:G20" si="9">E16*5</f>
+        <v>2000</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="8"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>67.5</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" ref="H19:Q19" si="9">H16*5</f>
+        <f t="shared" ref="H19:Q19" si="10">H16*5</f>
         <v>0.75</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1875</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1875</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R19" s="13">
@@ -7722,55 +7695,55 @@
         <v>88</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="8"/>
-        <v>675</v>
+        <f t="shared" si="9"/>
+        <v>1350</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="8"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>59.399999999999991</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:Q20" si="10">H17*5</f>
+        <f t="shared" ref="H20:Q20" si="11">H17*5</f>
         <v>0.75</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1875</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1875</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R20" s="13">
@@ -7802,7 +7775,7 @@
       </c>
       <c r="E21" s="4">
         <f>E5</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="4">
         <f>G5</f>
@@ -7810,14 +7783,14 @@
       </c>
       <c r="G21" s="4">
         <f>F5</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="4">
         <f>H5</f>
         <v>0.18</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" ref="I21:Q21" si="11">I5</f>
+        <f t="shared" ref="I21:Q21" si="12">I5</f>
         <v>0.18</v>
       </c>
       <c r="J21" s="4">
@@ -7837,19 +7810,19 @@
         <v>0.01</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R21" s="4">
@@ -7880,55 +7853,55 @@
         <v>89</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" ref="E22:G36" si="12">E6</f>
-        <v>90</v>
+        <f t="shared" ref="E22:E36" si="13">E6</f>
+        <v>180</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22:F36" si="13">G6</f>
+        <f t="shared" ref="F22:F36" si="14">G6</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" ref="G22:G36" si="14">F6</f>
-        <v>3</v>
+        <f t="shared" ref="G22:G36" si="15">F6</f>
+        <v>1.7</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" ref="H22:Q22" si="15">H6</f>
+        <f t="shared" ref="H22" si="16">H6</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" ref="I22:Q22" si="16">I6</f>
+        <f t="shared" ref="I22:Q22" si="17">I6</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" ref="J22:L36" si="17">K6</f>
+        <f t="shared" ref="J22:L36" si="18">K6</f>
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" ref="K22:M36" si="18">J6</f>
+        <f t="shared" ref="K22:M36" si="19">J6</f>
         <v>0.01</v>
       </c>
       <c r="L22" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="N22" s="4">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="O22" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R22" s="4">
@@ -7959,55 +7932,55 @@
         <v>87</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="12"/>
-        <v>40</v>
+        <f t="shared" si="13"/>
+        <v>80</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>2.7</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" ref="H23:Q23" si="19">H7</f>
+        <f t="shared" ref="H23" si="20">H7</f>
         <v>0.03</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23:Q23" si="20">I7</f>
+        <f t="shared" ref="I23:Q23" si="21">I7</f>
         <v>0.03</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K23" s="4">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="L23" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
-      <c r="L23" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
       <c r="N23" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R23" s="4">
@@ -8038,55 +8011,55 @@
         <v>87</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="12"/>
-        <v>36</v>
+        <f t="shared" si="13"/>
+        <v>72</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>2.3959999999999999</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" ref="H24:Q24" si="21">H8</f>
+        <f t="shared" ref="H24" si="22">H8</f>
         <v>0.03</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" ref="I24:Q24" si="22">I8</f>
+        <f t="shared" ref="I24:Q24" si="23">I8</f>
         <v>0.03</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K24" s="4">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="L24" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
-      <c r="L24" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
       <c r="N24" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R24" s="4">
@@ -8117,55 +8090,55 @@
         <v>87</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="12"/>
-        <v>30</v>
+        <f t="shared" si="13"/>
+        <v>60</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="14"/>
-        <v>4.5</v>
+        <f t="shared" si="15"/>
+        <v>2.48</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" ref="H25:Q25" si="23">H9</f>
+        <f t="shared" ref="H25" si="24">H9</f>
         <v>0.03</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" ref="I25:Q25" si="24">I9</f>
+        <f t="shared" ref="I25:Q25" si="25">I9</f>
         <v>0.03</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K25" s="4">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="L25" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
-      <c r="L25" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
       <c r="N25" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R25" s="4">
@@ -8196,55 +8169,55 @@
         <v>87</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="12"/>
-        <v>40</v>
+        <f t="shared" si="13"/>
+        <v>80</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>2.46</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" ref="H26:Q26" si="25">H10</f>
+        <f t="shared" ref="H26" si="26">H10</f>
         <v>0.03</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" ref="I26:Q26" si="26">I10</f>
+        <f t="shared" ref="I26:Q26" si="27">I10</f>
         <v>0.03</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K26" s="4">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
-      <c r="L26" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
       <c r="N26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R26" s="4">
@@ -8275,55 +8248,55 @@
         <v>87</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="12"/>
-        <v>30</v>
+        <f t="shared" si="13"/>
+        <v>60</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="14"/>
-        <v>3.5</v>
+        <f t="shared" si="15"/>
+        <v>2.62</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" ref="H27:Q27" si="27">H11</f>
+        <f t="shared" ref="H27" si="28">H11</f>
         <v>0.03</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" ref="I27:Q27" si="28">I11</f>
+        <f t="shared" ref="I27:Q27" si="29">I11</f>
         <v>0.03</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K27" s="4">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="L27" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
-      <c r="L27" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
       <c r="N27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R27" s="4">
@@ -8354,55 +8327,55 @@
         <v>88</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="12"/>
-        <v>36</v>
+        <f t="shared" si="13"/>
+        <v>72</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="14"/>
-        <v>3.5</v>
+        <f t="shared" si="15"/>
+        <v>2.2679999999999998</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" ref="H28:Q28" si="29">H12</f>
+        <f t="shared" ref="H28" si="30">H12</f>
         <v>0.03</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ref="I28:Q28" si="30">I12</f>
+        <f t="shared" ref="I28:Q28" si="31">I12</f>
         <v>0.03</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K28" s="4">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="L28" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
-      <c r="L28" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
       <c r="N28" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R28" s="4">
@@ -8433,55 +8406,55 @@
         <v>88</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="12"/>
-        <v>27</v>
+        <f t="shared" si="13"/>
+        <v>54</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>2.3759999999999999</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" ref="H29:Q29" si="31">H13</f>
+        <f t="shared" ref="H29" si="32">H13</f>
         <v>0.03</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ref="I29:Q29" si="32">I13</f>
+        <f t="shared" ref="I29:Q29" si="33">I13</f>
         <v>0.03</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K29" s="4">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="L29" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
-      <c r="L29" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
       <c r="N29" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R29" s="4">
@@ -8512,51 +8485,51 @@
         <v>218</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="12"/>
-        <v>33</v>
+        <f t="shared" si="13"/>
+        <v>66</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G30" s="4">
         <f>F14*1.5</f>
-        <v>4.5</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="H30:Q30" si="33">H14</f>
+        <f t="shared" ref="H30" si="34">H14</f>
         <v>0.03</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" ref="I30:Q30" si="34">I14</f>
+        <f t="shared" ref="I30:P30" si="35">I14</f>
         <v>0.03</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K30" s="4">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="L30" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
-      <c r="L30" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <f t="shared" si="18"/>
-        <v>0.01</v>
-      </c>
       <c r="N30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q30" s="4">
@@ -8591,55 +8564,55 @@
         <v>89</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="12"/>
-        <v>500</v>
+        <f t="shared" si="13"/>
+        <v>1000</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="14"/>
-        <v>12.5</v>
+        <f t="shared" si="15"/>
+        <v>7.5</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" ref="H31:Q31" si="35">H15</f>
+        <f t="shared" ref="H31" si="36">H15</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" ref="I31:Q31" si="36">I15</f>
+        <f t="shared" ref="I31:Q31" si="37">I15</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K31" s="4">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="19"/>
         <v>0.05</v>
       </c>
-      <c r="L31" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
-        <f t="shared" si="18"/>
-        <v>0.05</v>
-      </c>
       <c r="N31" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R31" s="4">
@@ -8670,55 +8643,55 @@
         <v>87</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="12"/>
-        <v>200</v>
+        <f t="shared" si="13"/>
+        <v>400</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="15"/>
+        <v>13.5</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" ref="H32:Q32" si="37">H16</f>
+        <f t="shared" ref="H32" si="38">H16</f>
         <v>0.15</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" ref="I32:Q32" si="38">I16</f>
+        <f t="shared" ref="I32:Q32" si="39">I16</f>
         <v>0.15</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K32" s="4">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="L32" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="19"/>
         <v>0.05</v>
       </c>
-      <c r="L32" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <f t="shared" si="18"/>
-        <v>0.05</v>
-      </c>
       <c r="N32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R32" s="4">
@@ -8749,55 +8722,55 @@
         <v>88</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="12"/>
-        <v>135</v>
+        <f t="shared" si="13"/>
+        <v>270</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="15"/>
+        <v>11.879999999999999</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" ref="H33:Q33" si="39">H17</f>
+        <f t="shared" ref="H33" si="40">H17</f>
         <v>0.15</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ref="I33:Q33" si="40">I17</f>
+        <f t="shared" ref="I33:Q33" si="41">I17</f>
         <v>0.15</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K33" s="4">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="L33" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="19"/>
         <v>0.05</v>
       </c>
-      <c r="L33" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
-        <f t="shared" si="18"/>
-        <v>0.05</v>
-      </c>
       <c r="N33" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R33" s="4">
@@ -8828,23 +8801,23 @@
         <v>89</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="12"/>
-        <v>2500</v>
+        <f t="shared" si="13"/>
+        <v>5000</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="14"/>
-        <v>62.5</v>
+        <f t="shared" si="15"/>
+        <v>37.5</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" ref="H34:Q34" si="41">H18</f>
+        <f t="shared" ref="H34" si="42">H18</f>
         <v>4.5</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34:Q34" si="42">I18</f>
+        <f t="shared" ref="I34:Q34" si="43">I18</f>
         <v>4.5</v>
       </c>
       <c r="J34" s="4">
@@ -8852,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="L34" s="4">
@@ -8860,23 +8833,23 @@
         <v>0</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.1875</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.1875</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R34" s="4">
@@ -8907,55 +8880,55 @@
         <v>87</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="12"/>
-        <v>1000</v>
+        <f t="shared" si="13"/>
+        <v>2000</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="14"/>
-        <v>100</v>
+        <f t="shared" si="15"/>
+        <v>67.5</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" ref="H35:Q35" si="43">H19</f>
+        <f t="shared" ref="H35" si="44">H19</f>
         <v>0.75</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" ref="I35:Q35" si="44">I19</f>
+        <f t="shared" ref="I35:Q35" si="45">I19</f>
         <v>0.75</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K35" s="4">
+        <f t="shared" si="19"/>
+        <v>0.25</v>
+      </c>
+      <c r="L35" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="L35" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
-      </c>
       <c r="N35" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.1875</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.1875</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R35" s="4">
@@ -8986,55 +8959,55 @@
         <v>88</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="12"/>
-        <v>675</v>
+        <f t="shared" si="13"/>
+        <v>1350</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="14"/>
-        <v>100</v>
+        <f t="shared" si="15"/>
+        <v>59.399999999999991</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" ref="H36:Q36" si="45">H20</f>
+        <f t="shared" ref="H36" si="46">H20</f>
         <v>0.75</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" ref="I36:Q36" si="46">I20</f>
+        <f t="shared" ref="I36:Q36" si="47">I20</f>
         <v>0.75</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K36" s="4">
+        <f t="shared" si="19"/>
+        <v>0.25</v>
+      </c>
+      <c r="L36" s="4">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="L36" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
-      </c>
       <c r="N36" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.1875</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.1875</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R36" s="4">
@@ -9066,54 +9039,54 @@
       </c>
       <c r="E37" s="4">
         <f>E30*5</f>
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" ref="F37:G37" si="47">F30*5</f>
+        <f t="shared" ref="F37:G37" si="48">F30*5</f>
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="47"/>
-        <v>22.5</v>
+        <f t="shared" si="48"/>
+        <v>16.274999999999999</v>
       </c>
       <c r="H37" s="4">
         <f>H30*5</f>
         <v>0.15</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ref="I37:Q37" si="48">I30*5</f>
+        <f t="shared" ref="I37:Q37" si="49">I30*5</f>
         <v>0.15</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="48"/>
-        <v>0.05</v>
-      </c>
-      <c r="L37" s="4">
-        <f t="shared" ref="L37:M37" si="49">L30*5</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
         <f t="shared" si="49"/>
         <v>0.05</v>
       </c>
+      <c r="L37" s="4">
+        <f t="shared" ref="L37:M37" si="50">L30*5</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
       <c r="N37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
       <c r="R37" s="4">
@@ -9145,54 +9118,54 @@
       </c>
       <c r="E38" s="4">
         <f>E37*5</f>
-        <v>825</v>
+        <v>1650</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" ref="F38:G38" si="50">F37*5</f>
+        <f t="shared" ref="F38:G38" si="51">F37*5</f>
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="50"/>
-        <v>112.5</v>
+        <f t="shared" si="51"/>
+        <v>81.375</v>
       </c>
       <c r="H38" s="4">
         <f>H37*5</f>
         <v>0.75</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" ref="I38:Q38" si="51">I37*5</f>
+        <f t="shared" ref="I38:Q38" si="52">I37*5</f>
         <v>0.75</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.25</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" ref="L38" si="52">L37*5</f>
+        <f t="shared" ref="L38" si="53">L37*5</f>
         <v>0</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" ref="M38" si="53">M37*5</f>
+        <f t="shared" ref="M38" si="54">M37*5</f>
         <v>0.25</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.1875</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.1875</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>75</v>
       </c>
       <c r="R38" s="4">

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6AF62B-947D-4C29-A70E-305125AC5B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A26B06D-DE03-4CE0-AAD8-5BAE16683AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41910" yWindow="765" windowWidth="34695" windowHeight="18915" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="90" yWindow="1575" windowWidth="35535" windowHeight="18915" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1815,22 +1815,76 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1840,7 +1894,13 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -2796,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4014,7 +4074,7 @@
         <v>200001</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>78</v>
@@ -4098,11 +4158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4464,7 +4524,7 @@
         <v>85</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -4543,7 +4603,7 @@
         <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -4622,7 +4682,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -4701,7 +4761,7 @@
         <v>137</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -4780,7 +4840,7 @@
         <v>85</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -4859,7 +4919,7 @@
         <v>137</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -4938,7 +4998,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -5017,7 +5077,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -5096,7 +5156,7 @@
         <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -5175,7 +5235,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -5359,7 +5419,7 @@
         <v>85</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -5450,7 +5510,7 @@
         <v>85</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -5528,7 +5588,7 @@
         <v>137</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -5606,7 +5666,7 @@
         <v>137</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -5764,7 +5824,7 @@
         <v>85</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -5855,7 +5915,7 @@
         <v>137</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -5947,7 +6007,7 @@
         <v>86</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -6039,7 +6099,7 @@
         <v>253</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -6131,7 +6191,7 @@
         <v>137</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -6223,7 +6283,7 @@
         <v>137</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -6387,7 +6447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6896,7 +6956,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" ref="F9:F10" si="0">F$5+(E$5-E9)*0.007</f>
+        <f t="shared" ref="F9" si="0">F$5+(E$5-E9)*0.007</f>
         <v>2.48</v>
       </c>
       <c r="G9" s="4">

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A26B06D-DE03-4CE0-AAD8-5BAE16683AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3694E9-A8CC-48B4-A472-C2C352B094F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1575" windowWidth="35535" windowHeight="18915" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39630" yWindow="435" windowWidth="34695" windowHeight="18915" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -4158,11 +4158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="J5" s="4">
         <v>10</v>
@@ -4484,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T5" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U5" s="4">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>470</v>
+        <v>603</v>
       </c>
       <c r="J6" s="4">
         <v>7</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>440</v>
+        <v>581</v>
       </c>
       <c r="J7" s="4">
         <v>10</v>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>385</v>
+        <v>485</v>
       </c>
       <c r="J8" s="4">
         <v>20</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="J9" s="4">
         <v>19</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>397</v>
+        <v>497</v>
       </c>
       <c r="J10" s="4">
         <v>20</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>385</v>
+        <v>485</v>
       </c>
       <c r="J11" s="4">
         <v>15</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>370</v>
+        <v>475</v>
       </c>
       <c r="J12" s="4">
         <v>14</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>365</v>
+        <v>459</v>
       </c>
       <c r="J13" s="4">
         <v>19</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>340</v>
+        <v>457</v>
       </c>
       <c r="J14" s="4">
         <v>18</v>
@@ -5244,35 +5244,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>I9*3</f>
-        <v>1125</v>
+        <v>1467</v>
       </c>
       <c r="J15" s="19">
-        <f t="shared" ref="J15:U15" si="0">J9*3</f>
         <v>57</v>
       </c>
       <c r="K15" s="19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="19">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M15" s="19">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N15" s="19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15" s="19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P15" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J15:U15" si="0">P9*3</f>
         <v>0</v>
       </c>
       <c r="Q15" s="19">
@@ -5280,15 +5273,12 @@
         <v>0</v>
       </c>
       <c r="R15" s="19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U15" s="19">
@@ -5336,35 +5326,28 @@
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>I5*3</f>
-        <v>1503</v>
+        <v>1813</v>
       </c>
       <c r="J16" s="19">
-        <f t="shared" ref="J16:U16" si="1">J5*3</f>
         <v>30</v>
       </c>
       <c r="K16" s="19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L16" s="19">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M16" s="19">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N16" s="19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O16" s="19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J16:U16" si="1">P5*3</f>
         <v>0</v>
       </c>
       <c r="Q16" s="19">
@@ -5372,16 +5355,13 @@
         <v>0</v>
       </c>
       <c r="R16" s="19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S16" s="19">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T16" s="19">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="U16" s="19">
         <f t="shared" si="1"/>
@@ -5428,35 +5408,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>I7*3</f>
-        <v>1320</v>
+        <v>1738</v>
       </c>
       <c r="J17" s="19">
-        <f t="shared" ref="J17:U17" si="2">J7*3</f>
         <v>30</v>
       </c>
       <c r="K17" s="19">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="19">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="M17" s="19">
-        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="N17" s="19">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O17" s="19">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P17" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J17:U17" si="2">P7*3</f>
         <v>0</v>
       </c>
       <c r="Q17" s="19">
@@ -5464,15 +5437,12 @@
         <v>0</v>
       </c>
       <c r="R17" s="19">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="T17" s="19">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U17" s="19">
@@ -5519,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>470</v>
+        <v>603</v>
       </c>
       <c r="J18" s="4">
         <v>10</v>
@@ -5597,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>385</v>
+        <v>485</v>
       </c>
       <c r="J19" s="4">
         <v>20</v>
@@ -5675,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>370</v>
+        <v>465</v>
       </c>
       <c r="J20" s="4">
         <v>19</v>
@@ -5754,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>335</v>
+        <v>435</v>
       </c>
       <c r="J21" s="4">
         <v>18</v>
@@ -5833,35 +5803,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f>I18*3</f>
-        <v>1410</v>
+        <v>1787</v>
       </c>
       <c r="J22" s="19">
-        <f t="shared" ref="J22:U22" si="3">J18*3</f>
         <v>30</v>
       </c>
       <c r="K22" s="19">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L22" s="19">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M22" s="19">
-        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="N22" s="19">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="19">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P22" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J22:U22" si="3">P18*3</f>
         <v>0</v>
       </c>
       <c r="Q22" s="19">
@@ -5869,15 +5832,12 @@
         <v>0</v>
       </c>
       <c r="R22" s="19">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S22" s="19">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="T22" s="19">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U22" s="19">
@@ -5924,35 +5884,28 @@
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>I20*3</f>
-        <v>1110</v>
+        <v>1497</v>
       </c>
       <c r="J23" s="19">
-        <f t="shared" ref="J23:U23" si="4">J20*3</f>
         <v>57</v>
       </c>
       <c r="K23" s="19">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L23" s="19">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M23" s="19">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N23" s="19">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O23" s="19">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J23:U23" si="4">P20*3</f>
         <v>0</v>
       </c>
       <c r="Q23" s="19">
@@ -5960,15 +5913,12 @@
         <v>0</v>
       </c>
       <c r="R23" s="19">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U23" s="19">
@@ -6016,35 +5966,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>I13*3</f>
-        <v>1095</v>
+        <v>1489</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" ref="J24:U24" si="5">J13*3</f>
         <v>57</v>
       </c>
       <c r="K24" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L24" s="19">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M24" s="19">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N24" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O24" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J24:U24" si="5">P13*3</f>
         <v>0</v>
       </c>
       <c r="Q24" s="19">
@@ -6052,15 +5995,12 @@
         <v>0</v>
       </c>
       <c r="R24" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S24" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T24" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U24" s="19">
@@ -6108,35 +6048,28 @@
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>I19*3</f>
-        <v>1155</v>
+        <v>1508</v>
       </c>
       <c r="J25" s="19">
-        <f t="shared" ref="J25:U25" si="6">J19*3</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K25" s="19">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L25" s="19">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M25" s="19">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N25" s="19">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O25" s="19">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J25:U25" si="6">P19*3</f>
         <v>0</v>
       </c>
       <c r="Q25" s="19">
@@ -6144,15 +6077,12 @@
         <v>0</v>
       </c>
       <c r="R25" s="19">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U25" s="19">
@@ -6200,35 +6130,28 @@
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f>I15*3</f>
-        <v>3375</v>
+        <v>1459</v>
       </c>
       <c r="J26" s="19">
-        <f t="shared" ref="J26:U26" si="7">J15*3</f>
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="K26" s="19">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L26" s="19">
-        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="M26" s="19">
-        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="N26" s="19">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O26" s="19">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P26" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J26:U26" si="7">P15*3</f>
         <v>0</v>
       </c>
       <c r="Q26" s="19">
@@ -6236,15 +6159,12 @@
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U26" s="19">
@@ -6292,35 +6212,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <f>I23*5</f>
-        <v>5550</v>
+        <v>7483</v>
       </c>
       <c r="J27" s="4">
-        <f>J23*2</f>
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" ref="K27:U27" si="8">K23*2</f>
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K27:U27" si="8">P23*2</f>
         <v>0</v>
       </c>
       <c r="Q27" s="4">
@@ -6328,15 +6241,12 @@
         <v>0</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U27" s="4">
@@ -6384,20 +6294,19 @@
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <f>I15*5</f>
-        <v>5625</v>
+        <v>7446</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="L28" s="4">
         <v>6</v>
       </c>
       <c r="M28" s="4">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
@@ -6447,8 +6356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8976,7 +8885,6 @@
         <v>0.25</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O35" s="4">

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3694E9-A8CC-48B4-A472-C2C352B094F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0798BFFD-5076-4887-9EF1-62FDEF47A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39630" yWindow="435" windowWidth="34695" windowHeight="18915" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="450" yWindow="2415" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="255">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1214,6 +1214,10 @@
   </si>
   <si>
     <t>2 중열 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210001, 210002, 210003]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4158,11 +4162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5265,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="19">
-        <f t="shared" ref="J15:U15" si="0">P9*3</f>
+        <f t="shared" ref="P15:U15" si="0">P9*3</f>
         <v>0</v>
       </c>
       <c r="Q15" s="19">
@@ -5347,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="19">
-        <f t="shared" ref="J16:U16" si="1">P5*3</f>
+        <f t="shared" ref="P16:U16" si="1">P5*3</f>
         <v>0</v>
       </c>
       <c r="Q16" s="19">
@@ -5429,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="19">
-        <f t="shared" ref="J17:U17" si="2">P7*3</f>
+        <f t="shared" ref="P17:U17" si="2">P7*3</f>
         <v>0</v>
       </c>
       <c r="Q17" s="19">
@@ -5824,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="19">
-        <f t="shared" ref="J22:U22" si="3">P18*3</f>
+        <f t="shared" ref="P22:U22" si="3">P18*3</f>
         <v>0</v>
       </c>
       <c r="Q22" s="19">
@@ -5905,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="19">
-        <f t="shared" ref="J23:U23" si="4">P20*3</f>
+        <f t="shared" ref="P23:U23" si="4">P20*3</f>
         <v>0</v>
       </c>
       <c r="Q23" s="19">
@@ -5987,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" ref="J24:U24" si="5">P13*3</f>
+        <f t="shared" ref="P24:U24" si="5">P13*3</f>
         <v>0</v>
       </c>
       <c r="Q24" s="19">
@@ -6069,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" ref="J25:U25" si="6">P19*3</f>
+        <f t="shared" ref="P25:U25" si="6">P19*3</f>
         <v>0</v>
       </c>
       <c r="Q25" s="19">
@@ -6151,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="19">
-        <f t="shared" ref="J26:U26" si="7">P15*3</f>
+        <f t="shared" ref="P26:U26" si="7">P15*3</f>
         <v>0</v>
       </c>
       <c r="Q26" s="19">
@@ -6233,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="K27:U27" si="8">P23*2</f>
+        <f t="shared" ref="P27:U27" si="8">P23*2</f>
         <v>0</v>
       </c>
       <c r="Q27" s="4">
@@ -6285,13 +6289,13 @@
         <v>86</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>0</v>
+        <v>210004</v>
       </c>
       <c r="I28" s="4">
         <v>7446</v>
@@ -6356,8 +6360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0798BFFD-5076-4887-9EF1-62FDEF47A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2307FAA-E758-4EDA-9F4C-1B47C3E351FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="2415" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39570" yWindow="540" windowWidth="35415" windowHeight="19395" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="256">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,10 +1086,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스 엘리자베스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4 힐러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1218,6 +1214,14 @@
   </si>
   <si>
     <t>[210001, 210002, 210003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스_마네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스_엘리자베스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1391,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1451,6 +1455,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,77 +1826,29 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
+            <v>LIMIT_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1898,13 +1857,7 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -2861,7 +2814,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3028,7 +2981,7 @@
       <c r="C5" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="20" t="s">
         <v>176</v>
       </c>
       <c r="E5" s="11">
@@ -3075,7 +3028,7 @@
       <c r="C6" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="20" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="11">
@@ -3122,7 +3075,7 @@
       <c r="C7" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="20" t="s">
         <v>175</v>
       </c>
       <c r="E7" s="11">
@@ -3169,7 +3122,7 @@
       <c r="C8" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="20" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="11">
@@ -3216,7 +3169,7 @@
       <c r="C9" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="20" t="s">
         <v>172</v>
       </c>
       <c r="E9" s="11">
@@ -3263,7 +3216,7 @@
       <c r="C10" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="20" t="s">
         <v>173</v>
       </c>
       <c r="E10" s="11">
@@ -3310,7 +3263,7 @@
       <c r="C11" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="20" t="s">
         <v>177</v>
       </c>
       <c r="E11" s="11">
@@ -3357,7 +3310,7 @@
       <c r="C12" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="20" t="s">
         <v>178</v>
       </c>
       <c r="E12" s="11">
@@ -3404,7 +3357,7 @@
       <c r="C13" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="20" t="s">
         <v>180</v>
       </c>
       <c r="E13" s="11">
@@ -3451,7 +3404,7 @@
       <c r="C14" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="20" t="s">
         <v>181</v>
       </c>
       <c r="E14" s="11">
@@ -3498,7 +3451,7 @@
       <c r="C15" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E15" s="11">
@@ -3545,7 +3498,7 @@
       <c r="C16" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="20" t="s">
         <v>194</v>
       </c>
       <c r="E16" s="11">
@@ -3592,7 +3545,7 @@
       <c r="C17" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="20" t="s">
         <v>201</v>
       </c>
       <c r="E17" s="11">
@@ -3639,7 +3592,7 @@
       <c r="C18" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="20" t="s">
         <v>200</v>
       </c>
       <c r="E18" s="11">
@@ -3683,7 +3636,7 @@
       <c r="C19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="20" t="s">
         <v>198</v>
       </c>
       <c r="E19" s="11">
@@ -3727,7 +3680,7 @@
       <c r="C20" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="20" t="s">
         <v>199</v>
       </c>
       <c r="E20" s="11">
@@ -3771,7 +3724,7 @@
       <c r="C21" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="20" t="s">
         <v>202</v>
       </c>
       <c r="E21" s="11">
@@ -3818,7 +3771,7 @@
       <c r="C22" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="20" t="s">
         <v>205</v>
       </c>
       <c r="E22" s="11">
@@ -3865,7 +3818,7 @@
       <c r="C23" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="20" t="s">
         <v>207</v>
       </c>
       <c r="E23" s="11">
@@ -3912,7 +3865,7 @@
       <c r="C24" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="20" t="s">
         <v>214</v>
       </c>
       <c r="E24" s="11">
@@ -3959,7 +3912,7 @@
       <c r="C25" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="20" t="s">
         <v>215</v>
       </c>
       <c r="E25" s="11">
@@ -4003,7 +3956,7 @@
       <c r="C26" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="20" t="s">
         <v>216</v>
       </c>
       <c r="E26" s="11">
@@ -4050,8 +4003,8 @@
       <c r="C27" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>168</v>
+      <c r="D27" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="E27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F27,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4097,8 +4050,8 @@
       <c r="C28" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>217</v>
+      <c r="D28" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="E28" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F28,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4166,7 +4119,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6040,7 +5993,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>91</v>
@@ -6194,7 +6147,7 @@
       </c>
       <c r="B27" s="4" t="str">
         <f>VLOOKUP(A27,npc_data!A:D,4,0)</f>
-        <v>마네</v>
+        <v>보스_마네</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
@@ -6276,7 +6229,7 @@
       </c>
       <c r="B28" s="4" t="str">
         <f>VLOOKUP(A28,npc_data!A:D,4,0)</f>
-        <v>보스 엘리자베스</v>
+        <v>보스_엘리자베스</v>
       </c>
       <c r="C28" s="4">
         <v>8</v>
@@ -6289,7 +6242,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -6585,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6651,7 +6604,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6719,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6787,7 +6740,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6855,7 +6808,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6923,7 +6876,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6991,7 +6944,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7059,7 +7012,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7127,7 +7080,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7195,14 +7148,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E14" s="13">
         <f>E9*1.1</f>
@@ -7263,7 +7216,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7342,7 +7295,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7421,7 +7374,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D17,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7500,7 +7453,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D18,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7579,7 +7532,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D19,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7658,7 +7611,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D20,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7737,7 +7690,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D21,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7816,7 +7769,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D22,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7895,7 +7848,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D23,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7974,7 +7927,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D24,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8053,7 +8006,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C25" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D25,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8132,7 +8085,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D26,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8211,7 +8164,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D27,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8290,7 +8243,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C28" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D28,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8369,7 +8322,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C29" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D29,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8448,14 +8401,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C30" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D30,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="13"/>
@@ -8527,7 +8480,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C31" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D31,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8606,7 +8559,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D32,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8685,7 +8638,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C33" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D33,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8764,7 +8717,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D34,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8843,7 +8796,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C35" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D35,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8921,7 +8874,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D36,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9000,14 +8953,14 @@
         <v>33</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C37" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D37,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" s="4">
         <f>E30*5</f>
@@ -9079,14 +9032,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D38,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E38" s="4">
         <f>E37*5</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2307FAA-E758-4EDA-9F4C-1B47C3E351FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6276BB-3457-47A3-82C2-0AE5B3F02C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39570" yWindow="540" windowWidth="35415" windowHeight="19395" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40665" yWindow="2205" windowWidth="36135" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="257">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1222,6 +1222,10 @@
   </si>
   <si>
     <t>보스_엘리자베스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_900001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,6 +1524,7 @@
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
+      <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1837,7 +1842,13 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GAME_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
@@ -1856,7 +1867,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
@@ -1936,6 +1953,7 @@
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2813,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4078,7 +4096,7 @@
         <v>900001</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>147</v>
@@ -4115,11 +4133,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6257,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="L28" s="4">
         <v>6</v>
@@ -6313,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7230,11 +7248,11 @@
         <v>1000</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ref="F15:G15" si="1">F5*5</f>
-        <v>7.5</v>
+        <f>F5*2.5</f>
+        <v>3.75</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F15:G15" si="1">G5*5</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -7309,11 +7327,11 @@
         <v>400</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" ref="F16:G16" si="3">F7*5</f>
-        <v>13.5</v>
+        <f>F7*2.5</f>
+        <v>6.75</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F16:G16" si="3">G7*5</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
@@ -7388,11 +7406,11 @@
         <v>270</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" ref="F17:G17" si="5">F13*5</f>
-        <v>11.879999999999999</v>
+        <f>F13*2.5</f>
+        <v>5.9399999999999995</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F17:G17" si="5">G13*5</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
@@ -7467,11 +7485,11 @@
         <v>5000</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" ref="F18:G18" si="7">F15*5</f>
-        <v>37.5</v>
+        <f>F15*2.5</f>
+        <v>9.375</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F18:G18" si="7">G15*5</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
@@ -7546,8 +7564,8 @@
         <v>2000</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="9"/>
-        <v>67.5</v>
+        <f>F16*2</f>
+        <v>13.5</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="9"/>
@@ -7625,8 +7643,8 @@
         <v>1350</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="9"/>
-        <v>59.399999999999991</v>
+        <f>F17*2</f>
+        <v>11.879999999999999</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="9"/>
@@ -8499,7 +8517,7 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" si="15"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" ref="H31" si="36">H15</f>
@@ -8578,7 +8596,7 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" si="15"/>
-        <v>13.5</v>
+        <v>6.75</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" ref="H32" si="38">H16</f>
@@ -8657,7 +8675,7 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" si="15"/>
-        <v>11.879999999999999</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" ref="H33" si="40">H17</f>
@@ -8736,7 +8754,7 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" si="15"/>
-        <v>37.5</v>
+        <v>9.375</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" ref="H34" si="42">H18</f>
@@ -8815,7 +8833,7 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" si="15"/>
-        <v>67.5</v>
+        <v>13.5</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" ref="H35" si="44">H19</f>
@@ -8893,7 +8911,7 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" si="15"/>
-        <v>59.399999999999991</v>
+        <v>11.879999999999999</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" ref="H36" si="46">H20</f>
@@ -8971,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="48"/>
+        <f>G30*5</f>
         <v>16.274999999999999</v>
       </c>
       <c r="H37" s="4">
@@ -9050,8 +9068,8 @@
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="51"/>
-        <v>81.375</v>
+        <f>G37*2</f>
+        <v>32.549999999999997</v>
       </c>
       <c r="H38" s="4">
         <f>H37*5</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6276BB-3457-47A3-82C2-0AE5B3F02C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1DFA2-2F1F-4BC2-8C26-EBE5884D18CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40665" yWindow="2205" windowWidth="36135" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="280">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1227,6 +1227,77 @@
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_900001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_0001</t>
+  </si>
+  <si>
+    <t>monster_desc_0002</t>
+  </si>
+  <si>
+    <t>monster_desc_0003</t>
+  </si>
+  <si>
+    <t>monster_desc_0017</t>
+  </si>
+  <si>
+    <t>monster_desc_0004</t>
+  </si>
+  <si>
+    <t>monster_desc_0005</t>
+  </si>
+  <si>
+    <t>monster_desc_0006</t>
+  </si>
+  <si>
+    <t>monster_desc_0007</t>
+  </si>
+  <si>
+    <t>monster_desc_0008</t>
+  </si>
+  <si>
+    <t>monster_desc_0009</t>
+  </si>
+  <si>
+    <t>monster_desc_0010</t>
+  </si>
+  <si>
+    <t>monster_desc_0011</t>
+  </si>
+  <si>
+    <t>monster_desc_0012</t>
+  </si>
+  <si>
+    <t>monster_desc_0013</t>
+  </si>
+  <si>
+    <t>monster_desc_0014</t>
+  </si>
+  <si>
+    <t>monster_desc_0015</t>
+  </si>
+  <si>
+    <t>monster_desc_0018</t>
+  </si>
+  <si>
+    <t>monster_desc_0019</t>
+  </si>
+  <si>
+    <t>monster_desc_0020</t>
+  </si>
+  <si>
+    <t>monster_desc_0021</t>
+  </si>
+  <si>
+    <t>monster_desc_0022</t>
   </si>
 </sst>
 </file>
@@ -2829,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2840,24 +2911,25 @@
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="32.75" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
-    <col min="9" max="9" width="6.75" customWidth="1"/>
-    <col min="10" max="10" width="25.125" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -2868,40 +2940,43 @@
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -2915,37 +2990,40 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -2956,40 +3034,43 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15" ht="16.5" customHeight="1">
       <c r="A5" s="9">
         <v>100001</v>
       </c>
@@ -2999,44 +3080,47 @@
       <c r="C5" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F5,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F5" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H5,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H5" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J5,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J5" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>100001</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" s="9">
         <v>100002</v>
       </c>
@@ -3046,44 +3130,47 @@
       <c r="C6" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F6,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F6" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H6,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H6" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J6,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J6" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <v>100002</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="9">
         <v>100003</v>
       </c>
@@ -3093,44 +3180,47 @@
       <c r="C7" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F7,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F7" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H7,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H7" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J7,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J7" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>100003</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15" ht="16.5" customHeight="1">
       <c r="A8" s="9">
         <v>100004</v>
       </c>
@@ -3140,44 +3230,47 @@
       <c r="C8" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F8,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F8" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H8,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H8" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J8,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J8" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <v>100004</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15" ht="16.5" customHeight="1">
       <c r="A9" s="9">
         <v>100005</v>
       </c>
@@ -3187,44 +3280,47 @@
       <c r="C9" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F9,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F9" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H9,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H9" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J9,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J9" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K9,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>100005</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15" ht="16.5" customHeight="1">
       <c r="A10" s="9">
         <v>100006</v>
       </c>
@@ -3234,44 +3330,47 @@
       <c r="C10" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F10,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F10" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H10,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H10" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J10,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J10" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <v>100006</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1">
       <c r="A11" s="9">
         <v>100007</v>
       </c>
@@ -3281,44 +3380,47 @@
       <c r="C11" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F11,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F11" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H11,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H11" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I11,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J11,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J11" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K11,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11">
         <v>100007</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15" ht="16.5" customHeight="1">
       <c r="A12" s="9">
         <v>100008</v>
       </c>
@@ -3328,44 +3430,47 @@
       <c r="C12" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F12,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F12" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H12,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H12" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I12,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J12,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J12" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K12,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <v>100008</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15" ht="16.5" customHeight="1">
       <c r="A13" s="9">
         <v>100009</v>
       </c>
@@ -3375,44 +3480,47 @@
       <c r="C13" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F13,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F13" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H13,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H13" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I13,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J13,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J13" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K13,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="K13" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <v>100009</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15" ht="16.5" customHeight="1">
       <c r="A14" s="9">
         <v>100010</v>
       </c>
@@ -3422,44 +3530,47 @@
       <c r="C14" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F14,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F14" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H14,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H14" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I14,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J14,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J14" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K14,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <v>100010</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15" ht="16.5" customHeight="1">
       <c r="A15" s="9">
         <v>100011</v>
       </c>
@@ -3469,44 +3580,47 @@
       <c r="C15" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F15,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F15" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H15,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H15" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I15,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I15" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J15,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J15" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K15,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="K15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>100011</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15" ht="16.5" customHeight="1">
       <c r="A16" s="9">
         <v>100012</v>
       </c>
@@ -3516,44 +3630,47 @@
       <c r="C16" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F16,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F16" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H16,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H16" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I16,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J16,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J16" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K16,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11">
         <v>100012</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15" ht="16.5" customHeight="1">
       <c r="A17" s="9">
         <v>100013</v>
       </c>
@@ -3563,44 +3680,47 @@
       <c r="C17" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F17,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F17" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H17,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H17" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I17,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I17" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J17,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J17" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K17,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="K17" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <v>100013</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15" ht="16.5" customHeight="1">
       <c r="A18" s="9">
         <v>100014</v>
       </c>
@@ -3610,41 +3730,44 @@
       <c r="C18" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="11">
+      <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="11">
         <v>2</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>1</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11">
         <v>100014</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15" ht="16.5" customHeight="1">
       <c r="A19" s="9">
         <v>100015</v>
       </c>
@@ -3654,41 +3777,44 @@
       <c r="C19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="11">
         <v>2</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="11">
+      <c r="J19" s="11">
         <v>1</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <v>100015</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15" ht="16.5" customHeight="1">
       <c r="A20" s="9">
         <v>100016</v>
       </c>
@@ -3698,41 +3824,44 @@
       <c r="C20" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="11">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="11">
         <v>2</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="I20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="11">
+      <c r="J20" s="11">
         <v>1</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="K20" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <v>100016</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15" ht="16.5" customHeight="1">
       <c r="A21" s="9">
         <v>100017</v>
       </c>
@@ -3742,44 +3871,47 @@
       <c r="C21" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F21,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F21" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H21,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H21" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I21,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="I21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J21,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J21" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K21,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="K21" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="11">
+      <c r="L21" s="11">
         <v>100017</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15" ht="16.5" customHeight="1">
       <c r="A22" s="9">
         <v>100018</v>
       </c>
@@ -3789,44 +3921,47 @@
       <c r="C22" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F22,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F22" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H22,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H22" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I22,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I22" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J22,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J22" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K22,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="K22" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11">
         <v>100018</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1">
       <c r="A23" s="9">
         <v>100019</v>
       </c>
@@ -3836,44 +3971,47 @@
       <c r="C23" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F23,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F23" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H23,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H23" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I23,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="I23" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I23" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J23,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J23" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K23,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="K23" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>100019</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15" ht="16.5" customHeight="1">
       <c r="A24" s="9">
         <v>100020</v>
       </c>
@@ -3883,44 +4021,47 @@
       <c r="C24" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="E24" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F24,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F24" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H24,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H24" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I24,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="I24" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I24" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J24,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J24" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K24,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="K24" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>100020</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1">
       <c r="A25" s="9">
         <v>100021</v>
       </c>
@@ -3930,41 +4071,44 @@
       <c r="C25" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="G25" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="11">
+      <c r="H25" s="11">
         <v>2</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="I25" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I25" s="11">
+      <c r="J25" s="11">
         <v>1</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="K25" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <v>100021</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15" ht="16.5" customHeight="1">
       <c r="A26" s="9">
         <v>100022</v>
       </c>
@@ -3974,44 +4118,47 @@
       <c r="C26" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F26,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F26" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H26,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H26" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I26,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="I26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I26" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J26,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J26" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="K26" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>100022</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15" ht="16.5" customHeight="1">
       <c r="A27" s="11">
         <v>200001</v>
       </c>
@@ -4021,44 +4168,47 @@
       <c r="C27" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="E27" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F27,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F27" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H27,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H27" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I27,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I27" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J27,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J27" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K27,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="K27" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>200001</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15" ht="16.5" customHeight="1">
       <c r="A28" s="9">
         <v>900001</v>
       </c>
@@ -4068,40 +4218,43 @@
       <c r="C28" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E28" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F28,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="F28" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H28,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="H28" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I28,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="I28" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J28,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="J28" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K28,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="K28" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="11">
+      <c r="L28" s="11">
         <v>900001</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -4115,13 +4268,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F28</xm:sqref>
+          <xm:sqref>G5:G28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63AAD212-0C9E-449A-8257-F9D25B17C515}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H28</xm:sqref>
+          <xm:sqref>I5:I28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4406,8 +4559,8 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>VLOOKUP(A5,npc_data!A:D,4,0)</f>
-        <v>마력] 탱커(HP:대) - 마족투사</v>
+        <f>VLOOKUP(A5,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0001</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -4485,8 +4638,8 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>VLOOKUP(A6,npc_data!A:D,4,0)</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한</v>
+        <f>VLOOKUP(A6,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0002</v>
       </c>
       <c r="C6" s="4">
         <v>2.4</v>
@@ -4564,8 +4717,8 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>VLOOKUP(A7,npc_data!A:D,4,0)</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드</v>
+        <f>VLOOKUP(A7,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0003</v>
       </c>
       <c r="C7" s="4">
         <v>2.8</v>
@@ -4643,8 +4796,8 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>VLOOKUP(A8,npc_data!A:D,4,0)</f>
-        <v>마력] 근딜 - 엘프 레인저</v>
+        <f>VLOOKUP(A8,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0017</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -4722,8 +4875,8 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>VLOOKUP(A9,npc_data!A:D,4,0)</f>
-        <v>마력] 원딜 - 엘프 연금술사</v>
+        <f>VLOOKUP(A9,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0004</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -4801,8 +4954,8 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>VLOOKUP(A10,npc_data!A:D,4,0)</f>
-        <v>베리] 근딜 - 하급 안드로이드</v>
+        <f>VLOOKUP(A10,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0005</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -4880,8 +5033,8 @@
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>VLOOKUP(A11,npc_data!A:D,4,0)</f>
-        <v>전기] 근딜(공:↓)- 소속대 소총병</v>
+        <f>VLOOKUP(A11,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0006</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
@@ -4959,8 +5112,8 @@
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>VLOOKUP(A12,npc_data!A:D,4,0)</f>
-        <v>전기] 원딜(공:↓) - 소속대 척탄병</v>
+        <f>VLOOKUP(A12,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0007</v>
       </c>
       <c r="C12" s="4">
         <v>5.5</v>
@@ -5038,8 +5191,8 @@
         <v>100009</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>VLOOKUP(A13,npc_data!A:D,4,0)</f>
-        <v>베리] 원딜 - 고위 천사</v>
+        <f>VLOOKUP(A13,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0008</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -5117,8 +5270,8 @@
         <v>100010</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>VLOOKUP(A14,npc_data!A:D,4,0)</f>
-        <v>요력] 원딜 - 꼭두각시 인형</v>
+        <f>VLOOKUP(A14,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0009</v>
       </c>
       <c r="C14" s="4">
         <v>6.5</v>
@@ -5196,8 +5349,8 @@
         <v>100011</v>
       </c>
       <c r="B15" s="19" t="str">
-        <f>VLOOKUP(A15,npc_data!A:D,4,0)</f>
-        <v>마력] 원딜 - 엘프 연금술사(정예)</v>
+        <f>VLOOKUP(A15,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0010</v>
       </c>
       <c r="C15" s="4">
         <v>7</v>
@@ -5278,8 +5431,8 @@
         <v>100012</v>
       </c>
       <c r="B16" s="19" t="str">
-        <f>VLOOKUP(A16,npc_data!A:D,4,0)</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)</v>
+        <f>VLOOKUP(A16,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0011</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -5360,8 +5513,8 @@
         <v>100013</v>
       </c>
       <c r="B17" s="19" t="str">
-        <f>VLOOKUP(A17,npc_data!A:D,4,0)</f>
-        <v>베리] 탱커(정예) - 거대 안드</v>
+        <f>VLOOKUP(A17,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0012</v>
       </c>
       <c r="C17" s="4">
         <v>2.8</v>
@@ -5442,8 +5595,8 @@
         <v>100014</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f>VLOOKUP(A18,npc_data!A:D,4,0)</f>
-        <v>전기] 탱커(HP:중, 방어:소) - 거한</v>
+        <f>VLOOKUP(A18,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0013</v>
       </c>
       <c r="C18" s="4">
         <v>2.4</v>
@@ -5520,8 +5673,8 @@
         <v>100015</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f>VLOOKUP(A19,npc_data!A:D,4,0)</f>
-        <v>전기] 근딜- 소속대 소총병</v>
+        <f>VLOOKUP(A19,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0014</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
@@ -5598,8 +5751,8 @@
         <v>100016</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f>VLOOKUP(A20,npc_data!A:D,4,0)</f>
-        <v>전기] 원딜 - 소속대 척탄병</v>
+        <f>VLOOKUP(A20,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0015</v>
       </c>
       <c r="C20" s="4">
         <v>5.5</v>
@@ -5676,8 +5829,8 @@
         <v>100017</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f>VLOOKUP(A21,npc_data!A:D,4,0)</f>
-        <v>요력] 서포터 - 꼭두각시 인형</v>
+        <f>VLOOKUP(A21,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0009</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -5755,8 +5908,8 @@
         <v>100018</v>
       </c>
       <c r="B22" s="19" t="str">
-        <f>VLOOKUP(A22,npc_data!A:D,4,0)</f>
-        <v>전기] 탱커(정예) - 거한</v>
+        <f>VLOOKUP(A22,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0018</v>
       </c>
       <c r="C22" s="4">
         <v>2.4</v>
@@ -5837,8 +5990,8 @@
         <v>100019</v>
       </c>
       <c r="B23" s="19" t="str">
-        <f>VLOOKUP(A23,npc_data!A:D,4,0)</f>
-        <v>전기] 원딜(정예: 방감) - 척탄병</v>
+        <f>VLOOKUP(A23,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0019</v>
       </c>
       <c r="C23" s="4">
         <v>5.5</v>
@@ -5918,8 +6071,8 @@
         <v>100020</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f>VLOOKUP(A24,npc_data!A:D,4,0)</f>
-        <v>베리] 원딜(정예) - 고위 천사</v>
+        <f>VLOOKUP(A24,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0020</v>
       </c>
       <c r="C24" s="4">
         <v>6.5</v>
@@ -6000,8 +6153,8 @@
         <v>100021</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f>VLOOKUP(A25,npc_data!A:D,4,0)</f>
-        <v>전기] 근딜(정예)- 소속대 소총병</v>
+        <f>VLOOKUP(A25,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0021</v>
       </c>
       <c r="C25" s="4">
         <v>4.5</v>
@@ -6082,8 +6235,8 @@
         <v>100022</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f>VLOOKUP(A26,npc_data!A:D,4,0)</f>
-        <v>베리] 근딜(정예) - 하급 안드로이드</v>
+        <f>VLOOKUP(A26,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0022</v>
       </c>
       <c r="C26" s="4">
         <v>3.5</v>
@@ -6164,8 +6317,8 @@
         <v>200001</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f>VLOOKUP(A27,npc_data!A:D,4,0)</f>
-        <v>보스_마네</v>
+        <f>VLOOKUP(A27,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0021</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
@@ -6246,8 +6399,8 @@
         <v>900001</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f>VLOOKUP(A28,npc_data!A:D,4,0)</f>
-        <v>보스_엘리자베스</v>
+        <f>VLOOKUP(A28,npc_data!A:E,4,0)</f>
+        <v>monster_desc_0022</v>
       </c>
       <c r="C28" s="4">
         <v>8</v>
@@ -6331,8 +6484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7252,7 +7405,7 @@
         <v>3.75</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ref="F15:G15" si="1">G5*5</f>
+        <f t="shared" ref="G15" si="1">G5*5</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -7331,7 +7484,7 @@
         <v>6.75</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" ref="F16:G16" si="3">G7*5</f>
+        <f t="shared" ref="G16" si="3">G7*5</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
@@ -7410,7 +7563,7 @@
         <v>5.9399999999999995</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="F17:G17" si="5">G13*5</f>
+        <f t="shared" ref="G17" si="5">G13*5</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
@@ -7489,7 +7642,7 @@
         <v>9.375</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ref="F18:G18" si="7">G15*5</f>
+        <f t="shared" ref="G18" si="7">G15*5</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
@@ -8985,7 +9138,7 @@
         <v>330</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" ref="F37:G37" si="48">F30*5</f>
+        <f t="shared" ref="F37" si="48">F30*5</f>
         <v>0</v>
       </c>
       <c r="G37" s="4">
@@ -9064,7 +9217,7 @@
         <v>1650</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" ref="F38:G38" si="51">F37*5</f>
+        <f t="shared" ref="F38" si="51">F37*5</f>
         <v>0</v>
       </c>
       <c r="G38" s="4">

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1DFA2-2F1F-4BC2-8C26-EBE5884D18CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6276BB-3457-47A3-82C2-0AE5B3F02C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40665" yWindow="2205" windowWidth="36135" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="257">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1227,77 +1227,6 @@
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_900001</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_0001</t>
-  </si>
-  <si>
-    <t>monster_desc_0002</t>
-  </si>
-  <si>
-    <t>monster_desc_0003</t>
-  </si>
-  <si>
-    <t>monster_desc_0017</t>
-  </si>
-  <si>
-    <t>monster_desc_0004</t>
-  </si>
-  <si>
-    <t>monster_desc_0005</t>
-  </si>
-  <si>
-    <t>monster_desc_0006</t>
-  </si>
-  <si>
-    <t>monster_desc_0007</t>
-  </si>
-  <si>
-    <t>monster_desc_0008</t>
-  </si>
-  <si>
-    <t>monster_desc_0009</t>
-  </si>
-  <si>
-    <t>monster_desc_0010</t>
-  </si>
-  <si>
-    <t>monster_desc_0011</t>
-  </si>
-  <si>
-    <t>monster_desc_0012</t>
-  </si>
-  <si>
-    <t>monster_desc_0013</t>
-  </si>
-  <si>
-    <t>monster_desc_0014</t>
-  </si>
-  <si>
-    <t>monster_desc_0015</t>
-  </si>
-  <si>
-    <t>monster_desc_0018</t>
-  </si>
-  <si>
-    <t>monster_desc_0019</t>
-  </si>
-  <si>
-    <t>monster_desc_0020</t>
-  </si>
-  <si>
-    <t>monster_desc_0021</t>
-  </si>
-  <si>
-    <t>monster_desc_0022</t>
   </si>
 </sst>
 </file>
@@ -2900,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2911,25 +2840,24 @@
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
-    <col min="10" max="10" width="6.75" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="9" max="9" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -2940,43 +2868,40 @@
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -2990,40 +2915,37 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -3034,43 +2956,40 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="N4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1">
+    <row r="5" spans="1:14">
       <c r="A5" s="9">
         <v>100001</v>
       </c>
@@ -3080,47 +2999,44 @@
       <c r="C5" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E5" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I5,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G5" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K5,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I5" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="11">
+      <c r="K5" s="11">
         <v>100001</v>
       </c>
+      <c r="L5" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="4">
+      <c r="N5" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1">
+    <row r="6" spans="1:14">
       <c r="A6" s="9">
         <v>100002</v>
       </c>
@@ -3130,47 +3046,44 @@
       <c r="C6" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E6" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I6,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G6" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K6,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I6" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L6" s="11">
+      <c r="K6" s="11">
         <v>100002</v>
       </c>
+      <c r="L6" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="4">
+      <c r="N6" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+    <row r="7" spans="1:14">
       <c r="A7" s="9">
         <v>100003</v>
       </c>
@@ -3180,47 +3093,44 @@
       <c r="C7" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E7" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I7,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G7" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K7,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I7" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="11">
+      <c r="K7" s="11">
         <v>100003</v>
       </c>
+      <c r="L7" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="4">
+      <c r="N7" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1">
+    <row r="8" spans="1:14">
       <c r="A8" s="9">
         <v>100004</v>
       </c>
@@ -3230,47 +3140,44 @@
       <c r="C8" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E8" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I8,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G8" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K8,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I8" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="11">
+      <c r="K8" s="11">
         <v>100004</v>
       </c>
+      <c r="L8" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="M8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="4">
+      <c r="N8" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1">
+    <row r="9" spans="1:14">
       <c r="A9" s="9">
         <v>100005</v>
       </c>
@@ -3280,47 +3187,44 @@
       <c r="C9" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E9" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I9,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G9" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K9,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I9" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J9,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L9" s="11">
+      <c r="K9" s="11">
         <v>100005</v>
       </c>
+      <c r="L9" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="M9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="4">
+      <c r="N9" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1">
+    <row r="10" spans="1:14">
       <c r="A10" s="9">
         <v>100006</v>
       </c>
@@ -3330,47 +3234,44 @@
       <c r="C10" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E10" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H10" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I10,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G10" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K10,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I10" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L10" s="11">
+      <c r="K10" s="11">
         <v>100006</v>
       </c>
+      <c r="L10" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="M10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="4">
+      <c r="N10" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1">
+    <row r="11" spans="1:14">
       <c r="A11" s="9">
         <v>100007</v>
       </c>
@@ -3380,47 +3281,44 @@
       <c r="C11" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E11" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I11,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G11" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H11,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K11,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I11" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J11,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L11" s="11">
+      <c r="K11" s="11">
         <v>100007</v>
       </c>
+      <c r="L11" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="M11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="4">
+      <c r="N11" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" customHeight="1">
+    <row r="12" spans="1:14">
       <c r="A12" s="9">
         <v>100008</v>
       </c>
@@ -3430,47 +3328,44 @@
       <c r="C12" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F12" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E12" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I12,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G12" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H12,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K12,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I12" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J12,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L12" s="11">
+      <c r="K12" s="11">
         <v>100008</v>
       </c>
+      <c r="L12" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O12" s="4">
+      <c r="N12" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1">
+    <row r="13" spans="1:14">
       <c r="A13" s="9">
         <v>100009</v>
       </c>
@@ -3480,47 +3375,44 @@
       <c r="C13" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E13" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I13,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G13" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H13,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K13,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I13" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J13,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L13" s="11">
+      <c r="K13" s="11">
         <v>100009</v>
       </c>
+      <c r="L13" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="4">
+      <c r="N13" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1">
+    <row r="14" spans="1:14">
       <c r="A14" s="9">
         <v>100010</v>
       </c>
@@ -3530,47 +3422,44 @@
       <c r="C14" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E14" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I14,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G14" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H14,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K14,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I14" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J14,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="11">
+      <c r="K14" s="11">
         <v>100010</v>
       </c>
+      <c r="L14" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O14" s="4">
+      <c r="N14" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:14">
       <c r="A15" s="9">
         <v>100011</v>
       </c>
@@ -3580,47 +3469,44 @@
       <c r="C15" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E15" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F15,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I15,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G15" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H15,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J15" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K15,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I15" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J15,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L15" s="11">
+      <c r="K15" s="11">
         <v>100011</v>
       </c>
+      <c r="L15" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="M15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O15" s="4">
+      <c r="N15" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5" customHeight="1">
+    <row r="16" spans="1:14">
       <c r="A16" s="9">
         <v>100012</v>
       </c>
@@ -3630,47 +3516,44 @@
       <c r="C16" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E16" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I16,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G16" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H16,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J16" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K16,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I16" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J16,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L16" s="11">
+      <c r="K16" s="11">
         <v>100012</v>
       </c>
+      <c r="L16" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="4">
+      <c r="N16" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" customHeight="1">
+    <row r="17" spans="1:14">
       <c r="A17" s="9">
         <v>100013</v>
       </c>
@@ -3680,47 +3563,44 @@
       <c r="C17" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E17" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F17,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I17,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G17" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H17,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J17" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K17,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I17" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J17,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L17" s="11">
+      <c r="K17" s="11">
         <v>100013</v>
       </c>
+      <c r="L17" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="4">
+      <c r="N17" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" customHeight="1">
+    <row r="18" spans="1:14">
       <c r="A18" s="9">
         <v>100014</v>
       </c>
@@ -3730,44 +3610,41 @@
       <c r="C18" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="11">
+      <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="11">
+      <c r="G18" s="11">
         <v>2</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="11">
+      <c r="I18" s="11">
         <v>1</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L18" s="11">
+      <c r="K18" s="11">
         <v>100014</v>
       </c>
+      <c r="L18" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O18" s="4">
+      <c r="N18" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5" customHeight="1">
+    <row r="19" spans="1:14">
       <c r="A19" s="9">
         <v>100015</v>
       </c>
@@ -3777,44 +3654,41 @@
       <c r="C19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="11">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="11">
+      <c r="G19" s="11">
         <v>2</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="11">
+      <c r="I19" s="11">
         <v>1</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="11">
+      <c r="K19" s="11">
         <v>100015</v>
       </c>
+      <c r="L19" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="M19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O19" s="4">
+      <c r="N19" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5" customHeight="1">
+    <row r="20" spans="1:14">
       <c r="A20" s="9">
         <v>100016</v>
       </c>
@@ -3824,44 +3698,41 @@
       <c r="C20" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="F20" s="11">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="11">
+      <c r="G20" s="11">
         <v>2</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="11">
+      <c r="I20" s="11">
         <v>1</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="11">
+      <c r="K20" s="11">
         <v>100016</v>
       </c>
+      <c r="L20" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="4">
+      <c r="N20" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5" customHeight="1">
+    <row r="21" spans="1:14">
       <c r="A21" s="9">
         <v>100017</v>
       </c>
@@ -3871,47 +3742,44 @@
       <c r="C21" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E21" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F21,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I21,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G21" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H21,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="H21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K21,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I21" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J21,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L21" s="11">
+      <c r="K21" s="11">
         <v>100017</v>
       </c>
+      <c r="L21" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="4">
+      <c r="N21" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5" customHeight="1">
+    <row r="22" spans="1:14">
       <c r="A22" s="9">
         <v>100018</v>
       </c>
@@ -3921,47 +3789,44 @@
       <c r="C22" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E22" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F22,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I22,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G22" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H22,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J22" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K22,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I22" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J22,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L22" s="11">
+      <c r="K22" s="11">
         <v>100018</v>
       </c>
+      <c r="L22" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O22" s="4">
+      <c r="N22" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5" customHeight="1">
+    <row r="23" spans="1:14">
       <c r="A23" s="9">
         <v>100019</v>
       </c>
@@ -3971,47 +3836,44 @@
       <c r="C23" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E23" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F23,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H23" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I23,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G23" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H23,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J23" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K23,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I23" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J23,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L23" s="11">
+      <c r="K23" s="11">
         <v>100019</v>
       </c>
+      <c r="L23" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="M23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="4">
+      <c r="N23" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" customHeight="1">
+    <row r="24" spans="1:14">
       <c r="A24" s="9">
         <v>100020</v>
       </c>
@@ -4021,47 +3883,44 @@
       <c r="C24" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E24" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F24,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I24,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G24" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H24,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J24" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K24,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I24" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J24,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L24" s="11">
+      <c r="K24" s="11">
         <v>100020</v>
       </c>
+      <c r="L24" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O24" s="4">
+      <c r="N24" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" customHeight="1">
+    <row r="25" spans="1:14">
       <c r="A25" s="9">
         <v>100021</v>
       </c>
@@ -4071,44 +3930,41 @@
       <c r="C25" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="11">
+      <c r="E25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="11">
+      <c r="G25" s="11">
         <v>2</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J25" s="11">
+      <c r="I25" s="11">
         <v>1</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="J25" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="11">
+      <c r="K25" s="11">
         <v>100021</v>
       </c>
+      <c r="L25" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="M25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="4">
+      <c r="N25" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1">
+    <row r="26" spans="1:14">
       <c r="A26" s="9">
         <v>100022</v>
       </c>
@@ -4118,47 +3974,44 @@
       <c r="C26" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="F26" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E26" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F26,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I26,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G26" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H26,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="H26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J26" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I26" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J26,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L26" s="11">
+      <c r="K26" s="11">
         <v>100022</v>
       </c>
+      <c r="L26" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="M26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O26" s="4">
+      <c r="N26" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" customHeight="1">
+    <row r="27" spans="1:14">
       <c r="A27" s="11">
         <v>200001</v>
       </c>
@@ -4168,47 +4021,44 @@
       <c r="C27" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E27" s="20" t="s">
+      <c r="D27" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F27" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E27" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F27,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I27,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G27" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H27,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J27" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K27,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I27" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J27,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="11">
+      <c r="K27" s="11">
         <v>200001</v>
       </c>
+      <c r="L27" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="M27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="4">
+      <c r="N27" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5" customHeight="1">
+    <row r="28" spans="1:14">
       <c r="A28" s="9">
         <v>900001</v>
       </c>
@@ -4218,43 +4068,40 @@
       <c r="C28" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="F28" s="11">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
+      <c r="E28" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(F28,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="11">
-        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I28,'!참조_ENUM'!$K$3:$K$7,0))</f>
+      <c r="G28" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(H28,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K28,'!참조_ENUM'!$S$3:$S$7,0))</f>
+      <c r="I28" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(J28,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="11">
+      <c r="K28" s="11">
         <v>900001</v>
       </c>
+      <c r="L28" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="M28" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="O28" s="4">
+      <c r="N28" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -4268,13 +4115,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G28</xm:sqref>
+          <xm:sqref>F5:F28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63AAD212-0C9E-449A-8257-F9D25B17C515}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I28</xm:sqref>
+          <xm:sqref>H5:H28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4559,8 +4406,8 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>VLOOKUP(A5,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0001</v>
+        <f>VLOOKUP(A5,npc_data!A:D,4,0)</f>
+        <v>마력] 탱커(HP:대) - 마족투사</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -4638,8 +4485,8 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>VLOOKUP(A6,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0002</v>
+        <f>VLOOKUP(A6,npc_data!A:D,4,0)</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한</v>
       </c>
       <c r="C6" s="4">
         <v>2.4</v>
@@ -4717,8 +4564,8 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>VLOOKUP(A7,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0003</v>
+        <f>VLOOKUP(A7,npc_data!A:D,4,0)</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드</v>
       </c>
       <c r="C7" s="4">
         <v>2.8</v>
@@ -4796,8 +4643,8 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>VLOOKUP(A8,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0017</v>
+        <f>VLOOKUP(A8,npc_data!A:D,4,0)</f>
+        <v>마력] 근딜 - 엘프 레인저</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -4875,8 +4722,8 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>VLOOKUP(A9,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0004</v>
+        <f>VLOOKUP(A9,npc_data!A:D,4,0)</f>
+        <v>마력] 원딜 - 엘프 연금술사</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -4954,8 +4801,8 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>VLOOKUP(A10,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0005</v>
+        <f>VLOOKUP(A10,npc_data!A:D,4,0)</f>
+        <v>베리] 근딜 - 하급 안드로이드</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -5033,8 +4880,8 @@
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>VLOOKUP(A11,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0006</v>
+        <f>VLOOKUP(A11,npc_data!A:D,4,0)</f>
+        <v>전기] 근딜(공:↓)- 소속대 소총병</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
@@ -5112,8 +4959,8 @@
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>VLOOKUP(A12,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0007</v>
+        <f>VLOOKUP(A12,npc_data!A:D,4,0)</f>
+        <v>전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
       <c r="C12" s="4">
         <v>5.5</v>
@@ -5191,8 +5038,8 @@
         <v>100009</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>VLOOKUP(A13,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0008</v>
+        <f>VLOOKUP(A13,npc_data!A:D,4,0)</f>
+        <v>베리] 원딜 - 고위 천사</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -5270,8 +5117,8 @@
         <v>100010</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>VLOOKUP(A14,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0009</v>
+        <f>VLOOKUP(A14,npc_data!A:D,4,0)</f>
+        <v>요력] 원딜 - 꼭두각시 인형</v>
       </c>
       <c r="C14" s="4">
         <v>6.5</v>
@@ -5349,8 +5196,8 @@
         <v>100011</v>
       </c>
       <c r="B15" s="19" t="str">
-        <f>VLOOKUP(A15,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0010</v>
+        <f>VLOOKUP(A15,npc_data!A:D,4,0)</f>
+        <v>마력] 원딜 - 엘프 연금술사(정예)</v>
       </c>
       <c r="C15" s="4">
         <v>7</v>
@@ -5431,8 +5278,8 @@
         <v>100012</v>
       </c>
       <c r="B16" s="19" t="str">
-        <f>VLOOKUP(A16,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0011</v>
+        <f>VLOOKUP(A16,npc_data!A:D,4,0)</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -5513,8 +5360,8 @@
         <v>100013</v>
       </c>
       <c r="B17" s="19" t="str">
-        <f>VLOOKUP(A17,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0012</v>
+        <f>VLOOKUP(A17,npc_data!A:D,4,0)</f>
+        <v>베리] 탱커(정예) - 거대 안드</v>
       </c>
       <c r="C17" s="4">
         <v>2.8</v>
@@ -5595,8 +5442,8 @@
         <v>100014</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f>VLOOKUP(A18,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0013</v>
+        <f>VLOOKUP(A18,npc_data!A:D,4,0)</f>
+        <v>전기] 탱커(HP:중, 방어:소) - 거한</v>
       </c>
       <c r="C18" s="4">
         <v>2.4</v>
@@ -5673,8 +5520,8 @@
         <v>100015</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f>VLOOKUP(A19,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0014</v>
+        <f>VLOOKUP(A19,npc_data!A:D,4,0)</f>
+        <v>전기] 근딜- 소속대 소총병</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
@@ -5751,8 +5598,8 @@
         <v>100016</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f>VLOOKUP(A20,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0015</v>
+        <f>VLOOKUP(A20,npc_data!A:D,4,0)</f>
+        <v>전기] 원딜 - 소속대 척탄병</v>
       </c>
       <c r="C20" s="4">
         <v>5.5</v>
@@ -5829,8 +5676,8 @@
         <v>100017</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f>VLOOKUP(A21,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0009</v>
+        <f>VLOOKUP(A21,npc_data!A:D,4,0)</f>
+        <v>요력] 서포터 - 꼭두각시 인형</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -5908,8 +5755,8 @@
         <v>100018</v>
       </c>
       <c r="B22" s="19" t="str">
-        <f>VLOOKUP(A22,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0018</v>
+        <f>VLOOKUP(A22,npc_data!A:D,4,0)</f>
+        <v>전기] 탱커(정예) - 거한</v>
       </c>
       <c r="C22" s="4">
         <v>2.4</v>
@@ -5990,8 +5837,8 @@
         <v>100019</v>
       </c>
       <c r="B23" s="19" t="str">
-        <f>VLOOKUP(A23,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0019</v>
+        <f>VLOOKUP(A23,npc_data!A:D,4,0)</f>
+        <v>전기] 원딜(정예: 방감) - 척탄병</v>
       </c>
       <c r="C23" s="4">
         <v>5.5</v>
@@ -6071,8 +5918,8 @@
         <v>100020</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f>VLOOKUP(A24,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0020</v>
+        <f>VLOOKUP(A24,npc_data!A:D,4,0)</f>
+        <v>베리] 원딜(정예) - 고위 천사</v>
       </c>
       <c r="C24" s="4">
         <v>6.5</v>
@@ -6153,8 +6000,8 @@
         <v>100021</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f>VLOOKUP(A25,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0021</v>
+        <f>VLOOKUP(A25,npc_data!A:D,4,0)</f>
+        <v>전기] 근딜(정예)- 소속대 소총병</v>
       </c>
       <c r="C25" s="4">
         <v>4.5</v>
@@ -6235,8 +6082,8 @@
         <v>100022</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f>VLOOKUP(A26,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0022</v>
+        <f>VLOOKUP(A26,npc_data!A:D,4,0)</f>
+        <v>베리] 근딜(정예) - 하급 안드로이드</v>
       </c>
       <c r="C26" s="4">
         <v>3.5</v>
@@ -6317,8 +6164,8 @@
         <v>200001</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f>VLOOKUP(A27,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0021</v>
+        <f>VLOOKUP(A27,npc_data!A:D,4,0)</f>
+        <v>보스_마네</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
@@ -6399,8 +6246,8 @@
         <v>900001</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f>VLOOKUP(A28,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0022</v>
+        <f>VLOOKUP(A28,npc_data!A:D,4,0)</f>
+        <v>보스_엘리자베스</v>
       </c>
       <c r="C28" s="4">
         <v>8</v>
@@ -6484,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7405,7 +7252,7 @@
         <v>3.75</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ref="G15" si="1">G5*5</f>
+        <f t="shared" ref="F15:G15" si="1">G5*5</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -7484,7 +7331,7 @@
         <v>6.75</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" ref="G16" si="3">G7*5</f>
+        <f t="shared" ref="F16:G16" si="3">G7*5</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
@@ -7563,7 +7410,7 @@
         <v>5.9399999999999995</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="G17" si="5">G13*5</f>
+        <f t="shared" ref="F17:G17" si="5">G13*5</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
@@ -7642,7 +7489,7 @@
         <v>9.375</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ref="G18" si="7">G15*5</f>
+        <f t="shared" ref="F18:G18" si="7">G15*5</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
@@ -9138,7 +8985,7 @@
         <v>330</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" ref="F37" si="48">F30*5</f>
+        <f t="shared" ref="F37:G37" si="48">F30*5</f>
         <v>0</v>
       </c>
       <c r="G37" s="4">
@@ -9217,7 +9064,7 @@
         <v>1650</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" ref="F38" si="51">F37*5</f>
+        <f t="shared" ref="F38:G38" si="51">F37*5</f>
         <v>0</v>
       </c>
       <c r="G38" s="4">

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1DFA2-2F1F-4BC2-8C26-EBE5884D18CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F5AA8-305E-4C0B-8F7D-D13642A29C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1110" yWindow="1440" windowWidth="36780" windowHeight="19395" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1913,13 +1913,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GAME_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
@@ -2902,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2911,7 +2905,7 @@
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="10" customWidth="1"/>
     <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
@@ -4286,11 +4280,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4559,8 +4553,8 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>VLOOKUP(A5,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0001</v>
+        <f>VLOOKUP(A5,npc_data!A:F,5,0)</f>
+        <v>마력] 탱커(HP:대) - 마족투사</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -4638,8 +4632,8 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>VLOOKUP(A6,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0002</v>
+        <f>VLOOKUP(A6,npc_data!A:F,5,0)</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한</v>
       </c>
       <c r="C6" s="4">
         <v>2.4</v>
@@ -4717,8 +4711,8 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>VLOOKUP(A7,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0003</v>
+        <f>VLOOKUP(A7,npc_data!A:F,5,0)</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드</v>
       </c>
       <c r="C7" s="4">
         <v>2.8</v>
@@ -4796,8 +4790,8 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>VLOOKUP(A8,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0017</v>
+        <f>VLOOKUP(A8,npc_data!A:F,5,0)</f>
+        <v>마력] 근딜 - 엘프 레인저</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -4875,8 +4869,8 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>VLOOKUP(A9,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0004</v>
+        <f>VLOOKUP(A9,npc_data!A:F,5,0)</f>
+        <v>마력] 원딜 - 엘프 연금술사</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -4954,8 +4948,8 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>VLOOKUP(A10,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0005</v>
+        <f>VLOOKUP(A10,npc_data!A:F,5,0)</f>
+        <v>베리] 근딜 - 하급 안드로이드</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -5033,8 +5027,8 @@
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>VLOOKUP(A11,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0006</v>
+        <f>VLOOKUP(A11,npc_data!A:F,5,0)</f>
+        <v>전기] 근딜(공:↓)- 소속대 소총병</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
@@ -5112,8 +5106,8 @@
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>VLOOKUP(A12,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0007</v>
+        <f>VLOOKUP(A12,npc_data!A:F,5,0)</f>
+        <v>전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
       <c r="C12" s="4">
         <v>5.5</v>
@@ -5191,8 +5185,8 @@
         <v>100009</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>VLOOKUP(A13,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0008</v>
+        <f>VLOOKUP(A13,npc_data!A:F,5,0)</f>
+        <v>베리] 원딜 - 고위 천사</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -5270,8 +5264,8 @@
         <v>100010</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>VLOOKUP(A14,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0009</v>
+        <f>VLOOKUP(A14,npc_data!A:F,5,0)</f>
+        <v>요력] 원딜 - 꼭두각시 인형</v>
       </c>
       <c r="C14" s="4">
         <v>6.5</v>
@@ -5349,8 +5343,8 @@
         <v>100011</v>
       </c>
       <c r="B15" s="19" t="str">
-        <f>VLOOKUP(A15,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0010</v>
+        <f>VLOOKUP(A15,npc_data!A:F,5,0)</f>
+        <v>마력] 원딜 - 엘프 연금술사(정예)</v>
       </c>
       <c r="C15" s="4">
         <v>7</v>
@@ -5431,8 +5425,8 @@
         <v>100012</v>
       </c>
       <c r="B16" s="19" t="str">
-        <f>VLOOKUP(A16,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0011</v>
+        <f>VLOOKUP(A16,npc_data!A:F,5,0)</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -5513,8 +5507,8 @@
         <v>100013</v>
       </c>
       <c r="B17" s="19" t="str">
-        <f>VLOOKUP(A17,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0012</v>
+        <f>VLOOKUP(A17,npc_data!A:F,5,0)</f>
+        <v>베리] 탱커(정예) - 거대 안드</v>
       </c>
       <c r="C17" s="4">
         <v>2.8</v>
@@ -5595,8 +5589,8 @@
         <v>100014</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f>VLOOKUP(A18,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0013</v>
+        <f>VLOOKUP(A18,npc_data!A:F,5,0)</f>
+        <v>전기] 탱커(HP:중, 방어:소) - 거한</v>
       </c>
       <c r="C18" s="4">
         <v>2.4</v>
@@ -5673,8 +5667,8 @@
         <v>100015</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f>VLOOKUP(A19,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0014</v>
+        <f>VLOOKUP(A19,npc_data!A:F,5,0)</f>
+        <v>전기] 근딜- 소속대 소총병</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
@@ -5751,8 +5745,8 @@
         <v>100016</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f>VLOOKUP(A20,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0015</v>
+        <f>VLOOKUP(A20,npc_data!A:F,5,0)</f>
+        <v>전기] 원딜 - 소속대 척탄병</v>
       </c>
       <c r="C20" s="4">
         <v>5.5</v>
@@ -5829,8 +5823,8 @@
         <v>100017</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f>VLOOKUP(A21,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0009</v>
+        <f>VLOOKUP(A21,npc_data!A:F,5,0)</f>
+        <v>요력] 서포터 - 꼭두각시 인형</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -5908,8 +5902,8 @@
         <v>100018</v>
       </c>
       <c r="B22" s="19" t="str">
-        <f>VLOOKUP(A22,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0018</v>
+        <f>VLOOKUP(A22,npc_data!A:F,5,0)</f>
+        <v>전기] 탱커(정예) - 거한</v>
       </c>
       <c r="C22" s="4">
         <v>2.4</v>
@@ -5990,8 +5984,8 @@
         <v>100019</v>
       </c>
       <c r="B23" s="19" t="str">
-        <f>VLOOKUP(A23,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0019</v>
+        <f>VLOOKUP(A23,npc_data!A:F,5,0)</f>
+        <v>전기] 원딜(정예: 방감) - 척탄병</v>
       </c>
       <c r="C23" s="4">
         <v>5.5</v>
@@ -6071,8 +6065,8 @@
         <v>100020</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f>VLOOKUP(A24,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0020</v>
+        <f>VLOOKUP(A24,npc_data!A:F,5,0)</f>
+        <v>베리] 원딜(정예) - 고위 천사</v>
       </c>
       <c r="C24" s="4">
         <v>6.5</v>
@@ -6153,8 +6147,8 @@
         <v>100021</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f>VLOOKUP(A25,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0021</v>
+        <f>VLOOKUP(A25,npc_data!A:F,5,0)</f>
+        <v>전기] 근딜(정예)- 소속대 소총병</v>
       </c>
       <c r="C25" s="4">
         <v>4.5</v>
@@ -6235,8 +6229,8 @@
         <v>100022</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f>VLOOKUP(A26,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0022</v>
+        <f>VLOOKUP(A26,npc_data!A:F,5,0)</f>
+        <v>베리] 근딜(정예) - 하급 안드로이드</v>
       </c>
       <c r="C26" s="4">
         <v>3.5</v>
@@ -6317,8 +6311,8 @@
         <v>200001</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f>VLOOKUP(A27,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0021</v>
+        <f>VLOOKUP(A27,npc_data!A:F,5,0)</f>
+        <v>보스_마네</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
@@ -6399,8 +6393,8 @@
         <v>900001</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f>VLOOKUP(A28,npc_data!A:E,4,0)</f>
-        <v>monster_desc_0022</v>
+        <f>VLOOKUP(A28,npc_data!A:F,5,0)</f>
+        <v>보스_엘리자베스</v>
       </c>
       <c r="C28" s="4">
         <v>8</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F5AA8-305E-4C0B-8F7D-D13642A29C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C528E-65BE-4B63-B2D8-904E37E350DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1440" windowWidth="36780" windowHeight="19395" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -969,14 +969,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소색대 소총병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소색대 척탄병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고위 천사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1058,18 +1050,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소색대 척탄병(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거한(정예)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소색대 소총병(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하급 안드로이드(정예)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1298,6 +1282,18 @@
   </si>
   <si>
     <t>monster_desc_0022</t>
+  </si>
+  <si>
+    <t>수색대 소총병</t>
+  </si>
+  <si>
+    <t>수색대 척탄병</t>
+  </si>
+  <si>
+    <t>수색대 척탄병(정예)</t>
+  </si>
+  <si>
+    <t>수색대 소총병(정예)</t>
   </si>
 </sst>
 </file>
@@ -1918,13 +1914,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1932,13 +1922,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
@@ -2349,7 +2333,7 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2449,7 +2433,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2464,15 +2448,15 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2896,26 +2880,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
-    <col min="10" max="10" width="6.75" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.69921875" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.8984375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="25.09765625" customWidth="1"/>
+    <col min="10" max="10" width="6.69921875" customWidth="1"/>
+    <col min="11" max="11" width="25.09765625" customWidth="1"/>
+    <col min="12" max="12" width="16.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2934,7 +2918,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>38</v>
@@ -3028,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -3075,7 +3059,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>176</v>
@@ -3125,7 +3109,7 @@
         <v>183</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>174</v>
@@ -3175,7 +3159,7 @@
         <v>184</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>175</v>
@@ -3222,13 +3206,13 @@
         <v>164</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3275,7 +3259,7 @@
         <v>185</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>172</v>
@@ -3325,7 +3309,7 @@
         <v>186</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>173</v>
@@ -3372,10 +3356,10 @@
         <v>154</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>177</v>
@@ -3422,10 +3406,10 @@
         <v>155</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>178</v>
@@ -3472,10 +3456,10 @@
         <v>156</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>180</v>
@@ -3522,10 +3506,10 @@
         <v>157</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>181</v>
@@ -3572,13 +3556,13 @@
         <v>158</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F15" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3592,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J15" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K15,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3622,13 +3606,13 @@
         <v>159</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F16" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3642,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J16" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K16,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3672,13 +3656,13 @@
         <v>160</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3692,7 +3676,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J17" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K17,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3725,10 +3709,10 @@
         <v>183</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -3769,13 +3753,13 @@
         <v>162</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
@@ -3816,13 +3800,13 @@
         <v>163</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
@@ -3863,13 +3847,13 @@
         <v>157</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F21" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3913,13 +3897,13 @@
         <v>165</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F22" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3933,14 +3917,14 @@
         <v>3</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J22" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K22,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L22" s="11">
         <v>100018</v>
@@ -3963,13 +3947,13 @@
         <v>166</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F23" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3983,14 +3967,14 @@
         <v>3</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J23" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K23,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L23" s="11">
         <v>100019</v>
@@ -4013,13 +3997,13 @@
         <v>167</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F24" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4033,7 +4017,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J24" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K24,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -4060,16 +4044,16 @@
         <v>100021</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
@@ -4081,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
@@ -4107,16 +4091,16 @@
         <v>100022</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F26" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4130,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J26" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -4157,16 +4141,16 @@
         <v>200001</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4207,16 +4191,16 @@
         <v>900001</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F28" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4243,7 +4227,7 @@
         <v>900001</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>147</v>
@@ -4280,35 +4264,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="9" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6158,7 +6142,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>91</v>
@@ -6407,7 +6391,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -6482,19 +6466,19 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="8.875" customWidth="1"/>
-    <col min="20" max="20" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" customWidth="1"/>
+    <col min="9" max="9" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="8.8984375" customWidth="1"/>
+    <col min="20" max="20" width="9.69921875" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6703,7 +6687,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6769,7 +6753,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6837,7 +6821,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6905,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C8" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6973,7 +6957,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C9" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7041,7 +7025,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7109,7 +7093,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7177,7 +7161,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C12" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7245,7 +7229,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C13" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7313,14 +7297,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E14" s="13">
         <f>E9*1.1</f>
@@ -7381,7 +7365,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7460,7 +7444,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7539,7 +7523,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C17" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D17,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7618,7 +7602,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C18" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D18,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7697,7 +7681,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C19" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D19,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7776,7 +7760,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C20" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D20,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7855,7 +7839,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C21" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D21,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7934,7 +7918,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C22" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D22,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8013,7 +7997,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C23" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D23,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8092,7 +8076,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C24" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D24,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8171,7 +8155,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C25" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D25,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8250,7 +8234,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C26" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D26,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8329,7 +8313,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C27" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D27,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8408,7 +8392,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C28" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D28,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8487,7 +8471,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C29" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D29,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8566,14 +8550,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C30" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D30,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="13"/>
@@ -8645,7 +8629,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C31" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D31,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8724,7 +8708,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C32" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D32,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8803,7 +8787,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C33" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D33,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8882,7 +8866,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C34" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D34,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8961,7 +8945,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C35" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D35,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9039,7 +9023,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C36" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D36,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9118,14 +9102,14 @@
         <v>33</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C37" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D37,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E37" s="4">
         <f>E30*5</f>
@@ -9197,14 +9181,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C38" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D38,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E38" s="4">
         <f>E37*5</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C528E-65BE-4B63-B2D8-904E37E350DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FA4BFA-A4B3-4E7C-8997-AD4C59DAB39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39615" yWindow="30" windowWidth="35520" windowHeight="16665" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="285">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -922,14 +922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베리] 탱커(방어:대) - 거대 안드로이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력] 탱커(HP:대) - 마족투사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전기] 근딜(공:↓)- 소속대 소총병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -949,351 +941,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>거한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 연금술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 안드로이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고위 천사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼭두각시 인형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 연금술사(정예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력] 원딜 - 엘프 연금술사(정예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_0021</t>
+  </si>
+  <si>
+    <t>monster_name_0022</t>
+  </si>
+  <si>
+    <t>전기] 근딜- 소속대 소총병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기] 원딜 - 소속대 척탄병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기] 탱커(HP:중, 방어:소) - 거한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리] 탱커(정예) - 거대 안드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요력] 서포터 - 꼭두각시 인형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 레인저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력] 근딜 - 엘프 레인저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기] 탱커(정예) - 거한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기] 원딜(정예: 방감) - 척탄병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 엘리트 몬스터</t>
+  </si>
+  <si>
+    <t>고위 천사(정예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거한(정예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 안드로이드(정예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리] 원딜(정예) - 고위 천사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기] 근딜(정예)- 소속대 소총병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리] 근딜(정예) - 하급 안드로이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 힐러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러형 정예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러형 보스</t>
+  </si>
+  <si>
+    <t>탱커(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱포터(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜포터(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜포터(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근범위딜(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원범위딜(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근서포터(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서포터(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱킹형 정예(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜링형 정예(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터형 정예(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱킹형 보스(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜링형 보스(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터형 보스(물리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커(마법)</t>
+  </si>
+  <si>
+    <t>탱포터(마법)</t>
+  </si>
+  <si>
+    <t>근딜(마법)</t>
+  </si>
+  <si>
+    <t>근딜포터(마법)</t>
+  </si>
+  <si>
+    <t>원딜포터(마법)</t>
+  </si>
+  <si>
+    <t>근범위딜(마법)</t>
+  </si>
+  <si>
+    <t>원범위딜(마법)</t>
+  </si>
+  <si>
+    <t>근서포터(마법)</t>
+  </si>
+  <si>
+    <t>원서포터(마법)</t>
+  </si>
+  <si>
+    <t>힐러(마법)</t>
+  </si>
+  <si>
+    <t>탱킹형 정예(마법)</t>
+  </si>
+  <si>
+    <t>딜링형 정예(마법)</t>
+  </si>
+  <si>
+    <t>서포터형 정예(마법)</t>
+  </si>
+  <si>
+    <t>탱킹형 보스(마법)</t>
+  </si>
+  <si>
+    <t>딜링형 보스(마법)</t>
+  </si>
+  <si>
+    <t>서포터형 보스(마법)</t>
+  </si>
+  <si>
+    <t>2 중열 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210001, 210002, 210003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스_마네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스_엘리자베스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_900001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_0001</t>
+  </si>
+  <si>
+    <t>monster_desc_0002</t>
+  </si>
+  <si>
+    <t>monster_desc_0003</t>
+  </si>
+  <si>
+    <t>monster_desc_0017</t>
+  </si>
+  <si>
+    <t>monster_desc_0004</t>
+  </si>
+  <si>
+    <t>monster_desc_0005</t>
+  </si>
+  <si>
+    <t>monster_desc_0006</t>
+  </si>
+  <si>
+    <t>monster_desc_0007</t>
+  </si>
+  <si>
+    <t>monster_desc_0008</t>
+  </si>
+  <si>
+    <t>monster_desc_0009</t>
+  </si>
+  <si>
+    <t>monster_desc_0010</t>
+  </si>
+  <si>
+    <t>monster_desc_0011</t>
+  </si>
+  <si>
+    <t>monster_desc_0012</t>
+  </si>
+  <si>
+    <t>monster_desc_0013</t>
+  </si>
+  <si>
+    <t>monster_desc_0014</t>
+  </si>
+  <si>
+    <t>monster_desc_0015</t>
+  </si>
+  <si>
+    <t>monster_desc_0018</t>
+  </si>
+  <si>
+    <t>monster_desc_0019</t>
+  </si>
+  <si>
+    <t>monster_desc_0020</t>
+  </si>
+  <si>
+    <t>monster_desc_0021</t>
+  </si>
+  <si>
+    <t>monster_desc_0022</t>
+  </si>
+  <si>
+    <t>수색대 소총병</t>
+  </si>
+  <si>
+    <t>수색대 척탄병</t>
+  </si>
+  <si>
+    <t>수색대 척탄병(정예)</t>
+  </si>
+  <si>
+    <t>수색대 소총병(정예)</t>
+  </si>
+  <si>
     <t>마족투사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마족투사(정예)</t>
   </si>
   <si>
     <t>거대 안드로이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 연금술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급 안드로이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고위 천사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼭두각시 인형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 연금술사(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력] 원딜 - 엘프 연금술사(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마족투사(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력] 탱커(HP:대) - 마족투사(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_0021</t>
-  </si>
-  <si>
-    <t>monster_name_0022</t>
   </si>
   <si>
     <t>거대 안드로이드(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 근딜- 소속대 소총병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 원딜 - 소속대 척탄병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 탱커(HP:중, 방어:소) - 거한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리] 탱커(정예) - 거대 안드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요력] 서포터 - 꼭두각시 인형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 레인저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력] 근딜 - 엘프 레인저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 탱커(정예) - 거한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 원딜(정예: 방감) - 척탄병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 엘리트 몬스터</t>
-  </si>
-  <si>
-    <t>고위 천사(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거한(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급 안드로이드(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리] 원딜(정예) - 고위 천사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 근딜(정예)- 소속대 소총병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리] 근딜(정예) - 하급 안드로이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 힐러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐러형 정예</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐러형 보스</t>
-  </si>
-  <si>
-    <t>탱커(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱포터(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜포터(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원딜포터(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근범위딜(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원범위딜(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근서포터(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원서포터(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐러(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱킹형 정예(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜링형 정예(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포터형 정예(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱킹형 보스(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜링형 보스(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포터형 보스(물리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱커(마법)</t>
-  </si>
-  <si>
-    <t>탱포터(마법)</t>
-  </si>
-  <si>
-    <t>근딜(마법)</t>
-  </si>
-  <si>
-    <t>근딜포터(마법)</t>
-  </si>
-  <si>
-    <t>원딜포터(마법)</t>
-  </si>
-  <si>
-    <t>근범위딜(마법)</t>
-  </si>
-  <si>
-    <t>원범위딜(마법)</t>
-  </si>
-  <si>
-    <t>근서포터(마법)</t>
-  </si>
-  <si>
-    <t>원서포터(마법)</t>
-  </si>
-  <si>
-    <t>힐러(마법)</t>
-  </si>
-  <si>
-    <t>탱킹형 정예(마법)</t>
-  </si>
-  <si>
-    <t>딜링형 정예(마법)</t>
-  </si>
-  <si>
-    <t>서포터형 정예(마법)</t>
-  </si>
-  <si>
-    <t>탱킹형 보스(마법)</t>
-  </si>
-  <si>
-    <t>딜링형 보스(마법)</t>
-  </si>
-  <si>
-    <t>서포터형 보스(마법)</t>
-  </si>
-  <si>
-    <t>2 중열 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[210001, 210002, 210003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스_마네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스_엘리자베스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_900001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_0001</t>
-  </si>
-  <si>
-    <t>monster_desc_0002</t>
-  </si>
-  <si>
-    <t>monster_desc_0003</t>
-  </si>
-  <si>
-    <t>monster_desc_0017</t>
-  </si>
-  <si>
-    <t>monster_desc_0004</t>
-  </si>
-  <si>
-    <t>monster_desc_0005</t>
-  </si>
-  <si>
-    <t>monster_desc_0006</t>
-  </si>
-  <si>
-    <t>monster_desc_0007</t>
-  </si>
-  <si>
-    <t>monster_desc_0008</t>
-  </si>
-  <si>
-    <t>monster_desc_0009</t>
-  </si>
-  <si>
-    <t>monster_desc_0010</t>
-  </si>
-  <si>
-    <t>monster_desc_0011</t>
-  </si>
-  <si>
-    <t>monster_desc_0012</t>
-  </si>
-  <si>
-    <t>monster_desc_0013</t>
-  </si>
-  <si>
-    <t>monster_desc_0014</t>
-  </si>
-  <si>
-    <t>monster_desc_0015</t>
-  </si>
-  <si>
-    <t>monster_desc_0018</t>
-  </si>
-  <si>
-    <t>monster_desc_0019</t>
-  </si>
-  <si>
-    <t>monster_desc_0020</t>
-  </si>
-  <si>
-    <t>monster_desc_0021</t>
-  </si>
-  <si>
-    <t>monster_desc_0022</t>
-  </si>
-  <si>
-    <t>수색대 소총병</t>
-  </si>
-  <si>
-    <t>수색대 척탄병</t>
-  </si>
-  <si>
-    <t>수색대 척탄병(정예)</t>
-  </si>
-  <si>
-    <t>수색대 소총병(정예)</t>
+  </si>
+  <si>
+    <t>배율 설정 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#multiple_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정예체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정예공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력] 탱커(방어:대) - 마족투사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리] 탱커(HP:대) - 거대 안드로이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력] 탱커 - 마족투사(정예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1368,7 +1384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,8 +1439,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1460,13 +1488,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1529,6 +1577,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1914,7 +1980,13 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1922,7 +1994,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
@@ -2333,7 +2411,7 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2433,7 +2511,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2448,15 +2526,15 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2880,26 +2958,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.69921875" customWidth="1"/>
-    <col min="6" max="6" width="6.69921875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.8984375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="25.09765625" customWidth="1"/>
-    <col min="10" max="10" width="6.69921875" customWidth="1"/>
-    <col min="11" max="11" width="25.09765625" customWidth="1"/>
-    <col min="12" max="12" width="16.69921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2918,7 +2996,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>38</v>
@@ -3012,7 +3090,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -3056,20 +3134,20 @@
         <v>149</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="H5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I5,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3080,10 +3158,10 @@
       </c>
       <c r="J5" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K5,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="11">
         <v>100001</v>
@@ -3106,10 +3184,10 @@
         <v>150</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>174</v>
@@ -3156,20 +3234,20 @@
         <v>151</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="H7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I7,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3180,10 +3258,10 @@
       </c>
       <c r="J7" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K7,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L7" s="11">
         <v>100003</v>
@@ -3206,20 +3284,20 @@
         <v>164</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I8,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3230,10 +3308,10 @@
       </c>
       <c r="J8" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K8,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L8" s="11">
         <v>100004</v>
@@ -3256,20 +3334,20 @@
         <v>152</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I9,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3280,10 +3358,10 @@
       </c>
       <c r="J9" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K9,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L9" s="11">
         <v>100005</v>
@@ -3306,20 +3384,20 @@
         <v>153</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I10,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3330,10 +3408,10 @@
       </c>
       <c r="J10" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K10,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L10" s="11">
         <v>100006</v>
@@ -3356,13 +3434,13 @@
         <v>154</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F11" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3406,13 +3484,13 @@
         <v>155</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F12" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3456,20 +3534,20 @@
         <v>156</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F13" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H13" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I13,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3480,10 +3558,10 @@
       </c>
       <c r="J13" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K13,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L13" s="11">
         <v>100009</v>
@@ -3506,13 +3584,13 @@
         <v>157</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F14" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3556,34 +3634,34 @@
         <v>158</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F15" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H15" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I15,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J15" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K15,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L15" s="11">
         <v>100011</v>
@@ -3606,34 +3684,34 @@
         <v>159</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>192</v>
       </c>
       <c r="F16" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="H16" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I16,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J16" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K16,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L16" s="11">
         <v>100012</v>
@@ -3656,34 +3734,34 @@
         <v>160</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="F17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="H17" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I17,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J17" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K17,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L17" s="11">
         <v>100013</v>
@@ -3706,13 +3784,13 @@
         <v>161</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -3753,13 +3831,13 @@
         <v>162</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
@@ -3800,13 +3878,13 @@
         <v>163</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
@@ -3847,13 +3925,13 @@
         <v>157</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F21" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3897,13 +3975,13 @@
         <v>165</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F22" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3917,14 +3995,14 @@
         <v>3</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J22" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K22,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="L22" s="11">
         <v>100018</v>
@@ -3947,13 +4025,13 @@
         <v>166</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F23" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3967,14 +4045,14 @@
         <v>3</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J23" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K23,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="L23" s="11">
         <v>100019</v>
@@ -3997,34 +4075,34 @@
         <v>167</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="F24" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H24" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I24,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J24" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K24,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L24" s="11">
         <v>100020</v>
@@ -4044,16 +4122,16 @@
         <v>100021</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
@@ -4065,7 +4143,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
@@ -4091,16 +4169,16 @@
         <v>100022</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F26" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4114,14 +4192,14 @@
         <v>3</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J26" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L26" s="11">
         <v>100022</v>
@@ -4141,16 +4219,16 @@
         <v>200001</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4191,16 +4269,16 @@
         <v>900001</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F28" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4218,16 +4296,16 @@
       </c>
       <c r="J28" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K28,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L28" s="11">
         <v>900001</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>147</v>
@@ -4264,35 +4342,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.3984375" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" customWidth="1"/>
-    <col min="9" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="11" width="11.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4538,7 +4616,7 @@
       </c>
       <c r="B5" s="4" t="str">
         <f>VLOOKUP(A5,npc_data!A:F,5,0)</f>
-        <v>마력] 탱커(HP:대) - 마족투사</v>
+        <v>베리] 탱커(HP:대) - 거대 안드로이드</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -4696,7 +4774,7 @@
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(A7,npc_data!A:F,5,0)</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드</v>
+        <v>마력] 탱커(방어:대) - 마족투사</v>
       </c>
       <c r="C7" s="4">
         <v>2.8</v>
@@ -4775,7 +4853,7 @@
       </c>
       <c r="B8" s="4" t="str">
         <f>VLOOKUP(A8,npc_data!A:F,5,0)</f>
-        <v>마력] 근딜 - 엘프 레인저</v>
+        <v>베리] 근딜 - 하급 안드로이드</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -4854,7 +4932,7 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>VLOOKUP(A9,npc_data!A:F,5,0)</f>
-        <v>마력] 원딜 - 엘프 연금술사</v>
+        <v>베리] 원딜 - 고위 천사</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -4933,7 +5011,7 @@
       </c>
       <c r="B10" s="4" t="str">
         <f>VLOOKUP(A10,npc_data!A:F,5,0)</f>
-        <v>베리] 근딜 - 하급 안드로이드</v>
+        <v>마력] 원딜 - 엘프 연금술사</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -5170,7 +5248,7 @@
       </c>
       <c r="B13" s="4" t="str">
         <f>VLOOKUP(A13,npc_data!A:F,5,0)</f>
-        <v>베리] 원딜 - 고위 천사</v>
+        <v>마력] 근딜 - 엘프 레인저</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -5328,7 +5406,7 @@
       </c>
       <c r="B15" s="19" t="str">
         <f>VLOOKUP(A15,npc_data!A:F,5,0)</f>
-        <v>마력] 원딜 - 엘프 연금술사(정예)</v>
+        <v>베리] 원딜(정예) - 고위 천사</v>
       </c>
       <c r="C15" s="4">
         <v>7</v>
@@ -5410,7 +5488,7 @@
       </c>
       <c r="B16" s="19" t="str">
         <f>VLOOKUP(A16,npc_data!A:F,5,0)</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)</v>
+        <v>베리] 탱커(정예) - 거대 안드</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -5492,7 +5570,7 @@
       </c>
       <c r="B17" s="19" t="str">
         <f>VLOOKUP(A17,npc_data!A:F,5,0)</f>
-        <v>베리] 탱커(정예) - 거대 안드</v>
+        <v>마력] 탱커 - 마족투사(정예)</v>
       </c>
       <c r="C17" s="4">
         <v>2.8</v>
@@ -6050,7 +6128,7 @@
       </c>
       <c r="B24" s="19" t="str">
         <f>VLOOKUP(A24,npc_data!A:F,5,0)</f>
-        <v>베리] 원딜(정예) - 고위 천사</v>
+        <v>마력] 원딜 - 엘프 연금술사(정예)</v>
       </c>
       <c r="C24" s="4">
         <v>6.5</v>
@@ -6142,7 +6220,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>91</v>
@@ -6391,7 +6469,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -6460,34 +6538,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" customWidth="1"/>
-    <col min="9" max="9" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="8.8984375" customWidth="1"/>
-    <col min="20" max="20" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="9.75" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -6551,8 +6630,11 @@
       <c r="U2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -6616,8 +6698,11 @@
       <c r="U3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -6681,13 +6766,16 @@
       <c r="U4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6697,10 +6785,10 @@
         <v>89</v>
       </c>
       <c r="E5" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F5" s="4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -6747,13 +6835,16 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6764,11 +6855,11 @@
       </c>
       <c r="E6" s="4">
         <f>E5*0.9</f>
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="F6" s="4">
         <f>F$5+(E$5-E6)*0.01</f>
-        <v>1.7</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -6815,13 +6906,16 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6832,11 +6926,11 @@
       </c>
       <c r="E7" s="4">
         <f>E5*0.4</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4">
         <f>F$5+(E$5-E7)*0.01</f>
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -6883,13 +6977,16 @@
       <c r="U7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C8" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6900,11 +6997,11 @@
       </c>
       <c r="E8" s="13">
         <f>E7*0.9</f>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4">
         <f>F$5+(E$5-E8)*0.007</f>
-        <v>2.3959999999999999</v>
+        <v>1.8719999999999999</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -6951,13 +7048,16 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C9" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6968,11 +7068,11 @@
       </c>
       <c r="E9" s="13">
         <f>E5*0.3</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ref="F9" si="0">F$5+(E$5-E9)*0.007</f>
-        <v>2.48</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -7019,13 +7119,16 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7036,11 +7139,11 @@
       </c>
       <c r="E10" s="13">
         <f>E7</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4">
         <f>F$5+(E$5-E10)*0.008</f>
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -7087,13 +7190,16 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7104,11 +7210,11 @@
       </c>
       <c r="E11" s="13">
         <f>E9</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4">
         <f>F$5+(E$5-E11)*0.008</f>
-        <v>2.62</v>
+        <v>2.04</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -7155,13 +7261,16 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4">
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C12" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7172,11 +7281,11 @@
       </c>
       <c r="E12" s="13">
         <f>E7*0.9</f>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4">
         <f>F$5+(E$5-E12)*0.006</f>
-        <v>2.2679999999999998</v>
+        <v>1.776</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -7223,13 +7332,16 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C13" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7240,11 +7352,11 @@
       </c>
       <c r="E13" s="13">
         <f>E9*0.9</f>
-        <v>54</v>
+        <v>40.5</v>
       </c>
       <c r="F13" s="4">
         <f>F$5+(E$5-E13)*0.006</f>
-        <v>2.3759999999999999</v>
+        <v>1.857</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -7292,27 +7404,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E14" s="13">
         <f>E9*1.1</f>
-        <v>66</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="F14" s="4">
         <f>F$5+(E$5-E14)*0.005</f>
-        <v>2.17</v>
+        <v>1.7025000000000001</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -7360,12 +7472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="4">
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7375,12 +7487,12 @@
         <v>89</v>
       </c>
       <c r="E15" s="4">
-        <f>E5*5</f>
-        <v>1000</v>
+        <f>E5*V6</f>
+        <v>450</v>
       </c>
       <c r="F15" s="4">
-        <f>F5*2.5</f>
-        <v>3.75</v>
+        <f>F5*V8</f>
+        <v>3.5999999999999996</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" ref="G15" si="1">G5*5</f>
@@ -7439,12 +7551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="4">
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7454,12 +7566,12 @@
         <v>87</v>
       </c>
       <c r="E16" s="4">
-        <f>E7*5</f>
-        <v>400</v>
+        <f>E7*V6</f>
+        <v>180</v>
       </c>
       <c r="F16" s="4">
-        <f>F7*2.5</f>
-        <v>6.75</v>
+        <f>F7*V8</f>
+        <v>6.3000000000000007</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" ref="G16" si="3">G7*5</f>
@@ -7523,7 +7635,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C17" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D17,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7533,12 +7645,12 @@
         <v>88</v>
       </c>
       <c r="E17" s="4">
-        <f>E13*5</f>
-        <v>270</v>
+        <f>E13*V6</f>
+        <v>121.5</v>
       </c>
       <c r="F17" s="4">
-        <f>F13*2.5</f>
-        <v>5.9399999999999995</v>
+        <f>F13*V8</f>
+        <v>5.5709999999999997</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ref="G17" si="5">G13*5</f>
@@ -7602,7 +7714,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C18" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D18,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7612,12 +7724,12 @@
         <v>89</v>
       </c>
       <c r="E18" s="4">
-        <f>E15*5</f>
-        <v>5000</v>
+        <f>E15*V10</f>
+        <v>2250</v>
       </c>
       <c r="F18" s="4">
-        <f>F15*2.5</f>
-        <v>9.375</v>
+        <f>F15*V12</f>
+        <v>7.1999999999999993</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" ref="G18" si="7">G15*5</f>
@@ -7681,7 +7793,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C19" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D19,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7691,15 +7803,15 @@
         <v>87</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" ref="E19:G20" si="9">E16*5</f>
-        <v>2000</v>
+        <f>E16*V10</f>
+        <v>900</v>
       </c>
       <c r="F19" s="4">
-        <f>F16*2</f>
-        <v>13.5</v>
+        <f>F16*V12</f>
+        <v>12.600000000000001</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E19:G20" si="9">G16*5</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
@@ -7760,7 +7872,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D20,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7770,12 +7882,12 @@
         <v>88</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="9"/>
-        <v>1350</v>
+        <f>E17*V10</f>
+        <v>607.5</v>
       </c>
       <c r="F20" s="4">
-        <f>F17*2</f>
-        <v>11.879999999999999</v>
+        <f>F17*V12</f>
+        <v>11.141999999999999</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="9"/>
@@ -7839,7 +7951,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C21" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D21,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7850,7 +7962,7 @@
       </c>
       <c r="E21" s="4">
         <f>E5</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F21" s="4">
         <f>G5</f>
@@ -7858,7 +7970,7 @@
       </c>
       <c r="G21" s="4">
         <f>F5</f>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H21" s="4">
         <f>H5</f>
@@ -7918,7 +8030,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C22" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D22,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7929,7 +8041,7 @@
       </c>
       <c r="E22" s="4">
         <f t="shared" ref="E22:E36" si="13">E6</f>
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ref="F22:F36" si="14">G6</f>
@@ -7937,7 +8049,7 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" ref="G22:G36" si="15">F6</f>
-        <v>1.7</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ref="H22" si="16">H6</f>
@@ -7997,7 +8109,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C23" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D23,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8008,7 +8120,7 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="14"/>
@@ -8016,7 +8128,7 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" si="15"/>
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" ref="H23" si="20">H7</f>
@@ -8076,7 +8188,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C24" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D24,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8087,7 +8199,7 @@
       </c>
       <c r="E24" s="4">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="14"/>
@@ -8095,7 +8207,7 @@
       </c>
       <c r="G24" s="4">
         <f t="shared" si="15"/>
-        <v>2.3959999999999999</v>
+        <v>1.8719999999999999</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" ref="H24" si="22">H8</f>
@@ -8155,7 +8267,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C25" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D25,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8166,7 +8278,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="14"/>
@@ -8174,7 +8286,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" si="15"/>
-        <v>2.48</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" ref="H25" si="24">H9</f>
@@ -8234,7 +8346,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C26" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D26,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8245,7 +8357,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="14"/>
@@ -8253,7 +8365,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="15"/>
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" ref="H26" si="26">H10</f>
@@ -8313,7 +8425,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C27" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D27,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8324,7 +8436,7 @@
       </c>
       <c r="E27" s="4">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="14"/>
@@ -8332,7 +8444,7 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" si="15"/>
-        <v>2.62</v>
+        <v>2.04</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ref="H27" si="28">H11</f>
@@ -8392,7 +8504,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C28" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D28,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8403,7 +8515,7 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="14"/>
@@ -8411,7 +8523,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" si="15"/>
-        <v>2.2679999999999998</v>
+        <v>1.776</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" ref="H28" si="30">H12</f>
@@ -8471,7 +8583,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C29" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D29,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8482,7 +8594,7 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" si="13"/>
-        <v>54</v>
+        <v>40.5</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="14"/>
@@ -8490,7 +8602,7 @@
       </c>
       <c r="G29" s="4">
         <f t="shared" si="15"/>
-        <v>2.3759999999999999</v>
+        <v>1.857</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" ref="H29" si="32">H13</f>
@@ -8550,18 +8662,18 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C30" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D30,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="13"/>
-        <v>66</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="14"/>
@@ -8569,7 +8681,7 @@
       </c>
       <c r="G30" s="4">
         <f>F14*1.5</f>
-        <v>3.2549999999999999</v>
+        <v>2.55375</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" ref="H30" si="34">H14</f>
@@ -8629,7 +8741,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C31" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D31,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8640,7 +8752,7 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="14"/>
@@ -8648,7 +8760,7 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" si="15"/>
-        <v>3.75</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" ref="H31" si="36">H15</f>
@@ -8708,7 +8820,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C32" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D32,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8719,7 +8831,7 @@
       </c>
       <c r="E32" s="4">
         <f t="shared" si="13"/>
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="14"/>
@@ -8727,7 +8839,7 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" si="15"/>
-        <v>6.75</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" ref="H32" si="38">H16</f>
@@ -8787,7 +8899,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C33" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D33,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8798,7 +8910,7 @@
       </c>
       <c r="E33" s="4">
         <f t="shared" si="13"/>
-        <v>270</v>
+        <v>121.5</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="14"/>
@@ -8806,7 +8918,7 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" si="15"/>
-        <v>5.9399999999999995</v>
+        <v>5.5709999999999997</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" ref="H33" si="40">H17</f>
@@ -8866,7 +8978,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C34" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D34,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8877,7 +8989,7 @@
       </c>
       <c r="E34" s="4">
         <f t="shared" si="13"/>
-        <v>5000</v>
+        <v>2250</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="14"/>
@@ -8885,7 +8997,7 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" si="15"/>
-        <v>9.375</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" ref="H34" si="42">H18</f>
@@ -8945,7 +9057,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C35" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D35,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8956,7 +9068,7 @@
       </c>
       <c r="E35" s="4">
         <f t="shared" si="13"/>
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="14"/>
@@ -8964,7 +9076,7 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" si="15"/>
-        <v>13.5</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" ref="H35" si="44">H19</f>
@@ -9023,7 +9135,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C36" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D36,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9034,7 +9146,7 @@
       </c>
       <c r="E36" s="4">
         <f t="shared" si="13"/>
-        <v>1350</v>
+        <v>607.5</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="14"/>
@@ -9042,7 +9154,7 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" si="15"/>
-        <v>11.879999999999999</v>
+        <v>11.141999999999999</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" ref="H36" si="46">H20</f>
@@ -9102,26 +9214,26 @@
         <v>33</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C37" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D37,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E37" s="4">
-        <f>E30*5</f>
-        <v>330</v>
+        <f>E30*V6</f>
+        <v>148.50000000000003</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" ref="F37" si="48">F30*5</f>
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f>G30*5</f>
-        <v>16.274999999999999</v>
+        <f>G30*V8</f>
+        <v>7.6612499999999999</v>
       </c>
       <c r="H37" s="4">
         <f>H30*5</f>
@@ -9181,26 +9293,26 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C38" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D38,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E38" s="4">
-        <f>E37*5</f>
-        <v>1650</v>
+        <f>E37*V10</f>
+        <v>742.50000000000011</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" ref="F38" si="51">F37*5</f>
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <f>G37*2</f>
-        <v>32.549999999999997</v>
+        <f>G37*V12</f>
+        <v>15.3225</v>
       </c>
       <c r="H38" s="4">
         <f>H37*5</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FA4BFA-A4B3-4E7C-8997-AD4C59DAB39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C6E9F1-0E01-44A7-8C57-2EE6082C762D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39615" yWindow="30" windowWidth="35520" windowHeight="16665" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39525" yWindow="1125" windowWidth="34560" windowHeight="19485" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -2958,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -4311,7 +4311,7 @@
         <v>147</v>
       </c>
       <c r="O28" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -4343,10 +4343,10 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>617</v>
+        <v>333</v>
       </c>
       <c r="J5" s="4">
         <v>10</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>603</v>
+        <v>340</v>
       </c>
       <c r="J6" s="4">
         <v>7</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>581</v>
+        <v>302</v>
       </c>
       <c r="J7" s="4">
         <v>10</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>485</v>
+        <v>219</v>
       </c>
       <c r="J8" s="4">
         <v>20</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>475</v>
+        <v>209</v>
       </c>
       <c r="J9" s="4">
         <v>19</v>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>497</v>
+        <v>263</v>
       </c>
       <c r="J10" s="4">
         <v>20</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>485</v>
+        <v>289</v>
       </c>
       <c r="J11" s="4">
         <v>15</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>475</v>
+        <v>239</v>
       </c>
       <c r="J12" s="4">
         <v>14</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>459</v>
+        <v>182</v>
       </c>
       <c r="J13" s="4">
         <v>19</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>457</v>
+        <v>180</v>
       </c>
       <c r="J14" s="4">
         <v>18</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <v>1467</v>
+        <v>1393</v>
       </c>
       <c r="J15" s="19">
         <v>57</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <v>1813</v>
+        <v>1685</v>
       </c>
       <c r="J16" s="19">
         <v>30</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <v>1738</v>
+        <v>1624</v>
       </c>
       <c r="J17" s="19">
         <v>30</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>603</v>
+        <v>300</v>
       </c>
       <c r="J18" s="4">
         <v>10</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>485</v>
+        <v>219</v>
       </c>
       <c r="J19" s="4">
         <v>20</v>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>465</v>
+        <v>179</v>
       </c>
       <c r="J20" s="4">
         <v>19</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>435</v>
+        <v>151</v>
       </c>
       <c r="J21" s="4">
         <v>18</v>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <v>1787</v>
+        <v>1604</v>
       </c>
       <c r="J22" s="19">
         <v>30</v>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <v>1497</v>
+        <v>1363</v>
       </c>
       <c r="J23" s="19">
         <v>57</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <v>1489</v>
+        <v>1382</v>
       </c>
       <c r="J24" s="19">
         <v>57</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <v>1508</v>
+        <v>1413</v>
       </c>
       <c r="J25" s="19">
         <v>58</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <v>1459</v>
+        <v>1397</v>
       </c>
       <c r="J26" s="19">
         <v>60</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>7483</v>
+        <v>7335</v>
       </c>
       <c r="J27" s="4">
         <v>285</v>
@@ -6459,7 +6459,7 @@
         <v>보스_엘리자베스</v>
       </c>
       <c r="C28" s="4">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E28,'!참조_ENUM'!$G$3:$G$6,0))</f>
@@ -6478,7 +6478,7 @@
         <v>210004</v>
       </c>
       <c r="I28" s="4">
-        <v>7446</v>
+        <v>6994</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -6540,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6785,10 +6785,10 @@
         <v>89</v>
       </c>
       <c r="E5" s="4">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="E6" s="4">
         <f>E5*0.9</f>
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4">
         <f>F$5+(E$5-E6)*0.01</f>
-        <v>1.3499999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -6926,11 +6926,11 @@
       </c>
       <c r="E7" s="4">
         <f>E5*0.4</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4">
         <f>F$5+(E$5-E7)*0.01</f>
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -6997,11 +6997,11 @@
       </c>
       <c r="E8" s="13">
         <f>E7*0.9</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4">
         <f>F$5+(E$5-E8)*0.007</f>
-        <v>1.8719999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -7068,11 +7068,11 @@
       </c>
       <c r="E9" s="13">
         <f>E5*0.3</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ref="F9" si="0">F$5+(E$5-E9)*0.007</f>
-        <v>1.9350000000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -7139,11 +7139,11 @@
       </c>
       <c r="E10" s="13">
         <f>E7</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4">
         <f>F$5+(E$5-E10)*0.008</f>
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -7210,11 +7210,11 @@
       </c>
       <c r="E11" s="13">
         <f>E9</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4">
         <f>F$5+(E$5-E11)*0.008</f>
-        <v>2.04</v>
+        <v>1.28</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -7281,11 +7281,11 @@
       </c>
       <c r="E12" s="13">
         <f>E7*0.9</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4">
         <f>F$5+(E$5-E12)*0.006</f>
-        <v>1.776</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -7352,11 +7352,11 @@
       </c>
       <c r="E13" s="13">
         <f>E9*0.9</f>
-        <v>40.5</v>
+        <v>13.5</v>
       </c>
       <c r="F13" s="4">
         <f>F$5+(E$5-E13)*0.006</f>
-        <v>1.857</v>
+        <v>1.2190000000000001</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -7420,11 +7420,11 @@
       </c>
       <c r="E14" s="13">
         <f>E9*1.1</f>
-        <v>49.500000000000007</v>
+        <v>16.5</v>
       </c>
       <c r="F14" s="4">
         <f>F$5+(E$5-E14)*0.005</f>
-        <v>1.7025000000000001</v>
+        <v>1.1675</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -7488,11 +7488,11 @@
       </c>
       <c r="E15" s="4">
         <f>E5*V6</f>
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="F15" s="4">
         <f>F5*V8</f>
-        <v>3.5999999999999996</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" ref="G15" si="1">G5*5</f>
@@ -7567,11 +7567,11 @@
       </c>
       <c r="E16" s="4">
         <f>E7*V6</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4">
         <f>F7*V8</f>
-        <v>6.3000000000000007</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" ref="G16" si="3">G7*5</f>
@@ -7646,11 +7646,11 @@
       </c>
       <c r="E17" s="4">
         <f>E13*V6</f>
-        <v>121.5</v>
+        <v>40.5</v>
       </c>
       <c r="F17" s="4">
         <f>F13*V8</f>
-        <v>5.5709999999999997</v>
+        <v>3.657</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ref="G17" si="5">G13*5</f>
@@ -7725,11 +7725,11 @@
       </c>
       <c r="E18" s="4">
         <f>E15*V10</f>
-        <v>2250</v>
+        <v>750</v>
       </c>
       <c r="F18" s="4">
         <f>F15*V12</f>
-        <v>7.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" ref="G18" si="7">G15*5</f>
@@ -7804,14 +7804,14 @@
       </c>
       <c r="E19" s="4">
         <f>E16*V10</f>
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F19" s="4">
         <f>F16*V12</f>
-        <v>12.600000000000001</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="E19:G20" si="9">G16*5</f>
+        <f t="shared" ref="G19:G20" si="9">G16*5</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
@@ -7883,11 +7883,11 @@
       </c>
       <c r="E20" s="4">
         <f>E17*V10</f>
-        <v>607.5</v>
+        <v>202.5</v>
       </c>
       <c r="F20" s="4">
         <f>F17*V12</f>
-        <v>11.141999999999999</v>
+        <v>7.3140000000000001</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="9"/>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="E21" s="4">
         <f>E5</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F21" s="4">
         <f>G5</f>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="G21" s="4">
         <f>F5</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f>H5</f>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="E22" s="4">
         <f t="shared" ref="E22:E36" si="13">E6</f>
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ref="F22:F36" si="14">G6</f>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" ref="G22:G36" si="15">F6</f>
-        <v>1.3499999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ref="H22" si="16">H6</f>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="14"/>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" si="15"/>
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" ref="H23" si="20">H7</f>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="E24" s="4">
         <f t="shared" si="13"/>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="14"/>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="G24" s="4">
         <f t="shared" si="15"/>
-        <v>1.8719999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" ref="H24" si="22">H8</f>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="13"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="14"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" si="15"/>
-        <v>1.9350000000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" ref="H25" si="24">H9</f>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="14"/>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="15"/>
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" ref="H26" si="26">H10</f>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="E27" s="4">
         <f t="shared" si="13"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="14"/>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" si="15"/>
-        <v>2.04</v>
+        <v>1.28</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ref="H27" si="28">H11</f>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" si="13"/>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="14"/>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" si="15"/>
-        <v>1.776</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" ref="H28" si="30">H12</f>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" si="13"/>
-        <v>40.5</v>
+        <v>13.5</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="14"/>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="G29" s="4">
         <f t="shared" si="15"/>
-        <v>1.857</v>
+        <v>1.2190000000000001</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" ref="H29" si="32">H13</f>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="E30" s="4">
         <f t="shared" si="13"/>
-        <v>49.500000000000007</v>
+        <v>16.5</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="14"/>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="G30" s="4">
         <f>F14*1.5</f>
-        <v>2.55375</v>
+        <v>1.75125</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" ref="H30" si="34">H14</f>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" si="13"/>
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="14"/>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" si="15"/>
-        <v>3.5999999999999996</v>
+        <v>3</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" ref="H31" si="36">H15</f>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="E32" s="4">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="14"/>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" si="15"/>
-        <v>6.3000000000000007</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" ref="H32" si="38">H16</f>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="E33" s="4">
         <f t="shared" si="13"/>
-        <v>121.5</v>
+        <v>40.5</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="14"/>
@@ -8918,7 +8918,7 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" si="15"/>
-        <v>5.5709999999999997</v>
+        <v>3.657</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" ref="H33" si="40">H17</f>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="E34" s="4">
         <f t="shared" si="13"/>
-        <v>2250</v>
+        <v>750</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="14"/>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" si="15"/>
-        <v>7.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" ref="H34" si="42">H18</f>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="E35" s="4">
         <f t="shared" si="13"/>
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="14"/>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" si="15"/>
-        <v>12.600000000000001</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" ref="H35" si="44">H19</f>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="E36" s="4">
         <f t="shared" si="13"/>
-        <v>607.5</v>
+        <v>202.5</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="14"/>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" si="15"/>
-        <v>11.141999999999999</v>
+        <v>7.3140000000000001</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" ref="H36" si="46">H20</f>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="E37" s="4">
         <f>E30*V6</f>
-        <v>148.50000000000003</v>
+        <v>49.5</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" ref="F37" si="48">F30*5</f>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="G37" s="4">
         <f>G30*V8</f>
-        <v>7.6612499999999999</v>
+        <v>5.2537500000000001</v>
       </c>
       <c r="H37" s="4">
         <f>H30*5</f>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="E38" s="4">
         <f>E37*V10</f>
-        <v>742.50000000000011</v>
+        <v>247.5</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" ref="F38" si="51">F37*5</f>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="G38" s="4">
         <f>G37*V12</f>
-        <v>15.3225</v>
+        <v>10.5075</v>
       </c>
       <c r="H38" s="4">
         <f>H37*5</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C6E9F1-0E01-44A7-8C57-2EE6082C762D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469514AF-9B51-4A50-A1F2-B543C5B86A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39525" yWindow="1125" windowWidth="34560" windowHeight="19485" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38850" yWindow="1950" windowWidth="34560" windowHeight="18615" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1964,29 +1964,77 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
+            <v>SKILL_TYPE</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1994,14 +2042,14 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
+            <v>EFFECT_COUNT_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -2958,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4311,7 +4359,7 @@
         <v>147</v>
       </c>
       <c r="O28" s="4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4343,10 +4391,10 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6517,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="4">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="W28" s="4">
         <v>0</v>
@@ -6541,7 +6589,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469514AF-9B51-4A50-A1F2-B543C5B86A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A17428-46DE-4003-9189-FF47F47E995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38850" yWindow="1950" windowWidth="34560" windowHeight="18615" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38595" yWindow="915" windowWidth="41550" windowHeight="19485" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="280">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,10 +1165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[210001, 210002, 210003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보스_마네</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1276,30 +1272,6 @@
     <t>거대 안드로이드(정예)</t>
   </si>
   <si>
-    <t>배율 설정 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#multiple_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정예체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정예공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마력] 탱커(방어:대) - 마족투사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1309,6 +1281,14 @@
   </si>
   <si>
     <t>마력] 탱커 - 마족투사(정예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전(마법딜러형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210003, 210002, 210001, 210001, 210002, 210001]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1384,7 +1364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1439,20 +1419,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1488,33 +1456,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1577,24 +1525,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3006,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3044,7 +2974,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>38</v>
@@ -3138,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -3182,13 +3112,13 @@
         <v>149</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3235,7 +3165,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>174</v>
@@ -3282,13 +3212,13 @@
         <v>151</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3335,7 +3265,7 @@
         <v>182</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>173</v>
@@ -3385,7 +3315,7 @@
         <v>183</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>178</v>
@@ -3435,7 +3365,7 @@
         <v>181</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>172</v>
@@ -3482,10 +3412,10 @@
         <v>154</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>175</v>
@@ -3532,10 +3462,10 @@
         <v>155</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>176</v>
@@ -3585,7 +3515,7 @@
         <v>194</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>195</v>
@@ -3635,7 +3565,7 @@
         <v>184</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>179</v>
@@ -3685,7 +3615,7 @@
         <v>199</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>202</v>
@@ -3732,10 +3662,10 @@
         <v>159</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>192</v>
@@ -3782,13 +3712,13 @@
         <v>160</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3835,7 +3765,7 @@
         <v>180</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>191</v>
@@ -3879,10 +3809,10 @@
         <v>162</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>189</v>
@@ -3926,10 +3856,10 @@
         <v>163</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>190</v>
@@ -3976,7 +3906,7 @@
         <v>184</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>193</v>
@@ -4026,7 +3956,7 @@
         <v>200</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>196</v>
@@ -4073,10 +4003,10 @@
         <v>166</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>197</v>
@@ -4126,7 +4056,7 @@
         <v>185</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>186</v>
@@ -4173,10 +4103,10 @@
         <v>187</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>203</v>
@@ -4223,7 +4153,7 @@
         <v>201</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>204</v>
@@ -4273,10 +4203,10 @@
         <v>168</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4323,10 +4253,10 @@
         <v>144</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F28" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4353,13 +4283,13 @@
         <v>900001</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>147</v>
       </c>
       <c r="O28" s="4">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -4391,10 +4321,10 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4404,7 +4334,7 @@
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.25" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="11" width="11.875" bestFit="1" customWidth="1"/>
@@ -4689,7 +4619,7 @@
         <v>333</v>
       </c>
       <c r="J5" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -4710,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
         <v>1</v>
@@ -4768,7 +4698,7 @@
         <v>340</v>
       </c>
       <c r="J6" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -4789,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="S6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -4847,7 +4777,7 @@
         <v>302</v>
       </c>
       <c r="J7" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -4868,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="4">
         <v>0</v>
       </c>
       <c r="S7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -4926,7 +4856,7 @@
         <v>219</v>
       </c>
       <c r="J8" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -5005,7 +4935,7 @@
         <v>209</v>
       </c>
       <c r="J9" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -5084,7 +5014,7 @@
         <v>263</v>
       </c>
       <c r="J10" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -5105,13 +5035,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R10" s="4">
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -5163,7 +5093,7 @@
         <v>289</v>
       </c>
       <c r="J11" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -5242,7 +5172,7 @@
         <v>239</v>
       </c>
       <c r="J12" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -5321,7 +5251,7 @@
         <v>182</v>
       </c>
       <c r="J13" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -5400,7 +5330,7 @@
         <v>180</v>
       </c>
       <c r="J14" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -5476,10 +5406,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <v>1393</v>
+        <v>543</v>
       </c>
       <c r="J15" s="19">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="K15" s="19">
         <v>0</v>
@@ -5497,11 +5427,9 @@
         <v>0</v>
       </c>
       <c r="P15" s="19">
-        <f t="shared" ref="P15:U15" si="0">P9*3</f>
         <v>0</v>
       </c>
       <c r="Q15" s="19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" s="19">
@@ -5514,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U15" si="0">U9*3</f>
         <v>0</v>
       </c>
       <c r="V15" s="4">
@@ -5558,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <v>1685</v>
+        <v>765</v>
       </c>
       <c r="J16" s="19">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K16" s="19">
         <v>0</v>
@@ -5579,24 +5507,22 @@
         <v>0</v>
       </c>
       <c r="P16" s="19">
-        <f t="shared" ref="P16:U16" si="1">P5*3</f>
         <v>0</v>
       </c>
       <c r="Q16" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T16" s="19">
         <v>3</v>
       </c>
       <c r="U16" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U16" si="1">U5*3</f>
         <v>0</v>
       </c>
       <c r="V16" s="4">
@@ -5640,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <v>1624</v>
+        <v>704</v>
       </c>
       <c r="J17" s="19">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K17" s="19">
         <v>0</v>
@@ -5661,24 +5587,22 @@
         <v>0</v>
       </c>
       <c r="P17" s="19">
-        <f t="shared" ref="P17:U17" si="2">P7*3</f>
         <v>0</v>
       </c>
       <c r="Q17" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" s="19">
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17" s="19">
         <v>0</v>
       </c>
       <c r="U17" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U17" si="2">U7*3</f>
         <v>0</v>
       </c>
       <c r="V17" s="4">
@@ -5745,13 +5669,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="4">
         <v>0</v>
       </c>
       <c r="S18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="4">
         <v>0</v>
@@ -5802,7 +5726,7 @@
         <v>219</v>
       </c>
       <c r="J19" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -5880,7 +5804,7 @@
         <v>179</v>
       </c>
       <c r="J20" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -5959,7 +5883,7 @@
         <v>151</v>
       </c>
       <c r="J21" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -5983,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S21" s="4">
         <v>0</v>
@@ -6035,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <v>1604</v>
+        <v>705</v>
       </c>
       <c r="J22" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K22" s="19">
         <v>0</v>
@@ -6056,24 +5980,22 @@
         <v>0</v>
       </c>
       <c r="P22" s="19">
-        <f t="shared" ref="P22:U22" si="3">P18*3</f>
         <v>0</v>
       </c>
       <c r="Q22" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" s="19">
         <v>0</v>
       </c>
       <c r="S22" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T22" s="19">
         <v>0</v>
       </c>
       <c r="U22" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U22" si="3">U18*3</f>
         <v>0</v>
       </c>
       <c r="V22" s="4">
@@ -6116,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <v>1363</v>
+        <v>533</v>
       </c>
       <c r="J23" s="19">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K23" s="19">
         <v>0</v>
@@ -6137,11 +6059,9 @@
         <v>0</v>
       </c>
       <c r="P23" s="19">
-        <f t="shared" ref="P23:U23" si="4">P20*3</f>
         <v>0</v>
       </c>
       <c r="Q23" s="19">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R23" s="19">
@@ -6154,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U23" si="4">U20*3</f>
         <v>0</v>
       </c>
       <c r="V23" s="4">
@@ -6198,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <v>1382</v>
+        <v>602</v>
       </c>
       <c r="J24" s="19">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="K24" s="19">
         <v>0</v>
@@ -6219,11 +6139,9 @@
         <v>0</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" ref="P24:U24" si="5">P13*3</f>
         <v>0</v>
       </c>
       <c r="Q24" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R24" s="19">
@@ -6236,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="U24" si="5">U13*3</f>
         <v>0</v>
       </c>
       <c r="V24" s="4">
@@ -6280,10 +6198,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <v>1413</v>
+        <v>573</v>
       </c>
       <c r="J25" s="19">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="K25" s="19">
         <v>0</v>
@@ -6301,11 +6219,9 @@
         <v>0</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" ref="P25:U25" si="6">P19*3</f>
         <v>0</v>
       </c>
       <c r="Q25" s="19">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R25" s="19">
@@ -6318,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U25" si="6">U19*3</f>
         <v>0</v>
       </c>
       <c r="V25" s="4">
@@ -6362,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <v>1397</v>
+        <v>537</v>
       </c>
       <c r="J26" s="19">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K26" s="19">
         <v>0</v>
@@ -6383,11 +6299,9 @@
         <v>0</v>
       </c>
       <c r="P26" s="19">
-        <f t="shared" ref="P26:U26" si="7">P15*3</f>
         <v>0</v>
       </c>
       <c r="Q26" s="19">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R26" s="19">
@@ -6400,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="U26" si="7">U15*3</f>
         <v>0</v>
       </c>
       <c r="V26" s="4">
@@ -6444,10 +6358,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>7335</v>
+        <v>1205</v>
       </c>
       <c r="J27" s="4">
-        <v>285</v>
+        <v>51</v>
       </c>
       <c r="K27" s="4">
         <v>0</v>
@@ -6465,11 +6379,9 @@
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27:U27" si="8">P23*2</f>
         <v>0</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R27" s="4">
@@ -6482,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="U27" si="8">U23*2</f>
         <v>0</v>
       </c>
       <c r="V27" s="4">
@@ -6517,7 +6429,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -6526,13 +6438,13 @@
         <v>210004</v>
       </c>
       <c r="I28" s="4">
-        <v>6994</v>
+        <v>3774</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="L28" s="4">
         <v>6</v>
@@ -6547,13 +6459,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="4">
         <v>0</v>
       </c>
       <c r="R28" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S28" s="4">
         <v>0</v>
@@ -6586,10 +6498,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6609,12 +6521,12 @@
     <col min="22" max="22" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -6678,11 +6590,8 @@
       <c r="U2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -6746,11 +6655,8 @@
       <c r="U3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -6814,11 +6720,8 @@
       <c r="U4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -6883,11 +6786,8 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-      <c r="V5" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -6902,11 +6802,9 @@
         <v>89</v>
       </c>
       <c r="E6" s="4">
-        <f>E5*0.9</f>
         <v>45</v>
       </c>
       <c r="F6" s="4">
-        <f>F$5+(E$5-E6)*0.01</f>
         <v>1.05</v>
       </c>
       <c r="G6" s="4">
@@ -6954,11 +6852,8 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -6973,11 +6868,9 @@
         <v>87</v>
       </c>
       <c r="E7" s="4">
-        <f>E5*0.4</f>
         <v>20</v>
       </c>
       <c r="F7" s="4">
-        <f>F$5+(E$5-E7)*0.01</f>
         <v>1.3</v>
       </c>
       <c r="G7" s="4">
@@ -7025,11 +6918,8 @@
       <c r="U7" s="4">
         <v>0</v>
       </c>
-      <c r="V7" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -7044,11 +6934,9 @@
         <v>87</v>
       </c>
       <c r="E8" s="13">
-        <f>E7*0.9</f>
         <v>18</v>
       </c>
       <c r="F8" s="4">
-        <f>F$5+(E$5-E8)*0.007</f>
         <v>1.224</v>
       </c>
       <c r="G8" s="4">
@@ -7096,11 +6984,8 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -7115,11 +7000,9 @@
         <v>87</v>
       </c>
       <c r="E9" s="13">
-        <f>E5*0.3</f>
         <v>15</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" ref="F9" si="0">F$5+(E$5-E9)*0.007</f>
         <v>1.2450000000000001</v>
       </c>
       <c r="G9" s="4">
@@ -7167,11 +7050,8 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -7186,11 +7066,9 @@
         <v>87</v>
       </c>
       <c r="E10" s="13">
-        <f>E7</f>
         <v>20</v>
       </c>
       <c r="F10" s="4">
-        <f>F$5+(E$5-E10)*0.008</f>
         <v>1.24</v>
       </c>
       <c r="G10" s="4">
@@ -7238,11 +7116,8 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -7257,11 +7132,9 @@
         <v>87</v>
       </c>
       <c r="E11" s="13">
-        <f>E9</f>
         <v>15</v>
       </c>
       <c r="F11" s="4">
-        <f>F$5+(E$5-E11)*0.008</f>
         <v>1.28</v>
       </c>
       <c r="G11" s="4">
@@ -7309,11 +7182,8 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -7328,11 +7198,9 @@
         <v>88</v>
       </c>
       <c r="E12" s="13">
-        <f>E7*0.9</f>
         <v>18</v>
       </c>
       <c r="F12" s="4">
-        <f>F$5+(E$5-E12)*0.006</f>
         <v>1.1919999999999999</v>
       </c>
       <c r="G12" s="4">
@@ -7380,11 +7248,8 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -7399,11 +7264,9 @@
         <v>88</v>
       </c>
       <c r="E13" s="13">
-        <f>E9*0.9</f>
         <v>13.5</v>
       </c>
       <c r="F13" s="4">
-        <f>F$5+(E$5-E13)*0.006</f>
         <v>1.2190000000000001</v>
       </c>
       <c r="G13" s="4">
@@ -7452,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:21">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -7467,11 +7330,9 @@
         <v>205</v>
       </c>
       <c r="E14" s="13">
-        <f>E9*1.1</f>
         <v>16.5</v>
       </c>
       <c r="F14" s="4">
-        <f>F$5+(E$5-E14)*0.005</f>
         <v>1.1675</v>
       </c>
       <c r="G14" s="13">
@@ -7520,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:21">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -7535,55 +7396,42 @@
         <v>89</v>
       </c>
       <c r="E15" s="4">
-        <f>E5*V6</f>
         <v>150</v>
       </c>
       <c r="F15" s="4">
-        <f>F5*V8</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ref="G15" si="1">G5*5</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>H5*5</f>
-        <v>0.89999999999999991</v>
+        <v>0.36</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" ref="I15:Q15" si="2">I5*5</f>
-        <v>0.89999999999999991</v>
+        <v>0.36</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="13">
@@ -7599,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:21">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -7614,55 +7462,42 @@
         <v>87</v>
       </c>
       <c r="E16" s="4">
-        <f>E7*V6</f>
         <v>60</v>
       </c>
       <c r="F16" s="4">
-        <f>F7*V8</f>
-        <v>3.9000000000000004</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" ref="G16" si="3">G7*5</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>H7*5</f>
-        <v>0.15</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" ref="I16:Q16" si="4">I7*5</f>
-        <v>0.15</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="4"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="4"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R16" s="13">
@@ -7693,55 +7528,42 @@
         <v>88</v>
       </c>
       <c r="E17" s="4">
-        <f>E13*V6</f>
         <v>40.5</v>
       </c>
       <c r="F17" s="4">
-        <f>F13*V8</f>
-        <v>3.657</v>
+        <v>1.8285</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="G17" si="5">G13*5</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>H13*5</f>
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" ref="I17:Q17" si="6">I13*5</f>
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="6"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="6"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R17" s="13">
@@ -7772,55 +7594,42 @@
         <v>89</v>
       </c>
       <c r="E18" s="4">
-        <f>E15*V10</f>
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="F18" s="4">
-        <f>F15*V12</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ref="G18" si="7">G15*5</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>H15*5</f>
-        <v>4.5</v>
+        <v>0.06</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" ref="I18:Q18" si="8">I15*5</f>
-        <v>4.5</v>
+        <v>0.06</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="8"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="8"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R18" s="13">
@@ -7851,55 +7660,42 @@
         <v>87</v>
       </c>
       <c r="E19" s="4">
-        <f>E16*V10</f>
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="F19" s="4">
-        <f>F16*V12</f>
-        <v>7.8000000000000007</v>
+        <v>5.2</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="G19:G20" si="9">G16*5</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" ref="H19:Q19" si="10">H16*5</f>
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R19" s="13">
@@ -7930,55 +7726,42 @@
         <v>88</v>
       </c>
       <c r="E20" s="4">
-        <f>E17*V10</f>
-        <v>202.5</v>
+        <v>162</v>
       </c>
       <c r="F20" s="4">
-        <f>F17*V12</f>
-        <v>7.3140000000000001</v>
+        <v>2.4380000000000002</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:Q20" si="11">H17*5</f>
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="11"/>
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="11"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="11"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R20" s="13">
@@ -8009,55 +7792,42 @@
         <v>89</v>
       </c>
       <c r="E21" s="4">
-        <f>E5</f>
         <v>50</v>
       </c>
       <c r="F21" s="4">
-        <f>G5</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f>F5</f>
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <f>H5</f>
         <v>0.18</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" ref="I21:Q21" si="12">I5</f>
         <v>0.18</v>
       </c>
       <c r="J21" s="4">
-        <f>K5</f>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f>J5</f>
         <v>0.01</v>
       </c>
       <c r="L21" s="4">
-        <f>M5</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f>L5</f>
         <v>0.01</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="12"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="12"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R21" s="4">
@@ -8088,55 +7858,42 @@
         <v>89</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" ref="E22:E36" si="13">E6</f>
         <v>45</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22:F36" si="14">G6</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" ref="G22:G36" si="15">F6</f>
         <v>1.05</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" ref="H22" si="16">H6</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" ref="I22:Q22" si="17">I6</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" ref="J22:L36" si="18">K6</f>
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" ref="K22:M36" si="19">J6</f>
         <v>0.01</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="17"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="17"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R22" s="4">
@@ -8167,55 +7924,42 @@
         <v>87</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="15"/>
         <v>1.3</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" ref="H23" si="20">H7</f>
         <v>0.03</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23:Q23" si="21">I7</f>
         <v>0.03</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="21"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="21"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R23" s="4">
@@ -8246,55 +7990,42 @@
         <v>87</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="15"/>
         <v>1.224</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" ref="H24" si="22">H8</f>
         <v>0.03</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" ref="I24:Q24" si="23">I8</f>
         <v>0.03</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="23"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="23"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R24" s="4">
@@ -8325,55 +8056,42 @@
         <v>87</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="15"/>
         <v>1.2450000000000001</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" ref="H25" si="24">H9</f>
         <v>0.03</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" ref="I25:Q25" si="25">I9</f>
         <v>0.03</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="25"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="25"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R25" s="4">
@@ -8404,55 +8122,42 @@
         <v>87</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="15"/>
         <v>1.24</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" ref="H26" si="26">H10</f>
         <v>0.03</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" ref="I26:Q26" si="27">I10</f>
         <v>0.03</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="27"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="27"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R26" s="4">
@@ -8483,55 +8188,42 @@
         <v>87</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="15"/>
         <v>1.28</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" ref="H27" si="28">H11</f>
         <v>0.03</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" ref="I27:Q27" si="29">I11</f>
         <v>0.03</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="29"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="29"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R27" s="4">
@@ -8562,55 +8254,42 @@
         <v>88</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="15"/>
         <v>1.1919999999999999</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" ref="H28" si="30">H12</f>
         <v>0.03</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ref="I28:Q28" si="31">I12</f>
         <v>0.03</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="31"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="31"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R28" s="4">
@@ -8641,55 +8320,42 @@
         <v>88</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="13"/>
         <v>13.5</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="15"/>
         <v>1.2190000000000001</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" ref="H29" si="32">H13</f>
         <v>0.03</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ref="I29:Q29" si="33">I13</f>
         <v>0.03</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="33"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="33"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R29" s="4">
@@ -8720,55 +8386,42 @@
         <v>205</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="13"/>
         <v>16.5</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f>F14*1.5</f>
         <v>1.75125</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="H30" si="34">H14</f>
         <v>0.03</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" ref="I30:P30" si="35">I14</f>
         <v>0.03</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="35"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="35"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q30" s="4">
-        <f>Q14</f>
         <v>3</v>
       </c>
       <c r="R30" s="4">
@@ -8799,55 +8452,42 @@
         <v>89</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" ref="H31" si="36">H15</f>
-        <v>0.89999999999999991</v>
+        <v>0.36</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" ref="I31:Q31" si="37">I15</f>
-        <v>0.89999999999999991</v>
+        <v>0.36</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="19"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="19"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="37"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="37"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R31" s="4">
@@ -8878,55 +8518,42 @@
         <v>87</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="15"/>
-        <v>3.9000000000000004</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" ref="H32" si="38">H16</f>
-        <v>0.15</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" ref="I32:Q32" si="39">I16</f>
-        <v>0.15</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="19"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="19"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="39"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="39"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R32" s="4">
@@ -8957,55 +8584,42 @@
         <v>88</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="13"/>
         <v>40.5</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="15"/>
-        <v>3.657</v>
+        <v>1.8285</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" ref="H33" si="40">H17</f>
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ref="I33:Q33" si="41">I17</f>
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="19"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="19"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="41"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="41"/>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R33" s="4">
@@ -9036,55 +8650,42 @@
         <v>89</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="13"/>
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" ref="H34" si="42">H18</f>
-        <v>4.5</v>
+        <v>0.06</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34:Q34" si="43">I18</f>
-        <v>4.5</v>
+        <v>0.06</v>
       </c>
       <c r="J34" s="4">
-        <f>K18</f>
         <v>0</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="19"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="L34" s="4">
-        <f>M18</f>
         <v>0</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="19"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="43"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="43"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R34" s="4">
@@ -9115,54 +8716,42 @@
         <v>87</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="15"/>
-        <v>7.8000000000000007</v>
+        <v>5.2</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" ref="H35" si="44">H19</f>
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" ref="I35:Q35" si="45">I19</f>
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="19"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="19"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="N35" s="4">
         <v>0</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" si="45"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="45"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R35" s="4">
@@ -9193,55 +8782,42 @@
         <v>88</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="13"/>
-        <v>202.5</v>
+        <v>162</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="15"/>
-        <v>7.3140000000000001</v>
+        <v>2.4380000000000002</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" ref="H36" si="46">H20</f>
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" ref="I36:Q36" si="47">I20</f>
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="19"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="19"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="47"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="47"/>
-        <v>0.1875</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R36" s="4">
@@ -9272,55 +8848,42 @@
         <v>205</v>
       </c>
       <c r="E37" s="4">
-        <f>E30*V6</f>
         <v>49.5</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" ref="F37" si="48">F30*5</f>
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f>G30*V8</f>
-        <v>5.2537500000000001</v>
+        <v>2.6268750000000001</v>
       </c>
       <c r="H37" s="4">
-        <f>H30*5</f>
         <v>0.15</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ref="I37:Q37" si="49">I30*5</f>
         <v>0.15</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="49"/>
         <v>0.05</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" ref="L37:M37" si="50">L30*5</f>
         <v>0</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="50"/>
         <v>0.05</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="49"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="49"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="49"/>
         <v>15</v>
       </c>
       <c r="R37" s="4">
@@ -9351,56 +8914,43 @@
         <v>205</v>
       </c>
       <c r="E38" s="4">
-        <f>E37*V10</f>
-        <v>247.5</v>
+        <v>66</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" ref="F38" si="51">F37*5</f>
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <f>G37*V12</f>
-        <v>10.5075</v>
+        <v>7.0049999999999999</v>
       </c>
       <c r="H38" s="4">
-        <f>H37*5</f>
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" ref="I38:Q38" si="52">I37*5</f>
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="52"/>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" ref="L38" si="53">L37*5</f>
         <v>0</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" ref="M38" si="54">M37*5</f>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="52"/>
-        <v>0.1875</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="52"/>
-        <v>0.1875</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="52"/>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="R38" s="4">
         <v>0</v>
@@ -9412,6 +8962,72 @@
         <v>0</v>
       </c>
       <c r="U38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="12">
+        <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D39,'!참조_ENUM'!$O$3:$O$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="4">
+        <v>120</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P39" s="4">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+      <c r="T39" s="4">
+        <v>0</v>
+      </c>
+      <c r="U39" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A17428-46DE-4003-9189-FF47F47E995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4B241A-B67A-46D0-834F-999B08CE1754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38595" yWindow="915" windowWidth="41550" windowHeight="19485" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="870" yWindow="765" windowWidth="34560" windowHeight="19485" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="284">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,18 +945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엘프 연금술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급 안드로이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고위 천사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꼭두각시 인형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,10 +983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엘프 레인저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마력] 근딜 - 엘프 레인저</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1260,15 +1244,9 @@
     <t>수색대 소총병(정예)</t>
   </si>
   <si>
-    <t>마족투사</t>
-  </si>
-  <si>
     <t>마족투사(정예)</t>
   </si>
   <si>
-    <t>거대 안드로이드</t>
-  </si>
-  <si>
     <t>거대 안드로이드(정예)</t>
   </si>
   <si>
@@ -1289,6 +1267,46 @@
   </si>
   <si>
     <t>[210003, 210002, 210001, 210001, 210002, 210001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거한-베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거한-전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거한-마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 레인저-베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수색대 소총병-베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수속대 소총병-마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수속대 소총병-전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 레인저-전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 레인저-마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정예 연금술사-베리타리움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1894,92 +1912,50 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
+            <v>LIMIT_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="26">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DROP_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
+      <sheetData sheetId="29">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
+            <v>REWARD_TYPE</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -2936,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2974,7 +2950,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>38</v>
@@ -3068,7 +3044,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -3112,13 +3088,13 @@
         <v>149</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3162,10 +3138,10 @@
         <v>150</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>174</v>
@@ -3212,13 +3188,13 @@
         <v>151</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3262,10 +3238,10 @@
         <v>164</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>173</v>
@@ -3312,10 +3288,10 @@
         <v>152</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>178</v>
@@ -3362,10 +3338,10 @@
         <v>153</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>172</v>
@@ -3412,10 +3388,10 @@
         <v>154</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>175</v>
@@ -3462,10 +3438,10 @@
         <v>155</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>176</v>
@@ -3512,13 +3488,13 @@
         <v>156</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F13" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3562,20 +3538,20 @@
         <v>157</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>179</v>
       </c>
       <c r="F14" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="H14" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I14,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3612,13 +3588,13 @@
         <v>158</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F15" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3632,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J15" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K15,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3662,13 +3638,13 @@
         <v>159</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F16" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3682,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J16" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K16,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3712,13 +3688,13 @@
         <v>160</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3732,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J17" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K17,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -3765,10 +3741,10 @@
         <v>180</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -3809,13 +3785,13 @@
         <v>162</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
@@ -3856,13 +3832,13 @@
         <v>163</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
@@ -3903,13 +3879,13 @@
         <v>157</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F21" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3953,13 +3929,13 @@
         <v>165</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F22" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -3973,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J22" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K22,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -4003,13 +3979,13 @@
         <v>166</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F23" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4023,7 +3999,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J23" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K23,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -4053,13 +4029,13 @@
         <v>167</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F24" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4073,7 +4049,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J24" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K24,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -4100,16 +4076,16 @@
         <v>100021</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
@@ -4121,7 +4097,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
@@ -4147,16 +4123,16 @@
         <v>100022</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F26" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4170,7 +4146,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J26" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
@@ -4197,16 +4173,16 @@
         <v>200001</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4247,16 +4223,16 @@
         <v>900001</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F28" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
@@ -4283,7 +4259,7 @@
         <v>900001</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>147</v>
@@ -4320,11 +4296,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6186,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>91</v>
@@ -6429,7 +6405,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -6500,8 +6476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6726,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6792,7 +6768,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6858,7 +6834,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6924,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C8" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -6990,7 +6966,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C9" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7056,7 +7032,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7122,7 +7098,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7188,7 +7164,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C12" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7254,7 +7230,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C13" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7320,14 +7296,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E14" s="13">
         <v>16.5</v>
@@ -7386,7 +7362,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7452,7 +7428,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7518,7 +7494,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C17" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D17,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7584,7 +7560,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C18" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D18,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7650,7 +7626,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C19" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D19,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7716,7 +7692,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C20" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D20,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7782,7 +7758,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C21" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D21,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7848,7 +7824,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C22" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D22,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7914,7 +7890,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C23" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D23,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -7980,7 +7956,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C24" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D24,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8046,7 +8022,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C25" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D25,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8112,7 +8088,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C26" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D26,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8178,7 +8154,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C27" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D27,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8244,7 +8220,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C28" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D28,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8310,7 +8286,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C29" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D29,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8376,14 +8352,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C30" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D30,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E30" s="4">
         <v>16.5</v>
@@ -8442,7 +8418,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C31" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D31,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8508,7 +8484,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C32" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D32,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8574,7 +8550,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C33" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D33,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8640,7 +8616,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C34" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D34,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8706,7 +8682,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C35" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D35,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8772,7 +8748,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C36" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D36,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -8838,14 +8814,14 @@
         <v>33</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C37" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D37,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E37" s="4">
         <v>49.5</v>
@@ -8904,14 +8880,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C38" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D38,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E38" s="4">
         <v>66</v>
@@ -8970,7 +8946,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C39" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D39,'!참조_ENUM'!$O$3:$O$7,0))</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4B241A-B67A-46D0-834F-999B08CE1754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A48A34-AA6C-4607-AF72-F0BA7A34F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="765" windowWidth="34560" windowHeight="19485" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40830" yWindow="2385" windowWidth="31875" windowHeight="16500" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>tc={A80C448A-B16C-47E8-9B63-91568F5ADA04}</author>
   </authors>
   <commentList>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{A80C448A-B16C-47E8-9B63-91568F5ADA04}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{A80C448A-B16C-47E8-9B63-91568F5ADA04}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="287">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>패시브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -998,10 +994,6 @@
     <t>3 엘리트 몬스터</t>
   </si>
   <si>
-    <t>고위 천사(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거한(정예)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1307,6 +1299,26 @@
   </si>
   <si>
     <t>정예 연금술사-베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수색대 소총병-베리(정예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200004, 200013, 200004, 200004, 200004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 패턴(반복)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 패턴(시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_pattern_start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1602,9 +1614,11 @@
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
       <sheetName val="@res_type"/>
+      <sheetName val="!@story_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
+      <sheetName val="@story_type"/>
       <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
@@ -1928,13 +1942,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -2031,10 +2039,12 @@
         </row>
       </sheetData>
       <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="34"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
       <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2343,7 +2353,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V2" dT="2024-02-02T05:50:03.72" personId="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" id="{A80C448A-B16C-47E8-9B63-91568F5ADA04}">
+  <threadedComment ref="W2" dT="2024-02-02T05:50:03.72" personId="{018A2630-6712-4ECC-881F-8ABA63FFD96E}" id="{A80C448A-B16C-47E8-9B63-91568F5ADA04}">
     <text>상태이상 저항 값</text>
   </threadedComment>
 </ThreadedComments>
@@ -2910,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2936,62 +2946,62 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>3</v>
@@ -3009,16 +3019,16 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>0</v>
@@ -3035,49 +3045,49 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="M4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
@@ -3085,46 +3095,46 @@
         <v>100001</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L5" s="11">
         <v>100001</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="4">
         <v>0.35</v>
@@ -3135,46 +3145,46 @@
         <v>100002</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L6" s="11">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O6" s="4">
         <v>0.35</v>
@@ -3185,46 +3195,46 @@
         <v>100003</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L7" s="11">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O7" s="4">
         <v>0.35</v>
@@ -3235,46 +3245,46 @@
         <v>100004</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L8" s="11">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="4">
         <v>0.35</v>
@@ -3285,46 +3295,46 @@
         <v>100005</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K9,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L9" s="11">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O9" s="4">
         <v>0.35</v>
@@ -3335,46 +3345,46 @@
         <v>100006</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L10" s="11">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O10" s="4">
         <v>0.35</v>
@@ -3385,46 +3395,46 @@
         <v>100007</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I11,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K11,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L11" s="11">
         <v>100007</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O11" s="4">
         <v>0.35</v>
@@ -3435,46 +3445,46 @@
         <v>100008</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F12" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I12,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K12,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L12" s="11">
         <v>100008</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O12" s="4">
         <v>0.35</v>
@@ -3485,46 +3495,46 @@
         <v>100009</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I13,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K13,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L13" s="11">
         <v>100009</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O13" s="4">
         <v>0.35</v>
@@ -3535,46 +3545,46 @@
         <v>100010</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H14" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I14,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K14,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L14" s="11">
         <v>100010</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O14" s="4">
         <v>0.35</v>
@@ -3585,46 +3595,46 @@
         <v>100011</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F15" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>6</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H15" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I15,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J15" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K15,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L15" s="11">
         <v>100011</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O15" s="4">
         <v>0.35</v>
@@ -3635,46 +3645,46 @@
         <v>100012</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F16" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I16,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J16" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K16,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L16" s="11">
         <v>100012</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O16" s="4">
         <v>0.4</v>
@@ -3685,46 +3695,46 @@
         <v>100013</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I17,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J17" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K17,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L17" s="11">
         <v>100013</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O17" s="4">
         <v>0.4</v>
@@ -3735,43 +3745,43 @@
         <v>100014</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="11">
         <v>2</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="11">
         <v>1</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L18" s="11">
         <v>100014</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O18" s="4">
         <v>0.35</v>
@@ -3782,43 +3792,43 @@
         <v>100015</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" s="11">
         <v>2</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="11">
         <v>1</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L19" s="11">
         <v>100015</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O19" s="4">
         <v>0.35</v>
@@ -3829,43 +3839,43 @@
         <v>100016</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" s="11">
         <v>2</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="11">
         <v>1</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L20" s="11">
         <v>100016</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O20" s="4">
         <v>0.35</v>
@@ -3876,46 +3886,46 @@
         <v>100017</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F21" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H21" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I21,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K21,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L21" s="11">
         <v>100017</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O21" s="4">
         <v>0.35</v>
@@ -3926,46 +3936,46 @@
         <v>100018</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I22,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J22" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K22,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L22" s="11">
         <v>100018</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O22" s="4">
         <v>0.4</v>
@@ -3976,46 +3986,46 @@
         <v>100019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H23" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I23,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J23" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K23,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L23" s="11">
         <v>100019</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="4">
         <v>0.37</v>
@@ -4026,46 +4036,46 @@
         <v>100020</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="F24" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H24" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I24,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J24" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K24,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L24" s="11">
         <v>100020</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="4">
         <v>0.37</v>
@@ -4076,43 +4086,43 @@
         <v>100021</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H25" s="11">
         <v>2</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L25" s="11">
         <v>100021</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="4">
         <v>0.37</v>
@@ -4123,46 +4133,46 @@
         <v>100022</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F26" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>4</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I26,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J26" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L26" s="11">
         <v>100022</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="4">
         <v>0.37</v>
@@ -4173,46 +4183,46 @@
         <v>200001</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I27,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K27,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L27" s="11">
         <v>200001</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O27" s="4">
         <v>0.35</v>
@@ -4220,51 +4230,101 @@
     </row>
     <row r="28" spans="1:15" ht="16.5" customHeight="1">
       <c r="A28" s="9">
-        <v>900001</v>
+        <v>200002</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F28" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I28,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J28" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K28,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L28" s="11">
         <v>900001</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O28" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A29" s="9">
+        <v>900001</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G29,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I29,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K29,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="11">
+        <v>900001</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O29" s="4">
         <v>0.45</v>
       </c>
     </row>
@@ -4278,13 +4338,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G28</xm:sqref>
+          <xm:sqref>G5:G29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63AAD212-0C9E-449A-8257-F9D25B17C515}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I28</xm:sqref>
+          <xm:sqref>I5:I29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4294,13 +4354,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4310,133 +4370,137 @@
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.25" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="11" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="7" width="42.5" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>9</v>
@@ -4484,87 +4548,93 @@
         <v>9</v>
       </c>
       <c r="Y3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="F4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="I4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="V4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -4580,34 +4650,34 @@
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>333</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>8</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
       <c r="L5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>3</v>
       </c>
       <c r="N5" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -4616,34 +4686,37 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4">
         <v>1</v>
       </c>
       <c r="S5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
         <v>1</v>
       </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
       <c r="V5" s="4">
         <v>0</v>
       </c>
       <c r="W5" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X5" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -4659,35 +4732,35 @@
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>340</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>6</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
       <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>6</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>4</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
@@ -4695,11 +4768,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
         <v>1</v>
       </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
       <c r="S6" s="4">
         <v>0</v>
       </c>
@@ -4713,16 +4786,19 @@
         <v>0</v>
       </c>
       <c r="W6" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X6" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -4738,35 +4814,35 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>302</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>8</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
       <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>9</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>8</v>
       </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
@@ -4774,11 +4850,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
         <v>1</v>
       </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
       <c r="S7" s="4">
         <v>0</v>
       </c>
@@ -4792,16 +4868,19 @@
         <v>0</v>
       </c>
       <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
         <v>20</v>
       </c>
-      <c r="X7" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Y7" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -4817,34 +4896,34 @@
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>219</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>16</v>
       </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
       <c r="L8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
         <v>2</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
@@ -4874,13 +4953,16 @@
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -4896,34 +4978,34 @@
         <v>2</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>209</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>15</v>
       </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
       <c r="L9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
         <v>2</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -4953,13 +5035,16 @@
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -4975,35 +5060,35 @@
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>263</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>13</v>
       </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
       <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <v>1</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>2</v>
       </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
@@ -5011,11 +5096,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
         <v>5</v>
       </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
       <c r="S10" s="4">
         <v>0</v>
       </c>
@@ -5032,13 +5117,16 @@
         <v>0</v>
       </c>
       <c r="X10" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
@@ -5054,34 +5142,34 @@
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
+        <v>259</v>
+      </c>
+      <c r="K11" s="4">
         <v>12</v>
       </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
       <c r="L11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4">
         <v>2</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="4">
         <v>0</v>
@@ -5111,13 +5199,16 @@
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
@@ -5133,34 +5224,34 @@
         <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
       <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <v>239</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>11</v>
       </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
       <c r="L12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>2</v>
       </c>
       <c r="N12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -5190,13 +5281,16 @@
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
@@ -5212,34 +5306,34 @@
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <v>182</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>16</v>
       </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4">
         <v>1</v>
       </c>
       <c r="N13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="4">
         <v>0</v>
@@ -5269,13 +5363,16 @@
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="4">
         <v>100010</v>
       </c>
@@ -5291,35 +5388,35 @@
         <v>3</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>2</v>
       </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
       <c r="O14" s="4">
         <v>0</v>
       </c>
@@ -5348,13 +5445,16 @@
         <v>0</v>
       </c>
       <c r="X14" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="4">
         <v>100011</v>
       </c>
@@ -5370,34 +5470,34 @@
         <v>3</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="19">
-        <v>543</v>
+      <c r="I15" s="4">
+        <v>0</v>
       </c>
       <c r="J15" s="19">
-        <v>30</v>
+        <v>618</v>
       </c>
       <c r="K15" s="19">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="L15" s="19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M15" s="19">
         <v>6</v>
       </c>
       <c r="N15" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O15" s="19">
         <v>0</v>
@@ -5418,23 +5518,26 @@
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <f t="shared" ref="U15" si="0">U9*3</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" ref="V15" si="0">V9*3</f>
         <v>0</v>
       </c>
       <c r="W15" s="4">
         <v>0</v>
       </c>
       <c r="X15" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="4">
         <v>100012</v>
       </c>
@@ -5450,34 +5553,34 @@
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>765</v>
+      <c r="I16" s="4">
+        <v>0</v>
       </c>
       <c r="J16" s="19">
-        <v>16</v>
+        <v>805</v>
       </c>
       <c r="K16" s="19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L16" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M16" s="19">
         <v>9</v>
       </c>
       <c r="N16" s="19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O16" s="19">
         <v>0</v>
@@ -5486,35 +5589,38 @@
         <v>0</v>
       </c>
       <c r="Q16" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R16" s="19">
         <v>3</v>
       </c>
       <c r="S16" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" s="19">
+        <v>0</v>
+      </c>
+      <c r="U16" s="19">
         <v>3</v>
       </c>
-      <c r="U16" s="19">
-        <f t="shared" ref="U16" si="1">U5*3</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
+      <c r="V16" s="19">
+        <f t="shared" ref="V16" si="1">V5*3</f>
         <v>0</v>
       </c>
       <c r="W16" s="4">
         <v>0</v>
       </c>
       <c r="X16" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="4">
         <v>100013</v>
       </c>
@@ -5530,35 +5636,35 @@
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" s="19">
-        <v>704</v>
+      <c r="I17" s="4">
+        <v>0</v>
       </c>
       <c r="J17" s="19">
-        <v>16</v>
+        <v>744</v>
       </c>
       <c r="K17" s="19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L17" s="19">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
         <v>27</v>
       </c>
-      <c r="M17" s="19">
+      <c r="N17" s="19">
         <v>24</v>
       </c>
-      <c r="N17" s="19">
-        <v>0</v>
-      </c>
       <c r="O17" s="19">
         <v>0</v>
       </c>
@@ -5566,11 +5672,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="19">
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
         <v>3</v>
       </c>
-      <c r="R17" s="19">
-        <v>0</v>
-      </c>
       <c r="S17" s="19">
         <v>0</v>
       </c>
@@ -5578,23 +5684,26 @@
         <v>0</v>
       </c>
       <c r="U17" s="19">
-        <f t="shared" ref="U17" si="2">U7*3</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="19">
+        <f t="shared" ref="V17" si="2">V7*3</f>
         <v>0</v>
       </c>
       <c r="W17" s="4">
         <v>0</v>
       </c>
       <c r="X17" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="4">
         <v>100014</v>
       </c>
@@ -5609,35 +5718,35 @@
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
         <v>300</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>10</v>
       </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
       <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
         <v>6</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>4</v>
       </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
       <c r="O18" s="4">
         <v>0</v>
       </c>
@@ -5645,11 +5754,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
         <v>1</v>
       </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
       <c r="S18" s="4">
         <v>0</v>
       </c>
@@ -5663,16 +5772,19 @@
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X18" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="4">
         <v>100015</v>
       </c>
@@ -5687,34 +5799,34 @@
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <v>219</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>16</v>
       </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
       <c r="L19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="4">
         <v>2</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="4">
         <v>0</v>
@@ -5744,13 +5856,16 @@
         <v>0</v>
       </c>
       <c r="X19" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="4">
         <v>100016</v>
       </c>
@@ -5765,34 +5880,34 @@
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
         <v>179</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>17</v>
       </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
       <c r="L20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
         <v>2</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" s="4">
         <v>0</v>
@@ -5822,13 +5937,16 @@
         <v>0</v>
       </c>
       <c r="X20" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="4">
         <v>100017</v>
       </c>
@@ -5844,34 +5962,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
+        <v>283</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
         <v>2</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
@@ -5883,17 +6001,17 @@
         <v>0</v>
       </c>
       <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
         <v>5</v>
       </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
       <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
         <v>5</v>
       </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
       <c r="V21" s="4">
         <v>0</v>
       </c>
@@ -5901,13 +6019,16 @@
         <v>0</v>
       </c>
       <c r="X21" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="4">
         <v>100018</v>
       </c>
@@ -5923,71 +6044,74 @@
         <v>1</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" s="19">
-        <v>705</v>
+      <c r="I22" s="4">
+        <v>0</v>
       </c>
       <c r="J22" s="19">
+        <v>753</v>
+      </c>
+      <c r="K22" s="19">
+        <v>15</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
+        <v>18</v>
+      </c>
+      <c r="N22" s="19">
+        <v>12</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0</v>
+      </c>
+      <c r="R22" s="19">
+        <v>3</v>
+      </c>
+      <c r="S22" s="19">
+        <v>0</v>
+      </c>
+      <c r="T22" s="19">
+        <v>0</v>
+      </c>
+      <c r="U22" s="19">
+        <v>0</v>
+      </c>
+      <c r="V22" s="19">
+        <f t="shared" ref="V22" si="3">V18*3</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
         <v>20</v>
       </c>
-      <c r="K22" s="19">
-        <v>0</v>
-      </c>
-      <c r="L22" s="19">
-        <v>18</v>
-      </c>
-      <c r="M22" s="19">
-        <v>12</v>
-      </c>
-      <c r="N22" s="19">
-        <v>0</v>
-      </c>
-      <c r="O22" s="19">
-        <v>0</v>
-      </c>
-      <c r="P22" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="19">
-        <v>3</v>
-      </c>
-      <c r="R22" s="19">
-        <v>0</v>
-      </c>
-      <c r="S22" s="19">
-        <v>0</v>
-      </c>
-      <c r="T22" s="19">
-        <v>0</v>
-      </c>
-      <c r="U22" s="19">
-        <f t="shared" ref="U22" si="3">U18*3</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>15</v>
-      </c>
-      <c r="X22" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Y22" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="4">
         <v>100019</v>
       </c>
@@ -6002,34 +6126,34 @@
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" s="19">
-        <v>533</v>
+      <c r="I23" s="4">
+        <v>0</v>
       </c>
       <c r="J23" s="19">
-        <v>34</v>
+        <v>618</v>
       </c>
       <c r="K23" s="19">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="L23" s="19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M23" s="19">
         <v>6</v>
       </c>
       <c r="N23" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O23" s="19">
         <v>0</v>
@@ -6050,23 +6174,26 @@
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <f t="shared" ref="U23" si="4">U20*3</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="19">
+        <f t="shared" ref="V23" si="4">V20*3</f>
         <v>0</v>
       </c>
       <c r="W23" s="4">
         <v>0</v>
       </c>
       <c r="X23" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="4">
         <v>100020</v>
       </c>
@@ -6082,34 +6209,34 @@
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" s="19">
-        <v>602</v>
+      <c r="I24" s="4">
+        <v>0</v>
       </c>
       <c r="J24" s="19">
-        <v>26</v>
+        <v>667</v>
       </c>
       <c r="K24" s="19">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="L24" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24" s="19">
         <v>3</v>
       </c>
       <c r="N24" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24" s="19">
         <v>0</v>
@@ -6130,23 +6257,26 @@
         <v>0</v>
       </c>
       <c r="U24" s="19">
-        <f t="shared" ref="U24" si="5">U13*3</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="19">
+        <f t="shared" ref="V24" si="5">V13*3</f>
         <v>0</v>
       </c>
       <c r="W24" s="4">
         <v>0</v>
       </c>
       <c r="X24" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="4">
         <v>100021</v>
       </c>
@@ -6162,34 +6292,34 @@
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="I25" s="19">
-        <v>573</v>
+      <c r="I25" s="4">
+        <v>0</v>
       </c>
       <c r="J25" s="19">
-        <v>32</v>
+        <v>653</v>
       </c>
       <c r="K25" s="19">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L25" s="19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M25" s="19">
         <v>6</v>
       </c>
       <c r="N25" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O25" s="19">
         <v>0</v>
@@ -6210,23 +6340,26 @@
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <f t="shared" ref="U25" si="6">U19*3</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="19">
+        <f t="shared" ref="V25" si="6">V19*3</f>
         <v>0</v>
       </c>
       <c r="W25" s="4">
         <v>0</v>
       </c>
       <c r="X25" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="4">
         <v>100022</v>
       </c>
@@ -6242,34 +6375,34 @@
         <v>2</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="H26" s="4">
         <v>0</v>
       </c>
-      <c r="I26" s="19">
-        <v>537</v>
+      <c r="I26" s="4">
+        <v>0</v>
       </c>
       <c r="J26" s="19">
-        <v>34</v>
+        <v>622</v>
       </c>
       <c r="K26" s="19">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="L26" s="19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M26" s="19">
         <v>18</v>
       </c>
       <c r="N26" s="19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O26" s="19">
         <v>0</v>
@@ -6290,23 +6423,26 @@
         <v>0</v>
       </c>
       <c r="U26" s="19">
-        <f t="shared" ref="U26" si="7">U15*3</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="19">
+        <f t="shared" ref="V26" si="7">V15*3</f>
         <v>0</v>
       </c>
       <c r="W26" s="4">
         <v>0</v>
       </c>
       <c r="X26" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="4">
         <v>200001</v>
       </c>
@@ -6315,41 +6451,41 @@
         <v>보스_마네</v>
       </c>
       <c r="C27" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D27" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E27,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="J27" s="4">
+        <v>1295</v>
+      </c>
+      <c r="K27" s="4">
         <v>51</v>
       </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
       <c r="L27" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M27" s="4">
         <v>12</v>
       </c>
       <c r="N27" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
@@ -6370,99 +6506,187 @@
         <v>0</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" ref="U27" si="8">U23*2</f>
         <v>0</v>
       </c>
       <c r="V27" s="4">
+        <f t="shared" ref="V27" si="8">V23*2</f>
         <v>0</v>
       </c>
       <c r="W27" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X27" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="4">
-        <v>900001</v>
+        <v>200002</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>VLOOKUP(A28,npc_data!A:F,5,0)</f>
         <v>보스_엘리자베스</v>
       </c>
       <c r="C28" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E28,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>210004</v>
       </c>
-      <c r="I28" s="4">
-        <v>3774</v>
-      </c>
       <c r="J28" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K28" s="4">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L28" s="4">
+        <v>32</v>
+      </c>
+      <c r="M28" s="4">
         <v>6</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
+        <v>6</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>10</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>20</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="4">
+        <v>900001</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>VLOOKUP(A29,npc_data!A:F,5,0)</f>
+        <v>보스_엘리자베스</v>
+      </c>
+      <c r="C29" s="4">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E29,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>210004</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4252</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>56</v>
+      </c>
+      <c r="M29" s="4">
         <v>7.5</v>
       </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
+      <c r="N29" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
         <v>20</v>
       </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <v>0</v>
-      </c>
-      <c r="T28" s="4">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4">
-        <v>0</v>
-      </c>
-      <c r="V28" s="4">
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
         <v>999</v>
       </c>
-      <c r="W28" s="4">
-        <v>0</v>
-      </c>
-      <c r="X28" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>34</v>
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6476,8 +6700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6499,83 +6723,83 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -6634,67 +6858,67 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="O4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="Q4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="U4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -6702,20 +6926,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -6768,20 +6992,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4">
-        <v>1.05</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -6834,20 +7058,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4">
-        <v>1.3</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -6900,20 +7124,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C8" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="13">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="F8" s="4">
-        <v>1.224</v>
+        <v>1.0792000000000002</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -6966,20 +7190,20 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4">
-        <v>1.2450000000000001</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -7032,20 +7256,20 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="13">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4">
-        <v>1.24</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -7098,20 +7322,20 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4">
-        <v>1.28</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -7164,20 +7388,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="13">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="F12" s="4">
-        <v>1.1919999999999999</v>
+        <v>1.0536000000000001</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -7230,20 +7454,20 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C13" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="13">
-        <v>13.5</v>
+        <v>10.8</v>
       </c>
       <c r="F13" s="4">
-        <v>1.2190000000000001</v>
+        <v>1.0751999999999999</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -7296,20 +7520,20 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E14" s="13">
-        <v>16.5</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="F14" s="4">
-        <v>1.1675</v>
+        <v>1.034</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -7362,20 +7586,20 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F15" s="4">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -7428,20 +7652,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4">
-        <v>1.9500000000000002</v>
+        <v>1.7100000000000002</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -7494,20 +7718,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C17" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D17,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="4">
-        <v>40.5</v>
+        <v>27</v>
       </c>
       <c r="F17" s="4">
-        <v>1.8285</v>
+        <v>1.6128</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -7560,20 +7784,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C18" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D18,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F18" s="4">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -7626,20 +7850,20 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D19,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="4">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4">
-        <v>5.2</v>
+        <v>4.5600000000000005</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -7692,20 +7916,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D20,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="4">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="F20" s="4">
-        <v>2.4380000000000002</v>
+        <v>2.1503999999999999</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -7758,23 +7982,23 @@
         <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D21,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H21" s="4">
         <v>0.18</v>
@@ -7824,23 +8048,23 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C22" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D22,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="4">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>1.05</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="H22" s="4">
         <v>0.15000000000000002</v>
@@ -7890,23 +8114,23 @@
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D23,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>1.3</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="H23" s="4">
         <v>0.03</v>
@@ -7956,23 +8180,23 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D24,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="4">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <v>1.224</v>
+        <v>1.0792000000000002</v>
       </c>
       <c r="H24" s="4">
         <v>0.03</v>
@@ -8022,23 +8246,23 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D25,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <v>1.2450000000000001</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="H25" s="4">
         <v>0.03</v>
@@ -8088,23 +8312,23 @@
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C26" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D26,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <v>1.24</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="H26" s="4">
         <v>0.03</v>
@@ -8154,23 +8378,23 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C27" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D27,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <v>1.28</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="H27" s="4">
         <v>0.03</v>
@@ -8220,23 +8444,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C28" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D28,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <v>1.1919999999999999</v>
+        <v>1.0536000000000001</v>
       </c>
       <c r="H28" s="4">
         <v>0.03</v>
@@ -8286,23 +8510,23 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C29" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D29,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="4">
-        <v>13.5</v>
+        <v>10.8</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <v>1.2190000000000001</v>
+        <v>1.0751999999999999</v>
       </c>
       <c r="H29" s="4">
         <v>0.03</v>
@@ -8352,23 +8576,23 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C30" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D30,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E30" s="4">
-        <v>16.5</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>1.75125</v>
+        <v>1.5510000000000002</v>
       </c>
       <c r="H30" s="4">
         <v>0.03</v>
@@ -8418,23 +8642,23 @@
         <v>27</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C31" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D31,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="H31" s="4">
         <v>0.36</v>
@@ -8484,23 +8708,23 @@
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C32" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D32,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <v>1.9500000000000002</v>
+        <v>1.7100000000000002</v>
       </c>
       <c r="H32" s="4">
         <v>0.30000000000000004</v>
@@ -8550,23 +8774,23 @@
         <v>29</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D33,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="4">
-        <v>40.5</v>
+        <v>27</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>1.8285</v>
+        <v>1.6128</v>
       </c>
       <c r="H33" s="4">
         <v>0.06</v>
@@ -8616,23 +8840,23 @@
         <v>30</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C34" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D34,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H34" s="4">
         <v>0.06</v>
@@ -8682,23 +8906,23 @@
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C35" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D35,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="4">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>5.2</v>
+        <v>4.5600000000000005</v>
       </c>
       <c r="H35" s="4">
         <v>0.06</v>
@@ -8748,23 +8972,23 @@
         <v>32</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C36" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D36,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="4">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <v>2.4380000000000002</v>
+        <v>2.1503999999999999</v>
       </c>
       <c r="H36" s="4">
         <v>0.06</v>
@@ -8814,23 +9038,23 @@
         <v>33</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C37" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D37,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E37" s="4">
-        <v>49.5</v>
+        <v>33</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>2.6268750000000001</v>
+        <v>2.3265000000000002</v>
       </c>
       <c r="H37" s="4">
         <v>0.15</v>
@@ -8880,23 +9104,23 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C38" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D38,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E38" s="4">
-        <v>66</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <v>7.0049999999999999</v>
+        <v>6.2040000000000006</v>
       </c>
       <c r="H38" s="4">
         <v>0.15</v>
@@ -8946,14 +9170,14 @@
         <v>35</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C39" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D39,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="4">
         <v>120</v>
@@ -8962,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>2.98</v>
+        <v>2.6340000000000003</v>
       </c>
       <c r="H39" s="4">
         <v>0.03</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A48A34-AA6C-4607-AF72-F0BA7A34F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69B3D0F-9F03-4955-8AB1-804813727DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40830" yWindow="2385" windowWidth="31875" windowHeight="16500" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40950" yWindow="1740" windowWidth="25230" windowHeight="18780" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="337">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,12 +593,6 @@
     <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100004</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100005</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100006</t>
-  </si>
-  <si>
     <t>2 일반 몬스터</t>
   </si>
   <si>
@@ -618,22 +612,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200001, 200001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200002, 200002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[200003, 200003]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200004, 200004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>궁극기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,10 +799,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엘리자베스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5 악마</t>
   </si>
   <si>
@@ -893,127 +871,21 @@
     <t>monster_name_0020</t>
   </si>
   <si>
-    <t>마네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 인간종족</t>
   </si>
   <si>
-    <t>4 안드로이드</t>
-  </si>
-  <si>
     <t>2 엘프족</t>
   </si>
   <si>
-    <t>마력] 원딜 - 엘프 연금술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리] 근딜 - 하급 안드로이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 탱커(HP:중, 방어:소,공:↓) - 거한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 근딜(공:↓)- 소속대 소총병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 원딜(공:↓) - 소속대 척탄병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 천사</t>
-  </si>
-  <si>
-    <t>베리] 원딜 - 고위 천사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요력] 원딜 - 꼭두각시 인형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼭두각시 인형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 연금술사(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력] 원딜 - 엘프 연금술사(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>monster_name_0021</t>
   </si>
   <si>
     <t>monster_name_0022</t>
   </si>
   <si>
-    <t>전기] 근딜- 소속대 소총병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 원딜 - 소속대 척탄병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 탱커(HP:중, 방어:소) - 거한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리] 탱커(정예) - 거대 안드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요력] 서포터 - 꼭두각시 인형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력] 근딜 - 엘프 레인저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 탱커(정예) - 거한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 원딜(정예: 방감) - 척탄병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3 엘리트 몬스터</t>
   </si>
   <si>
-    <t>거한(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급 안드로이드(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리] 원딜(정예) - 고위 천사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기] 근딜(정예)- 소속대 소총병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리] 근딜(정예) - 하급 안드로이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4 힐러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1137,188 +1009,440 @@
     <t>서포터형 보스(마법)</t>
   </si>
   <si>
-    <t>2 중열 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_900001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_0001</t>
+  </si>
+  <si>
+    <t>monster_desc_0002</t>
+  </si>
+  <si>
+    <t>monster_desc_0003</t>
+  </si>
+  <si>
+    <t>monster_desc_0017</t>
+  </si>
+  <si>
+    <t>monster_desc_0004</t>
+  </si>
+  <si>
+    <t>monster_desc_0005</t>
+  </si>
+  <si>
+    <t>monster_desc_0006</t>
+  </si>
+  <si>
+    <t>monster_desc_0007</t>
+  </si>
+  <si>
+    <t>monster_desc_0008</t>
+  </si>
+  <si>
+    <t>monster_desc_0009</t>
+  </si>
+  <si>
+    <t>monster_desc_0010</t>
+  </si>
+  <si>
+    <t>monster_desc_0011</t>
+  </si>
+  <si>
+    <t>monster_desc_0012</t>
+  </si>
+  <si>
+    <t>monster_desc_0013</t>
+  </si>
+  <si>
+    <t>monster_desc_0014</t>
+  </si>
+  <si>
+    <t>monster_desc_0015</t>
+  </si>
+  <si>
+    <t>monster_desc_0018</t>
+  </si>
+  <si>
+    <t>monster_desc_0019</t>
+  </si>
+  <si>
+    <t>monster_desc_0020</t>
+  </si>
+  <si>
+    <t>monster_desc_0021</t>
+  </si>
+  <si>
+    <t>monster_desc_0022</t>
+  </si>
+  <si>
+    <t>보스전(마법딜러형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210003, 210002, 210001, 210001, 210002, 210001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 패턴(반복)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 패턴(시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_pattern_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거한_베리타리움</t>
+  </si>
+  <si>
+    <t>거한_전기</t>
+  </si>
+  <si>
+    <t>거한_마력</t>
+  </si>
+  <si>
+    <t>엘프 레인저_베리타리움</t>
+  </si>
+  <si>
+    <t>엘프 레인저_전기</t>
+  </si>
+  <si>
+    <t>엘프 레인저_마력</t>
+  </si>
+  <si>
+    <t>정예 연금술사_요력</t>
+  </si>
+  <si>
+    <t>거한_요력</t>
+  </si>
+  <si>
+    <t>엘프 레인저_요력</t>
+  </si>
+  <si>
+    <t>소속대 소총병_전기</t>
+  </si>
+  <si>
+    <t>소속대 소총병_마력</t>
+  </si>
+  <si>
+    <t>소속대 소총병_요력</t>
+  </si>
+  <si>
+    <t>소속대 소총병_베리타리움</t>
+  </si>
+  <si>
+    <t>엘프 연금술사_전기</t>
+  </si>
+  <si>
+    <t>엘프 연금술사_마력</t>
+  </si>
+  <si>
+    <t>엘프 연금술사_요력</t>
+  </si>
+  <si>
+    <t>엘프 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>정예 연금술사_전기</t>
+  </si>
+  <si>
+    <t>정예 연금술사_마력</t>
+  </si>
+  <si>
+    <t>정예 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)거한_전기</t>
+  </si>
+  <si>
+    <t>(정예)거한_마력</t>
+  </si>
+  <si>
+    <t>(정예)거한_요력</t>
+  </si>
+  <si>
+    <t>(정예)거한_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)엘프 레인저_전기</t>
+  </si>
+  <si>
+    <t>(정예)엘프 레인저_마력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 레인저_요력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 레인저_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)소속대 소총병_전기</t>
+  </si>
+  <si>
+    <t>(정예)소속대 소총병_마력</t>
+  </si>
+  <si>
+    <t>(정예)소속대 소총병_요력</t>
+  </si>
+  <si>
+    <t>(정예)소속대 소총병_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금술사_전기</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금술사_마력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금술사_요력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)정예 연금술사_전기</t>
+  </si>
+  <si>
+    <t>(정예)정예 연금술사_마력</t>
+  </si>
+  <si>
+    <t>(정예)정예 연금술사_요력</t>
+  </si>
+  <si>
+    <t>(정예)정예 연금술사_베리타리움</t>
   </si>
   <si>
     <t>보스_마네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보스_엘리자베스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_900001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_0001</t>
-  </si>
-  <si>
-    <t>monster_desc_0002</t>
-  </si>
-  <si>
-    <t>monster_desc_0003</t>
-  </si>
-  <si>
-    <t>monster_desc_0017</t>
-  </si>
-  <si>
-    <t>monster_desc_0004</t>
-  </si>
-  <si>
-    <t>monster_desc_0005</t>
-  </si>
-  <si>
-    <t>monster_desc_0006</t>
-  </si>
-  <si>
-    <t>monster_desc_0007</t>
-  </si>
-  <si>
-    <t>monster_desc_0008</t>
-  </si>
-  <si>
-    <t>monster_desc_0009</t>
-  </si>
-  <si>
-    <t>monster_desc_0010</t>
-  </si>
-  <si>
-    <t>monster_desc_0011</t>
-  </si>
-  <si>
-    <t>monster_desc_0012</t>
-  </si>
-  <si>
-    <t>monster_desc_0013</t>
-  </si>
-  <si>
-    <t>monster_desc_0014</t>
-  </si>
-  <si>
-    <t>monster_desc_0015</t>
-  </si>
-  <si>
-    <t>monster_desc_0018</t>
-  </si>
-  <si>
-    <t>monster_desc_0019</t>
-  </si>
-  <si>
-    <t>monster_desc_0020</t>
-  </si>
-  <si>
-    <t>monster_desc_0021</t>
-  </si>
-  <si>
-    <t>monster_desc_0022</t>
-  </si>
-  <si>
-    <t>수색대 소총병</t>
-  </si>
-  <si>
-    <t>수색대 척탄병</t>
-  </si>
-  <si>
-    <t>수색대 척탄병(정예)</t>
-  </si>
-  <si>
-    <t>수색대 소총병(정예)</t>
-  </si>
-  <si>
-    <t>마족투사(정예)</t>
-  </si>
-  <si>
-    <t>거대 안드로이드(정예)</t>
-  </si>
-  <si>
-    <t>마력] 탱커(방어:대) - 마족투사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리] 탱커(HP:대) - 거대 안드로이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력] 탱커 - 마족투사(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전(마법딜러형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[210003, 210002, 210001, 210001, 210002, 210001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거한-베리타리움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거한-전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거한-마력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 레인저-베리타리움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수색대 소총병-베리타리움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수속대 소총병-마력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수속대 소총병-전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 레인저-전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 레인저-마력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정예 연금술사-베리타리움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수색대 소총병-베리(정예)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200004, 200013, 200004, 200004, 200004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 패턴(반복)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 패턴(시작)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_pattern_start</t>
+  </si>
+  <si>
+    <t>monster_desc_0023</t>
+  </si>
+  <si>
+    <t>monster_desc_0024</t>
+  </si>
+  <si>
+    <t>monster_desc_0025</t>
+  </si>
+  <si>
+    <t>monster_desc_0026</t>
+  </si>
+  <si>
+    <t>monster_desc_0027</t>
+  </si>
+  <si>
+    <t>monster_desc_0028</t>
+  </si>
+  <si>
+    <t>monster_desc_0029</t>
+  </si>
+  <si>
+    <t>monster_desc_0030</t>
+  </si>
+  <si>
+    <t>monster_desc_0031</t>
+  </si>
+  <si>
+    <t>monster_desc_0032</t>
+  </si>
+  <si>
+    <t>monster_desc_0033</t>
+  </si>
+  <si>
+    <t>monster_desc_0034</t>
+  </si>
+  <si>
+    <t>monster_desc_0035</t>
+  </si>
+  <si>
+    <t>monster_desc_0036</t>
+  </si>
+  <si>
+    <t>monster_desc_0037</t>
+  </si>
+  <si>
+    <t>monster_desc_0038</t>
+  </si>
+  <si>
+    <t>monster_desc_0039</t>
+  </si>
+  <si>
+    <t>monster_desc_0040</t>
+  </si>
+  <si>
+    <t>monster_desc_0041</t>
+  </si>
+  <si>
+    <t>monster_name_0016</t>
+  </si>
+  <si>
+    <t>monster_name_0023</t>
+  </si>
+  <si>
+    <t>monster_name_0024</t>
+  </si>
+  <si>
+    <t>monster_name_0025</t>
+  </si>
+  <si>
+    <t>monster_name_0026</t>
+  </si>
+  <si>
+    <t>monster_name_0027</t>
+  </si>
+  <si>
+    <t>monster_name_0028</t>
+  </si>
+  <si>
+    <t>monster_name_0029</t>
+  </si>
+  <si>
+    <t>monster_name_0030</t>
+  </si>
+  <si>
+    <t>monster_name_0031</t>
+  </si>
+  <si>
+    <t>monster_name_0032</t>
+  </si>
+  <si>
+    <t>monster_name_0033</t>
+  </si>
+  <si>
+    <t>monster_name_0034</t>
+  </si>
+  <si>
+    <t>monster_name_0035</t>
+  </si>
+  <si>
+    <t>monster_name_0036</t>
+  </si>
+  <si>
+    <t>monster_name_0037</t>
+  </si>
+  <si>
+    <t>monster_name_0038</t>
+  </si>
+  <si>
+    <t>monster_name_0039</t>
+  </si>
+  <si>
+    <t>monster_name_0040</t>
+  </si>
+  <si>
+    <t>monster_name_0041</t>
+  </si>
+  <si>
+    <t>monster_name_0042</t>
+  </si>
+  <si>
+    <t>monster_name_0043</t>
+  </si>
+  <si>
+    <t>monster_desc_0016</t>
+  </si>
+  <si>
+    <t>monster_desc_0042</t>
+  </si>
+  <si>
+    <t>monster_desc_0043</t>
+  </si>
+  <si>
+    <t>[200101, 200101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200102, 200102]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200103, 200103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200104, 200104]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200105, 200105]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200106, 200106]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200107, 200107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200108, 200108]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200109, 200109]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200110, 200110]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200111, 200111]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200112, 200112]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200113, 200113]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200114, 200114]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200115, 200115]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200116, 200116]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200117, 200117]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200118, 200118]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200119, 200119]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200120, 200120]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1394,7 +1518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1449,6 +1573,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1492,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1556,6 +1692,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1615,10 +1772,10 @@
       <sheetName val="@attribute_type"/>
       <sheetName val="@res_type"/>
       <sheetName val="!@story_type"/>
+      <sheetName val="@story_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
-      <sheetName val="@story_type"/>
       <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
@@ -1947,22 +2104,10 @@
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DROP_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
@@ -2920,24 +3065,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="10" customWidth="1"/>
     <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="10" customWidth="1"/>
     <col min="9" max="9" width="25.125" customWidth="1"/>
-    <col min="10" max="10" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
     <col min="11" max="11" width="25.125" customWidth="1"/>
     <col min="12" max="12" width="16.75" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="59.375" bestFit="1" customWidth="1"/>
@@ -2960,7 +3108,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>37</v>
@@ -2978,10 +3126,10 @@
         <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
@@ -2993,12 +3141,12 @@
         <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>55</v>
@@ -3025,7 +3173,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>55</v>
@@ -3048,13 +3196,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -3072,10 +3220,10 @@
         <v>45</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>46</v>
@@ -3087,7 +3235,7 @@
         <v>67</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
@@ -3095,37 +3243,37 @@
         <v>100001</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K5,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L5" s="11">
         <v>100001</v>
@@ -3140,53 +3288,53 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="21">
         <v>100002</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>149</v>
+      <c r="B6" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="11">
+        <v>232</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="24">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="24">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="11">
+        <v>81</v>
+      </c>
+      <c r="J6" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K6,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L6" s="11">
+        <v>132</v>
+      </c>
+      <c r="L6" s="24">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="4">
+        <v>77</v>
+      </c>
+      <c r="O6" s="25">
         <v>0.35</v>
       </c>
     </row>
@@ -3195,37 +3343,37 @@
         <v>100003</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K7,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L7" s="11">
         <v>100003</v>
@@ -3234,54 +3382,54 @@
         <v>51</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O7" s="4">
         <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="21">
         <v>100004</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>163</v>
+      <c r="B8" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>243</v>
+        <v>230</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J8" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="11">
+        <v>134</v>
+      </c>
+      <c r="L8" s="24">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>77</v>
@@ -3295,198 +3443,198 @@
         <v>100005</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>176</v>
+        <v>2</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J9" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K9,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L9" s="11">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="O9" s="4">
         <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="21">
         <v>100006</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>152</v>
+      <c r="B10" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>245</v>
+        <v>235</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>170</v>
+      <c r="G10" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L10" s="11">
+        <v>132</v>
+      </c>
+      <c r="L10" s="24">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>81</v>
+      <c r="N10" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="O10" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1">
+    <row r="11" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="9">
         <v>100007</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="11">
+        <v>211</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="24">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="24">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I11,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="11">
+        <v>81</v>
+      </c>
+      <c r="J11" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K11,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L11" s="11">
         <v>100007</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="4">
+        <v>58</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="25">
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A12" s="9">
+    <row r="12" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="21">
         <v>100008</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>154</v>
+      <c r="B12" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="11">
+        <v>233</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="24">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="24">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I12,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="11">
+        <v>81</v>
+      </c>
+      <c r="J12" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K12,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="11">
+        <v>134</v>
+      </c>
+      <c r="L12" s="24">
         <v>100008</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="4">
+        <v>58</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="25">
         <v>0.35</v>
       </c>
     </row>
@@ -3495,96 +3643,96 @@
         <v>100009</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="F13" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H13" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I13,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J13" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K13,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L13" s="11">
         <v>100009</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="25" t="s">
         <v>59</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O13" s="4">
         <v>0.35</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="21">
         <v>100010</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>156</v>
+      <c r="B14" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>249</v>
+        <v>240</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="F14" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>176</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H14" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I14,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J14" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K14,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="11">
+        <v>132</v>
+      </c>
+      <c r="L14" s="24">
         <v>100010</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="25" t="s">
         <v>59</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O14" s="4">
         <v>0.35</v>
@@ -3595,99 +3743,99 @@
         <v>100011</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="F15" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>6</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>176</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H15" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I15,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="J15" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K15,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="L15" s="11">
         <v>100011</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>60</v>
+      <c r="M15" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O15" s="4">
         <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="21">
         <v>100012</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>158</v>
+      <c r="B16" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>251</v>
+        <v>242</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="F16" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H16" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I16,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="J16" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K16,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L16" s="11">
+        <v>134</v>
+      </c>
+      <c r="L16" s="24">
         <v>100012</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>51</v>
+      <c r="M16" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O16" s="4">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" customHeight="1">
@@ -3695,93 +3843,93 @@
         <v>100013</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="F17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H17" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I17,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="J17" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K17,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L17" s="11">
         <v>100013</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>51</v>
+      <c r="M17" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>79</v>
       </c>
       <c r="O17" s="4">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="21">
         <v>100014</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>160</v>
+      <c r="B18" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>253</v>
+        <v>244</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>168</v>
+      <c r="G18" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H18" s="11">
         <v>2</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J18" s="11">
         <v>1</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L18" s="11">
+        <v>132</v>
+      </c>
+      <c r="L18" s="24">
         <v>100014</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>51</v>
+      <c r="M18" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O18" s="4">
         <v>0.35</v>
@@ -3792,90 +3940,90 @@
         <v>100015</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>168</v>
+      <c r="G19" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H19" s="11">
         <v>2</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19" s="11">
         <v>1</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L19" s="11">
         <v>100015</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>58</v>
+      <c r="M19" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O19" s="4">
         <v>0.35</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="21">
         <v>100016</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>162</v>
+      <c r="B20" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>255</v>
+        <v>246</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>313</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>168</v>
+      <c r="G20" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H20" s="11">
         <v>2</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20" s="11">
         <v>1</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="11">
+        <v>134</v>
+      </c>
+      <c r="L20" s="24">
         <v>100016</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>59</v>
+      <c r="M20" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O20" s="4">
         <v>0.35</v>
@@ -3886,99 +4034,99 @@
         <v>100017</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="F21" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H21" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I21,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J21" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K21,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="L21" s="11">
         <v>100017</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>59</v>
+      <c r="M21" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O21" s="4">
         <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="21">
         <v>100018</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>164</v>
+      <c r="B22" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>256</v>
+        <v>248</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="F22" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>168</v>
+        <v>2</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H22" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I22,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="J22" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K22,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" s="11">
+        <v>132</v>
+      </c>
+      <c r="L22" s="24">
         <v>100018</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>51</v>
+      <c r="M22" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>79</v>
       </c>
       <c r="O22" s="4">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" customHeight="1">
@@ -3986,99 +4134,99 @@
         <v>100019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="F23" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>168</v>
+        <v>2</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H23" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I23,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="J23" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K23,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L23" s="11">
         <v>100019</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="25" t="s">
         <v>60</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O23" s="4">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="21">
         <v>100020</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>166</v>
+      <c r="B24" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="F24" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>170</v>
+      <c r="G24" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H24" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I24,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="J24" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K24,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L24" s="11">
+        <v>134</v>
+      </c>
+      <c r="L24" s="24">
         <v>100020</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>59</v>
+      <c r="M24" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>79</v>
       </c>
       <c r="O24" s="4">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" customHeight="1">
@@ -4086,245 +4234,1143 @@
         <v>100021</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>168</v>
+      <c r="G25" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H25" s="11">
         <v>2</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="J25" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K25,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L25" s="11">
         <v>100021</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O25" s="4">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="21">
         <v>100022</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>184</v>
+      <c r="B26" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>260</v>
+        <v>251</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="F26" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H26" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I26,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="J26" s="11">
+        <v>165</v>
+      </c>
+      <c r="J26" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L26" s="11">
+        <v>132</v>
+      </c>
+      <c r="L26" s="24">
         <v>100022</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O26" s="4">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A27" s="11">
-        <v>200001</v>
+      <c r="A27" s="9">
+        <v>100023</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>168</v>
+      <c r="G27" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H27" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I27,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J27" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K27,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L27" s="11">
-        <v>200001</v>
+        <v>100023</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>77</v>
       </c>
       <c r="O27" s="4">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A28" s="9">
-        <v>200002</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>184</v>
+      <c r="A28" s="21">
+        <v>100024</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>293</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F28" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H28" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I28,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J28" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K28,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L28" s="11">
-        <v>900001</v>
+        <v>134</v>
+      </c>
+      <c r="L28" s="24">
+        <v>100024</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="O28" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.5" customHeight="1">
       <c r="A29" s="9">
-        <v>900001</v>
+        <v>100025</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F29" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G29,'!참조_ENUM'!$C$3:$C$9,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H29" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I29,'!참조_ENUM'!$K$3:$K$7,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J29" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K29,'!참조_ENUM'!$S$3:$S$7,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" s="11">
+        <v>100025</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="21">
+        <v>100026</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G30,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I30,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K30,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="24">
+        <v>100026</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="9">
+        <v>100027</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G31,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I31,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" s="24">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K31,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" s="11">
+        <v>100027</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="21">
+        <v>100028</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G32,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I32,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J32" s="24">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K32,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32" s="24">
+        <v>100028</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="9">
+        <v>100029</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G33,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I33,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J33" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K33,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L33" s="11">
+        <v>100029</v>
+      </c>
+      <c r="M33" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="21">
+        <v>100030</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G34,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I34,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K34,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" s="24">
+        <v>100030</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="9">
+        <v>100031</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G35,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I35,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K35,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L35" s="11">
+        <v>100031</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="21">
+        <v>100032</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G36,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I36,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J36" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K36,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L36" s="24">
+        <v>100032</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="9">
+        <v>100033</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G37,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I37,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K37,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="11">
+        <v>100033</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="21">
+        <v>100034</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G38,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I38,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="11">
+        <v>1</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38" s="24">
+        <v>100034</v>
+      </c>
+      <c r="M38" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="9">
+        <v>100035</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G39,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I39,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J39" s="11">
+        <v>1</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" s="11">
+        <v>100035</v>
+      </c>
+      <c r="M39" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="21">
+        <v>100036</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G40,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I40,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="11">
+        <v>1</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L40" s="24">
+        <v>100036</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="9">
+        <v>100037</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G41,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I41,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J41" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K41,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" s="11">
+        <v>100037</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="21">
+        <v>100038</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G42,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I42,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J42" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K42,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42" s="24">
+        <v>100038</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="9">
+        <v>100039</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G43,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I43,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J43" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K43,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L43" s="11">
+        <v>100039</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="21">
+        <v>100040</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G44,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I44,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J44" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K44,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L44" s="24">
+        <v>100040</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="11">
+        <v>200001</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G45,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I45,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L29" s="11">
+      <c r="J45" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K45,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45" s="11">
+        <v>200001</v>
+      </c>
+      <c r="M45" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="9">
+        <v>200002</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G46,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I46,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J46" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K46,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46" s="11">
+        <v>200002</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="9">
         <v>900001</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O29" s="4">
+      <c r="B47" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F47" s="11">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G47,'!참조_ENUM'!$C$3:$C$9,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="11">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I47,'!참조_ENUM'!$K$3:$K$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K47,'!참조_ENUM'!$S$3:$S$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47" s="11">
+        <v>900001</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O47" s="4">
         <v>0.45</v>
       </c>
     </row>
@@ -4338,13 +5384,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G29</xm:sqref>
+          <xm:sqref>G5:G47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63AAD212-0C9E-449A-8257-F9D25B17C515}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$K$3:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I29</xm:sqref>
+          <xm:sqref>I5:I47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4354,13 +5400,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4411,46 +5457,46 @@
         <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>63</v>
@@ -4459,13 +5505,13 @@
         <v>64</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>26</v>
@@ -4476,7 +5522,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>55</v>
@@ -4559,7 +5605,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>62</v>
@@ -4571,7 +5617,7 @@
         <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -4580,37 +5626,37 @@
         <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>65</v>
@@ -4619,13 +5665,13 @@
         <v>66</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>31</v>
@@ -4640,7 +5686,7 @@
       </c>
       <c r="B5" s="4" t="str">
         <f>VLOOKUP(A5,npc_data!A:F,5,0)</f>
-        <v>베리] 탱커(HP:대) - 거대 안드로이드</v>
+        <v>거한_전기</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -4650,13 +5696,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -4665,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K5" s="4">
         <v>8</v>
@@ -4689,16 +5735,16 @@
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5" s="4">
         <v>0</v>
@@ -4722,7 +5768,7 @@
       </c>
       <c r="B6" s="4" t="str">
         <f>VLOOKUP(A6,npc_data!A:F,5,0)</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한</v>
+        <v>거한_마력</v>
       </c>
       <c r="C6" s="4">
         <v>2.4</v>
@@ -4732,13 +5778,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -4747,19 +5793,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="K6" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -4771,16 +5817,16 @@
         <v>0</v>
       </c>
       <c r="R6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4">
         <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="4">
         <v>0</v>
@@ -4804,23 +5850,23 @@
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(A7,npc_data!A:F,5,0)</f>
-        <v>마력] 탱커(방어:대) - 마족투사</v>
+        <v>거한_요력</v>
       </c>
       <c r="C7" s="4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E7,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -4829,19 +5875,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="K7" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N7" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
@@ -4853,16 +5899,16 @@
         <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4">
         <v>0</v>
       </c>
       <c r="T7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" s="4">
         <v>0</v>
@@ -4886,23 +5932,23 @@
       </c>
       <c r="B8" s="4" t="str">
         <f>VLOOKUP(A8,npc_data!A:F,5,0)</f>
-        <v>베리] 근딜 - 하급 안드로이드</v>
+        <v>거한_베리타리움</v>
       </c>
       <c r="C8" s="4">
-        <v>4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E8,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -4911,19 +5957,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="K8" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
@@ -4941,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -4953,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="4">
         <v>5</v>
@@ -4968,23 +6014,23 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>VLOOKUP(A9,npc_data!A:F,5,0)</f>
-        <v>베리] 원딜 - 고위 천사</v>
+        <v>엘프 레인저_전기</v>
       </c>
       <c r="C9" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E9,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -4993,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="K9" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -5023,10 +6069,10 @@
         <v>0</v>
       </c>
       <c r="T9" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U9" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9" s="4">
         <v>0</v>
@@ -5050,7 +6096,7 @@
       </c>
       <c r="B10" s="4" t="str">
         <f>VLOOKUP(A10,npc_data!A:F,5,0)</f>
-        <v>마력] 원딜 - 엘프 연금술사</v>
+        <v>엘프 레인저_마력</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -5060,13 +6106,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -5075,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="K10" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -5099,16 +6145,16 @@
         <v>0</v>
       </c>
       <c r="R10" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4">
         <v>0</v>
       </c>
       <c r="T10" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U10" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V10" s="4">
         <v>0</v>
@@ -5132,23 +6178,23 @@
       </c>
       <c r="B11" s="4" t="str">
         <f>VLOOKUP(A11,npc_data!A:F,5,0)</f>
-        <v>전기] 근딜(공:↓)- 소속대 소총병</v>
+        <v>엘프 레인저_요력</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E11,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -5157,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="K11" s="4">
         <v>12</v>
@@ -5166,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" s="4">
         <v>0</v>
@@ -5187,10 +6233,10 @@
         <v>0</v>
       </c>
       <c r="T11" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U11" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V11" s="4">
         <v>0</v>
@@ -5214,23 +6260,23 @@
       </c>
       <c r="B12" s="4" t="str">
         <f>VLOOKUP(A12,npc_data!A:F,5,0)</f>
-        <v>전기] 원딜(공:↓) - 소속대 척탄병</v>
+        <v>엘프 레인저_베리타리움</v>
       </c>
       <c r="C12" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="D12" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E12,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -5239,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K12" s="4">
         <v>11</v>
@@ -5248,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -5269,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U12" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V12" s="4">
         <v>0</v>
@@ -5296,23 +6342,23 @@
       </c>
       <c r="B13" s="4" t="str">
         <f>VLOOKUP(A13,npc_data!A:F,5,0)</f>
-        <v>마력] 근딜 - 엘프 레인저</v>
+        <v>소속대 소총병_전기</v>
       </c>
       <c r="C13" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E13,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -5321,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="K13" s="4">
         <v>16</v>
@@ -5351,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U13" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13" s="4">
         <v>0</v>
@@ -5378,65 +6424,65 @@
       </c>
       <c r="B14" s="4" t="str">
         <f>VLOOKUP(A14,npc_data!A:F,5,0)</f>
-        <v>요력] 원딜 - 꼭두각시 인형</v>
+        <v>소속대 소총병_마력</v>
       </c>
       <c r="C14" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="D14" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E14,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>174</v>
+      </c>
+      <c r="K14" s="4">
+        <v>17</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>170</v>
-      </c>
-      <c r="K14" s="4">
-        <v>16</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4">
-        <v>2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
       <c r="U14" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V14" s="4">
         <v>0</v>
@@ -5458,67 +6504,67 @@
       <c r="A15" s="4">
         <v>100011</v>
       </c>
-      <c r="B15" s="19" t="str">
+      <c r="B15" s="4" t="str">
         <f>VLOOKUP(A15,npc_data!A:F,5,0)</f>
-        <v>베리] 원딜(정예) - 고위 천사</v>
+        <v>소속대 소총병_요력</v>
       </c>
       <c r="C15" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E15,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>180</v>
+      </c>
+      <c r="K15" s="19">
+        <v>15</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <v>2</v>
+      </c>
+      <c r="N15" s="19">
+        <v>2</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>0</v>
+      </c>
+      <c r="T15" s="19">
         <v>3</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
-        <v>618</v>
-      </c>
-      <c r="K15" s="19">
-        <v>22.5</v>
-      </c>
-      <c r="L15" s="19">
-        <v>0</v>
-      </c>
-      <c r="M15" s="19">
-        <v>6</v>
-      </c>
-      <c r="N15" s="19">
-        <v>6</v>
-      </c>
-      <c r="O15" s="19">
-        <v>0</v>
-      </c>
-      <c r="P15" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
-        <v>0</v>
-      </c>
-      <c r="S15" s="19">
-        <v>0</v>
-      </c>
-      <c r="T15" s="19">
-        <v>0</v>
-      </c>
       <c r="U15" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" ref="V15" si="0">V9*3</f>
@@ -5541,25 +6587,25 @@
       <c r="A16" s="4">
         <v>100012</v>
       </c>
-      <c r="B16" s="19" t="str">
+      <c r="B16" s="4" t="str">
         <f>VLOOKUP(A16,npc_data!A:F,5,0)</f>
-        <v>베리] 탱커(정예) - 거대 안드</v>
+        <v>소속대 소총병_베리타리움</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E16,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -5568,19 +6614,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="19">
-        <v>805</v>
+        <v>208</v>
       </c>
       <c r="K16" s="19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" s="19">
         <v>0</v>
       </c>
       <c r="M16" s="19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N16" s="19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O16" s="19">
         <v>0</v>
@@ -5592,13 +6638,13 @@
         <v>0</v>
       </c>
       <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19">
+        <v>0</v>
+      </c>
+      <c r="T16" s="19">
         <v>3</v>
-      </c>
-      <c r="S16" s="19">
-        <v>3</v>
-      </c>
-      <c r="T16" s="19">
-        <v>0</v>
       </c>
       <c r="U16" s="19">
         <v>3</v>
@@ -5611,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="4">
         <v>5</v>
@@ -5624,46 +6670,46 @@
       <c r="A17" s="4">
         <v>100013</v>
       </c>
-      <c r="B17" s="19" t="str">
+      <c r="B17" s="4" t="str">
         <f>VLOOKUP(A17,npc_data!A:F,5,0)</f>
-        <v>마력] 탱커 - 마족투사(정예)</v>
+        <v>엘프 연금술사_전기</v>
       </c>
       <c r="C17" s="4">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E17,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <v>169</v>
+      </c>
+      <c r="K17" s="19">
+        <v>15</v>
+      </c>
+      <c r="L17" s="19">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
-        <v>744</v>
-      </c>
-      <c r="K17" s="19">
-        <v>12</v>
-      </c>
-      <c r="L17" s="19">
-        <v>0</v>
-      </c>
-      <c r="M17" s="19">
-        <v>27</v>
-      </c>
       <c r="N17" s="19">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O17" s="19">
         <v>0</v>
@@ -5675,16 +6721,16 @@
         <v>0</v>
       </c>
       <c r="R17" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S17" s="19">
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" ref="V17" si="2">V7*3</f>
@@ -5694,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="4">
         <v>5</v>
@@ -5709,22 +6755,22 @@
       </c>
       <c r="B18" s="4" t="str">
         <f>VLOOKUP(A18,npc_data!A:F,5,0)</f>
-        <v>전기] 탱커(HP:중, 방어:소) - 거한</v>
+        <v>엘프 연금술사_마력</v>
       </c>
       <c r="C18" s="4">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>89</v>
+        <v>329</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>89</v>
+        <v>329</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -5733,19 +6779,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K18" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O18" s="4">
         <v>0</v>
@@ -5757,16 +6803,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
         <v>1</v>
       </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
       <c r="U18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="4">
         <v>0</v>
@@ -5775,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="4">
         <v>5</v>
@@ -5790,22 +6836,22 @@
       </c>
       <c r="B19" s="4" t="str">
         <f>VLOOKUP(A19,npc_data!A:F,5,0)</f>
-        <v>전기] 근딜- 소속대 소총병</v>
+        <v>엘프 연금술사_요력</v>
       </c>
       <c r="C19" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -5814,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="K19" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
@@ -5844,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="4">
         <v>0</v>
@@ -5871,22 +6917,22 @@
       </c>
       <c r="B20" s="4" t="str">
         <f>VLOOKUP(A20,npc_data!A:F,5,0)</f>
-        <v>전기] 원딜 - 소속대 척탄병</v>
+        <v>엘프 연금술사_베리타리움</v>
       </c>
       <c r="C20" s="4">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>92</v>
+        <v>331</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>92</v>
+        <v>331</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -5895,16 +6941,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="K20" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="4">
         <v>2</v>
@@ -5925,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="T20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="4">
         <v>0</v>
@@ -5952,23 +6998,23 @@
       </c>
       <c r="B21" s="4" t="str">
         <f>VLOOKUP(A21,npc_data!A:F,5,0)</f>
-        <v>요력] 서포터 - 꼭두각시 인형</v>
+        <v>정예 연금술사_전기</v>
       </c>
       <c r="C21" s="4">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="D21" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E21,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -5977,19 +7023,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="K21" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
@@ -6004,13 +7050,13 @@
         <v>0</v>
       </c>
       <c r="S21" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" s="4">
         <v>0</v>
@@ -6032,47 +7078,47 @@
       <c r="A22" s="4">
         <v>100018</v>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="4" t="str">
         <f>VLOOKUP(A22,npc_data!A:F,5,0)</f>
-        <v>전기] 탱커(정예) - 거한</v>
+        <v>정예 연금술사_마력</v>
       </c>
       <c r="C22" s="4">
-        <v>2.4</v>
+        <v>7.7</v>
       </c>
       <c r="D22" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E22,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>196</v>
+      </c>
+      <c r="K22" s="19">
+        <v>11</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
+        <v>0</v>
+      </c>
+      <c r="N22" s="19">
         <v>1</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19">
-        <v>753</v>
-      </c>
-      <c r="K22" s="19">
-        <v>15</v>
-      </c>
-      <c r="L22" s="19">
-        <v>0</v>
-      </c>
-      <c r="M22" s="19">
-        <v>18</v>
-      </c>
-      <c r="N22" s="19">
-        <v>12</v>
-      </c>
       <c r="O22" s="19">
         <v>0</v>
       </c>
@@ -6083,16 +7129,16 @@
         <v>0</v>
       </c>
       <c r="R22" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S22" s="19">
         <v>0</v>
       </c>
       <c r="T22" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="19">
         <f t="shared" ref="V22" si="3">V18*3</f>
@@ -6102,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="4">
         <v>5</v>
@@ -6115,24 +7161,24 @@
       <c r="A23" s="4">
         <v>100019</v>
       </c>
-      <c r="B23" s="19" t="str">
+      <c r="B23" s="4" t="str">
         <f>VLOOKUP(A23,npc_data!A:F,5,0)</f>
-        <v>전기] 원딜(정예: 방감) - 척탄병</v>
+        <v>정예 연금술사_요력</v>
       </c>
       <c r="C23" s="4">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>91</v>
+        <v>334</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>91</v>
+        <v>334</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -6141,19 +7187,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="19">
-        <v>618</v>
+        <v>196</v>
       </c>
       <c r="K23" s="19">
-        <v>25.5</v>
+        <v>9</v>
       </c>
       <c r="L23" s="19">
         <v>0</v>
       </c>
       <c r="M23" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N23" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O23" s="19">
         <v>0</v>
@@ -6171,10 +7217,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="19">
         <f t="shared" ref="V23" si="4">V20*3</f>
@@ -6197,25 +7243,25 @@
       <c r="A24" s="4">
         <v>100020</v>
       </c>
-      <c r="B24" s="19" t="str">
+      <c r="B24" s="4" t="str">
         <f>VLOOKUP(A24,npc_data!A:F,5,0)</f>
-        <v>마력] 원딜 - 엘프 연금술사(정예)</v>
+        <v>정예 연금술사_베리타리움</v>
       </c>
       <c r="C24" s="4">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E24,'!참조_ENUM'!$G$3:$G$6,0))</f>
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>92</v>
+        <v>335</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>92</v>
+        <v>335</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -6224,10 +7270,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="19">
-        <v>667</v>
+        <v>194</v>
       </c>
       <c r="K24" s="19">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="L24" s="19">
         <v>0</v>
@@ -6236,7 +7282,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" s="19">
         <v>0</v>
@@ -6254,10 +7300,10 @@
         <v>0</v>
       </c>
       <c r="T24" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="19">
         <f t="shared" ref="V24" si="5">V13*3</f>
@@ -6280,25 +7326,25 @@
       <c r="A25" s="4">
         <v>100021</v>
       </c>
-      <c r="B25" s="19" t="str">
+      <c r="B25" s="4" t="str">
         <f>VLOOKUP(A25,npc_data!A:F,5,0)</f>
-        <v>전기] 근딜(정예)- 소속대 소총병</v>
+        <v>(정예)거한_전기</v>
       </c>
       <c r="C25" s="4">
-        <v>4.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D25" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E25,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -6307,19 +7353,19 @@
         <v>0</v>
       </c>
       <c r="J25" s="19">
-        <v>653</v>
+        <v>771</v>
       </c>
       <c r="K25" s="19">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L25" s="19">
         <v>0</v>
       </c>
       <c r="M25" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N25" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O25" s="19">
         <v>0</v>
@@ -6337,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U25" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V25" s="19">
         <f t="shared" ref="V25" si="6">V19*3</f>
@@ -6350,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y25" s="4">
         <v>5</v>
@@ -6363,25 +7409,25 @@
       <c r="A26" s="4">
         <v>100022</v>
       </c>
-      <c r="B26" s="19" t="str">
+      <c r="B26" s="4" t="str">
         <f>VLOOKUP(A26,npc_data!A:F,5,0)</f>
-        <v>베리] 근딜(정예) - 하급 안드로이드</v>
+        <v>(정예)거한_마력</v>
       </c>
       <c r="C26" s="4">
-        <v>3.5</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="D26" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E26,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="H26" s="4">
         <v>0</v>
@@ -6390,19 +7436,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="19">
-        <v>622</v>
+        <v>744</v>
       </c>
       <c r="K26" s="19">
-        <v>25.5</v>
+        <v>18</v>
       </c>
       <c r="L26" s="19">
         <v>0</v>
       </c>
       <c r="M26" s="19">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N26" s="19">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O26" s="19">
         <v>0</v>
@@ -6420,10 +7466,10 @@
         <v>0</v>
       </c>
       <c r="T26" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U26" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V26" s="19">
         <f t="shared" ref="V26" si="7">V15*3</f>
@@ -6433,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y26" s="4">
         <v>5</v>
@@ -6444,27 +7490,27 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="4">
-        <v>200001</v>
+        <v>100023</v>
       </c>
       <c r="B27" s="4" t="str">
         <f>VLOOKUP(A27,npc_data!A:F,5,0)</f>
-        <v>보스_마네</v>
+        <v>(정예)거한_요력</v>
       </c>
       <c r="C27" s="4">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="D27" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E27,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>91</v>
+        <v>318</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>91</v>
+        <v>318</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -6473,19 +7519,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>1295</v>
+        <v>773</v>
       </c>
       <c r="K27" s="4">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
       </c>
       <c r="M27" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N27" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
@@ -6503,20 +7549,20 @@
         <v>0</v>
       </c>
       <c r="T27" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V27" s="4">
         <f t="shared" ref="V27" si="8">V23*2</f>
         <v>0</v>
       </c>
       <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
         <v>20</v>
-      </c>
-      <c r="X27" s="4">
-        <v>0</v>
       </c>
       <c r="Y27" s="4">
         <v>5</v>
@@ -6527,45 +7573,45 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="4">
-        <v>200002</v>
+        <v>100024</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>VLOOKUP(A28,npc_data!A:F,5,0)</f>
-        <v>보스_엘리자베스</v>
+        <v>(정예)거한_베리타리움</v>
       </c>
       <c r="C28" s="4">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="D28" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E28,'!참조_ENUM'!$G$3:$G$6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>210004</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>1500</v>
+        <v>799</v>
       </c>
       <c r="K28" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L28" s="4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N28" s="4">
         <v>6</v>
@@ -6577,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R28" s="4">
         <v>0</v>
@@ -6586,19 +7632,19 @@
         <v>0</v>
       </c>
       <c r="T28" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U28" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V28" s="4">
         <v>0</v>
       </c>
       <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
         <v>20</v>
-      </c>
-      <c r="X28" s="4">
-        <v>0</v>
       </c>
       <c r="Y28" s="4">
         <v>5</v>
@@ -6609,48 +7655,48 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="4">
-        <v>900001</v>
+        <v>100025</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>VLOOKUP(A29,npc_data!A:F,5,0)</f>
-        <v>보스_엘리자베스</v>
+        <v>(정예)엘프 레인저_전기</v>
       </c>
       <c r="C29" s="4">
-        <v>50</v>
+        <v>3.8</v>
       </c>
       <c r="D29" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E29,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>632</v>
+      </c>
+      <c r="K29" s="4">
+        <v>26</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
         <v>3</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>210004</v>
-      </c>
-      <c r="J29" s="4">
-        <v>4252</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4">
-        <v>56</v>
-      </c>
-      <c r="M29" s="4">
-        <v>7.5</v>
-      </c>
       <c r="N29" s="4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="O29" s="4">
         <v>0</v>
@@ -6659,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4">
         <v>0</v>
@@ -6668,16 +7714,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U29" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V29" s="4">
         <v>0</v>
       </c>
       <c r="W29" s="4">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="X29" s="4">
         <v>0</v>
@@ -6688,6 +7734,1502 @@
       <c r="Z29" s="4" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="4">
+        <v>100026</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>VLOOKUP(A30,npc_data!A:F,5,0)</f>
+        <v>(정예)엘프 레인저_마력</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="D30" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E30,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>625</v>
+      </c>
+      <c r="K30" s="4">
+        <v>28</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4">
+        <v>3</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>8</v>
+      </c>
+      <c r="U30" s="4">
+        <v>8</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="4">
+        <v>100027</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>VLOOKUP(A31,npc_data!A:F,5,0)</f>
+        <v>(정예)엘프 레인저_요력</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="D31" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E31,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>639</v>
+      </c>
+      <c r="K31" s="4">
+        <v>24</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>4</v>
+      </c>
+      <c r="N31" s="4">
+        <v>4</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>8</v>
+      </c>
+      <c r="U31" s="4">
+        <v>8</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="4">
+        <v>100028</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>VLOOKUP(A32,npc_data!A:F,5,0)</f>
+        <v>(정예)엘프 레인저_베리타리움</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="D32" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E32,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>666</v>
+      </c>
+      <c r="K32" s="4">
+        <v>22</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>6</v>
+      </c>
+      <c r="N32" s="4">
+        <v>4</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>8</v>
+      </c>
+      <c r="U32" s="4">
+        <v>8</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="4">
+        <v>100029</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>VLOOKUP(A33,npc_data!A:F,5,0)</f>
+        <v>(정예)소속대 소총병_전기</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="D33" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E33,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>554</v>
+      </c>
+      <c r="K33" s="4">
+        <v>32</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
+        <v>6</v>
+      </c>
+      <c r="U33" s="4">
+        <v>6</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="4">
+        <v>100030</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>VLOOKUP(A34,npc_data!A:F,5,0)</f>
+        <v>(정예)소속대 소총병_마력</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="D34" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E34,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>525</v>
+      </c>
+      <c r="K34" s="4">
+        <v>34</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="4">
+        <v>6</v>
+      </c>
+      <c r="U34" s="4">
+        <v>6</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0</v>
+      </c>
+      <c r="X34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="4">
+        <v>100031</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>VLOOKUP(A35,npc_data!A:F,5,0)</f>
+        <v>(정예)소속대 소총병_요력</v>
+      </c>
+      <c r="C35" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="D35" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E35,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>548</v>
+      </c>
+      <c r="K35" s="4">
+        <v>30</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3</v>
+      </c>
+      <c r="N35" s="4">
+        <v>3</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35" s="4">
+        <v>6</v>
+      </c>
+      <c r="U35" s="4">
+        <v>6</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="4">
+        <v>100032</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>VLOOKUP(A36,npc_data!A:F,5,0)</f>
+        <v>(정예)소속대 소총병_베리타리움</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="D36" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E36,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>586</v>
+      </c>
+      <c r="K36" s="4">
+        <v>28</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>4</v>
+      </c>
+      <c r="N36" s="4">
+        <v>3</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
+        <v>6</v>
+      </c>
+      <c r="U36" s="4">
+        <v>6</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0</v>
+      </c>
+      <c r="W36" s="4">
+        <v>0</v>
+      </c>
+      <c r="X36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="4">
+        <v>100033</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>VLOOKUP(A37,npc_data!A:F,5,0)</f>
+        <v>(정예)엘프 연금술사_전기</v>
+      </c>
+      <c r="C37" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="D37" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E37,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>546</v>
+      </c>
+      <c r="K37" s="4">
+        <v>30</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <v>2</v>
+      </c>
+      <c r="U37" s="4">
+        <v>2</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="4">
+        <v>100034</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f>VLOOKUP(A38,npc_data!A:F,5,0)</f>
+        <v>(정예)엘프 연금술사_마력</v>
+      </c>
+      <c r="C38" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D38" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E38,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>517</v>
+      </c>
+      <c r="K38" s="4">
+        <v>32</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0</v>
+      </c>
+      <c r="T38" s="4">
+        <v>2</v>
+      </c>
+      <c r="U38" s="4">
+        <v>2</v>
+      </c>
+      <c r="V38" s="4">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="4">
+        <v>100035</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f>VLOOKUP(A39,npc_data!A:F,5,0)</f>
+        <v>(정예)엘프 연금술사_요력</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D39" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E39,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>540</v>
+      </c>
+      <c r="K39" s="4">
+        <v>28</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>3</v>
+      </c>
+      <c r="N39" s="4">
+        <v>3</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+      <c r="T39" s="4">
+        <v>2</v>
+      </c>
+      <c r="U39" s="4">
+        <v>2</v>
+      </c>
+      <c r="V39" s="4">
+        <v>0</v>
+      </c>
+      <c r="W39" s="4">
+        <v>0</v>
+      </c>
+      <c r="X39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="4">
+        <v>100036</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f>VLOOKUP(A40,npc_data!A:F,5,0)</f>
+        <v>(정예)엘프 연금술사_베리타리움</v>
+      </c>
+      <c r="C40" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="D40" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E40,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>578</v>
+      </c>
+      <c r="K40" s="4">
+        <v>26</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>4</v>
+      </c>
+      <c r="N40" s="4">
+        <v>3</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0</v>
+      </c>
+      <c r="T40" s="4">
+        <v>2</v>
+      </c>
+      <c r="U40" s="4">
+        <v>2</v>
+      </c>
+      <c r="V40" s="4">
+        <v>0</v>
+      </c>
+      <c r="W40" s="4">
+        <v>0</v>
+      </c>
+      <c r="X40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="4">
+        <v>100037</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>VLOOKUP(A41,npc_data!A:F,5,0)</f>
+        <v>(정예)정예 연금술사_전기</v>
+      </c>
+      <c r="C41" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D41" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E41,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>642</v>
+      </c>
+      <c r="K41" s="4">
+        <v>20</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
+        <v>2</v>
+      </c>
+      <c r="U41" s="4">
+        <v>2</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0</v>
+      </c>
+      <c r="X41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="4">
+        <v>100038</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>VLOOKUP(A42,npc_data!A:F,5,0)</f>
+        <v>(정예)정예 연금술사_마력</v>
+      </c>
+      <c r="C42" s="4">
+        <v>8</v>
+      </c>
+      <c r="D42" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E42,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>613</v>
+      </c>
+      <c r="K42" s="4">
+        <v>22</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
+        <v>2</v>
+      </c>
+      <c r="U42" s="4">
+        <v>2</v>
+      </c>
+      <c r="V42" s="4">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <v>0</v>
+      </c>
+      <c r="X42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="4">
+        <v>100039</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>VLOOKUP(A43,npc_data!A:F,5,0)</f>
+        <v>(정예)정예 연금술사_요력</v>
+      </c>
+      <c r="C43" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D43" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E43,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>630</v>
+      </c>
+      <c r="K43" s="4">
+        <v>18</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>3</v>
+      </c>
+      <c r="N43" s="4">
+        <v>3</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+      <c r="T43" s="4">
+        <v>2</v>
+      </c>
+      <c r="U43" s="4">
+        <v>2</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <v>0</v>
+      </c>
+      <c r="X43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="4">
+        <v>100040</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>VLOOKUP(A44,npc_data!A:F,5,0)</f>
+        <v>(정예)정예 연금술사_베리타리움</v>
+      </c>
+      <c r="C44" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D44" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E44,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>638</v>
+      </c>
+      <c r="K44" s="4">
+        <v>16</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>4</v>
+      </c>
+      <c r="N44" s="4">
+        <v>3</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <v>2</v>
+      </c>
+      <c r="U44" s="4">
+        <v>2</v>
+      </c>
+      <c r="V44" s="4">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4">
+        <v>0</v>
+      </c>
+      <c r="X44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="4">
+        <v>200001</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>VLOOKUP(A45,npc_data!A:F,5,0)</f>
+        <v>보스_마네</v>
+      </c>
+      <c r="C45" s="4">
+        <v>8</v>
+      </c>
+      <c r="D45" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E45,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1402</v>
+      </c>
+      <c r="K45" s="4">
+        <v>40</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>2</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+      <c r="T45" s="4">
+        <v>12</v>
+      </c>
+      <c r="U45" s="4">
+        <v>12</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <v>20</v>
+      </c>
+      <c r="X45" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="4">
+        <v>200002</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>VLOOKUP(A46,npc_data!A:F,5,0)</f>
+        <v>보스_엘리자베스</v>
+      </c>
+      <c r="C46" s="4">
+        <v>8</v>
+      </c>
+      <c r="D46" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E46,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>210004</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1423</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>40</v>
+      </c>
+      <c r="M46" s="4">
+        <v>6</v>
+      </c>
+      <c r="N46" s="4">
+        <v>4</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0</v>
+      </c>
+      <c r="S46" s="4">
+        <v>10</v>
+      </c>
+      <c r="T46" s="4">
+        <v>20</v>
+      </c>
+      <c r="U46" s="4">
+        <v>20</v>
+      </c>
+      <c r="V46" s="4">
+        <v>0</v>
+      </c>
+      <c r="W46" s="4">
+        <v>20</v>
+      </c>
+      <c r="X46" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="4">
+        <v>900001</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>VLOOKUP(A47,npc_data!A:F,5,0)</f>
+        <v>보스_엘리자베스</v>
+      </c>
+      <c r="C47" s="4">
+        <v>50</v>
+      </c>
+      <c r="D47" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$6,MATCH(E47,'!참조_ENUM'!$G$3:$G$6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>210004</v>
+      </c>
+      <c r="J47" s="4">
+        <v>4256</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>56</v>
+      </c>
+      <c r="M47" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="N47" s="4">
+        <v>5</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0</v>
+      </c>
+      <c r="S47" s="4">
+        <v>20</v>
+      </c>
+      <c r="T47" s="4">
+        <v>20</v>
+      </c>
+      <c r="U47" s="4">
+        <v>20</v>
+      </c>
+      <c r="V47" s="4">
+        <v>0</v>
+      </c>
+      <c r="W47" s="4">
+        <v>999</v>
+      </c>
+      <c r="X47" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6700,8 +9242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6731,7 +9273,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>70</v>
@@ -6743,31 +9285,31 @@
         <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>73</v>
@@ -6776,16 +9318,16 @@
         <v>74</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>26</v>
@@ -6793,7 +9335,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -6861,7 +9403,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>71</v>
@@ -6870,34 +9412,34 @@
         <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>65</v>
@@ -6906,16 +9448,16 @@
         <v>66</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>31</v>
@@ -6926,14 +9468,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4">
         <v>40</v>
@@ -6992,14 +9534,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4">
         <v>36</v>
@@ -7058,14 +9600,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="4">
         <v>16</v>
@@ -7124,14 +9666,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="C8" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="13">
         <v>14.4</v>
@@ -7190,14 +9732,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="C9" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="13">
         <v>12</v>
@@ -7256,14 +9798,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="13">
         <v>16</v>
@@ -7322,14 +9864,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="13">
         <v>12</v>
@@ -7388,14 +9930,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C12" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="13">
         <v>14.4</v>
@@ -7454,14 +9996,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="C13" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="13">
         <v>10.8</v>
@@ -7520,14 +10062,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="E14" s="13">
         <v>13.200000000000001</v>
@@ -7586,14 +10128,14 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="4">
         <v>100</v>
@@ -7652,14 +10194,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" s="4">
         <v>40</v>
@@ -7718,14 +10260,14 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C17" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D17,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17" s="4">
         <v>27</v>
@@ -7784,14 +10326,14 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C18" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D18,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="4">
         <v>160</v>
@@ -7850,14 +10392,14 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="C19" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D19,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" s="4">
         <v>64</v>
@@ -7916,14 +10458,14 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C20" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D20,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E20" s="4">
         <v>108</v>
@@ -7982,14 +10524,14 @@
         <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="C21" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D21,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" s="4">
         <v>40</v>
@@ -8048,14 +10590,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C22" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D22,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" s="4">
         <v>36</v>
@@ -8114,14 +10656,14 @@
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C23" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D23,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" s="4">
         <v>16</v>
@@ -8180,14 +10722,14 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C24" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D24,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E24" s="4">
         <v>14.4</v>
@@ -8246,14 +10788,14 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C25" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D25,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4">
         <v>12</v>
@@ -8312,14 +10854,14 @@
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C26" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D26,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E26" s="4">
         <v>16</v>
@@ -8378,14 +10920,14 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C27" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D27,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" s="4">
         <v>12</v>
@@ -8444,14 +10986,14 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="C28" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D28,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E28" s="4">
         <v>14.4</v>
@@ -8510,14 +11052,14 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C29" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D29,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29" s="4">
         <v>10.8</v>
@@ -8576,14 +11118,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="C30" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D30,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="E30" s="4">
         <v>13.200000000000001</v>
@@ -8642,14 +11184,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="C31" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D31,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E31" s="4">
         <v>100</v>
@@ -8708,14 +11250,14 @@
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C32" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D32,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="4">
         <v>40</v>
@@ -8774,14 +11316,14 @@
         <v>29</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C33" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D33,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" s="4">
         <v>27</v>
@@ -8840,14 +11382,14 @@
         <v>30</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="C34" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D34,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="4">
         <v>160</v>
@@ -8906,14 +11448,14 @@
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="C35" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D35,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4">
         <v>64</v>
@@ -8972,14 +11514,14 @@
         <v>32</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="C36" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D36,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" s="4">
         <v>108</v>
@@ -9038,14 +11580,14 @@
         <v>33</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C37" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D37,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="E37" s="4">
         <v>33</v>
@@ -9104,14 +11646,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C38" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D38,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="E38" s="4">
         <v>52.800000000000004</v>
@@ -9170,14 +11712,14 @@
         <v>35</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="C39" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D39,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E39" s="4">
         <v>120</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69B3D0F-9F03-4955-8AB1-804813727DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE9445-045B-4A91-A807-74BF608E42A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40950" yWindow="1740" windowWidth="25230" windowHeight="18780" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39225" yWindow="1215" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="340">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1443,6 +1443,18 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100002__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100003__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100004__</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1772,10 +1784,10 @@
       <sheetName val="@attribute_type"/>
       <sheetName val="@res_type"/>
       <sheetName val="!@story_type"/>
-      <sheetName val="@story_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
+      <sheetName val="@story_type"/>
       <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
@@ -2083,22 +2095,76 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -2108,7 +2174,13 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -3071,7 +3143,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3329,7 +3401,7 @@
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>51</v>
+        <v>337</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>77</v>
@@ -3379,7 +3451,7 @@
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>77</v>
@@ -3429,7 +3501,7 @@
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>77</v>
@@ -5406,7 +5478,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE9445-045B-4A91-A807-74BF608E42A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CE7D5C-D508-4CAF-B1A7-0A137DF8E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39225" yWindow="1215" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="41715" yWindow="2790" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="344">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1455,6 +1455,22 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100004__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3143,7 +3159,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3551,7 +3567,7 @@
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="N9" s="25" t="s">
         <v>78</v>
@@ -3601,7 +3617,7 @@
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>58</v>
+        <v>341</v>
       </c>
       <c r="N10" s="25" t="s">
         <v>78</v>
@@ -3651,7 +3667,7 @@
         <v>100007</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="N11" s="25" t="s">
         <v>78</v>
@@ -3701,7 +3717,7 @@
         <v>100008</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="N12" s="25" t="s">
         <v>78</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CE7D5C-D508-4CAF-B1A7-0A137DF8E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FCF312-C769-4546-96B2-EA8790A357E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41715" yWindow="2790" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="348">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1471,6 +1471,22 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3156,10 +3172,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3767,7 +3783,7 @@
         <v>100009</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>59</v>
+        <v>344</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>80</v>
@@ -3817,7 +3833,7 @@
         <v>100010</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>59</v>
+        <v>345</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>80</v>
@@ -3867,7 +3883,7 @@
         <v>100011</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>59</v>
+        <v>346</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>80</v>
@@ -3917,7 +3933,7 @@
         <v>100012</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>59</v>
+        <v>347</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>80</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FCF312-C769-4546-96B2-EA8790A357E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD45742C-46FE-4FA3-B846-FB01C9550408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41715" yWindow="2790" windowWidth="34815" windowHeight="16545" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="4875" yWindow="360" windowWidth="29370" windowHeight="20235" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="356">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,10 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200003, 200003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>궁극기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1426,22 +1422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200117, 200117]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200118, 200118]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200119, 200119]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200120, 200120]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1487,6 +1467,58 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200117, 200117, 200013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200118, 200118, 200013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200119, 200119, 200013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200120, 200120, 200013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200003, 200003, 200013]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2197,7 +2229,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -2205,7 +2243,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -3171,11 +3215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3212,7 +3256,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>37</v>
@@ -3230,10 +3274,10 @@
         <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
@@ -3245,12 +3289,12 @@
         <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>55</v>
@@ -3277,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>55</v>
@@ -3300,13 +3344,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -3324,10 +3368,10 @@
         <v>45</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>46</v>
@@ -3339,7 +3383,7 @@
         <v>67</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
@@ -3347,23 +3391,23 @@
         <v>100001</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I5,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3377,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L5" s="11">
         <v>100001</v>
@@ -3397,23 +3441,23 @@
         <v>100002</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F6" s="24">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H6" s="24">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I6,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3427,13 +3471,13 @@
         <v>4</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L6" s="24">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>77</v>
@@ -3447,23 +3491,23 @@
         <v>100003</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I7,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3477,13 +3521,13 @@
         <v>3</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L7" s="11">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>77</v>
@@ -3497,23 +3541,23 @@
         <v>100004</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I8,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3527,13 +3571,13 @@
         <v>2</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L8" s="24">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>77</v>
@@ -3547,23 +3591,23 @@
         <v>100005</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I9,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3577,13 +3621,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L9" s="11">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N9" s="25" t="s">
         <v>78</v>
@@ -3597,23 +3641,23 @@
         <v>100006</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I10,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3627,13 +3671,13 @@
         <v>4</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L10" s="24">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N10" s="25" t="s">
         <v>78</v>
@@ -3647,23 +3691,23 @@
         <v>100007</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" s="24">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11" s="24">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I11,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3677,13 +3721,13 @@
         <v>3</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" s="11">
         <v>100007</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N11" s="25" t="s">
         <v>78</v>
@@ -3697,23 +3741,23 @@
         <v>100008</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="24">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" s="24">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I12,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3727,13 +3771,13 @@
         <v>2</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L12" s="24">
         <v>100008</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N12" s="25" t="s">
         <v>78</v>
@@ -3747,23 +3791,23 @@
         <v>100009</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H13" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I13,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3777,13 +3821,13 @@
         <v>1</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L13" s="11">
         <v>100009</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>80</v>
@@ -3797,23 +3841,23 @@
         <v>100010</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F14" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I14,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3827,13 +3871,13 @@
         <v>4</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L14" s="24">
         <v>100010</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>80</v>
@@ -3847,23 +3891,23 @@
         <v>100011</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H15" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I15,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3877,13 +3921,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" s="11">
         <v>100011</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>80</v>
@@ -3897,23 +3941,23 @@
         <v>100012</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F16" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I16,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3927,13 +3971,13 @@
         <v>2</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L16" s="24">
         <v>100012</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>80</v>
@@ -3947,23 +3991,23 @@
         <v>100013</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I17,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -3977,13 +4021,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L17" s="11">
         <v>100013</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>79</v>
@@ -3997,22 +4041,22 @@
         <v>100014</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H18" s="11">
         <v>2</v>
@@ -4024,13 +4068,13 @@
         <v>1</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L18" s="24">
         <v>100014</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>79</v>
@@ -4044,22 +4088,22 @@
         <v>100015</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H19" s="11">
         <v>2</v>
@@ -4071,13 +4115,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L19" s="11">
         <v>100015</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>79</v>
@@ -4091,22 +4135,22 @@
         <v>100016</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" s="11">
         <v>2</v>
@@ -4118,13 +4162,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L20" s="24">
         <v>100016</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>79</v>
@@ -4138,23 +4182,23 @@
         <v>100017</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F21" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H21" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I21,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -4168,13 +4212,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L21" s="11">
         <v>100017</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>79</v>
@@ -4188,23 +4232,23 @@
         <v>100018</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F22" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H22" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I22,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -4218,13 +4262,13 @@
         <v>4</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L22" s="24">
         <v>100018</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>79</v>
@@ -4238,23 +4282,23 @@
         <v>100019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F23" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H23" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I23,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -4268,13 +4312,13 @@
         <v>3</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L23" s="11">
         <v>100019</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>79</v>
@@ -4288,23 +4332,23 @@
         <v>100020</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H24" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I24,'!참조_ENUM'!$K$3:$K$7,0))</f>
@@ -4318,13 +4362,13 @@
         <v>2</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L24" s="24">
         <v>100020</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>79</v>
@@ -4338,35 +4382,35 @@
         <v>100021</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H25" s="11">
         <v>2</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J25" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K25,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25" s="11">
         <v>100021</v>
@@ -4386,37 +4430,37 @@
         <v>100022</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F26" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H26" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I26,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L26" s="24">
         <v>100022</v>
@@ -4436,37 +4480,37 @@
         <v>100023</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H27" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I27,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J27" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K27,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L27" s="11">
         <v>100023</v>
@@ -4486,37 +4530,37 @@
         <v>100024</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H28" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I28,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J28" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K28,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28" s="24">
         <v>100024</v>
@@ -4536,37 +4580,37 @@
         <v>100025</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F29" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G29,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H29" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I29,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J29" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K29,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L29" s="11">
         <v>100025</v>
@@ -4586,37 +4630,37 @@
         <v>100026</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F30" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G30,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H30" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I30,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J30" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K30,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L30" s="24">
         <v>100026</v>
@@ -4636,37 +4680,37 @@
         <v>100027</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F31" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G31,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H31" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I31,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J31" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K31,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L31" s="11">
         <v>100027</v>
@@ -4686,37 +4730,37 @@
         <v>100028</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F32" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G32,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H32" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I32,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J32" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K32,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L32" s="24">
         <v>100028</v>
@@ -4736,37 +4780,37 @@
         <v>100029</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F33" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G33,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H33" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I33,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J33" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K33,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L33" s="11">
         <v>100029</v>
@@ -4786,37 +4830,37 @@
         <v>100030</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F34" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G34,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H34" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I34,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J34" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K34,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L34" s="24">
         <v>100030</v>
@@ -4836,37 +4880,37 @@
         <v>100031</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F35" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G35,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H35" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I35,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J35" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K35,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L35" s="11">
         <v>100031</v>
@@ -4886,37 +4930,37 @@
         <v>100032</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F36" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G36,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H36" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I36,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K36,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" s="24">
         <v>100032</v>
@@ -4936,37 +4980,37 @@
         <v>100033</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F37" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G37,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H37" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I37,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J37" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K37,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L37" s="11">
         <v>100033</v>
@@ -4986,36 +5030,36 @@
         <v>100034</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G38,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H38" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I38,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J38" s="11">
         <v>1</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L38" s="24">
         <v>100034</v>
@@ -5035,36 +5079,36 @@
         <v>100035</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F39" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G39,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H39" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I39,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J39" s="11">
         <v>1</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L39" s="11">
         <v>100035</v>
@@ -5084,36 +5128,36 @@
         <v>100036</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F40" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G40,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H40" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I40,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J40" s="11">
         <v>1</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L40" s="24">
         <v>100036</v>
@@ -5133,37 +5177,37 @@
         <v>100037</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F41" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G41,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H41" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I41,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J41" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K41,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L41" s="11">
         <v>100037</v>
@@ -5183,37 +5227,37 @@
         <v>100038</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F42" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G42,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H42" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I42,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J42" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K42,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L42" s="24">
         <v>100038</v>
@@ -5233,37 +5277,37 @@
         <v>100039</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F43" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G43,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H43" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I43,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J43" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K43,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L43" s="11">
         <v>100039</v>
@@ -5272,7 +5316,7 @@
         <v>60</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="O43" s="4">
         <v>0.4</v>
@@ -5283,37 +5327,37 @@
         <v>100040</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F44" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G44,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H44" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I44,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J44" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K44,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L44" s="24">
         <v>100040</v>
@@ -5333,37 +5377,37 @@
         <v>200001</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F45" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G45,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H45" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I45,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J45" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K45,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L45" s="11">
         <v>200001</v>
@@ -5383,46 +5427,46 @@
         <v>200002</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F46" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G46,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H46" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I46,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J46" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K46,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L46" s="11">
         <v>200002</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="4">
         <v>0.45</v>
@@ -5433,46 +5477,46 @@
         <v>900001</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F47" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G47,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H47" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I47,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J47" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K47,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L47" s="11">
         <v>900001</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="4">
         <v>0.45</v>
@@ -5506,11 +5550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5561,46 +5605,46 @@
         <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>63</v>
@@ -5609,13 +5653,13 @@
         <v>64</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>26</v>
@@ -5626,7 +5670,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>55</v>
@@ -5709,7 +5753,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>62</v>
@@ -5721,7 +5765,7 @@
         <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -5730,37 +5774,37 @@
         <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>65</v>
@@ -5769,13 +5813,13 @@
         <v>66</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>31</v>
@@ -5803,10 +5847,10 @@
         <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -5885,10 +5929,10 @@
         <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -5967,10 +6011,10 @@
         <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -6049,10 +6093,10 @@
         <v>82</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -6131,10 +6175,10 @@
         <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -6213,10 +6257,10 @@
         <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -6295,10 +6339,10 @@
         <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -6377,10 +6421,10 @@
         <v>82</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -6456,13 +6500,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -6538,13 +6582,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -6620,13 +6664,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -6703,13 +6747,13 @@
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -6789,10 +6833,10 @@
         <v>83</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -6871,10 +6915,10 @@
         <v>83</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -6952,10 +6996,10 @@
         <v>83</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -7033,10 +7077,10 @@
         <v>83</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -7115,10 +7159,10 @@
         <v>83</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -7197,10 +7241,10 @@
         <v>83</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -7279,10 +7323,10 @@
         <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -7362,10 +7406,10 @@
         <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -7445,10 +7489,10 @@
         <v>82</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -7528,10 +7572,10 @@
         <v>82</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H26" s="4">
         <v>0</v>
@@ -7611,10 +7655,10 @@
         <v>82</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -7694,10 +7738,10 @@
         <v>82</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -7776,10 +7820,10 @@
         <v>82</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -7858,10 +7902,10 @@
         <v>82</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -7940,10 +7984,10 @@
         <v>82</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -8022,10 +8066,10 @@
         <v>82</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -8101,13 +8145,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -8183,13 +8227,13 @@
         <v>2</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -8265,13 +8309,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H35" s="4">
         <v>0</v>
@@ -8347,13 +8391,13 @@
         <v>2</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H36" s="4">
         <v>0</v>
@@ -8432,10 +8476,10 @@
         <v>83</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H37" s="4">
         <v>0</v>
@@ -8514,10 +8558,10 @@
         <v>83</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H38" s="4">
         <v>0</v>
@@ -8596,10 +8640,10 @@
         <v>83</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H39" s="4">
         <v>0</v>
@@ -8678,10 +8722,10 @@
         <v>83</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H40" s="4">
         <v>0</v>
@@ -8760,10 +8804,10 @@
         <v>83</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
@@ -8842,10 +8886,10 @@
         <v>83</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -8924,10 +8968,10 @@
         <v>83</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -9006,10 +9050,10 @@
         <v>83</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
@@ -9088,10 +9132,10 @@
         <v>83</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>87</v>
+        <v>355</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>87</v>
+        <v>355</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
@@ -9170,10 +9214,10 @@
         <v>83</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
@@ -9252,10 +9296,10 @@
         <v>83</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
@@ -9377,7 +9421,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>70</v>
@@ -9389,31 +9433,31 @@
         <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>73</v>
@@ -9422,16 +9466,16 @@
         <v>74</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>26</v>
@@ -9439,7 +9483,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -9507,7 +9551,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>71</v>
@@ -9516,34 +9560,34 @@
         <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>65</v>
@@ -9552,16 +9596,16 @@
         <v>66</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>31</v>
@@ -9572,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9638,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9704,7 +9748,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9770,7 +9814,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9836,7 +9880,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9902,7 +9946,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -9968,7 +10012,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10034,7 +10078,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10100,7 +10144,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10166,14 +10210,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="13">
         <v>13.200000000000001</v>
@@ -10232,7 +10276,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10298,7 +10342,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10364,7 +10408,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D17,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10430,7 +10474,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D18,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10496,7 +10540,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D19,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10562,7 +10606,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D20,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10628,7 +10672,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D21,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10694,7 +10738,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D22,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10760,7 +10804,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D23,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10826,7 +10870,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D24,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10892,7 +10936,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D25,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -10958,7 +11002,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D26,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11024,7 +11068,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D27,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11090,7 +11134,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D28,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11156,7 +11200,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D29,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11222,14 +11266,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C30" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D30,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="4">
         <v>13.200000000000001</v>
@@ -11288,7 +11332,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D31,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11354,7 +11398,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C32" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D32,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11420,7 +11464,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D33,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11486,7 +11530,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C34" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D34,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11552,7 +11596,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C35" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D35,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11618,7 +11662,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D36,'!참조_ENUM'!$O$3:$O$7,0))</f>
@@ -11684,14 +11728,14 @@
         <v>33</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D37,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E37" s="4">
         <v>33</v>
@@ -11750,14 +11794,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D38,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E38" s="4">
         <v>52.800000000000004</v>
@@ -11816,7 +11860,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C39" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D39,'!참조_ENUM'!$O$3:$O$7,0))</f>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD45742C-46FE-4FA3-B846-FB01C9550408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF6468-94AA-4A47-915D-FA28EBC43E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="360" windowWidth="29370" windowHeight="20235" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="43545" yWindow="1740" windowWidth="30990" windowHeight="19140" firstSheet="1" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="353">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,18 +502,6 @@
   </si>
   <si>
     <t>#position</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>접근 사거리</t>
@@ -1853,6 +1841,7 @@
       <sheetName val="@stage_common"/>
       <sheetName val="@story_type"/>
       <sheetName val="@reward"/>
+      <sheetName val="Enums_01"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2229,13 +2218,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -2243,13 +2226,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -2338,6 +2315,7 @@
       <sheetData sheetId="37" refreshError="1"/>
       <sheetData sheetId="38" refreshError="1"/>
       <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3216,10 +3194,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3256,7 +3234,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>37</v>
@@ -3274,10 +3252,10 @@
         <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
@@ -3289,12 +3267,12 @@
         <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>55</v>
@@ -3321,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>55</v>
@@ -3344,13 +3322,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -3368,10 +3346,10 @@
         <v>45</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>46</v>
@@ -3380,10 +3358,10 @@
         <v>48</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
@@ -3391,37 +3369,37 @@
         <v>100001</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J5" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L5" s="11">
         <v>100001</v>
@@ -3430,7 +3408,7 @@
         <v>51</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O5" s="4">
         <v>0.35</v>
@@ -3441,46 +3419,46 @@
         <v>100002</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F6" s="24">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H6" s="24">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J6" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L6" s="24">
         <v>100002</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O6" s="25">
         <v>0.35</v>
@@ -3491,46 +3469,46 @@
         <v>100003</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J7" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L7" s="11">
         <v>100003</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O7" s="4">
         <v>0.35</v>
@@ -3541,46 +3519,46 @@
         <v>100004</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J8" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L8" s="24">
         <v>100004</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O8" s="4">
         <v>0.35</v>
@@ -3591,46 +3569,46 @@
         <v>100005</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J9" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K9,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L9" s="11">
         <v>100005</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O9" s="4">
         <v>0.35</v>
@@ -3641,46 +3619,46 @@
         <v>100006</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J10" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L10" s="24">
         <v>100006</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O10" s="4">
         <v>0.35</v>
@@ -3691,46 +3669,46 @@
         <v>100007</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F11" s="24">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H11" s="24">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I11,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J11" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K11,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L11" s="11">
         <v>100007</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O11" s="25">
         <v>0.35</v>
@@ -3741,46 +3719,46 @@
         <v>100008</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F12" s="24">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H12" s="24">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I12,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J12" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K12,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L12" s="24">
         <v>100008</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O12" s="25">
         <v>0.35</v>
@@ -3791,46 +3769,46 @@
         <v>100009</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F13" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H13" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I13,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J13" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K13,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L13" s="11">
         <v>100009</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O13" s="4">
         <v>0.35</v>
@@ -3841,46 +3819,46 @@
         <v>100010</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F14" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H14" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I14,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J14" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K14,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L14" s="24">
         <v>100010</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O14" s="4">
         <v>0.35</v>
@@ -3891,46 +3869,46 @@
         <v>100011</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F15" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H15" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I15,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J15" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K15,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L15" s="11">
         <v>100011</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O15" s="4">
         <v>0.35</v>
@@ -3941,46 +3919,46 @@
         <v>100012</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F16" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H16" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I16,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J16" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K16,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L16" s="24">
         <v>100012</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O16" s="4">
         <v>0.35</v>
@@ -3991,46 +3969,46 @@
         <v>100013</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H17" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I17,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J17" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K17,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L17" s="11">
         <v>100013</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O17" s="4">
         <v>0.35</v>
@@ -4041,43 +4019,43 @@
         <v>100014</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H18" s="11">
         <v>2</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J18" s="11">
         <v>1</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L18" s="24">
         <v>100014</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O18" s="4">
         <v>0.35</v>
@@ -4088,43 +4066,43 @@
         <v>100015</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H19" s="11">
         <v>2</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J19" s="11">
         <v>1</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L19" s="11">
         <v>100015</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O19" s="4">
         <v>0.35</v>
@@ -4135,43 +4113,43 @@
         <v>100016</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H20" s="11">
         <v>2</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J20" s="11">
         <v>1</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L20" s="24">
         <v>100016</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O20" s="4">
         <v>0.35</v>
@@ -4182,46 +4160,46 @@
         <v>100017</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F21" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H21" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I21,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J21" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K21,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L21" s="11">
         <v>100017</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O21" s="4">
         <v>0.35</v>
@@ -4232,46 +4210,46 @@
         <v>100018</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F22" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H22" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I22,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J22" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K22,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L22" s="24">
         <v>100018</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O22" s="4">
         <v>0.35</v>
@@ -4282,46 +4260,46 @@
         <v>100019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F23" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H23" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I23,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J23" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K23,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L23" s="11">
         <v>100019</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O23" s="4">
         <v>0.35</v>
@@ -4332,46 +4310,46 @@
         <v>100020</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F24" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H24" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I24,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J24" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K24,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L24" s="24">
         <v>100020</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="4">
         <v>0.35</v>
@@ -4382,35 +4360,35 @@
         <v>100021</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H25" s="11">
         <v>2</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J25" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K25,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L25" s="11">
         <v>100021</v>
@@ -4419,7 +4397,7 @@
         <v>51</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="4">
         <v>0.4</v>
@@ -4430,46 +4408,46 @@
         <v>100022</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F26" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H26" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I26,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J26" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L26" s="24">
         <v>100022</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>51</v>
+        <v>329</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O26" s="4">
         <v>0.4</v>
@@ -4480,46 +4458,46 @@
         <v>100023</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H27" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I27,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J27" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K27,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L27" s="11">
         <v>100023</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>51</v>
+        <v>330</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O27" s="4">
         <v>0.4</v>
@@ -4530,46 +4508,46 @@
         <v>100024</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F28" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G28,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H28" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I28,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J28" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K28,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L28" s="24">
         <v>100024</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>51</v>
+        <v>331</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O28" s="4">
         <v>0.4</v>
@@ -4580,46 +4558,46 @@
         <v>100025</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F29" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G29,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H29" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I29,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J29" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K29,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L29" s="11">
         <v>100025</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>58</v>
+        <v>332</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O29" s="4">
         <v>0.4</v>
@@ -4630,46 +4608,46 @@
         <v>100026</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F30" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G30,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H30" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I30,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J30" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K30,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L30" s="24">
         <v>100026</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O30" s="4">
         <v>0.4</v>
@@ -4680,46 +4658,46 @@
         <v>100027</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F31" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G31,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H31" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I31,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J31" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K31,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L31" s="11">
         <v>100027</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>58</v>
+        <v>334</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O31" s="4">
         <v>0.4</v>
@@ -4730,46 +4708,46 @@
         <v>100028</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F32" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G32,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H32" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I32,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J32" s="24">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K32,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L32" s="24">
         <v>100028</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>58</v>
+        <v>335</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O32" s="4">
         <v>0.4</v>
@@ -4780,46 +4758,46 @@
         <v>100029</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F33" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G33,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H33" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I33,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J33" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K33,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L33" s="11">
         <v>100029</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>59</v>
+        <v>336</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O33" s="4">
         <v>0.4</v>
@@ -4830,46 +4808,46 @@
         <v>100030</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F34" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G34,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H34" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I34,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J34" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K34,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L34" s="24">
         <v>100030</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>59</v>
+        <v>337</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O34" s="4">
         <v>0.4</v>
@@ -4880,46 +4858,46 @@
         <v>100031</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F35" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G35,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H35" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I35,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J35" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K35,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L35" s="11">
         <v>100031</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O35" s="4">
         <v>0.4</v>
@@ -4930,46 +4908,46 @@
         <v>100032</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F36" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G36,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H36" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I36,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K36,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L36" s="24">
         <v>100032</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O36" s="4">
         <v>0.4</v>
@@ -4980,46 +4958,46 @@
         <v>100033</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F37" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G37,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H37" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I37,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J37" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K37,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L37" s="11">
         <v>100033</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O37" s="4">
         <v>0.4</v>
@@ -5030,45 +5008,45 @@
         <v>100034</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F38" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G38,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H38" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I38,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J38" s="11">
         <v>1</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L38" s="24">
         <v>100034</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>60</v>
+        <v>341</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O38" s="4">
         <v>0.4</v>
@@ -5079,45 +5057,45 @@
         <v>100035</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F39" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G39,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H39" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I39,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J39" s="11">
         <v>1</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L39" s="11">
         <v>100035</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O39" s="4">
         <v>0.4</v>
@@ -5128,45 +5106,45 @@
         <v>100036</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F40" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G40,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H40" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I40,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J40" s="11">
         <v>1</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L40" s="24">
         <v>100036</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O40" s="4">
         <v>0.4</v>
@@ -5177,46 +5155,46 @@
         <v>100037</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F41" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G41,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H41" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I41,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J41" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K41,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L41" s="11">
         <v>100037</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O41" s="4">
         <v>0.4</v>
@@ -5227,46 +5205,46 @@
         <v>100038</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F42" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G42,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H42" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I42,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J42" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K42,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L42" s="24">
         <v>100038</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O42" s="4">
         <v>0.4</v>
@@ -5277,46 +5255,46 @@
         <v>100039</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F43" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G43,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H43" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I43,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J43" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K43,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L43" s="11">
         <v>100039</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O43" s="4">
         <v>0.4</v>
@@ -5327,46 +5305,46 @@
         <v>100040</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F44" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G44,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H44" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I44,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>3</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J44" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K44,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L44" s="24">
         <v>100040</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O44" s="4">
         <v>0.4</v>
@@ -5377,46 +5355,46 @@
         <v>200001</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F45" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G45,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H45" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I45,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J45" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K45,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L45" s="11">
         <v>200001</v>
       </c>
-      <c r="M45" s="25" t="s">
-        <v>59</v>
+      <c r="M45" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O45" s="4">
         <v>0.35</v>
@@ -5427,46 +5405,46 @@
         <v>200002</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>313</v>
-      </c>
       <c r="E46" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F46" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G46,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H46" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I46,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J46" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K46,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L46" s="11">
         <v>200002</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O46" s="4">
         <v>0.45</v>
@@ -5477,46 +5455,46 @@
         <v>900001</v>
       </c>
       <c r="B47" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>314</v>
-      </c>
       <c r="E47" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F47" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G47,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H47" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I47,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>4</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J47" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K47,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L47" s="11">
         <v>900001</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O47" s="4">
         <v>0.45</v>
@@ -5550,11 +5528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5596,7 +5574,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -5605,61 +5583,61 @@
         <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>26</v>
@@ -5670,7 +5648,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>55</v>
@@ -5753,10 +5731,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>56</v>
@@ -5765,7 +5743,7 @@
         <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -5774,52 +5752,52 @@
         <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>31</v>
@@ -5844,13 +5822,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -5926,13 +5904,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -6008,13 +5986,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -6090,13 +6068,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -6172,13 +6150,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -6254,13 +6232,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -6336,13 +6314,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -6418,13 +6396,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -6500,13 +6478,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -6582,13 +6560,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -6664,13 +6642,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -6747,13 +6725,13 @@
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -6830,13 +6808,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -6912,13 +6890,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -6993,13 +6971,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -7074,13 +7052,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -7156,13 +7134,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -7238,13 +7216,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -7320,13 +7298,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -7403,13 +7381,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -7486,13 +7464,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -7569,13 +7547,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H26" s="4">
         <v>0</v>
@@ -7652,13 +7630,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -7735,13 +7713,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -7817,13 +7795,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -7899,13 +7877,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -7981,13 +7959,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -8063,13 +8041,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -8145,13 +8123,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -8227,13 +8205,13 @@
         <v>2</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -8309,13 +8287,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H35" s="4">
         <v>0</v>
@@ -8391,13 +8369,13 @@
         <v>2</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H36" s="4">
         <v>0</v>
@@ -8473,13 +8451,13 @@
         <v>3</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H37" s="4">
         <v>0</v>
@@ -8555,13 +8533,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H38" s="4">
         <v>0</v>
@@ -8637,13 +8615,13 @@
         <v>3</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H39" s="4">
         <v>0</v>
@@ -8719,13 +8697,13 @@
         <v>3</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H40" s="4">
         <v>0</v>
@@ -8801,13 +8779,13 @@
         <v>3</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
@@ -8883,13 +8861,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -8965,13 +8943,13 @@
         <v>3</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -9047,13 +9025,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
@@ -9129,13 +9107,13 @@
         <v>3</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
@@ -9211,13 +9189,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
@@ -9293,13 +9271,13 @@
         <v>3</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
@@ -9390,8 +9368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9413,69 +9391,69 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>26</v>
@@ -9483,13 +9461,13 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -9548,64 +9526,64 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>31</v>
@@ -9616,20 +9594,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C5" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D5,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -9682,20 +9660,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D6,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" s="4">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4">
-        <v>0.94000000000000006</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -9748,20 +9726,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C7" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D7,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4">
-        <v>1.1400000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -9814,20 +9792,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C8" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D8,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="13">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4">
-        <v>1.0792000000000002</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -9880,20 +9858,20 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D9,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4">
-        <v>1.0960000000000001</v>
+        <v>1.1949999999999998</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -9946,20 +9924,20 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D10,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E10" s="13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4">
-        <v>1.0920000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -10012,20 +9990,20 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D11,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E11" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4">
-        <v>1.1240000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -10078,20 +10056,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D12,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" s="13">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4">
-        <v>1.0536000000000001</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -10144,20 +10122,20 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D13,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" s="13">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="F13" s="4">
-        <v>1.0751999999999999</v>
+        <v>1.169</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -10210,20 +10188,20 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C14" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D14,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E14" s="13">
-        <v>13.200000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="F14" s="4">
-        <v>1.034</v>
+        <v>1.1174999999999999</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -10276,20 +10254,20 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D15,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="4">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -10342,20 +10320,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D16,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16" s="4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4">
-        <v>1.7100000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -10408,20 +10386,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C17" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D17,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="4">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4">
-        <v>1.6128</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -10474,20 +10452,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C18" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D18,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" s="4">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="F18" s="4">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -10540,20 +10518,20 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D19,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E19" s="4">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="F19" s="4">
-        <v>4.5600000000000005</v>
+        <v>12.5</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -10606,20 +10584,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C20" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D20,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E20" s="4">
-        <v>108</v>
+        <v>540</v>
       </c>
       <c r="F20" s="4">
-        <v>2.1503999999999999</v>
+        <v>3.5070000000000001</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -10672,23 +10650,23 @@
         <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C21" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D21,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="H21" s="4">
         <v>0.18</v>
@@ -10738,23 +10716,23 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C22" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D22,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E22" s="4">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>0.94000000000000006</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <v>0.15000000000000002</v>
@@ -10804,23 +10782,23 @@
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C23" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D23,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E23" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>1.1400000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H23" s="4">
         <v>0.03</v>
@@ -10870,23 +10848,23 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C24" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D24,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E24" s="4">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <v>1.0792000000000002</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="H24" s="4">
         <v>0.03</v>
@@ -10936,23 +10914,23 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C25" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D25,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <v>1.0960000000000001</v>
+        <v>1.1949999999999998</v>
       </c>
       <c r="H25" s="4">
         <v>0.03</v>
@@ -11002,23 +10980,23 @@
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C26" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D26,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <v>1.0920000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="H26" s="4">
         <v>0.03</v>
@@ -11068,23 +11046,23 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C27" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D27,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E27" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <v>1.1240000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="H27" s="4">
         <v>0.03</v>
@@ -11134,23 +11112,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D28,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" s="4">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <v>1.0536000000000001</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="H28" s="4">
         <v>0.03</v>
@@ -11200,23 +11178,23 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C29" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D29,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <v>1.0751999999999999</v>
+        <v>1.169</v>
       </c>
       <c r="H29" s="4">
         <v>0.03</v>
@@ -11266,23 +11244,23 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C30" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D30,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E30" s="4">
-        <v>13.200000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>1.5510000000000002</v>
+        <v>1.67625</v>
       </c>
       <c r="H30" s="4">
         <v>0.03</v>
@@ -11332,23 +11310,23 @@
         <v>27</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C31" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D31,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E31" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="H31" s="4">
         <v>0.36</v>
@@ -11398,23 +11376,23 @@
         <v>28</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C32" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D32,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <v>1.7100000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="H32" s="4">
         <v>0.30000000000000004</v>
@@ -11464,23 +11442,23 @@
         <v>29</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C33" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D33,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>1.6128</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="H33" s="4">
         <v>0.06</v>
@@ -11530,23 +11508,23 @@
         <v>30</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C34" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D34,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>1</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E34" s="4">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="H34" s="4">
         <v>0.06</v>
@@ -11596,23 +11574,23 @@
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C35" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D35,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E35" s="4">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>4.5600000000000005</v>
+        <v>12.5</v>
       </c>
       <c r="H35" s="4">
         <v>0.06</v>
@@ -11662,23 +11640,23 @@
         <v>32</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C36" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D36,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4">
-        <v>108</v>
+        <v>540</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <v>2.1503999999999999</v>
+        <v>3.5070000000000001</v>
       </c>
       <c r="H36" s="4">
         <v>0.06</v>
@@ -11728,23 +11706,23 @@
         <v>33</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C37" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D37,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E37" s="4">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>2.3265000000000002</v>
+        <v>3.3525</v>
       </c>
       <c r="H37" s="4">
         <v>0.15</v>
@@ -11794,23 +11772,23 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D38,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="4">
         <v>165</v>
       </c>
-      <c r="E38" s="4">
-        <v>52.800000000000004</v>
-      </c>
       <c r="F38" s="4">
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <v>6.2040000000000006</v>
+        <v>5.0287500000000005</v>
       </c>
       <c r="H38" s="4">
         <v>0.15</v>
@@ -11860,23 +11838,23 @@
         <v>35</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C39" s="12">
         <f>INDEX('!참조_ENUM'!$N$3:$N$7,MATCH(D39,'!참조_ENUM'!$O$3:$O$7,0))</f>
         <v>2</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E39" s="4">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>2.6340000000000003</v>
+        <v>5.9749999999999996</v>
       </c>
       <c r="H39" s="4">
         <v>0.03</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC25EBE-196C-4CC5-BBAB-985CC81FD0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB830C78-050F-49AF-B1A8-056309BF435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39285" yWindow="1005" windowWidth="35805" windowHeight="19140" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="46155" yWindow="1395" windowWidth="27510" windowHeight="19140" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="466">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1879,6 +1879,14 @@
   </si>
   <si>
     <t>(정예)수색대 소총병_베리타리움</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200002, 200002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2535,18 +2543,18 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="26">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DROP_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29">
@@ -3518,11 +3526,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4390,7 +4398,7 @@
         <v>110009</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>376</v>
+        <v>464</v>
       </c>
       <c r="N18" s="25" t="s">
         <v>75</v>
@@ -4494,7 +4502,7 @@
         <v>110010</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>376</v>
+        <v>464</v>
       </c>
       <c r="N20" s="25" t="s">
         <v>75</v>
@@ -4598,7 +4606,7 @@
         <v>110011</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>376</v>
+        <v>464</v>
       </c>
       <c r="N22" s="25" t="s">
         <v>75</v>
@@ -4702,7 +4710,7 @@
         <v>110012</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>376</v>
+        <v>464</v>
       </c>
       <c r="N24" s="25" t="s">
         <v>75</v>
@@ -7151,11 +7159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8614,13 +8622,11 @@
       <c r="E18" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="4" t="str">
-        <f t="shared" ref="F18" si="55">F17</f>
-        <v>[200105, 200105]</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" ref="G18" si="56">G17</f>
-        <v>[200105, 200105]</v>
+      <c r="F18" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -8633,67 +8639,67 @@
         <v>247</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" ref="K18" si="57">K17</f>
+        <f t="shared" ref="K18" si="55">K17</f>
         <v>13</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" ref="L18" si="58">L17</f>
+        <f t="shared" ref="L18" si="56">L17</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18" si="59">M17</f>
+        <f t="shared" ref="M18" si="57">M17</f>
         <v>2</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18" si="60">N17</f>
+        <f t="shared" ref="N18" si="58">N17</f>
         <v>2</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18" si="61">O17</f>
+        <f t="shared" ref="O18" si="59">O17</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="62">P17</f>
+        <f t="shared" ref="P18" si="60">P17</f>
         <v>0</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18" si="63">Q17</f>
+        <f t="shared" ref="Q18" si="61">Q17</f>
         <v>0</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18" si="64">R17</f>
+        <f t="shared" ref="R18" si="62">R17</f>
         <v>0</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" ref="S18" si="65">S17</f>
+        <f t="shared" ref="S18" si="63">S17</f>
         <v>0</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18" si="66">T17</f>
+        <f t="shared" ref="T18" si="64">T17</f>
         <v>4</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" ref="U18" si="67">U17</f>
+        <f t="shared" ref="U18" si="65">U17</f>
         <v>4</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" ref="V18" si="68">V17</f>
+        <f t="shared" ref="V18" si="66">V17</f>
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" ref="W18" si="69">W17</f>
+        <f t="shared" ref="W18" si="67">W17</f>
         <v>0</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" ref="X18" si="70">X17</f>
+        <f t="shared" ref="X18" si="68">X17</f>
         <v>0</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" ref="Y18" si="71">Y17</f>
+        <f t="shared" ref="Y18" si="69">Y17</f>
         <v>5</v>
       </c>
       <c r="Z18" s="4" t="str">
-        <f t="shared" ref="Z18" si="72">Z17</f>
+        <f t="shared" ref="Z18" si="70">Z17</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -8798,13 +8804,11 @@
       <c r="E20" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="4" t="str">
-        <f t="shared" ref="F20" si="73">F19</f>
-        <v>[200106, 200106]</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" ref="G20" si="74">G19</f>
-        <v>[200106, 200106]</v>
+      <c r="F20" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -8817,67 +8821,67 @@
         <v>248</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" ref="K20" si="75">K19</f>
+        <f t="shared" ref="K20" si="71">K19</f>
         <v>14</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" ref="L20" si="76">L19</f>
+        <f t="shared" ref="L20" si="72">L19</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" ref="M20" si="77">M19</f>
+        <f t="shared" ref="M20" si="73">M19</f>
         <v>1</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" ref="N20" si="78">N19</f>
+        <f t="shared" ref="N20" si="74">N19</f>
         <v>2</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" ref="O20" si="79">O19</f>
+        <f t="shared" ref="O20" si="75">O19</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" ref="P20" si="80">P19</f>
+        <f t="shared" ref="P20" si="76">P19</f>
         <v>0</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" ref="Q20" si="81">Q19</f>
+        <f t="shared" ref="Q20" si="77">Q19</f>
         <v>0</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" ref="R20" si="82">R19</f>
+        <f t="shared" ref="R20" si="78">R19</f>
         <v>0</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" ref="S20" si="83">S19</f>
+        <f t="shared" ref="S20" si="79">S19</f>
         <v>0</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" ref="T20" si="84">T19</f>
+        <f t="shared" ref="T20" si="80">T19</f>
         <v>4</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" ref="U20" si="85">U19</f>
+        <f t="shared" ref="U20" si="81">U19</f>
         <v>4</v>
       </c>
       <c r="V20" s="4">
-        <f t="shared" ref="V20" si="86">V19</f>
+        <f t="shared" ref="V20" si="82">V19</f>
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" ref="W20" si="87">W19</f>
+        <f t="shared" ref="W20" si="83">W19</f>
         <v>0</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" ref="X20" si="88">X19</f>
+        <f t="shared" ref="X20" si="84">X19</f>
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" ref="Y20" si="89">Y19</f>
+        <f t="shared" ref="Y20" si="85">Y19</f>
         <v>5</v>
       </c>
       <c r="Z20" s="4" t="str">
-        <f t="shared" ref="Z20" si="90">Z19</f>
+        <f t="shared" ref="Z20" si="86">Z19</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -8982,13 +8986,11 @@
       <c r="E22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="4" t="str">
-        <f t="shared" ref="F22" si="91">F21</f>
-        <v>[200107, 200107]</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" ref="G22" si="92">G21</f>
-        <v>[200107, 200107]</v>
+      <c r="F22" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -9001,67 +9003,67 @@
         <v>244</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" ref="K22" si="93">K21</f>
+        <f t="shared" ref="K22" si="87">K21</f>
         <v>12</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" ref="L22" si="94">L21</f>
+        <f t="shared" ref="L22" si="88">L21</f>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22" si="95">M21</f>
+        <f t="shared" ref="M22" si="89">M21</f>
         <v>3</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" ref="N22" si="96">N21</f>
+        <f t="shared" ref="N22" si="90">N21</f>
         <v>3</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" ref="O22" si="97">O21</f>
+        <f t="shared" ref="O22" si="91">O21</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" ref="P22" si="98">P21</f>
+        <f t="shared" ref="P22" si="92">P21</f>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" ref="Q22" si="99">Q21</f>
+        <f t="shared" ref="Q22" si="93">Q21</f>
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" ref="R22" si="100">R21</f>
+        <f t="shared" ref="R22" si="94">R21</f>
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" ref="S22" si="101">S21</f>
+        <f t="shared" ref="S22" si="95">S21</f>
         <v>0</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" ref="T22" si="102">T21</f>
+        <f t="shared" ref="T22" si="96">T21</f>
         <v>4</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" ref="U22" si="103">U21</f>
+        <f t="shared" ref="U22" si="97">U21</f>
         <v>4</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" ref="V22" si="104">V21</f>
+        <f t="shared" ref="V22" si="98">V21</f>
         <v>0</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" ref="W22" si="105">W21</f>
+        <f t="shared" ref="W22" si="99">W21</f>
         <v>0</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" ref="X22" si="106">X21</f>
+        <f t="shared" ref="X22" si="100">X21</f>
         <v>0</v>
       </c>
       <c r="Y22" s="4">
-        <f t="shared" ref="Y22" si="107">Y21</f>
+        <f t="shared" ref="Y22" si="101">Y21</f>
         <v>5</v>
       </c>
       <c r="Z22" s="4" t="str">
-        <f t="shared" ref="Z22" si="108">Z21</f>
+        <f t="shared" ref="Z22" si="102">Z21</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9166,13 +9168,11 @@
       <c r="E24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="4" t="str">
-        <f t="shared" ref="F24" si="109">F23</f>
-        <v>[200108, 200108]</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f t="shared" ref="G24" si="110">G23</f>
-        <v>[200108, 200108]</v>
+      <c r="F24" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -9185,67 +9185,67 @@
         <v>262</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" ref="K24" si="111">K23</f>
+        <f t="shared" ref="K24" si="103">K23</f>
         <v>11</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" ref="L24" si="112">L23</f>
+        <f t="shared" ref="L24" si="104">L23</f>
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ref="M24" si="113">M23</f>
+        <f t="shared" ref="M24" si="105">M23</f>
         <v>4</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" ref="N24" si="114">N23</f>
+        <f t="shared" ref="N24" si="106">N23</f>
         <v>3</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" ref="O24" si="115">O23</f>
+        <f t="shared" ref="O24" si="107">O23</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" ref="P24" si="116">P23</f>
+        <f t="shared" ref="P24" si="108">P23</f>
         <v>0</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" ref="Q24" si="117">Q23</f>
+        <f t="shared" ref="Q24" si="109">Q23</f>
         <v>0</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" ref="R24" si="118">R23</f>
+        <f t="shared" ref="R24" si="110">R23</f>
         <v>0</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" ref="S24" si="119">S23</f>
+        <f t="shared" ref="S24" si="111">S23</f>
         <v>0</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" ref="T24" si="120">T23</f>
+        <f t="shared" ref="T24" si="112">T23</f>
         <v>4</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" ref="U24" si="121">U23</f>
+        <f t="shared" ref="U24" si="113">U23</f>
         <v>4</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" ref="V24" si="122">V23</f>
+        <f t="shared" ref="V24" si="114">V23</f>
         <v>0</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" ref="W24" si="123">W23</f>
+        <f t="shared" ref="W24" si="115">W23</f>
         <v>0</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" ref="X24" si="124">X23</f>
+        <f t="shared" ref="X24" si="116">X23</f>
         <v>0</v>
       </c>
       <c r="Y24" s="4">
-        <f t="shared" ref="Y24" si="125">Y23</f>
+        <f t="shared" ref="Y24" si="117">Y23</f>
         <v>5</v>
       </c>
       <c r="Z24" s="4" t="str">
-        <f t="shared" ref="Z24" si="126">Z23</f>
+        <f t="shared" ref="Z24" si="118">Z23</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9367,67 +9367,67 @@
         <v>193</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" ref="K26" si="127">K25</f>
+        <f t="shared" ref="K26" si="119">K25</f>
         <v>16</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" ref="L26" si="128">L25</f>
+        <f t="shared" ref="L26" si="120">L25</f>
         <v>0</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" ref="M26" si="129">M25</f>
+        <f t="shared" ref="M26" si="121">M25</f>
         <v>1</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" ref="N26" si="130">N25</f>
+        <f t="shared" ref="N26" si="122">N25</f>
         <v>1</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" ref="O26" si="131">O25</f>
+        <f t="shared" ref="O26" si="123">O25</f>
         <v>0</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" ref="P26" si="132">P25</f>
+        <f t="shared" ref="P26" si="124">P25</f>
         <v>0</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" ref="Q26" si="133">Q25</f>
+        <f t="shared" ref="Q26" si="125">Q25</f>
         <v>0</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" ref="R26" si="134">R25</f>
+        <f t="shared" ref="R26" si="126">R25</f>
         <v>0</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" ref="S26" si="135">S25</f>
+        <f t="shared" ref="S26" si="127">S25</f>
         <v>0</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" ref="T26" si="136">T25</f>
+        <f t="shared" ref="T26" si="128">T25</f>
         <v>3</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" ref="U26" si="137">U25</f>
+        <f t="shared" ref="U26" si="129">U25</f>
         <v>3</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" ref="V26" si="138">V25</f>
+        <f t="shared" ref="V26" si="130">V25</f>
         <v>0</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" ref="W26" si="139">W25</f>
+        <f t="shared" ref="W26" si="131">W25</f>
         <v>0</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" ref="X26" si="140">X25</f>
+        <f t="shared" ref="X26" si="132">X25</f>
         <v>0</v>
       </c>
       <c r="Y26" s="4">
-        <f t="shared" ref="Y26" si="141">Y25</f>
+        <f t="shared" ref="Y26" si="133">Y25</f>
         <v>5</v>
       </c>
       <c r="Z26" s="4" t="str">
-        <f t="shared" ref="Z26" si="142">Z25</f>
+        <f t="shared" ref="Z26" si="134">Z25</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9549,67 +9549,67 @@
         <v>174</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" ref="K28" si="143">K27</f>
+        <f t="shared" ref="K28" si="135">K27</f>
         <v>17</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" ref="L28" si="144">L27</f>
+        <f t="shared" ref="L28" si="136">L27</f>
         <v>0</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" ref="M28" si="145">M27</f>
+        <f t="shared" ref="M28" si="137">M27</f>
         <v>0</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" ref="N28" si="146">N27</f>
+        <f t="shared" ref="N28" si="138">N27</f>
         <v>1</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" ref="O28" si="147">O27</f>
+        <f t="shared" ref="O28" si="139">O27</f>
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" ref="P28" si="148">P27</f>
+        <f t="shared" ref="P28" si="140">P27</f>
         <v>0</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" ref="Q28" si="149">Q27</f>
+        <f t="shared" ref="Q28" si="141">Q27</f>
         <v>0</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28" si="150">R27</f>
+        <f t="shared" ref="R28" si="142">R27</f>
         <v>0</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" ref="S28" si="151">S27</f>
+        <f t="shared" ref="S28" si="143">S27</f>
         <v>0</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28" si="152">T27</f>
+        <f t="shared" ref="T28" si="144">T27</f>
         <v>3</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" ref="U28" si="153">U27</f>
+        <f t="shared" ref="U28" si="145">U27</f>
         <v>3</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" ref="V28" si="154">V27</f>
+        <f t="shared" ref="V28" si="146">V27</f>
         <v>0</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" ref="W28" si="155">W27</f>
+        <f t="shared" ref="W28" si="147">W27</f>
         <v>0</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" ref="X28" si="156">X27</f>
+        <f t="shared" ref="X28" si="148">X27</f>
         <v>0</v>
       </c>
       <c r="Y28" s="4">
-        <f t="shared" ref="Y28" si="157">Y27</f>
+        <f t="shared" ref="Y28" si="149">Y27</f>
         <v>5</v>
       </c>
       <c r="Z28" s="4" t="str">
-        <f t="shared" ref="Z28" si="158">Z27</f>
+        <f t="shared" ref="Z28" si="150">Z27</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9680,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="V29" s="19">
-        <f t="shared" ref="V29" si="159">V17*3</f>
+        <f t="shared" ref="V29" si="151">V17*3</f>
         <v>0</v>
       </c>
       <c r="W29" s="4">
@@ -9732,67 +9732,67 @@
         <v>180</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" ref="K30" si="160">K29</f>
+        <f t="shared" ref="K30" si="152">K29</f>
         <v>15</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" ref="L30" si="161">L29</f>
+        <f t="shared" ref="L30" si="153">L29</f>
         <v>0</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" ref="M30" si="162">M29</f>
+        <f t="shared" ref="M30" si="154">M29</f>
         <v>2</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30" si="163">N29</f>
+        <f t="shared" ref="N30" si="155">N29</f>
         <v>2</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" ref="O30" si="164">O29</f>
+        <f t="shared" ref="O30" si="156">O29</f>
         <v>0</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" ref="P30" si="165">P29</f>
+        <f t="shared" ref="P30" si="157">P29</f>
         <v>0</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" ref="Q30" si="166">Q29</f>
+        <f t="shared" ref="Q30" si="158">Q29</f>
         <v>0</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" ref="R30" si="167">R29</f>
+        <f t="shared" ref="R30" si="159">R29</f>
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" ref="S30" si="168">S29</f>
+        <f t="shared" ref="S30" si="160">S29</f>
         <v>0</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" ref="T30" si="169">T29</f>
+        <f t="shared" ref="T30" si="161">T29</f>
         <v>3</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" ref="U30" si="170">U29</f>
+        <f t="shared" ref="U30" si="162">U29</f>
         <v>3</v>
       </c>
       <c r="V30" s="19">
-        <f t="shared" ref="V30" si="171">V29</f>
+        <f t="shared" ref="V30" si="163">V29</f>
         <v>0</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" ref="W30" si="172">W29</f>
+        <f t="shared" ref="W30" si="164">W29</f>
         <v>0</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" ref="X30" si="173">X29</f>
+        <f t="shared" ref="X30" si="165">X29</f>
         <v>0</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" ref="Y30" si="174">Y29</f>
+        <f t="shared" ref="Y30" si="166">Y29</f>
         <v>5</v>
       </c>
       <c r="Z30" s="4" t="str">
-        <f t="shared" ref="Z30" si="175">Z29</f>
+        <f t="shared" ref="Z30" si="167">Z29</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9863,7 +9863,7 @@
         <v>3</v>
       </c>
       <c r="V31" s="19">
-        <f t="shared" ref="V31" si="176">V5*3</f>
+        <f t="shared" ref="V31" si="168">V5*3</f>
         <v>0</v>
       </c>
       <c r="W31" s="4">
@@ -9915,67 +9915,67 @@
         <v>208</v>
       </c>
       <c r="K32" s="19">
-        <f t="shared" ref="K32" si="177">K31</f>
+        <f t="shared" ref="K32" si="169">K31</f>
         <v>14</v>
       </c>
       <c r="L32" s="19">
-        <f t="shared" ref="L32" si="178">L31</f>
+        <f t="shared" ref="L32" si="170">L31</f>
         <v>0</v>
       </c>
       <c r="M32" s="19">
-        <f t="shared" ref="M32" si="179">M31</f>
+        <f t="shared" ref="M32" si="171">M31</f>
         <v>3</v>
       </c>
       <c r="N32" s="19">
-        <f t="shared" ref="N32" si="180">N31</f>
+        <f t="shared" ref="N32" si="172">N31</f>
         <v>2</v>
       </c>
       <c r="O32" s="19">
-        <f t="shared" ref="O32" si="181">O31</f>
+        <f t="shared" ref="O32" si="173">O31</f>
         <v>0</v>
       </c>
       <c r="P32" s="19">
-        <f t="shared" ref="P32" si="182">P31</f>
+        <f t="shared" ref="P32" si="174">P31</f>
         <v>0</v>
       </c>
       <c r="Q32" s="19">
-        <f t="shared" ref="Q32" si="183">Q31</f>
+        <f t="shared" ref="Q32" si="175">Q31</f>
         <v>0</v>
       </c>
       <c r="R32" s="19">
-        <f t="shared" ref="R32" si="184">R31</f>
+        <f t="shared" ref="R32" si="176">R31</f>
         <v>0</v>
       </c>
       <c r="S32" s="19">
-        <f t="shared" ref="S32" si="185">S31</f>
+        <f t="shared" ref="S32" si="177">S31</f>
         <v>0</v>
       </c>
       <c r="T32" s="19">
-        <f t="shared" ref="T32" si="186">T31</f>
+        <f t="shared" ref="T32" si="178">T31</f>
         <v>3</v>
       </c>
       <c r="U32" s="19">
-        <f t="shared" ref="U32" si="187">U31</f>
+        <f t="shared" ref="U32" si="179">U31</f>
         <v>3</v>
       </c>
       <c r="V32" s="19">
-        <f t="shared" ref="V32" si="188">V31</f>
+        <f t="shared" ref="V32" si="180">V31</f>
         <v>0</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" ref="W32" si="189">W31</f>
+        <f t="shared" ref="W32" si="181">W31</f>
         <v>0</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" ref="X32" si="190">X31</f>
+        <f t="shared" ref="X32" si="182">X31</f>
         <v>0</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" ref="Y32" si="191">Y31</f>
+        <f t="shared" ref="Y32" si="183">Y31</f>
         <v>5</v>
       </c>
       <c r="Z32" s="4" t="str">
-        <f t="shared" ref="Z32" si="192">Z31</f>
+        <f t="shared" ref="Z32" si="184">Z31</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10046,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" ref="V33" si="193">V9*3</f>
+        <f t="shared" ref="V33" si="185">V9*3</f>
         <v>0</v>
       </c>
       <c r="W33" s="4">
@@ -10098,67 +10098,67 @@
         <v>169</v>
       </c>
       <c r="K34" s="19">
-        <f t="shared" ref="K34" si="194">K33</f>
+        <f t="shared" ref="K34" si="186">K33</f>
         <v>15</v>
       </c>
       <c r="L34" s="19">
-        <f t="shared" ref="L34" si="195">L33</f>
+        <f t="shared" ref="L34" si="187">L33</f>
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <f t="shared" ref="M34" si="196">M33</f>
+        <f t="shared" ref="M34" si="188">M33</f>
         <v>1</v>
       </c>
       <c r="N34" s="19">
-        <f t="shared" ref="N34" si="197">N33</f>
+        <f t="shared" ref="N34" si="189">N33</f>
         <v>1</v>
       </c>
       <c r="O34" s="19">
-        <f t="shared" ref="O34" si="198">O33</f>
+        <f t="shared" ref="O34" si="190">O33</f>
         <v>0</v>
       </c>
       <c r="P34" s="19">
-        <f t="shared" ref="P34" si="199">P33</f>
+        <f t="shared" ref="P34" si="191">P33</f>
         <v>0</v>
       </c>
       <c r="Q34" s="19">
-        <f t="shared" ref="Q34" si="200">Q33</f>
+        <f t="shared" ref="Q34" si="192">Q33</f>
         <v>0</v>
       </c>
       <c r="R34" s="19">
-        <f t="shared" ref="R34" si="201">R33</f>
+        <f t="shared" ref="R34" si="193">R33</f>
         <v>0</v>
       </c>
       <c r="S34" s="19">
-        <f t="shared" ref="S34" si="202">S33</f>
+        <f t="shared" ref="S34" si="194">S33</f>
         <v>0</v>
       </c>
       <c r="T34" s="19">
-        <f t="shared" ref="T34" si="203">T33</f>
+        <f t="shared" ref="T34" si="195">T33</f>
         <v>1</v>
       </c>
       <c r="U34" s="19">
-        <f t="shared" ref="U34" si="204">U33</f>
+        <f t="shared" ref="U34" si="196">U33</f>
         <v>1</v>
       </c>
       <c r="V34" s="19">
-        <f t="shared" ref="V34" si="205">V33</f>
+        <f t="shared" ref="V34" si="197">V33</f>
         <v>0</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" ref="W34" si="206">W33</f>
+        <f t="shared" ref="W34" si="198">W33</f>
         <v>0</v>
       </c>
       <c r="X34" s="4">
-        <f t="shared" ref="X34" si="207">X33</f>
+        <f t="shared" ref="X34" si="199">X33</f>
         <v>0</v>
       </c>
       <c r="Y34" s="4">
-        <f t="shared" ref="Y34" si="208">Y33</f>
+        <f t="shared" ref="Y34" si="200">Y33</f>
         <v>5</v>
       </c>
       <c r="Z34" s="4" t="str">
-        <f t="shared" ref="Z34" si="209">Z33</f>
+        <f t="shared" ref="Z34" si="201">Z33</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10280,67 +10280,67 @@
         <v>150</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" ref="K36" si="210">K35</f>
+        <f t="shared" ref="K36" si="202">K35</f>
         <v>16</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" ref="L36" si="211">L35</f>
+        <f t="shared" ref="L36" si="203">L35</f>
         <v>0</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" ref="M36" si="212">M35</f>
+        <f t="shared" ref="M36" si="204">M35</f>
         <v>0</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" ref="N36" si="213">N35</f>
+        <f t="shared" ref="N36" si="205">N35</f>
         <v>1</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" ref="O36" si="214">O35</f>
+        <f t="shared" ref="O36" si="206">O35</f>
         <v>0</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" ref="P36" si="215">P35</f>
+        <f t="shared" ref="P36" si="207">P35</f>
         <v>0</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" ref="Q36" si="216">Q35</f>
+        <f t="shared" ref="Q36" si="208">Q35</f>
         <v>0</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" ref="R36" si="217">R35</f>
+        <f t="shared" ref="R36" si="209">R35</f>
         <v>0</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" ref="S36" si="218">S35</f>
+        <f t="shared" ref="S36" si="210">S35</f>
         <v>0</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" ref="T36" si="219">T35</f>
+        <f t="shared" ref="T36" si="211">T35</f>
         <v>1</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" ref="U36" si="220">U35</f>
+        <f t="shared" ref="U36" si="212">U35</f>
         <v>1</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" ref="V36" si="221">V35</f>
+        <f t="shared" ref="V36" si="213">V35</f>
         <v>0</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" ref="W36" si="222">W35</f>
+        <f t="shared" ref="W36" si="214">W35</f>
         <v>0</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" ref="X36" si="223">X35</f>
+        <f t="shared" ref="X36" si="215">X35</f>
         <v>0</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" ref="Y36" si="224">Y35</f>
+        <f t="shared" ref="Y36" si="216">Y35</f>
         <v>5</v>
       </c>
       <c r="Z36" s="4" t="str">
-        <f t="shared" ref="Z36" si="225">Z35</f>
+        <f t="shared" ref="Z36" si="217">Z35</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10462,67 +10462,67 @@
         <v>156</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" ref="K38" si="226">K37</f>
+        <f t="shared" ref="K38" si="218">K37</f>
         <v>14</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" ref="L38" si="227">L37</f>
+        <f t="shared" ref="L38" si="219">L37</f>
         <v>0</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" ref="M38" si="228">M37</f>
+        <f t="shared" ref="M38" si="220">M37</f>
         <v>2</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" ref="N38" si="229">N37</f>
+        <f t="shared" ref="N38" si="221">N37</f>
         <v>2</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" ref="O38" si="230">O37</f>
+        <f t="shared" ref="O38" si="222">O37</f>
         <v>0</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" ref="P38" si="231">P37</f>
+        <f t="shared" ref="P38" si="223">P37</f>
         <v>0</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" ref="Q38" si="232">Q37</f>
+        <f t="shared" ref="Q38" si="224">Q37</f>
         <v>0</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" ref="R38" si="233">R37</f>
+        <f t="shared" ref="R38" si="225">R37</f>
         <v>0</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" ref="S38" si="234">S37</f>
+        <f t="shared" ref="S38" si="226">S37</f>
         <v>0</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" ref="T38" si="235">T37</f>
+        <f t="shared" ref="T38" si="227">T37</f>
         <v>1</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" ref="U38" si="236">U37</f>
+        <f t="shared" ref="U38" si="228">U37</f>
         <v>1</v>
       </c>
       <c r="V38" s="4">
-        <f t="shared" ref="V38" si="237">V37</f>
+        <f t="shared" ref="V38" si="229">V37</f>
         <v>0</v>
       </c>
       <c r="W38" s="4">
-        <f t="shared" ref="W38" si="238">W37</f>
+        <f t="shared" ref="W38" si="230">W37</f>
         <v>0</v>
       </c>
       <c r="X38" s="4">
-        <f t="shared" ref="X38" si="239">X37</f>
+        <f t="shared" ref="X38" si="231">X37</f>
         <v>0</v>
       </c>
       <c r="Y38" s="4">
-        <f t="shared" ref="Y38" si="240">Y37</f>
+        <f t="shared" ref="Y38" si="232">Y37</f>
         <v>5</v>
       </c>
       <c r="Z38" s="4" t="str">
-        <f t="shared" ref="Z38" si="241">Z37</f>
+        <f t="shared" ref="Z38" si="233">Z37</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10644,67 +10644,67 @@
         <v>187</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" ref="K40" si="242">K39</f>
+        <f t="shared" ref="K40" si="234">K39</f>
         <v>13</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" ref="L40" si="243">L39</f>
+        <f t="shared" ref="L40" si="235">L39</f>
         <v>0</v>
       </c>
       <c r="M40" s="4">
-        <f t="shared" ref="M40" si="244">M39</f>
+        <f t="shared" ref="M40" si="236">M39</f>
         <v>3</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" ref="N40" si="245">N39</f>
+        <f t="shared" ref="N40" si="237">N39</f>
         <v>2</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" ref="O40" si="246">O39</f>
+        <f t="shared" ref="O40" si="238">O39</f>
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" ref="P40" si="247">P39</f>
+        <f t="shared" ref="P40" si="239">P39</f>
         <v>0</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" ref="Q40" si="248">Q39</f>
+        <f t="shared" ref="Q40" si="240">Q39</f>
         <v>0</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" ref="R40" si="249">R39</f>
+        <f t="shared" ref="R40" si="241">R39</f>
         <v>0</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" ref="S40" si="250">S39</f>
+        <f t="shared" ref="S40" si="242">S39</f>
         <v>0</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" ref="T40" si="251">T39</f>
+        <f t="shared" ref="T40" si="243">T39</f>
         <v>1</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" ref="U40" si="252">U39</f>
+        <f t="shared" ref="U40" si="244">U39</f>
         <v>1</v>
       </c>
       <c r="V40" s="4">
-        <f t="shared" ref="V40" si="253">V39</f>
+        <f t="shared" ref="V40" si="245">V39</f>
         <v>0</v>
       </c>
       <c r="W40" s="4">
-        <f t="shared" ref="W40" si="254">W39</f>
+        <f t="shared" ref="W40" si="246">W39</f>
         <v>0</v>
       </c>
       <c r="X40" s="4">
-        <f t="shared" ref="X40" si="255">X39</f>
+        <f t="shared" ref="X40" si="247">X39</f>
         <v>0</v>
       </c>
       <c r="Y40" s="4">
-        <f t="shared" ref="Y40" si="256">Y39</f>
+        <f t="shared" ref="Y40" si="248">Y39</f>
         <v>5</v>
       </c>
       <c r="Z40" s="4" t="str">
-        <f t="shared" ref="Z40" si="257">Z39</f>
+        <f t="shared" ref="Z40" si="249">Z39</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="V42" s="19">
-        <f t="shared" ref="V42" si="258">V35*3</f>
+        <f t="shared" ref="V42" si="250">V35*3</f>
         <v>0</v>
       </c>
       <c r="W42" s="4">
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="V43" s="19">
-        <f t="shared" ref="V43" si="259">V39*3</f>
+        <f t="shared" ref="V43" si="251">V39*3</f>
         <v>0</v>
       </c>
       <c r="W43" s="4">
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="V44" s="19">
-        <f t="shared" ref="V44" si="260">V25*3</f>
+        <f t="shared" ref="V44" si="252">V25*3</f>
         <v>0</v>
       </c>
       <c r="W44" s="4">
@@ -11105,7 +11105,7 @@
         <v>4</v>
       </c>
       <c r="V45" s="19">
-        <f t="shared" ref="V45" si="261">V37*3</f>
+        <f t="shared" ref="V45" si="253">V37*3</f>
         <v>0</v>
       </c>
       <c r="W45" s="4">
@@ -11188,7 +11188,7 @@
         <v>4</v>
       </c>
       <c r="V46" s="19">
-        <f t="shared" ref="V46" si="262">V29*3</f>
+        <f t="shared" ref="V46" si="254">V29*3</f>
         <v>0</v>
       </c>
       <c r="W46" s="4">
@@ -11271,7 +11271,7 @@
         <v>4</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" ref="V47" si="263">V43*2</f>
+        <f t="shared" ref="V47" si="255">V43*2</f>
         <v>0</v>
       </c>
       <c r="W47" s="4">
@@ -11400,22 +11400,22 @@
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <v>2.2999999999999998</v>
+        <v>676</v>
       </c>
       <c r="K49" s="4">
-        <v>676</v>
+        <v>16</v>
       </c>
       <c r="L49" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M49" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N49" s="4">
         <v>4</v>
       </c>
       <c r="O49" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P49" s="4">
         <v>0</v>
@@ -11482,22 +11482,22 @@
         <v>0</v>
       </c>
       <c r="J50" s="4">
-        <v>2.6999999999999997</v>
+        <v>649</v>
       </c>
       <c r="K50" s="4">
-        <v>649</v>
+        <v>18</v>
       </c>
       <c r="L50" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M50" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N50" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O50" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P50" s="4">
         <v>0</v>
@@ -11564,22 +11564,22 @@
         <v>0</v>
       </c>
       <c r="J51" s="4">
-        <v>2.9</v>
+        <v>678</v>
       </c>
       <c r="K51" s="4">
-        <v>678</v>
+        <v>14</v>
       </c>
       <c r="L51" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M51" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N51" s="4">
         <v>6</v>
       </c>
       <c r="O51" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P51" s="4">
         <v>0</v>
@@ -11646,22 +11646,22 @@
         <v>0</v>
       </c>
       <c r="J52" s="4">
-        <v>2.5</v>
+        <v>704</v>
       </c>
       <c r="K52" s="4">
-        <v>704</v>
+        <v>12</v>
       </c>
       <c r="L52" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M52" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N52" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O52" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P52" s="4">
         <v>0</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB830C78-050F-49AF-B1A8-056309BF435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4231F379-342F-4447-AA65-143FFDE511C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46155" yWindow="1395" windowWidth="27510" windowHeight="19140" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="45630" yWindow="1785" windowWidth="27510" windowHeight="19140" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -3530,7 +3530,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49:XFD52"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7159,11 +7159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C59F6-4AA3-4949-8D97-9E9EAF819AB8}">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7468,10 +7468,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>330</v>
+        <v>443</v>
       </c>
       <c r="K5" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -7553,31 +7553,25 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <f>J5</f>
-        <v>330</v>
+        <v>427</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" ref="K6:Z6" si="0">K5</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="O6" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P6:Z6" si="0">P5</f>
         <v>0</v>
       </c>
       <c r="Q6" s="4">
@@ -7652,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>313</v>
+        <v>437</v>
       </c>
       <c r="K7" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
@@ -7737,71 +7731,65 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>J7</f>
-        <v>313</v>
+        <v>453</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" ref="K8" si="3">K7</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" ref="L8" si="4">L7</f>
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" ref="M8" si="5">M7</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" ref="N8" si="6">N7</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" ref="O8" si="7">O7</f>
         <v>0</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8" si="8">P7</f>
+        <f t="shared" ref="P8" si="3">P7</f>
         <v>0</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" ref="Q8" si="9">Q7</f>
+        <f t="shared" ref="Q8" si="4">Q7</f>
         <v>0</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" ref="R8" si="10">R7</f>
+        <f t="shared" ref="R8" si="5">R7</f>
         <v>0</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" ref="S8" si="11">S7</f>
+        <f t="shared" ref="S8" si="6">S7</f>
         <v>0</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" ref="T8" si="12">T7</f>
+        <f t="shared" ref="T8" si="7">T7</f>
         <v>2</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" ref="U8" si="13">U7</f>
+        <f t="shared" ref="U8" si="8">U7</f>
         <v>2</v>
       </c>
       <c r="V8" s="4">
-        <f t="shared" ref="V8" si="14">V7</f>
+        <f t="shared" ref="V8" si="9">V7</f>
         <v>0</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" ref="W8" si="15">W7</f>
+        <f t="shared" ref="W8" si="10">W7</f>
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <f t="shared" ref="X8" si="16">X7</f>
+        <f t="shared" ref="X8" si="11">X7</f>
         <v>20</v>
       </c>
       <c r="Y8" s="4">
-        <f t="shared" ref="Y8" si="17">Y7</f>
+        <f t="shared" ref="Y8" si="12">Y7</f>
         <v>5</v>
       </c>
       <c r="Z8" s="4" t="str">
-        <f t="shared" ref="Z8" si="18">Z7</f>
+        <f t="shared" ref="Z8" si="13">Z7</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -7836,19 +7824,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="K9" s="4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
       </c>
       <c r="M9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -7907,11 +7895,11 @@
         <v>79</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f t="shared" ref="F10" si="19">F9</f>
+        <f t="shared" ref="F10" si="14">F9</f>
         <v>[200103, 200103]</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" ref="G10" si="20">G9</f>
+        <f t="shared" ref="G10" si="15">G9</f>
         <v>[200103, 200103]</v>
       </c>
       <c r="H10" s="4">
@@ -7921,71 +7909,65 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <f>J9</f>
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" ref="K10" si="21">K9</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" ref="L10" si="22">L9</f>
         <v>0</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10" si="23">M9</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" ref="N10" si="24">N9</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" ref="O10" si="25">O9</f>
         <v>0</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" ref="P10" si="26">P9</f>
+        <f t="shared" ref="P10" si="16">P9</f>
         <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" ref="Q10" si="27">Q9</f>
+        <f t="shared" ref="Q10" si="17">Q9</f>
         <v>0</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" ref="R10" si="28">R9</f>
+        <f t="shared" ref="R10" si="18">R9</f>
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" ref="S10" si="29">S9</f>
+        <f t="shared" ref="S10" si="19">S9</f>
         <v>0</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" ref="T10" si="30">T9</f>
+        <f t="shared" ref="T10" si="20">T9</f>
         <v>2</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" ref="U10" si="31">U9</f>
+        <f t="shared" ref="U10" si="21">U9</f>
         <v>2</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" ref="V10" si="32">V9</f>
+        <f t="shared" ref="V10" si="22">V9</f>
         <v>0</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" ref="W10" si="33">W9</f>
+        <f t="shared" ref="W10" si="23">W9</f>
         <v>0</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" ref="X10" si="34">X9</f>
+        <f t="shared" ref="X10" si="24">X9</f>
         <v>20</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" ref="Y10" si="35">Y9</f>
+        <f t="shared" ref="Y10" si="25">Y9</f>
         <v>5</v>
       </c>
       <c r="Z10" s="4" t="str">
-        <f t="shared" ref="Z10" si="36">Z9</f>
+        <f t="shared" ref="Z10" si="26">Z9</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -8020,16 +8002,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="K11" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" s="4">
         <v>4</v>
@@ -8091,11 +8073,11 @@
         <v>79</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f t="shared" ref="F12" si="37">F11</f>
+        <f t="shared" ref="F12" si="27">F11</f>
         <v>[200104, 200104]</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f t="shared" ref="G12" si="38">G11</f>
+        <f t="shared" ref="G12" si="28">G11</f>
         <v>[200104, 200104]</v>
       </c>
       <c r="H12" s="4">
@@ -8105,71 +8087,65 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>J11</f>
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" ref="K12" si="39">K11</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" ref="L12" si="40">L11</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12" si="41">M11</f>
         <v>5</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" ref="N12" si="42">N11</f>
         <v>4</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" ref="O12" si="43">O11</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" ref="P12" si="44">P11</f>
+        <f t="shared" ref="P12" si="29">P11</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" ref="Q12" si="45">Q11</f>
+        <f t="shared" ref="Q12" si="30">Q11</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" ref="R12:R16" si="46">R11</f>
+        <f t="shared" ref="R12:R16" si="31">R11</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" ref="S12:S16" si="47">S11</f>
+        <f t="shared" ref="S12:S16" si="32">S11</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" ref="T12" si="48">T11</f>
+        <f t="shared" ref="T12" si="33">T11</f>
         <v>2</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" ref="U12" si="49">U11</f>
+        <f t="shared" ref="U12" si="34">U11</f>
         <v>2</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" ref="V12" si="50">V11</f>
+        <f t="shared" ref="V12" si="35">V11</f>
         <v>0</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" ref="W12:W16" si="51">W11</f>
+        <f t="shared" ref="W12:W16" si="36">W11</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" ref="X12" si="52">X11</f>
+        <f t="shared" ref="X12" si="37">X11</f>
         <v>20</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" ref="Y12:Y16" si="53">Y11</f>
+        <f t="shared" ref="Y12:Y16" si="38">Y11</f>
         <v>5</v>
       </c>
       <c r="Z12" s="4" t="str">
-        <f t="shared" ref="Z12:Z16" si="54">Z11</f>
+        <f t="shared" ref="Z12:Z16" si="39">Z11</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -8204,19 +8180,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="K13" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
       </c>
       <c r="M13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="4">
         <v>0</v>
@@ -8228,11 +8204,11 @@
         <v>0</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T13" s="4">
@@ -8245,18 +8221,18 @@
         <v>0</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X13" s="4">
         <v>10</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="Z13" s="4" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="39"/>
         <v>공격하자</v>
       </c>
     </row>
@@ -8291,19 +8267,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="K14" s="4">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" s="4">
         <v>0</v>
@@ -8315,11 +8291,11 @@
         <v>0</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T14" s="4">
@@ -8332,18 +8308,18 @@
         <v>0</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X14" s="4">
         <v>10</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="Z14" s="4" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="39"/>
         <v>공격하자</v>
       </c>
     </row>
@@ -8378,19 +8354,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="K15" s="4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
@@ -8402,11 +8378,11 @@
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T15" s="4">
@@ -8419,18 +8395,18 @@
         <v>0</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X15" s="4">
         <v>10</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="Z15" s="4" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="39"/>
         <v>공격하자</v>
       </c>
     </row>
@@ -8465,19 +8441,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>270</v>
+        <v>343</v>
       </c>
       <c r="K16" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" s="4">
         <v>0</v>
@@ -8489,11 +8465,11 @@
         <v>0</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T16" s="4">
@@ -8506,18 +8482,18 @@
         <v>0</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X16" s="4">
         <v>10</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="Z16" s="4" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="39"/>
         <v>공격하자</v>
       </c>
     </row>
@@ -8552,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="K17" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="4">
         <v>0</v>
@@ -8635,71 +8611,65 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>J17</f>
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" ref="K18" si="55">K17</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" ref="L18" si="56">L17</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18" si="57">M17</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18" si="58">N17</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18" si="59">O17</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="60">P17</f>
+        <f t="shared" ref="P18" si="40">P17</f>
         <v>0</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18" si="61">Q17</f>
+        <f t="shared" ref="Q18" si="41">Q17</f>
         <v>0</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18" si="62">R17</f>
+        <f t="shared" ref="R18" si="42">R17</f>
         <v>0</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" ref="S18" si="63">S17</f>
+        <f t="shared" ref="S18" si="43">S17</f>
         <v>0</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18" si="64">T17</f>
+        <f t="shared" ref="T18" si="44">T17</f>
         <v>4</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" ref="U18" si="65">U17</f>
+        <f t="shared" ref="U18" si="45">U17</f>
         <v>4</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" ref="V18" si="66">V17</f>
+        <f t="shared" ref="V18" si="46">V17</f>
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" ref="W18" si="67">W17</f>
+        <f t="shared" ref="W18" si="47">W17</f>
         <v>0</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" ref="X18" si="68">X17</f>
+        <f t="shared" ref="X18" si="48">X17</f>
         <v>0</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" ref="Y18" si="69">Y17</f>
+        <f t="shared" ref="Y18" si="49">Y17</f>
         <v>5</v>
       </c>
       <c r="Z18" s="4" t="str">
-        <f t="shared" ref="Z18" si="70">Z17</f>
+        <f t="shared" ref="Z18" si="50">Z17</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -8734,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="K19" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="4">
         <v>2</v>
@@ -8817,71 +8787,65 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f>J19</f>
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" ref="K20" si="71">K19</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" ref="L20" si="72">L19</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" ref="M20" si="73">M19</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" ref="N20" si="74">N19</f>
         <v>2</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" ref="O20" si="75">O19</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" ref="P20" si="76">P19</f>
+        <f t="shared" ref="P20" si="51">P19</f>
         <v>0</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" ref="Q20" si="77">Q19</f>
+        <f t="shared" ref="Q20" si="52">Q19</f>
         <v>0</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" ref="R20" si="78">R19</f>
+        <f t="shared" ref="R20" si="53">R19</f>
         <v>0</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" ref="S20" si="79">S19</f>
+        <f t="shared" ref="S20" si="54">S19</f>
         <v>0</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" ref="T20" si="80">T19</f>
+        <f t="shared" ref="T20" si="55">T19</f>
         <v>4</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" ref="U20" si="81">U19</f>
+        <f t="shared" ref="U20" si="56">U19</f>
         <v>4</v>
       </c>
       <c r="V20" s="4">
-        <f t="shared" ref="V20" si="82">V19</f>
+        <f t="shared" ref="V20" si="57">V19</f>
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" ref="W20" si="83">W19</f>
+        <f t="shared" ref="W20" si="58">W19</f>
         <v>0</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" ref="X20" si="84">X19</f>
+        <f t="shared" ref="X20" si="59">X19</f>
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" ref="Y20" si="85">Y19</f>
+        <f t="shared" ref="Y20" si="60">Y19</f>
         <v>5</v>
       </c>
       <c r="Z20" s="4" t="str">
-        <f t="shared" ref="Z20" si="86">Z19</f>
+        <f t="shared" ref="Z20" si="61">Z19</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -8916,19 +8880,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="K21" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
@@ -8999,71 +8963,65 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f>J21</f>
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" ref="K22" si="87">K21</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" ref="L22" si="88">L21</f>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22" si="89">M21</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" ref="N22" si="90">N21</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" ref="O22" si="91">O21</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" ref="P22" si="92">P21</f>
+        <f t="shared" ref="P22" si="62">P21</f>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" ref="Q22" si="93">Q21</f>
+        <f t="shared" ref="Q22" si="63">Q21</f>
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" ref="R22" si="94">R21</f>
+        <f t="shared" ref="R22" si="64">R21</f>
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" ref="S22" si="95">S21</f>
+        <f t="shared" ref="S22" si="65">S21</f>
         <v>0</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" ref="T22" si="96">T21</f>
+        <f t="shared" ref="T22" si="66">T21</f>
         <v>4</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" ref="U22" si="97">U21</f>
+        <f t="shared" ref="U22" si="67">U21</f>
         <v>4</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" ref="V22" si="98">V21</f>
+        <f t="shared" ref="V22" si="68">V21</f>
         <v>0</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" ref="W22" si="99">W21</f>
+        <f t="shared" ref="W22" si="69">W21</f>
         <v>0</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" ref="X22" si="100">X21</f>
+        <f t="shared" ref="X22" si="70">X21</f>
         <v>0</v>
       </c>
       <c r="Y22" s="4">
-        <f t="shared" ref="Y22" si="101">Y21</f>
+        <f t="shared" ref="Y22" si="71">Y21</f>
         <v>5</v>
       </c>
       <c r="Z22" s="4" t="str">
-        <f t="shared" ref="Z22" si="102">Z21</f>
+        <f t="shared" ref="Z22" si="72">Z21</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9098,19 +9056,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="K23" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L23" s="4">
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23" s="4">
         <v>0</v>
@@ -9181,71 +9139,65 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f>J23</f>
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" ref="K24" si="103">K23</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" ref="L24" si="104">L23</f>
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ref="M24" si="105">M23</f>
+        <v>3</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" ref="P24" si="73">P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" ref="Q24" si="74">Q23</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" ref="R24" si="75">R23</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" ref="S24" si="76">S23</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" ref="T24" si="77">T23</f>
         <v>4</v>
       </c>
-      <c r="N24" s="4">
-        <f t="shared" ref="N24" si="106">N23</f>
-        <v>3</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" ref="O24" si="107">O23</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <f t="shared" ref="P24" si="108">P23</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" ref="Q24" si="109">Q23</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <f t="shared" ref="R24" si="110">R23</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" ref="S24" si="111">S23</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" ref="T24" si="112">T23</f>
+      <c r="U24" s="4">
+        <f t="shared" ref="U24" si="78">U23</f>
         <v>4</v>
       </c>
-      <c r="U24" s="4">
-        <f t="shared" ref="U24" si="113">U23</f>
-        <v>4</v>
-      </c>
       <c r="V24" s="4">
-        <f t="shared" ref="V24" si="114">V23</f>
+        <f t="shared" ref="V24" si="79">V23</f>
         <v>0</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" ref="W24" si="115">W23</f>
+        <f t="shared" ref="W24" si="80">W23</f>
         <v>0</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" ref="X24" si="116">X23</f>
+        <f t="shared" ref="X24" si="81">X23</f>
         <v>0</v>
       </c>
       <c r="Y24" s="4">
-        <f t="shared" ref="Y24" si="117">Y23</f>
+        <f t="shared" ref="Y24" si="82">Y23</f>
         <v>5</v>
       </c>
       <c r="Z24" s="4" t="str">
-        <f t="shared" ref="Z24" si="118">Z23</f>
+        <f t="shared" ref="Z24" si="83">Z23</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9280,10 +9232,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="K25" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="4">
         <v>0</v>
@@ -9363,71 +9315,65 @@
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f>J25</f>
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" ref="K26" si="119">K25</f>
         <v>16</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" ref="L26" si="120">L25</f>
         <v>0</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" ref="M26" si="121">M25</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
         <v>1</v>
       </c>
-      <c r="N26" s="4">
-        <f t="shared" ref="N26" si="122">N25</f>
-        <v>1</v>
-      </c>
       <c r="O26" s="4">
-        <f t="shared" ref="O26" si="123">O25</f>
         <v>0</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" ref="P26" si="124">P25</f>
+        <f t="shared" ref="P26" si="84">P25</f>
         <v>0</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" ref="Q26" si="125">Q25</f>
+        <f t="shared" ref="Q26" si="85">Q25</f>
         <v>0</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" ref="R26" si="126">R25</f>
+        <f t="shared" ref="R26" si="86">R25</f>
         <v>0</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" ref="S26" si="127">S25</f>
+        <f t="shared" ref="S26" si="87">S25</f>
         <v>0</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" ref="T26" si="128">T25</f>
+        <f t="shared" ref="T26" si="88">T25</f>
         <v>3</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" ref="U26" si="129">U25</f>
+        <f t="shared" ref="U26" si="89">U25</f>
         <v>3</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" ref="V26" si="130">V25</f>
+        <f t="shared" ref="V26" si="90">V25</f>
         <v>0</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" ref="W26" si="131">W25</f>
+        <f t="shared" ref="W26" si="91">W25</f>
         <v>0</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" ref="X26" si="132">X25</f>
+        <f t="shared" ref="X26" si="92">X25</f>
         <v>0</v>
       </c>
       <c r="Y26" s="4">
-        <f t="shared" ref="Y26" si="133">Y25</f>
+        <f t="shared" ref="Y26" si="93">Y25</f>
         <v>5</v>
       </c>
       <c r="Z26" s="4" t="str">
-        <f t="shared" ref="Z26" si="134">Z25</f>
+        <f t="shared" ref="Z26" si="94">Z25</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9462,19 +9408,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="K27" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
       </c>
       <c r="M27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
@@ -9545,71 +9491,65 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <f>J27</f>
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" ref="K28" si="135">K27</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" ref="L28" si="136">L27</f>
         <v>0</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" ref="M28" si="137">M27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" ref="N28" si="138">N27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" ref="O28" si="139">O27</f>
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" ref="P28" si="140">P27</f>
+        <f t="shared" ref="P28" si="95">P27</f>
         <v>0</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" ref="Q28" si="141">Q27</f>
+        <f t="shared" ref="Q28" si="96">Q27</f>
         <v>0</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28" si="142">R27</f>
+        <f t="shared" ref="R28" si="97">R27</f>
         <v>0</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" ref="S28" si="143">S27</f>
+        <f t="shared" ref="S28" si="98">S27</f>
         <v>0</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28" si="144">T27</f>
+        <f t="shared" ref="T28" si="99">T27</f>
         <v>3</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" ref="U28" si="145">U27</f>
+        <f t="shared" ref="U28" si="100">U27</f>
         <v>3</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" ref="V28" si="146">V27</f>
+        <f t="shared" ref="V28" si="101">V27</f>
         <v>0</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" ref="W28" si="147">W27</f>
+        <f t="shared" ref="W28" si="102">W27</f>
         <v>0</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" ref="X28" si="148">X27</f>
+        <f t="shared" ref="X28" si="103">X27</f>
         <v>0</v>
       </c>
       <c r="Y28" s="4">
-        <f t="shared" ref="Y28" si="149">Y27</f>
+        <f t="shared" ref="Y28" si="104">Y27</f>
         <v>5</v>
       </c>
       <c r="Z28" s="4" t="str">
-        <f t="shared" ref="Z28" si="150">Z27</f>
+        <f t="shared" ref="Z28" si="105">Z27</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9644,19 +9584,19 @@
         <v>0</v>
       </c>
       <c r="J29" s="19">
-        <v>180</v>
+        <v>891</v>
       </c>
       <c r="K29" s="19">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L29" s="19">
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O29" s="19">
         <v>0</v>
@@ -9680,7 +9620,7 @@
         <v>3</v>
       </c>
       <c r="V29" s="19">
-        <f t="shared" ref="V29" si="151">V17*3</f>
+        <f t="shared" ref="V29" si="106">V17*3</f>
         <v>0</v>
       </c>
       <c r="W29" s="4">
@@ -9728,71 +9668,65 @@
         <v>0</v>
       </c>
       <c r="J30" s="19">
-        <f>J29</f>
-        <v>180</v>
+        <v>865</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" ref="K30" si="152">K29</f>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" ref="L30" si="153">L29</f>
         <v>0</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" ref="M30" si="154">M29</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30" si="155">N29</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" ref="O30" si="156">O29</f>
         <v>0</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" ref="P30" si="157">P29</f>
+        <f t="shared" ref="P30" si="107">P29</f>
         <v>0</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" ref="Q30" si="158">Q29</f>
+        <f t="shared" ref="Q30" si="108">Q29</f>
         <v>0</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" ref="R30" si="159">R29</f>
+        <f t="shared" ref="R30" si="109">R29</f>
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" ref="S30" si="160">S29</f>
+        <f t="shared" ref="S30" si="110">S29</f>
         <v>0</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" ref="T30" si="161">T29</f>
+        <f t="shared" ref="T30" si="111">T29</f>
         <v>3</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" ref="U30" si="162">U29</f>
+        <f t="shared" ref="U30" si="112">U29</f>
         <v>3</v>
       </c>
       <c r="V30" s="19">
-        <f t="shared" ref="V30" si="163">V29</f>
+        <f t="shared" ref="V30" si="113">V29</f>
         <v>0</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" ref="W30" si="164">W29</f>
+        <f t="shared" ref="W30" si="114">W29</f>
         <v>0</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" ref="X30" si="165">X29</f>
+        <f t="shared" ref="X30" si="115">X29</f>
         <v>0</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" ref="Y30" si="166">Y29</f>
+        <f t="shared" ref="Y30" si="116">Y29</f>
         <v>5</v>
       </c>
       <c r="Z30" s="4" t="str">
-        <f t="shared" ref="Z30" si="167">Z29</f>
+        <f t="shared" ref="Z30" si="117">Z29</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -9827,19 +9761,19 @@
         <v>0</v>
       </c>
       <c r="J31" s="19">
-        <v>208</v>
+        <v>891</v>
       </c>
       <c r="K31" s="19">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L31" s="19">
         <v>0</v>
       </c>
       <c r="M31" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N31" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O31" s="19">
         <v>0</v>
@@ -9863,7 +9797,7 @@
         <v>3</v>
       </c>
       <c r="V31" s="19">
-        <f t="shared" ref="V31" si="168">V5*3</f>
+        <f t="shared" ref="V31" si="118">V5*3</f>
         <v>0</v>
       </c>
       <c r="W31" s="4">
@@ -9911,71 +9845,65 @@
         <v>0</v>
       </c>
       <c r="J32" s="19">
-        <f>J31</f>
-        <v>208</v>
+        <v>917</v>
       </c>
       <c r="K32" s="19">
-        <f t="shared" ref="K32" si="169">K31</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L32" s="19">
-        <f t="shared" ref="L32" si="170">L31</f>
         <v>0</v>
       </c>
       <c r="M32" s="19">
-        <f t="shared" ref="M32" si="171">M31</f>
+        <v>7</v>
+      </c>
+      <c r="N32" s="19">
+        <v>6</v>
+      </c>
+      <c r="O32" s="19">
+        <v>0</v>
+      </c>
+      <c r="P32" s="19">
+        <f t="shared" ref="P32" si="119">P31</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19">
+        <f t="shared" ref="Q32" si="120">Q31</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="19">
+        <f t="shared" ref="R32" si="121">R31</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="19">
+        <f t="shared" ref="S32" si="122">S31</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="19">
+        <f t="shared" ref="T32" si="123">T31</f>
         <v>3</v>
       </c>
-      <c r="N32" s="19">
-        <f t="shared" ref="N32" si="172">N31</f>
-        <v>2</v>
-      </c>
-      <c r="O32" s="19">
-        <f t="shared" ref="O32" si="173">O31</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="19">
-        <f t="shared" ref="P32" si="174">P31</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="19">
-        <f t="shared" ref="Q32" si="175">Q31</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="19">
-        <f t="shared" ref="R32" si="176">R31</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="19">
-        <f t="shared" ref="S32" si="177">S31</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="19">
-        <f t="shared" ref="T32" si="178">T31</f>
+      <c r="U32" s="19">
+        <f t="shared" ref="U32" si="124">U31</f>
         <v>3</v>
       </c>
-      <c r="U32" s="19">
-        <f t="shared" ref="U32" si="179">U31</f>
-        <v>3</v>
-      </c>
       <c r="V32" s="19">
-        <f t="shared" ref="V32" si="180">V31</f>
+        <f t="shared" ref="V32" si="125">V31</f>
         <v>0</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" ref="W32" si="181">W31</f>
+        <f t="shared" ref="W32" si="126">W31</f>
         <v>0</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" ref="X32" si="182">X31</f>
+        <f t="shared" ref="X32" si="127">X31</f>
         <v>0</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" ref="Y32" si="183">Y31</f>
+        <f t="shared" ref="Y32" si="128">Y31</f>
         <v>5</v>
       </c>
       <c r="Z32" s="4" t="str">
-        <f t="shared" ref="Z32" si="184">Z31</f>
+        <f t="shared" ref="Z32" si="129">Z31</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10010,19 +9938,19 @@
         <v>0</v>
       </c>
       <c r="J33" s="19">
-        <v>169</v>
+        <v>736</v>
       </c>
       <c r="K33" s="19">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L33" s="19">
         <v>0</v>
       </c>
       <c r="M33" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N33" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O33" s="19">
         <v>0</v>
@@ -10046,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" ref="V33" si="185">V9*3</f>
+        <f t="shared" ref="V33" si="130">V9*3</f>
         <v>0</v>
       </c>
       <c r="W33" s="4">
@@ -10094,71 +10022,65 @@
         <v>0</v>
       </c>
       <c r="J34" s="19">
-        <f>J33</f>
-        <v>169</v>
+        <v>710</v>
       </c>
       <c r="K34" s="19">
-        <f t="shared" ref="K34" si="186">K33</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L34" s="19">
-        <f t="shared" ref="L34" si="187">L33</f>
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <f t="shared" ref="M34" si="188">M33</f>
+        <v>3</v>
+      </c>
+      <c r="N34" s="19">
+        <v>4</v>
+      </c>
+      <c r="O34" s="19">
+        <v>0</v>
+      </c>
+      <c r="P34" s="19">
+        <f t="shared" ref="P34" si="131">P33</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="19">
+        <f t="shared" ref="Q34" si="132">Q33</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="19">
+        <f t="shared" ref="R34" si="133">R33</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="19">
+        <f t="shared" ref="S34" si="134">S33</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="19">
+        <f t="shared" ref="T34" si="135">T33</f>
         <v>1</v>
       </c>
-      <c r="N34" s="19">
-        <f t="shared" ref="N34" si="189">N33</f>
+      <c r="U34" s="19">
+        <f t="shared" ref="U34" si="136">U33</f>
         <v>1</v>
       </c>
-      <c r="O34" s="19">
-        <f t="shared" ref="O34" si="190">O33</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="19">
-        <f t="shared" ref="P34" si="191">P33</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="19">
-        <f t="shared" ref="Q34" si="192">Q33</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="19">
-        <f t="shared" ref="R34" si="193">R33</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="19">
-        <f t="shared" ref="S34" si="194">S33</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="19">
-        <f t="shared" ref="T34" si="195">T33</f>
-        <v>1</v>
-      </c>
-      <c r="U34" s="19">
-        <f t="shared" ref="U34" si="196">U33</f>
-        <v>1</v>
-      </c>
       <c r="V34" s="19">
-        <f t="shared" ref="V34" si="197">V33</f>
+        <f t="shared" ref="V34" si="137">V33</f>
         <v>0</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" ref="W34" si="198">W33</f>
+        <f t="shared" ref="W34" si="138">W33</f>
         <v>0</v>
       </c>
       <c r="X34" s="4">
-        <f t="shared" ref="X34" si="199">X33</f>
+        <f t="shared" ref="X34" si="139">X33</f>
         <v>0</v>
       </c>
       <c r="Y34" s="4">
-        <f t="shared" ref="Y34" si="200">Y33</f>
+        <f t="shared" ref="Y34" si="140">Y33</f>
         <v>5</v>
       </c>
       <c r="Z34" s="4" t="str">
-        <f t="shared" ref="Z34" si="201">Z33</f>
+        <f t="shared" ref="Z34" si="141">Z33</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10193,19 +10115,19 @@
         <v>0</v>
       </c>
       <c r="J35" s="4">
-        <v>150</v>
+        <v>736</v>
       </c>
       <c r="K35" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L35" s="4">
         <v>0</v>
       </c>
       <c r="M35" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N35" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O35" s="4">
         <v>0</v>
@@ -10276,71 +10198,65 @@
         <v>0</v>
       </c>
       <c r="J36" s="4">
-        <f>J35</f>
-        <v>150</v>
+        <v>762</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" ref="K36" si="202">K35</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" ref="L36" si="203">L35</f>
         <v>0</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" ref="M36" si="204">M35</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" ref="N36" si="205">N35</f>
+        <v>6</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" ref="P36" si="142">P35</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" ref="Q36" si="143">Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" ref="R36" si="144">R35</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <f t="shared" ref="S36" si="145">S35</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
+        <f t="shared" ref="T36" si="146">T35</f>
         <v>1</v>
       </c>
-      <c r="O36" s="4">
-        <f t="shared" ref="O36" si="206">O35</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
-        <f t="shared" ref="P36" si="207">P35</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4">
-        <f t="shared" ref="Q36" si="208">Q35</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="4">
-        <f t="shared" ref="R36" si="209">R35</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <f t="shared" ref="S36" si="210">S35</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="4">
-        <f t="shared" ref="T36" si="211">T35</f>
+      <c r="U36" s="4">
+        <f t="shared" ref="U36" si="147">U35</f>
         <v>1</v>
       </c>
-      <c r="U36" s="4">
-        <f t="shared" ref="U36" si="212">U35</f>
-        <v>1</v>
-      </c>
       <c r="V36" s="4">
-        <f t="shared" ref="V36" si="213">V35</f>
+        <f t="shared" ref="V36" si="148">V35</f>
         <v>0</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" ref="W36" si="214">W35</f>
+        <f t="shared" ref="W36" si="149">W35</f>
         <v>0</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" ref="X36" si="215">X35</f>
+        <f t="shared" ref="X36" si="150">X35</f>
         <v>0</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" ref="Y36" si="216">Y35</f>
+        <f t="shared" ref="Y36" si="151">Y35</f>
         <v>5</v>
       </c>
       <c r="Z36" s="4" t="str">
-        <f t="shared" ref="Z36" si="217">Z35</f>
+        <f t="shared" ref="Z36" si="152">Z35</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10375,19 +10291,19 @@
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>156</v>
+        <v>693</v>
       </c>
       <c r="K37" s="4">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L37" s="4">
         <v>0</v>
       </c>
       <c r="M37" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O37" s="4">
         <v>0</v>
@@ -10458,71 +10374,65 @@
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <f>J37</f>
-        <v>156</v>
+        <v>687</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" ref="K38" si="218">K37</f>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" ref="L38" si="219">L37</f>
         <v>0</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" ref="M38" si="220">M37</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" ref="N38" si="221">N37</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" ref="O38" si="222">O37</f>
         <v>0</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" ref="P38" si="223">P37</f>
+        <f t="shared" ref="P38" si="153">P37</f>
         <v>0</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" ref="Q38" si="224">Q37</f>
+        <f t="shared" ref="Q38" si="154">Q37</f>
         <v>0</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" ref="R38" si="225">R37</f>
+        <f t="shared" ref="R38" si="155">R37</f>
         <v>0</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" ref="S38" si="226">S37</f>
+        <f t="shared" ref="S38" si="156">S37</f>
         <v>0</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" ref="T38" si="227">T37</f>
+        <f t="shared" ref="T38" si="157">T37</f>
         <v>1</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" ref="U38" si="228">U37</f>
+        <f t="shared" ref="U38" si="158">U37</f>
         <v>1</v>
       </c>
       <c r="V38" s="4">
-        <f t="shared" ref="V38" si="229">V37</f>
+        <f t="shared" ref="V38" si="159">V37</f>
         <v>0</v>
       </c>
       <c r="W38" s="4">
-        <f t="shared" ref="W38" si="230">W37</f>
+        <f t="shared" ref="W38" si="160">W37</f>
         <v>0</v>
       </c>
       <c r="X38" s="4">
-        <f t="shared" ref="X38" si="231">X37</f>
+        <f t="shared" ref="X38" si="161">X37</f>
         <v>0</v>
       </c>
       <c r="Y38" s="4">
-        <f t="shared" ref="Y38" si="232">Y37</f>
+        <f t="shared" ref="Y38" si="162">Y37</f>
         <v>5</v>
       </c>
       <c r="Z38" s="4" t="str">
-        <f t="shared" ref="Z38" si="233">Z37</f>
+        <f t="shared" ref="Z38" si="163">Z37</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10557,19 +10467,19 @@
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <v>187</v>
+        <v>699</v>
       </c>
       <c r="K39" s="4">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L39" s="4">
         <v>0</v>
       </c>
       <c r="M39" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O39" s="4">
         <v>0</v>
@@ -10640,71 +10550,65 @@
         <v>0</v>
       </c>
       <c r="J40" s="4">
-        <f>J39</f>
-        <v>187</v>
+        <v>725</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" ref="K40" si="234">K39</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" ref="L40" si="235">L39</f>
         <v>0</v>
       </c>
       <c r="M40" s="4">
-        <f t="shared" ref="M40" si="236">M39</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" ref="N40" si="237">N39</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" ref="O40" si="238">O39</f>
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" ref="P40" si="239">P39</f>
+        <f t="shared" ref="P40" si="164">P39</f>
         <v>0</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" ref="Q40" si="240">Q39</f>
+        <f t="shared" ref="Q40" si="165">Q39</f>
         <v>0</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" ref="R40" si="241">R39</f>
+        <f t="shared" ref="R40" si="166">R39</f>
         <v>0</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" ref="S40" si="242">S39</f>
+        <f t="shared" ref="S40" si="167">S39</f>
         <v>0</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" ref="T40" si="243">T39</f>
+        <f t="shared" ref="T40" si="168">T39</f>
         <v>1</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" ref="U40" si="244">U39</f>
+        <f t="shared" ref="U40" si="169">U39</f>
         <v>1</v>
       </c>
       <c r="V40" s="4">
-        <f t="shared" ref="V40" si="245">V39</f>
+        <f t="shared" ref="V40" si="170">V39</f>
         <v>0</v>
       </c>
       <c r="W40" s="4">
-        <f t="shared" ref="W40" si="246">W39</f>
+        <f t="shared" ref="W40" si="171">W39</f>
         <v>0</v>
       </c>
       <c r="X40" s="4">
-        <f t="shared" ref="X40" si="247">X39</f>
+        <f t="shared" ref="X40" si="172">X39</f>
         <v>0</v>
       </c>
       <c r="Y40" s="4">
-        <f t="shared" ref="Y40" si="248">Y39</f>
+        <f t="shared" ref="Y40" si="173">Y39</f>
         <v>5</v>
       </c>
       <c r="Z40" s="4" t="str">
-        <f t="shared" ref="Z40" si="249">Z39</f>
+        <f t="shared" ref="Z40" si="174">Z39</f>
         <v>공격하자</v>
       </c>
     </row>
@@ -10739,10 +10643,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>215</v>
+        <v>715</v>
       </c>
       <c r="K41" s="4">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L41" s="4">
         <v>0</v>
@@ -10821,10 +10725,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="19">
-        <v>196</v>
+        <v>687</v>
       </c>
       <c r="K42" s="19">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L42" s="19">
         <v>0</v>
@@ -10857,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="V42" s="19">
-        <f t="shared" ref="V42" si="250">V35*3</f>
+        <f t="shared" ref="V42" si="175">V35*3</f>
         <v>0</v>
       </c>
       <c r="W42" s="4">
@@ -10903,19 +10807,19 @@
         <v>0</v>
       </c>
       <c r="J43" s="19">
-        <v>196</v>
+        <v>707</v>
       </c>
       <c r="K43" s="19">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L43" s="19">
         <v>0</v>
       </c>
       <c r="M43" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" s="19">
         <v>0</v>
@@ -10939,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="V43" s="19">
-        <f t="shared" ref="V43" si="251">V39*3</f>
+        <f t="shared" ref="V43" si="176">V39*3</f>
         <v>0</v>
       </c>
       <c r="W43" s="4">
@@ -10986,19 +10890,19 @@
         <v>0</v>
       </c>
       <c r="J44" s="19">
-        <v>194</v>
+        <v>745</v>
       </c>
       <c r="K44" s="19">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="L44" s="19">
         <v>0</v>
       </c>
       <c r="M44" s="19">
+        <v>4</v>
+      </c>
+      <c r="N44" s="19">
         <v>3</v>
-      </c>
-      <c r="N44" s="19">
-        <v>2</v>
       </c>
       <c r="O44" s="19">
         <v>0</v>
@@ -11022,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="V44" s="19">
-        <f t="shared" ref="V44" si="252">V25*3</f>
+        <f t="shared" ref="V44" si="177">V25*3</f>
         <v>0</v>
       </c>
       <c r="W44" s="4">
@@ -11069,19 +10973,19 @@
         <v>0</v>
       </c>
       <c r="J45" s="19">
-        <v>771</v>
+        <v>707</v>
       </c>
       <c r="K45" s="19">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="L45" s="19">
         <v>0</v>
       </c>
       <c r="M45" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N45" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O45" s="19">
         <v>0</v>
@@ -11105,7 +11009,7 @@
         <v>4</v>
       </c>
       <c r="V45" s="19">
-        <f t="shared" ref="V45" si="253">V37*3</f>
+        <f t="shared" ref="V45" si="178">V37*3</f>
         <v>0</v>
       </c>
       <c r="W45" s="4">
@@ -11152,19 +11056,19 @@
         <v>0</v>
       </c>
       <c r="J46" s="19">
-        <v>744</v>
+        <v>679</v>
       </c>
       <c r="K46" s="19">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L46" s="19">
         <v>0</v>
       </c>
       <c r="M46" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N46" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O46" s="19">
         <v>0</v>
@@ -11188,7 +11092,7 @@
         <v>4</v>
       </c>
       <c r="V46" s="19">
-        <f t="shared" ref="V46" si="254">V29*3</f>
+        <f t="shared" ref="V46" si="179">V29*3</f>
         <v>0</v>
       </c>
       <c r="W46" s="4">
@@ -11235,19 +11139,19 @@
         <v>0</v>
       </c>
       <c r="J47" s="4">
-        <v>773</v>
+        <v>699</v>
       </c>
       <c r="K47" s="4">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L47" s="4">
         <v>0</v>
       </c>
       <c r="M47" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N47" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O47" s="4">
         <v>0</v>
@@ -11271,7 +11175,7 @@
         <v>4</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" ref="V47" si="255">V43*2</f>
+        <f t="shared" ref="V47" si="180">V43*2</f>
         <v>0</v>
       </c>
       <c r="W47" s="4">
@@ -11318,19 +11222,19 @@
         <v>0</v>
       </c>
       <c r="J48" s="4">
-        <v>799</v>
+        <v>737</v>
       </c>
       <c r="K48" s="4">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L48" s="4">
         <v>0</v>
       </c>
       <c r="M48" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N48" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O48" s="4">
         <v>0</v>
@@ -11400,19 +11304,19 @@
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <v>676</v>
+        <v>743</v>
       </c>
       <c r="K49" s="4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L49" s="4">
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N49" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O49" s="4">
         <v>0</v>
@@ -11482,19 +11386,19 @@
         <v>0</v>
       </c>
       <c r="J50" s="4">
-        <v>649</v>
+        <v>715</v>
       </c>
       <c r="K50" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="L50" s="4">
         <v>0</v>
       </c>
       <c r="M50" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N50" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O50" s="4">
         <v>0</v>
@@ -11564,19 +11468,19 @@
         <v>0</v>
       </c>
       <c r="J51" s="4">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="K51" s="4">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L51" s="4">
         <v>0</v>
       </c>
       <c r="M51" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N51" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O51" s="4">
         <v>0</v>
@@ -11646,19 +11550,19 @@
         <v>0</v>
       </c>
       <c r="J52" s="4">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="K52" s="4">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L52" s="4">
         <v>0</v>
       </c>
       <c r="M52" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N52" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O52" s="4">
         <v>0</v>
@@ -11728,19 +11632,19 @@
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>632</v>
+        <v>1779</v>
       </c>
       <c r="K53" s="4">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="L53" s="4">
         <v>0</v>
       </c>
       <c r="M53" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N53" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O53" s="4">
         <v>0</v>
@@ -11810,19 +11714,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="4">
-        <v>625</v>
+        <v>1759</v>
       </c>
       <c r="K54" s="4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M54" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N54" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O54" s="4">
         <v>0</v>
@@ -11892,19 +11796,19 @@
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <v>639</v>
+        <v>4370</v>
       </c>
       <c r="K55" s="4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L55" s="4">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="M55" s="4">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N55" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O55" s="4">
         <v>0</v>
@@ -13243,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="W71" s="4">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="X71" s="4">
         <v>100</v>
@@ -13270,8 +13174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F213B3-BCBE-4A43-8BC0-C079F91C9601}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13506,10 +13410,10 @@
         <v>83</v>
       </c>
       <c r="E5" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -13638,10 +13542,10 @@
         <v>83</v>
       </c>
       <c r="E7" s="4">
-        <v>45</v>
+        <v>49.5</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>0.95500000000000007</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -13704,10 +13608,10 @@
         <v>81</v>
       </c>
       <c r="E8" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -13770,10 +13674,10 @@
         <v>81</v>
       </c>
       <c r="E9" s="13">
-        <v>18</v>
+        <v>19.8</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1739999999999999</v>
+        <v>1.1464000000000001</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -13836,10 +13740,10 @@
         <v>81</v>
       </c>
       <c r="E10" s="13">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="F10" s="4">
-        <v>1.1949999999999998</v>
+        <v>1.1695</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -13902,10 +13806,10 @@
         <v>81</v>
       </c>
       <c r="E11" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4">
-        <v>1.19</v>
+        <v>1.1640000000000001</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -13968,10 +13872,10 @@
         <v>81</v>
       </c>
       <c r="E12" s="13">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="F12" s="4">
-        <v>1.23</v>
+        <v>1.208</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -14034,10 +13938,10 @@
         <v>82</v>
       </c>
       <c r="E13" s="13">
-        <v>18</v>
+        <v>19.8</v>
       </c>
       <c r="F13" s="4">
-        <v>1.1419999999999999</v>
+        <v>1.1112</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -14100,10 +14004,10 @@
         <v>82</v>
       </c>
       <c r="E14" s="13">
-        <v>13.5</v>
+        <v>14.85</v>
       </c>
       <c r="F14" s="4">
-        <v>1.169</v>
+        <v>1.1409</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -14166,10 +14070,10 @@
         <v>162</v>
       </c>
       <c r="E15" s="4">
-        <v>16.5</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="F15" s="4">
-        <v>1.1174999999999999</v>
+        <v>1.0842499999999999</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -14232,10 +14136,10 @@
         <v>83</v>
       </c>
       <c r="E16" s="4">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="F16" s="4">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -14298,10 +14202,10 @@
         <v>83</v>
       </c>
       <c r="E17" s="4">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.76</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -14364,10 +14268,10 @@
         <v>81</v>
       </c>
       <c r="E18" s="4">
-        <v>80</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F18" s="4">
-        <v>2.5</v>
+        <v>2.952</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -14430,10 +14334,10 @@
         <v>82</v>
       </c>
       <c r="E19" s="4">
-        <v>54</v>
+        <v>47.52</v>
       </c>
       <c r="F19" s="4">
-        <v>2.3380000000000001</v>
+        <v>2.7381600000000001</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -14496,10 +14400,10 @@
         <v>83</v>
       </c>
       <c r="E20" s="4">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F20" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -14562,10 +14466,10 @@
         <v>81</v>
       </c>
       <c r="E21" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F21" s="4">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -14628,10 +14532,10 @@
         <v>82</v>
       </c>
       <c r="E22" s="4">
-        <v>540</v>
+        <v>475.20000000000005</v>
       </c>
       <c r="F22" s="4">
-        <v>3.5070000000000001</v>
+        <v>4.5636000000000001</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -14694,13 +14598,13 @@
         <v>83</v>
       </c>
       <c r="E23" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="H23" s="4">
         <v>0.18</v>
@@ -14826,13 +14730,13 @@
         <v>81</v>
       </c>
       <c r="E25" s="4">
-        <v>45</v>
+        <v>49.5</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <v>1</v>
+        <v>0.95500000000000007</v>
       </c>
       <c r="H25" s="4">
         <v>0.15000000000000002</v>
@@ -14892,13 +14796,13 @@
         <v>81</v>
       </c>
       <c r="E26" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H26" s="4">
         <v>0.03</v>
@@ -14958,13 +14862,13 @@
         <v>81</v>
       </c>
       <c r="E27" s="4">
-        <v>18</v>
+        <v>19.8</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <v>1.1739999999999999</v>
+        <v>1.1464000000000001</v>
       </c>
       <c r="H27" s="4">
         <v>0.03</v>
@@ -15024,13 +14928,13 @@
         <v>81</v>
       </c>
       <c r="E28" s="4">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <v>1.1949999999999998</v>
+        <v>1.1695</v>
       </c>
       <c r="H28" s="4">
         <v>0.03</v>
@@ -15090,13 +14994,13 @@
         <v>81</v>
       </c>
       <c r="E29" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <v>1.19</v>
+        <v>1.1640000000000001</v>
       </c>
       <c r="H29" s="4">
         <v>0.03</v>
@@ -15156,13 +15060,13 @@
         <v>81</v>
       </c>
       <c r="E30" s="4">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>1.23</v>
+        <v>1.208</v>
       </c>
       <c r="H30" s="4">
         <v>0.03</v>
@@ -15222,13 +15126,13 @@
         <v>82</v>
       </c>
       <c r="E31" s="4">
-        <v>18</v>
+        <v>19.8</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <v>1.1419999999999999</v>
+        <v>1.1112</v>
       </c>
       <c r="H31" s="4">
         <v>0.03</v>
@@ -15288,13 +15192,13 @@
         <v>82</v>
       </c>
       <c r="E32" s="4">
-        <v>13.5</v>
+        <v>14.85</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <v>1.169</v>
+        <v>1.1409</v>
       </c>
       <c r="H32" s="4">
         <v>0.03</v>
@@ -15354,13 +15258,13 @@
         <v>162</v>
       </c>
       <c r="E33" s="4">
-        <v>16.5</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>1.67625</v>
+        <v>1.6263749999999999</v>
       </c>
       <c r="H33" s="4">
         <v>0.03</v>
@@ -15420,13 +15324,13 @@
         <v>83</v>
       </c>
       <c r="E34" s="4">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="H34" s="4">
         <v>0.36</v>
@@ -15486,13 +15390,13 @@
         <v>83</v>
       </c>
       <c r="E35" s="4">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.76</v>
       </c>
       <c r="H35" s="4">
         <v>0.30000000000000004</v>
@@ -15552,13 +15456,13 @@
         <v>81</v>
       </c>
       <c r="E36" s="4">
-        <v>80</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <v>2.5</v>
+        <v>2.952</v>
       </c>
       <c r="H36" s="4">
         <v>0.30000000000000004</v>
@@ -15618,13 +15522,13 @@
         <v>82</v>
       </c>
       <c r="E37" s="4">
-        <v>54</v>
+        <v>47.52</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>2.3380000000000001</v>
+        <v>2.7381600000000001</v>
       </c>
       <c r="H37" s="4">
         <v>0.06</v>
@@ -15684,13 +15588,13 @@
         <v>83</v>
       </c>
       <c r="E38" s="4">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H38" s="4">
         <v>0.06</v>
@@ -15750,13 +15654,13 @@
         <v>81</v>
       </c>
       <c r="E39" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="H39" s="4">
         <v>0.06</v>
@@ -15816,13 +15720,13 @@
         <v>82</v>
       </c>
       <c r="E40" s="4">
-        <v>540</v>
+        <v>475.20000000000005</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
       </c>
       <c r="G40" s="4">
-        <v>3.5070000000000001</v>
+        <v>4.5636000000000001</v>
       </c>
       <c r="H40" s="4">
         <v>0.06</v>
@@ -15882,13 +15786,13 @@
         <v>162</v>
       </c>
       <c r="E41" s="4">
-        <v>66</v>
+        <v>58.080000000000013</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
       </c>
       <c r="G41" s="4">
-        <v>3.3525</v>
+        <v>3.9032999999999998</v>
       </c>
       <c r="H41" s="4">
         <v>0.15</v>
@@ -15948,13 +15852,13 @@
         <v>162</v>
       </c>
       <c r="E42" s="4">
-        <v>165</v>
+        <v>181.50000000000003</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
       </c>
       <c r="G42" s="4">
-        <v>5.0287500000000005</v>
+        <v>6.5054999999999996</v>
       </c>
       <c r="H42" s="4">
         <v>0.15</v>
@@ -16014,13 +15918,13 @@
         <v>81</v>
       </c>
       <c r="E43" s="4">
-        <v>450</v>
+        <v>541.19999999999993</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
       </c>
       <c r="G43" s="4">
-        <v>5.9749999999999996</v>
+        <v>6.7012350000000005</v>
       </c>
       <c r="H43" s="4">
         <v>0.03</v>

--- a/Android/ExcelData/NPCTable.xlsx
+++ b/Android/ExcelData/NPCTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4231F379-342F-4447-AA65-143FFDE511C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786F91E0-4E0C-46DA-8DC5-F2DDB263F793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45630" yWindow="1785" windowWidth="27510" windowHeight="19140" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-24096" yWindow="480" windowWidth="30252" windowHeight="16584" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="506">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,1318 +575,1473 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100004</t>
+  </si>
+  <si>
+    <t>2 일반 몬스터</t>
+  </si>
+  <si>
+    <t>1 전열 배치</t>
+  </si>
+  <si>
+    <t>3 후열 배치</t>
+  </si>
+  <si>
+    <t>2 딜러</t>
+  </si>
+  <si>
+    <t>3 서포터</t>
+  </si>
+  <si>
+    <t>1 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_skill_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법_방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 추가 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 시 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기획자 확인용)</t>
+  </si>
+  <si>
+    <t>#desc</t>
+  </si>
+  <si>
+    <t>공격 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요력</t>
+  </si>
+  <si>
+    <t>#monster_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resist </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>physics_attack</t>
+  </si>
+  <si>
+    <t>magic_attack</t>
+  </si>
+  <si>
+    <t>physics_defend</t>
+  </si>
+  <si>
+    <t>magic_defend</t>
+  </si>
+  <si>
+    <t>physics_critical_chance</t>
+  </si>
+  <si>
+    <t>magic_critical_chance</t>
+  </si>
+  <si>
+    <t>physics_critical_power_add</t>
+  </si>
+  <si>
+    <t>magic_critical_power_add</t>
+  </si>
+  <si>
+    <t>attack_life_recovery</t>
+  </si>
+  <si>
+    <t>2 중열 배치</t>
+  </si>
+  <si>
+    <t>마력</t>
+  </si>
+  <si>
+    <t>전기</t>
+  </si>
+  <si>
+    <t>베리타리움</t>
+  </si>
+  <si>
+    <t>#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 악마</t>
+  </si>
+  <si>
+    <t>4 보스 몬스터</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_900001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_0002</t>
+  </si>
+  <si>
+    <t>monster_name_0003</t>
+  </si>
+  <si>
+    <t>monster_name_0004</t>
+  </si>
+  <si>
+    <t>monster_name_0005</t>
+  </si>
+  <si>
+    <t>monster_name_0006</t>
+  </si>
+  <si>
+    <t>monster_name_0007</t>
+  </si>
+  <si>
+    <t>monster_name_0008</t>
+  </si>
+  <si>
+    <t>monster_name_0009</t>
+  </si>
+  <si>
+    <t>monster_name_0010</t>
+  </si>
+  <si>
+    <t>monster_name_0011</t>
+  </si>
+  <si>
+    <t>monster_name_0012</t>
+  </si>
+  <si>
+    <t>monster_name_0013</t>
+  </si>
+  <si>
+    <t>monster_name_0014</t>
+  </si>
+  <si>
+    <t>monster_name_0015</t>
+  </si>
+  <si>
+    <t>monster_name_0017</t>
+  </si>
+  <si>
+    <t>monster_name_0018</t>
+  </si>
+  <si>
+    <t>monster_name_0019</t>
+  </si>
+  <si>
+    <t>monster_name_0020</t>
+  </si>
+  <si>
+    <t>1 인간종족</t>
+  </si>
+  <si>
+    <t>2 엘프족</t>
+  </si>
+  <si>
+    <t>monster_name_0021</t>
+  </si>
+  <si>
+    <t>monster_name_0022</t>
+  </si>
+  <si>
+    <t>3 엘리트 몬스터</t>
+  </si>
+  <si>
+    <t>4 힐러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러형 보스</t>
+  </si>
+  <si>
+    <t>탱커(마법)</t>
+  </si>
+  <si>
+    <t>탱포터(마법)</t>
+  </si>
+  <si>
+    <t>근딜(마법)</t>
+  </si>
+  <si>
+    <t>근딜포터(마법)</t>
+  </si>
+  <si>
+    <t>원딜포터(마법)</t>
+  </si>
+  <si>
+    <t>근범위딜(마법)</t>
+  </si>
+  <si>
+    <t>원범위딜(마법)</t>
+  </si>
+  <si>
+    <t>근서포터(마법)</t>
+  </si>
+  <si>
+    <t>원서포터(마법)</t>
+  </si>
+  <si>
+    <t>힐러(마법)</t>
+  </si>
+  <si>
+    <t>탱킹형 정예(마법)</t>
+  </si>
+  <si>
+    <t>딜링형 정예(마법)</t>
+  </si>
+  <si>
+    <t>서포터형 정예(마법)</t>
+  </si>
+  <si>
+    <t>탱킹형 보스(마법)</t>
+  </si>
+  <si>
+    <t>딜링형 보스(마법)</t>
+  </si>
+  <si>
+    <t>서포터형 보스(마법)</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_900001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_0001</t>
+  </si>
+  <si>
+    <t>monster_desc_0002</t>
+  </si>
+  <si>
+    <t>monster_desc_0003</t>
+  </si>
+  <si>
+    <t>monster_desc_0017</t>
+  </si>
+  <si>
+    <t>monster_desc_0004</t>
+  </si>
+  <si>
+    <t>monster_desc_0005</t>
+  </si>
+  <si>
+    <t>monster_desc_0006</t>
+  </si>
+  <si>
+    <t>monster_desc_0007</t>
+  </si>
+  <si>
+    <t>monster_desc_0008</t>
+  </si>
+  <si>
+    <t>monster_desc_0009</t>
+  </si>
+  <si>
+    <t>monster_desc_0010</t>
+  </si>
+  <si>
+    <t>monster_desc_0011</t>
+  </si>
+  <si>
+    <t>monster_desc_0012</t>
+  </si>
+  <si>
+    <t>monster_desc_0013</t>
+  </si>
+  <si>
+    <t>monster_desc_0014</t>
+  </si>
+  <si>
+    <t>monster_desc_0015</t>
+  </si>
+  <si>
+    <t>monster_desc_0018</t>
+  </si>
+  <si>
+    <t>monster_desc_0019</t>
+  </si>
+  <si>
+    <t>monster_desc_0020</t>
+  </si>
+  <si>
+    <t>monster_desc_0021</t>
+  </si>
+  <si>
+    <t>monster_desc_0022</t>
+  </si>
+  <si>
+    <t>[210003, 210002, 210001, 210001, 210002, 210001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 패턴(반복)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 패턴(시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_pattern_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거한_베리타리움</t>
+  </si>
+  <si>
+    <t>거한_전기</t>
+  </si>
+  <si>
+    <t>거한_마력</t>
+  </si>
+  <si>
+    <t>엘프 레인저_베리타리움</t>
+  </si>
+  <si>
+    <t>엘프 레인저_전기</t>
+  </si>
+  <si>
+    <t>엘프 레인저_마력</t>
+  </si>
+  <si>
+    <t>정예 연금술사_요력</t>
+  </si>
+  <si>
+    <t>거한_요력</t>
+  </si>
+  <si>
+    <t>엘프 레인저_요력</t>
+  </si>
+  <si>
+    <t>엘프 연금술사_전기</t>
+  </si>
+  <si>
+    <t>엘프 연금술사_마력</t>
+  </si>
+  <si>
+    <t>엘프 연금술사_요력</t>
+  </si>
+  <si>
+    <t>엘프 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>정예 연금술사_전기</t>
+  </si>
+  <si>
+    <t>정예 연금술사_마력</t>
+  </si>
+  <si>
+    <t>정예 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)거한_전기</t>
+  </si>
+  <si>
+    <t>(정예)거한_마력</t>
+  </si>
+  <si>
+    <t>(정예)거한_요력</t>
+  </si>
+  <si>
+    <t>(정예)거한_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)엘프 레인저_전기</t>
+  </si>
+  <si>
+    <t>(정예)엘프 레인저_마력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 레인저_요력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 레인저_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금술사_전기</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금술사_마력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금술사_요력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)정예 연금술사_전기</t>
+  </si>
+  <si>
+    <t>(정예)정예 연금술사_마력</t>
+  </si>
+  <si>
+    <t>(정예)정예 연금술사_요력</t>
+  </si>
+  <si>
+    <t>(정예)정예 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>보스_마네</t>
+  </si>
+  <si>
+    <t>보스_엘리자베스</t>
+  </si>
+  <si>
+    <t>monster_desc_0023</t>
+  </si>
+  <si>
+    <t>monster_desc_0024</t>
+  </si>
+  <si>
+    <t>monster_desc_0025</t>
+  </si>
+  <si>
+    <t>monster_desc_0026</t>
+  </si>
+  <si>
+    <t>monster_desc_0027</t>
+  </si>
+  <si>
+    <t>monster_desc_0028</t>
+  </si>
+  <si>
+    <t>monster_desc_0029</t>
+  </si>
+  <si>
+    <t>monster_desc_0030</t>
+  </si>
+  <si>
+    <t>monster_desc_0031</t>
+  </si>
+  <si>
+    <t>monster_desc_0032</t>
+  </si>
+  <si>
+    <t>monster_desc_0033</t>
+  </si>
+  <si>
+    <t>monster_desc_0034</t>
+  </si>
+  <si>
+    <t>monster_desc_0035</t>
+  </si>
+  <si>
+    <t>monster_desc_0036</t>
+  </si>
+  <si>
+    <t>monster_desc_0037</t>
+  </si>
+  <si>
+    <t>monster_desc_0038</t>
+  </si>
+  <si>
+    <t>monster_desc_0039</t>
+  </si>
+  <si>
+    <t>monster_desc_0040</t>
+  </si>
+  <si>
+    <t>monster_desc_0041</t>
+  </si>
+  <si>
+    <t>monster_name_0016</t>
+  </si>
+  <si>
+    <t>monster_name_0023</t>
+  </si>
+  <si>
+    <t>monster_name_0024</t>
+  </si>
+  <si>
+    <t>monster_name_0025</t>
+  </si>
+  <si>
+    <t>monster_name_0026</t>
+  </si>
+  <si>
+    <t>monster_name_0027</t>
+  </si>
+  <si>
+    <t>monster_name_0028</t>
+  </si>
+  <si>
+    <t>monster_name_0029</t>
+  </si>
+  <si>
+    <t>monster_name_0030</t>
+  </si>
+  <si>
+    <t>monster_name_0031</t>
+  </si>
+  <si>
+    <t>monster_name_0032</t>
+  </si>
+  <si>
+    <t>monster_name_0033</t>
+  </si>
+  <si>
+    <t>monster_name_0034</t>
+  </si>
+  <si>
+    <t>monster_name_0035</t>
+  </si>
+  <si>
+    <t>monster_name_0036</t>
+  </si>
+  <si>
+    <t>monster_name_0037</t>
+  </si>
+  <si>
+    <t>monster_name_0038</t>
+  </si>
+  <si>
+    <t>monster_name_0039</t>
+  </si>
+  <si>
+    <t>monster_name_0040</t>
+  </si>
+  <si>
+    <t>monster_name_0041</t>
+  </si>
+  <si>
+    <t>monster_name_0042</t>
+  </si>
+  <si>
+    <t>monster_name_0043</t>
+  </si>
+  <si>
+    <t>monster_desc_0016</t>
+  </si>
+  <si>
+    <t>monster_desc_0042</t>
+  </si>
+  <si>
+    <t>monster_desc_0043</t>
+  </si>
+  <si>
+    <t>[200101, 200101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200102, 200102]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200103, 200103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200104, 200104]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200105, 200105]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200106, 200106]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200107, 200107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200108, 200108]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200109, 200109]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200110, 200110]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200111, 200111]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200112, 200112]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200113, 200113]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200114, 200114]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200115, 200115]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200116, 200116]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100002__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100003__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100004__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200117, 200117, 200013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200118, 200118, 200013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200119, 200119, 200013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200120, 200120, 200013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200003, 200003, 200013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_1016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베어맨_전기</t>
+  </si>
+  <si>
+    <t>베어맨_전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베어맨_마력</t>
+  </si>
+  <si>
+    <t>베어맨_마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베어맨_요력</t>
+  </si>
+  <si>
+    <t>베어맨_요력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베어맨_베리타리움</t>
+  </si>
+  <si>
+    <t>베어맨_베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대인간_전기</t>
+  </si>
+  <si>
+    <t>늑대인간_전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대인간_마력</t>
+  </si>
+  <si>
+    <t>늑대인간_마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대인간_요력</t>
+  </si>
+  <si>
+    <t>늑대인간_요력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대인간_베리타리움</t>
+  </si>
+  <si>
+    <t>늑대인간_베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬얼 비홀더_전기</t>
+  </si>
+  <si>
+    <t>쥬얼 비홀더_전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬얼 비홀더_마력</t>
+  </si>
+  <si>
+    <t>쥬얼 비홀더_마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬얼 비홀더_요력</t>
+  </si>
+  <si>
+    <t>쥬얼 비홀더_요력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬얼 비홀더_베리타리움</t>
+  </si>
+  <si>
+    <t>쥬얼 비홀더_베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀 연금술사_전기</t>
+  </si>
+  <si>
+    <t>놀 연금술사_전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀 연금술사_마력</t>
+  </si>
+  <si>
+    <t>놀 연금술사_마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀 연금술사_요력</t>
+  </si>
+  <si>
+    <t>놀 연금술사_요력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>놀 연금술사_베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100001___Old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 수인족</t>
+  </si>
+  <si>
+    <t>monster_desc_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_1016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200004, 200004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200003, 200003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커(물리)</t>
+  </si>
+  <si>
+    <t>회피탱커(물리)</t>
+  </si>
+  <si>
+    <t>탱포터(물리)</t>
+  </si>
+  <si>
+    <t>근딜(물리)</t>
+  </si>
+  <si>
+    <t>근딜포터(물리)</t>
+  </si>
+  <si>
+    <t>원딜포터(물리)</t>
+  </si>
+  <si>
+    <t>근범위딜(물리)</t>
+  </si>
+  <si>
+    <t>원범위딜(물리)</t>
+  </si>
+  <si>
+    <t>근서포터(물리)</t>
+  </si>
+  <si>
+    <t>원서포터(물리)</t>
+  </si>
+  <si>
+    <t>힐러(물리)</t>
+  </si>
+  <si>
+    <t>탱킹형 정예(물리)</t>
+  </si>
+  <si>
+    <t>회피탱킹형 정예(물리)</t>
+  </si>
+  <si>
+    <t>딜링형 정예(물리)</t>
+  </si>
+  <si>
+    <t>서포터형 정예(물리)</t>
+  </si>
+  <si>
+    <t>탱킹형 보스(물리)</t>
+  </si>
+  <si>
+    <t>딜링형 보스(물리)</t>
+  </si>
+  <si>
+    <t>서포터형 보스(물리)</t>
+  </si>
+  <si>
+    <t>회피탱커(마법)</t>
+  </si>
+  <si>
+    <t>회피탱킹형 정예(마법)</t>
+  </si>
+  <si>
+    <t>힐러형 정예</t>
+  </si>
+  <si>
+    <t>보스전(마법딜러형)</t>
+  </si>
+  <si>
+    <t>엘프 레인저_전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 레인저_베리</t>
+  </si>
+  <si>
+    <t>(정예)엘프 레인저_베리</t>
+  </si>
+  <si>
+    <t>(정예)서폿 연금술사_전기</t>
+  </si>
+  <si>
+    <t>(정예)서폿 연금술사_마력</t>
+  </si>
+  <si>
+    <t>(정예)서폿 연금술사_요력</t>
+  </si>
+  <si>
+    <t>(정예)서폿 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>서폿 연금술사_전기</t>
+  </si>
+  <si>
+    <t>서폿 연금술사_마력</t>
+  </si>
+  <si>
+    <t>서폿 연금술사_요력</t>
+  </si>
+  <si>
+    <t>서폿 연금술사_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금_전기</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금_마력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금_요력</t>
+  </si>
+  <si>
+    <t>(정예)엘프 연금_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)수색 소총_전기</t>
+  </si>
+  <si>
+    <t>(정예)수색 소총_마력</t>
+  </si>
+  <si>
+    <t>(정예)수색 소총_요력</t>
+  </si>
+  <si>
+    <t>(정예)수색 소총_베리타리움</t>
+  </si>
+  <si>
+    <t>monster_name_0044</t>
+  </si>
+  <si>
+    <t>monster_name_0045</t>
+  </si>
+  <si>
+    <t>monster_name_0046</t>
+  </si>
+  <si>
+    <t>monster_name_0047</t>
+  </si>
+  <si>
+    <t>monster_desc_0044</t>
+  </si>
+  <si>
+    <t>monster_desc_0045</t>
+  </si>
+  <si>
+    <t>monster_desc_0046</t>
+  </si>
+  <si>
+    <t>monster_desc_0047</t>
+  </si>
+  <si>
+    <t>엘프_회피탱_전기</t>
+  </si>
+  <si>
+    <t>엘프_회피탱_마력</t>
+  </si>
+  <si>
+    <t>엘프_회피탱_요력</t>
+  </si>
+  <si>
+    <t>엘프_회피탱_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)엘프_회피탱_전기</t>
+  </si>
+  <si>
+    <t>(정예)엘프_회피탱_마력</t>
+  </si>
+  <si>
+    <t>(정예)엘프_회피탱_요력</t>
+  </si>
+  <si>
+    <t>(정예)엘프_회피탱_베리타리움</t>
+  </si>
+  <si>
+    <t>수색대 소총병_전기</t>
+  </si>
+  <si>
+    <t>수색대 소총병_마력</t>
+  </si>
+  <si>
+    <t>수색대 소총병_요력</t>
+  </si>
+  <si>
+    <t>수색대 소총병_베리타리움</t>
+  </si>
+  <si>
+    <t>(정예)수색대 소총병_전기</t>
+  </si>
+  <si>
+    <t>(정예)수색대 소총병_마력</t>
+  </si>
+  <si>
+    <t>(정예)수색대 소총병_요력</t>
+  </si>
+  <si>
+    <t>(정예)수색대 소총병_베리타리움</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200002, 200002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_110001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_120001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_130001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100004</t>
-  </si>
-  <si>
-    <t>2 일반 몬스터</t>
-  </si>
-  <si>
-    <t>1 전열 배치</t>
-  </si>
-  <si>
-    <t>3 후열 배치</t>
-  </si>
-  <si>
-    <t>2 딜러</t>
-  </si>
-  <si>
-    <t>3 서포터</t>
-  </si>
-  <si>
-    <t>1 탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_skill_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법_방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 크리티컬 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 크리티컬 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 크리티컬 추가 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 크리티컬 추가 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타격 시 회복량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강인함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(기획자 확인용)</t>
-  </si>
-  <si>
-    <t>#desc</t>
-  </si>
-  <si>
-    <t>공격 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요력</t>
-  </si>
-  <si>
-    <t>#monster_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 방어력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 방어력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">resist </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_recovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attribute_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>physics_attack</t>
-  </si>
-  <si>
-    <t>magic_attack</t>
-  </si>
-  <si>
-    <t>physics_defend</t>
-  </si>
-  <si>
-    <t>magic_defend</t>
-  </si>
-  <si>
-    <t>physics_critical_chance</t>
-  </si>
-  <si>
-    <t>magic_critical_chance</t>
-  </si>
-  <si>
-    <t>physics_critical_power_add</t>
-  </si>
-  <si>
-    <t>magic_critical_power_add</t>
-  </si>
-  <si>
-    <t>attack_life_recovery</t>
-  </si>
-  <si>
-    <t>2 중열 배치</t>
-  </si>
-  <si>
-    <t>마력</t>
-  </si>
-  <si>
-    <t>전기</t>
-  </si>
-  <si>
-    <t>베리타리움</t>
-  </si>
-  <si>
-    <t>#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 악마</t>
-  </si>
-  <si>
-    <t>4 보스 몬스터</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_900001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_0002</t>
-  </si>
-  <si>
-    <t>monster_name_0003</t>
-  </si>
-  <si>
-    <t>monster_name_0004</t>
-  </si>
-  <si>
-    <t>monster_name_0005</t>
-  </si>
-  <si>
-    <t>monster_name_0006</t>
-  </si>
-  <si>
-    <t>monster_name_0007</t>
-  </si>
-  <si>
-    <t>monster_name_0008</t>
-  </si>
-  <si>
-    <t>monster_name_0009</t>
-  </si>
-  <si>
-    <t>monster_name_0010</t>
-  </si>
-  <si>
-    <t>monster_name_0011</t>
-  </si>
-  <si>
-    <t>monster_name_0012</t>
-  </si>
-  <si>
-    <t>monster_name_0013</t>
-  </si>
-  <si>
-    <t>monster_name_0014</t>
-  </si>
-  <si>
-    <t>monster_name_0015</t>
-  </si>
-  <si>
-    <t>monster_name_0017</t>
-  </si>
-  <si>
-    <t>monster_name_0018</t>
-  </si>
-  <si>
-    <t>monster_name_0019</t>
-  </si>
-  <si>
-    <t>monster_name_0020</t>
-  </si>
-  <si>
-    <t>1 인간종족</t>
-  </si>
-  <si>
-    <t>2 엘프족</t>
-  </si>
-  <si>
-    <t>monster_name_0021</t>
-  </si>
-  <si>
-    <t>monster_name_0022</t>
-  </si>
-  <si>
-    <t>3 엘리트 몬스터</t>
-  </si>
-  <si>
-    <t>4 힐러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐러형 보스</t>
-  </si>
-  <si>
-    <t>탱커(마법)</t>
-  </si>
-  <si>
-    <t>탱포터(마법)</t>
-  </si>
-  <si>
-    <t>근딜(마법)</t>
-  </si>
-  <si>
-    <t>근딜포터(마법)</t>
-  </si>
-  <si>
-    <t>원딜포터(마법)</t>
-  </si>
-  <si>
-    <t>근범위딜(마법)</t>
-  </si>
-  <si>
-    <t>원범위딜(마법)</t>
-  </si>
-  <si>
-    <t>근서포터(마법)</t>
-  </si>
-  <si>
-    <t>원서포터(마법)</t>
-  </si>
-  <si>
-    <t>힐러(마법)</t>
-  </si>
-  <si>
-    <t>탱킹형 정예(마법)</t>
-  </si>
-  <si>
-    <t>딜링형 정예(마법)</t>
-  </si>
-  <si>
-    <t>서포터형 정예(마법)</t>
-  </si>
-  <si>
-    <t>탱킹형 보스(마법)</t>
-  </si>
-  <si>
-    <t>딜링형 보스(마법)</t>
-  </si>
-  <si>
-    <t>서포터형 보스(마법)</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_900001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_0001</t>
-  </si>
-  <si>
-    <t>monster_desc_0002</t>
-  </si>
-  <si>
-    <t>monster_desc_0003</t>
-  </si>
-  <si>
-    <t>monster_desc_0017</t>
-  </si>
-  <si>
-    <t>monster_desc_0004</t>
-  </si>
-  <si>
-    <t>monster_desc_0005</t>
-  </si>
-  <si>
-    <t>monster_desc_0006</t>
-  </si>
-  <si>
-    <t>monster_desc_0007</t>
-  </si>
-  <si>
-    <t>monster_desc_0008</t>
-  </si>
-  <si>
-    <t>monster_desc_0009</t>
-  </si>
-  <si>
-    <t>monster_desc_0010</t>
-  </si>
-  <si>
-    <t>monster_desc_0011</t>
-  </si>
-  <si>
-    <t>monster_desc_0012</t>
-  </si>
-  <si>
-    <t>monster_desc_0013</t>
-  </si>
-  <si>
-    <t>monster_desc_0014</t>
-  </si>
-  <si>
-    <t>monster_desc_0015</t>
-  </si>
-  <si>
-    <t>monster_desc_0018</t>
-  </si>
-  <si>
-    <t>monster_desc_0019</t>
-  </si>
-  <si>
-    <t>monster_desc_0020</t>
-  </si>
-  <si>
-    <t>monster_desc_0021</t>
-  </si>
-  <si>
-    <t>monster_desc_0022</t>
-  </si>
-  <si>
-    <t>[210003, 210002, 210001, 210001, 210002, 210001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 패턴(반복)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 패턴(시작)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_pattern_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거한_베리타리움</t>
-  </si>
-  <si>
-    <t>거한_전기</t>
-  </si>
-  <si>
-    <t>거한_마력</t>
-  </si>
-  <si>
-    <t>엘프 레인저_베리타리움</t>
-  </si>
-  <si>
-    <t>엘프 레인저_전기</t>
-  </si>
-  <si>
-    <t>엘프 레인저_마력</t>
-  </si>
-  <si>
-    <t>정예 연금술사_요력</t>
-  </si>
-  <si>
-    <t>거한_요력</t>
-  </si>
-  <si>
-    <t>엘프 레인저_요력</t>
-  </si>
-  <si>
-    <t>엘프 연금술사_전기</t>
-  </si>
-  <si>
-    <t>엘프 연금술사_마력</t>
-  </si>
-  <si>
-    <t>엘프 연금술사_요력</t>
-  </si>
-  <si>
-    <t>엘프 연금술사_베리타리움</t>
-  </si>
-  <si>
-    <t>정예 연금술사_전기</t>
-  </si>
-  <si>
-    <t>정예 연금술사_마력</t>
-  </si>
-  <si>
-    <t>정예 연금술사_베리타리움</t>
-  </si>
-  <si>
-    <t>(정예)거한_전기</t>
-  </si>
-  <si>
-    <t>(정예)거한_마력</t>
-  </si>
-  <si>
-    <t>(정예)거한_요력</t>
-  </si>
-  <si>
-    <t>(정예)거한_베리타리움</t>
-  </si>
-  <si>
-    <t>(정예)엘프 레인저_전기</t>
-  </si>
-  <si>
-    <t>(정예)엘프 레인저_마력</t>
-  </si>
-  <si>
-    <t>(정예)엘프 레인저_요력</t>
-  </si>
-  <si>
-    <t>(정예)엘프 레인저_베리타리움</t>
-  </si>
-  <si>
-    <t>(정예)엘프 연금술사_전기</t>
-  </si>
-  <si>
-    <t>(정예)엘프 연금술사_마력</t>
-  </si>
-  <si>
-    <t>(정예)엘프 연금술사_요력</t>
-  </si>
-  <si>
-    <t>(정예)엘프 연금술사_베리타리움</t>
-  </si>
-  <si>
-    <t>(정예)정예 연금술사_전기</t>
-  </si>
-  <si>
-    <t>(정예)정예 연금술사_마력</t>
-  </si>
-  <si>
-    <t>(정예)정예 연금술사_요력</t>
-  </si>
-  <si>
-    <t>(정예)정예 연금술사_베리타리움</t>
-  </si>
-  <si>
-    <t>보스_마네</t>
-  </si>
-  <si>
-    <t>보스_엘리자베스</t>
-  </si>
-  <si>
-    <t>monster_desc_0023</t>
-  </si>
-  <si>
-    <t>monster_desc_0024</t>
-  </si>
-  <si>
-    <t>monster_desc_0025</t>
-  </si>
-  <si>
-    <t>monster_desc_0026</t>
-  </si>
-  <si>
-    <t>monster_desc_0027</t>
-  </si>
-  <si>
-    <t>monster_desc_0028</t>
-  </si>
-  <si>
-    <t>monster_desc_0029</t>
-  </si>
-  <si>
-    <t>monster_desc_0030</t>
-  </si>
-  <si>
-    <t>monster_desc_0031</t>
-  </si>
-  <si>
-    <t>monster_desc_0032</t>
-  </si>
-  <si>
-    <t>monster_desc_0033</t>
-  </si>
-  <si>
-    <t>monster_desc_0034</t>
-  </si>
-  <si>
-    <t>monster_desc_0035</t>
-  </si>
-  <si>
-    <t>monster_desc_0036</t>
-  </si>
-  <si>
-    <t>monster_desc_0037</t>
-  </si>
-  <si>
-    <t>monster_desc_0038</t>
-  </si>
-  <si>
-    <t>monster_desc_0039</t>
-  </si>
-  <si>
-    <t>monster_desc_0040</t>
-  </si>
-  <si>
-    <t>monster_desc_0041</t>
-  </si>
-  <si>
-    <t>monster_name_0016</t>
-  </si>
-  <si>
-    <t>monster_name_0023</t>
-  </si>
-  <si>
-    <t>monster_name_0024</t>
-  </si>
-  <si>
-    <t>monster_name_0025</t>
-  </si>
-  <si>
-    <t>monster_name_0026</t>
-  </si>
-  <si>
-    <t>monster_name_0027</t>
-  </si>
-  <si>
-    <t>monster_name_0028</t>
-  </si>
-  <si>
-    <t>monster_name_0029</t>
-  </si>
-  <si>
-    <t>monster_name_0030</t>
-  </si>
-  <si>
-    <t>monster_name_0031</t>
-  </si>
-  <si>
-    <t>monster_name_0032</t>
-  </si>
-  <si>
-    <t>monster_name_0033</t>
-  </si>
-  <si>
-    <t>monster_name_0034</t>
-  </si>
-  <si>
-    <t>monster_name_0035</t>
-  </si>
-  <si>
-    <t>monster_name_0036</t>
-  </si>
-  <si>
-    <t>monster_name_0037</t>
-  </si>
-  <si>
-    <t>monster_name_0038</t>
-  </si>
-  <si>
-    <t>monster_name_0039</t>
-  </si>
-  <si>
-    <t>monster_name_0040</t>
-  </si>
-  <si>
-    <t>monster_name_0041</t>
-  </si>
-  <si>
-    <t>monster_name_0042</t>
-  </si>
-  <si>
-    <t>monster_name_0043</t>
-  </si>
-  <si>
-    <t>monster_desc_0016</t>
-  </si>
-  <si>
-    <t>monster_desc_0042</t>
-  </si>
-  <si>
-    <t>monster_desc_0043</t>
-  </si>
-  <si>
-    <t>[200101, 200101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200102, 200102]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200103, 200103]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200104, 200104]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200105, 200105]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200106, 200106]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200107, 200107]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200108, 200108]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200109, 200109]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200110, 200110]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200111, 200111]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200112, 200112]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200113, 200113]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200114, 200114]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200115, 200115]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200116, 200116]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100002__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100003__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100004__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200117, 200117, 200013]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200118, 200118, 200013]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200119, 200119, 200013]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200120, 200120, 200013]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200003, 200003, 200013]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_1016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베어맨_전기</t>
-  </si>
-  <si>
-    <t>베어맨_전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베어맨_마력</t>
-  </si>
-  <si>
-    <t>베어맨_마력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베어맨_요력</t>
-  </si>
-  <si>
-    <t>베어맨_요력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베어맨_베리타리움</t>
-  </si>
-  <si>
-    <t>베어맨_베리타리움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늑대인간_전기</t>
-  </si>
-  <si>
-    <t>늑대인간_전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늑대인간_마력</t>
-  </si>
-  <si>
-    <t>늑대인간_마력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늑대인간_요력</t>
-  </si>
-  <si>
-    <t>늑대인간_요력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늑대인간_베리타리움</t>
-  </si>
-  <si>
-    <t>늑대인간_베리타리움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥬얼 비홀더_전기</t>
-  </si>
-  <si>
-    <t>쥬얼 비홀더_전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥬얼 비홀더_마력</t>
-  </si>
-  <si>
-    <t>쥬얼 비홀더_마력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥬얼 비홀더_요력</t>
-  </si>
-  <si>
-    <t>쥬얼 비홀더_요력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥬얼 비홀더_베리타리움</t>
-  </si>
-  <si>
-    <t>쥬얼 비홀더_베리타리움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀 연금술사_전기</t>
-  </si>
-  <si>
-    <t>놀 연금술사_전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀 연금술사_마력</t>
-  </si>
-  <si>
-    <t>놀 연금술사_마력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀 연금술사_요력</t>
-  </si>
-  <si>
-    <t>놀 연금술사_요력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀 연금술사_베리타리움</t>
-  </si>
-  <si>
-    <t>놀 연금술사_베리타리움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100001___Old</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 수인족</t>
-  </si>
-  <si>
-    <t>monster_desc_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_1016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200004, 200004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200003, 200003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱커(물리)</t>
-  </si>
-  <si>
-    <t>회피탱커(물리)</t>
-  </si>
-  <si>
-    <t>탱포터(물리)</t>
-  </si>
-  <si>
-    <t>근딜(물리)</t>
-  </si>
-  <si>
-    <t>근딜포터(물리)</t>
-  </si>
-  <si>
-    <t>원딜포터(물리)</t>
-  </si>
-  <si>
-    <t>근범위딜(물리)</t>
-  </si>
-  <si>
-    <t>원범위딜(물리)</t>
-  </si>
-  <si>
-    <t>근서포터(물리)</t>
-  </si>
-  <si>
-    <t>원서포터(물리)</t>
-  </si>
-  <si>
-    <t>힐러(물리)</t>
-  </si>
-  <si>
-    <t>탱킹형 정예(물리)</t>
-  </si>
-  <si>
-    <t>회피탱킹형 정예(물리)</t>
-  </si>
-  <si>
-    <t>딜링형 정예(물리)</t>
-  </si>
-  <si>
-    <t>서포터형 정예(물리)</t>
-  </si>
-  <si>
-    <t>탱킹형 보스(물리)</t>
-  </si>
-  <si>
-    <t>딜링형 보스(물리)</t>
-  </si>
-  <si>
-    <t>서포터형 보스(물리)</t>
-  </si>
-  <si>
-    <t>회피탱커(마법)</t>
-  </si>
-  <si>
-    <t>회피탱킹형 정예(마법)</t>
-  </si>
-  <si>
-    <t>힐러형 정예</t>
-  </si>
-  <si>
-    <t>보스전(마법딜러형)</t>
-  </si>
-  <si>
-    <t>엘프 레인저_전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_desc_0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 레인저_베리</t>
-  </si>
-  <si>
-    <t>(정예)엘프 레인저_베리</t>
-  </si>
-  <si>
-    <t>(정예)서폿 연금술사_전기</t>
-  </si>
-  <si>
-    <t>(정예)서폿 연금술사_마력</t>
-  </si>
-  <si>
-    <t>(정예)서폿 연금술사_요력</t>
-  </si>
-  <si>
-    <t>(정예)서폿 연금술사_베리타리움</t>
-  </si>
-  <si>
-    <t>서폿 연금술사_전기</t>
-  </si>
-  <si>
-    <t>서폿 연금술사_마력</t>
-  </si>
-  <si>
-    <t>서폿 연금술사_요력</t>
-  </si>
-  <si>
-    <t>서폿 연금술사_베리타리움</t>
-  </si>
-  <si>
-    <t>(정예)엘프 연금_전기</t>
-  </si>
-  <si>
-    <t>(정예)엘프 연금_마력</t>
-  </si>
-  <si>
-    <t>(정예)엘프 연금_요력</t>
-  </si>
-  <si>
-    <t>(정예)엘프 연금_베리타리움</t>
-  </si>
-  <si>
-    <t>(정예)수색 소총_전기</t>
-  </si>
-  <si>
-    <t>(정예)수색 소총_마력</t>
-  </si>
-  <si>
-    <t>(정예)수색 소총_요력</t>
-  </si>
-  <si>
-    <t>(정예)수색 소총_베리타리움</t>
-  </si>
-  <si>
-    <t>monster_name_0044</t>
-  </si>
-  <si>
-    <t>monster_name_0045</t>
-  </si>
-  <si>
-    <t>monster_name_0046</t>
-  </si>
-  <si>
-    <t>monster_name_0047</t>
-  </si>
-  <si>
-    <t>monster_desc_0044</t>
-  </si>
-  <si>
-    <t>monster_desc_0045</t>
-  </si>
-  <si>
-    <t>monster_desc_0046</t>
-  </si>
-  <si>
-    <t>monster_desc_0047</t>
-  </si>
-  <si>
-    <t>엘프_회피탱_전기</t>
-  </si>
-  <si>
-    <t>엘프_회피탱_마력</t>
-  </si>
-  <si>
-    <t>엘프_회피탱_요력</t>
-  </si>
-  <si>
-    <t>엘프_회피탱_베리타리움</t>
-  </si>
-  <si>
-    <t>(정예)엘프_회피탱_전기</t>
-  </si>
-  <si>
-    <t>(정예)엘프_회피탱_마력</t>
-  </si>
-  <si>
-    <t>(정예)엘프_회피탱_요력</t>
-  </si>
-  <si>
-    <t>(정예)엘프_회피탱_베리타리움</t>
-  </si>
-  <si>
-    <t>수색대 소총병_전기</t>
-  </si>
-  <si>
-    <t>수색대 소총병_마력</t>
-  </si>
-  <si>
-    <t>수색대 소총병_요력</t>
-  </si>
-  <si>
-    <t>수색대 소총병_베리타리움</t>
-  </si>
-  <si>
-    <t>(정예)수색대 소총병_전기</t>
-  </si>
-  <si>
-    <t>(정예)수색대 소총병_마력</t>
-  </si>
-  <si>
-    <t>(정예)수색대 소총병_요력</t>
-  </si>
-  <si>
-    <t>(정예)수색대 소총병_베리타리움</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Units/Monster/Monster_100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200002, 200002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_140001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100001_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100002_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100003_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100004_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100005_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100006_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100007_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100008_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100009_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100010_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100011_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100012_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100013_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100014_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100015_E</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100016_E</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100017_E</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100018_E</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100019_E</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Npc_Icon/NPC_100020_E</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2154,6 +2309,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2543,7 +2716,13 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -2977,7 +3156,7 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3079,7 +3258,7 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3094,15 +3273,15 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3526,29 +3705,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE7D1C-7B8D-4483-81F6-73DFC9B1D584}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="M53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomRight" activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="10" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" customWidth="1"/>
+    <col min="4" max="4" width="18.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32.69921875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25.09765625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25.09765625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.09765625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.69921875" style="10" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="59.3984375" customWidth="1"/>
+    <col min="14" max="14" width="56.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3567,7 +3746,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>37</v>
@@ -3585,10 +3764,10 @@
         <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
@@ -3600,12 +3779,12 @@
         <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>55</v>
@@ -3632,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>55</v>
@@ -3655,13 +3834,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -3679,10 +3858,10 @@
         <v>45</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>46</v>
@@ -3694,7 +3873,7 @@
         <v>64</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
@@ -3702,37 +3881,37 @@
         <v>100001</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G5,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I5,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L5" s="11">
         <f>A5</f>
@@ -3753,47 +3932,47 @@
         <v>110001</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F6" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G6,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H6" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I6,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L6" s="11">
         <f t="shared" ref="L6:L69" si="0">A6</f>
         <v>110001</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>74</v>
+        <v>465</v>
       </c>
       <c r="O6" s="4">
         <v>0.35</v>
@@ -3804,47 +3983,47 @@
         <v>100002</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G7,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H7" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I7,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>100002</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O7" s="4">
         <v>0.35</v>
@@ -3855,47 +4034,47 @@
         <v>110002</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G8,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H8" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I8,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" s="11">
         <f t="shared" si="0"/>
         <v>110002</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>74</v>
+        <v>465</v>
       </c>
       <c r="O8" s="4">
         <v>0.35</v>
@@ -3906,47 +4085,47 @@
         <v>100003</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G9,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I9,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K9,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>100003</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="O9" s="4">
         <v>0.35</v>
@@ -3957,47 +4136,47 @@
         <v>110003</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F10" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G10,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H10" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I10,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="0"/>
         <v>110003</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>74</v>
+        <v>465</v>
       </c>
       <c r="O10" s="4">
         <v>0.35</v>
@@ -4008,47 +4187,47 @@
         <v>100004</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G11,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I11,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K11,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L11" s="11">
         <f t="shared" si="0"/>
         <v>100004</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>74</v>
+        <v>468</v>
       </c>
       <c r="O11" s="4">
         <v>0.35</v>
@@ -4059,47 +4238,47 @@
         <v>110004</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F12" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G12,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H12" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I12,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K12,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L12" s="11">
         <f t="shared" si="0"/>
         <v>110004</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>74</v>
+        <v>465</v>
       </c>
       <c r="O12" s="4">
         <v>0.35</v>
@@ -4110,46 +4289,46 @@
         <v>100005</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>421</v>
-      </c>
       <c r="E13" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F13" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G13,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H13" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I13,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L13" s="11">
         <f t="shared" si="0"/>
         <v>100005</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="O13" s="4">
         <v>0.4</v>
@@ -4160,46 +4339,46 @@
         <v>100006</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F14" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G14,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I14,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="11">
         <v>4</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="11">
         <f t="shared" si="0"/>
         <v>100006</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>75</v>
+        <v>471</v>
       </c>
       <c r="O14" s="4">
         <v>0.4</v>
@@ -4210,46 +4389,46 @@
         <v>100007</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F15" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G15,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H15" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I15,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="11">
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L15" s="11">
         <f t="shared" si="0"/>
         <v>100007</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>75</v>
+        <v>472</v>
       </c>
       <c r="O15" s="4">
         <v>0.4</v>
@@ -4260,46 +4439,46 @@
         <v>100008</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F16" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G16,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I16,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" s="11">
         <v>2</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="0"/>
         <v>100008</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>75</v>
+        <v>473</v>
       </c>
       <c r="O16" s="4">
         <v>0.4</v>
@@ -4310,47 +4489,47 @@
         <v>100009</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G17,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H17" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I17,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K17,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" si="0"/>
         <v>100009</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="O17" s="4">
         <v>0.35</v>
@@ -4361,47 +4540,47 @@
         <v>110009</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F18" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G18,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H18" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I18,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K18,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L18" s="11">
         <f t="shared" si="0"/>
         <v>110009</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>75</v>
+        <v>466</v>
       </c>
       <c r="O18" s="4">
         <v>0.35</v>
@@ -4413,47 +4592,47 @@
         <v>100010</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F19" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G19,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H19" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I19,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K19,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="0"/>
         <v>100010</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>75</v>
+        <v>471</v>
       </c>
       <c r="O19" s="4">
         <v>0.35</v>
@@ -4465,47 +4644,47 @@
         <v>110010</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F20" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G20,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H20" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I20,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K20,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L20" s="11">
         <f t="shared" si="0"/>
         <v>110010</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>75</v>
+        <v>466</v>
       </c>
       <c r="O20" s="4">
         <v>0.35</v>
@@ -4517,47 +4696,47 @@
         <v>100011</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G21,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I21,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K21,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="0"/>
         <v>100011</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>75</v>
+        <v>472</v>
       </c>
       <c r="O21" s="4">
         <v>0.35</v>
@@ -4569,47 +4748,47 @@
         <v>110011</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F22" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G22,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H22" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I22,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K22,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L22" s="11">
         <f t="shared" si="0"/>
         <v>110011</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>75</v>
+        <v>466</v>
       </c>
       <c r="O22" s="4">
         <v>0.35</v>
@@ -4621,47 +4800,47 @@
         <v>100012</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F23" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G23,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>2</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H23" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I23,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K23,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L23" s="11">
         <f t="shared" si="0"/>
         <v>100012</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>75</v>
+        <v>473</v>
       </c>
       <c r="O23" s="4">
         <v>0.35</v>
@@ -4673,47 +4852,47 @@
         <v>110012</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F24" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G24,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>3</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H24" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I24,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J24" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K24,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>2</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L24" s="11">
         <f t="shared" si="0"/>
         <v>110012</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>75</v>
+        <v>466</v>
       </c>
       <c r="O24" s="4">
         <v>0.35</v>
@@ -4725,47 +4904,47 @@
         <v>100013</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F25" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G25,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H25" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I25,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J25" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K25,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="0"/>
         <v>100013</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="O25" s="4">
         <v>0.35</v>
@@ -4777,47 +4956,47 @@
         <v>110013</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F26" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G26,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>5</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I26,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J26" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K26,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L26" s="11">
         <f t="shared" si="0"/>
         <v>110013</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="O26" s="4">
         <v>0.35</v>
@@ -4829,47 +5008,47 @@
         <v>100014</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F27" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$9,MATCH(G27,'!참조_ENUM'!$C$3:$C$9,0))</f>
         <v>1</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H27" s="11">
         <f>INDEX('!참조_ENUM'!$J$3:$J$7,MATCH(I27,'!참조_ENUM'!$K$3:$K$7,0))</f>
         <v>2</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(K27,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>4</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L27" s="11">
         <f t="shared" si="0"/>
         <v>100014</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="O27" s="4">
         <v>0.35</v>
@@ -4881,47 +5060,47 @@
         <v>110014</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F28" s="11">
         <f>INDEX('!참조_ENUM'!$B